--- a/Liste des étudiants-2025-2026.xlsx
+++ b/Liste des étudiants-2025-2026.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="1510">
   <si>
     <t>Nom</t>
   </si>
@@ -590,6 +590,9 @@
     <t>MEROUANE</t>
   </si>
   <si>
+    <t>SG1</t>
+  </si>
+  <si>
     <t>ING3RSE</t>
   </si>
   <si>
@@ -599,54 +602,54 @@
     <t>MANEL</t>
   </si>
   <si>
+    <t>BENZATER</t>
+  </si>
+  <si>
+    <t>NOUR EL HOUDA YAMINA</t>
+  </si>
+  <si>
+    <t>BOUMAZA</t>
+  </si>
+  <si>
+    <t>ZIENEB FERIEL MAMIA</t>
+  </si>
+  <si>
+    <t>YOUSRA</t>
+  </si>
+  <si>
+    <t>FANTAZY</t>
+  </si>
+  <si>
+    <t>MOUSSA</t>
+  </si>
+  <si>
+    <t>KHILIFI</t>
+  </si>
+  <si>
+    <t>ZOULIKHA</t>
+  </si>
+  <si>
+    <t>KIDIR</t>
+  </si>
+  <si>
+    <t>ABDELHADI</t>
+  </si>
+  <si>
+    <t>LACHBOUR</t>
+  </si>
+  <si>
+    <t>ACIL ABDELILAH</t>
+  </si>
+  <si>
+    <t>LAMECHE</t>
+  </si>
+  <si>
+    <t>NOUR EL HOUDA</t>
+  </si>
+  <si>
     <t>SG2</t>
   </si>
   <si>
-    <t>BENZATER</t>
-  </si>
-  <si>
-    <t>NOUR EL HOUDA YAMINA</t>
-  </si>
-  <si>
-    <t>BOUMAZA</t>
-  </si>
-  <si>
-    <t>ZIENEB FERIEL MAMIA</t>
-  </si>
-  <si>
-    <t>YOUSRA</t>
-  </si>
-  <si>
-    <t>FANTAZY</t>
-  </si>
-  <si>
-    <t>MOUSSA</t>
-  </si>
-  <si>
-    <t>KHILIFI</t>
-  </si>
-  <si>
-    <t>ZOULIKHA</t>
-  </si>
-  <si>
-    <t>KIDIR</t>
-  </si>
-  <si>
-    <t>ABDELHADI</t>
-  </si>
-  <si>
-    <t>LACHBOUR</t>
-  </si>
-  <si>
-    <t>ACIL ABDELILAH</t>
-  </si>
-  <si>
-    <t>LAMECHE</t>
-  </si>
-  <si>
-    <t>NOUR EL HOUDA</t>
-  </si>
-  <si>
     <t>LOKBANI</t>
   </si>
   <si>
@@ -687,9 +690,6 @@
   </si>
   <si>
     <t>ABDERRAHMENE</t>
-  </si>
-  <si>
-    <t>SG1</t>
   </si>
   <si>
     <t>ING3EI</t>
@@ -5493,15 +5493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:E661"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -5526,7 +5526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" hidden="1" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" hidden="1" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" hidden="1" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" hidden="1" customHeight="1" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" hidden="1" customHeight="1" spans="1:5">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" hidden="1" customHeight="1" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" hidden="1" customHeight="1" spans="1:5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" hidden="1" customHeight="1" spans="1:5">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
+    <row r="10" hidden="1" customHeight="1" spans="1:5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" hidden="1" customHeight="1" spans="1:5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" hidden="1" customHeight="1" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
+    <row r="13" hidden="1" customHeight="1" spans="1:5">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
+    <row r="14" hidden="1" customHeight="1" spans="1:5">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
+    <row r="15" hidden="1" customHeight="1" spans="1:5">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
+    <row r="16" hidden="1" customHeight="1" spans="1:5">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" hidden="1" customHeight="1" spans="1:5">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" hidden="1" customHeight="1" spans="1:5">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
+    <row r="19" hidden="1" customHeight="1" spans="1:5">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:5">
+    <row r="20" hidden="1" customHeight="1" spans="1:5">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
+    <row r="21" hidden="1" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:5">
+    <row r="22" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
+    <row r="23" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
+    <row r="24" hidden="1" customHeight="1" spans="1:5">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
+    <row r="25" hidden="1" customHeight="1" spans="1:5">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:5">
+    <row r="26" hidden="1" customHeight="1" spans="1:5">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
+    <row r="27" hidden="1" customHeight="1" spans="1:5">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:5">
+    <row r="28" hidden="1" customHeight="1" spans="1:5">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
+    <row r="29" hidden="1" customHeight="1" spans="1:5">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:5">
+    <row r="30" hidden="1" customHeight="1" spans="1:5">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
+    <row r="31" hidden="1" customHeight="1" spans="1:5">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:5">
+    <row r="32" hidden="1" customHeight="1" spans="1:5">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:5">
+    <row r="33" hidden="1" customHeight="1" spans="1:5">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:5">
+    <row r="34" hidden="1" customHeight="1" spans="1:5">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:5">
+    <row r="35" hidden="1" customHeight="1" spans="1:5">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:5">
+    <row r="36" hidden="1" customHeight="1" spans="1:5">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:5">
+    <row r="37" hidden="1" customHeight="1" spans="1:5">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:5">
+    <row r="38" hidden="1" customHeight="1" spans="1:5">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:5">
+    <row r="39" hidden="1" customHeight="1" spans="1:5">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:5">
+    <row r="40" hidden="1" customHeight="1" spans="1:5">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:5">
+    <row r="41" hidden="1" customHeight="1" spans="1:5">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:5">
+    <row r="42" hidden="1" customHeight="1" spans="1:5">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:5">
+    <row r="43" hidden="1" customHeight="1" spans="1:5">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:5">
+    <row r="44" hidden="1" customHeight="1" spans="1:5">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:5">
+    <row r="45" hidden="1" customHeight="1" spans="1:5">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:5">
+    <row r="46" hidden="1" customHeight="1" spans="1:5">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:5">
+    <row r="47" hidden="1" customHeight="1" spans="1:5">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:5">
+    <row r="48" hidden="1" customHeight="1" spans="1:5">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:5">
+    <row r="49" hidden="1" customHeight="1" spans="1:5">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:5">
+    <row r="50" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:5">
+    <row r="51" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:5">
+    <row r="52" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:5">
+    <row r="53" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:5">
+    <row r="54" hidden="1" customHeight="1" spans="1:5">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:5">
+    <row r="55" hidden="1" customHeight="1" spans="1:5">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:5">
+    <row r="56" hidden="1" customHeight="1" spans="1:5">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:5">
+    <row r="57" hidden="1" customHeight="1" spans="1:5">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:5">
+    <row r="58" hidden="1" customHeight="1" spans="1:5">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:5">
+    <row r="59" hidden="1" customHeight="1" spans="1:5">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:5">
+    <row r="60" hidden="1" customHeight="1" spans="1:5">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:5">
+    <row r="61" hidden="1" customHeight="1" spans="1:5">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:5">
+    <row r="62" hidden="1" customHeight="1" spans="1:5">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:5">
+    <row r="63" hidden="1" customHeight="1" spans="1:5">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -6571,13 +6571,16 @@
         <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
       </c>
       <c r="E63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:5">
+    <row r="64" hidden="1" customHeight="1" spans="1:5">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -6585,13 +6588,16 @@
         <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
       </c>
       <c r="E64" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:5">
+    <row r="65" hidden="1" customHeight="1" spans="1:5">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -6599,13 +6605,16 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
       </c>
       <c r="E65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:5">
+    <row r="66" hidden="1" customHeight="1" spans="1:5">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -6613,13 +6622,16 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
       </c>
       <c r="E66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:5">
+    <row r="67" hidden="1" customHeight="1" spans="1:5">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -6627,13 +6639,16 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
       </c>
       <c r="E67" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:5">
+    <row r="68" hidden="1" customHeight="1" spans="1:5">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -6641,13 +6656,16 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:5">
+    <row r="69" hidden="1" customHeight="1" spans="1:5">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -6655,13 +6673,16 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
       </c>
       <c r="E69" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:5">
+    <row r="70" hidden="1" customHeight="1" spans="1:5">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -6669,13 +6690,16 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
       </c>
       <c r="E70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:5">
+    <row r="71" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -6683,13 +6707,16 @@
         <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
       </c>
       <c r="E71" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:5">
+    <row r="72" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -6697,13 +6724,16 @@
         <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
       </c>
       <c r="E72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:5">
+    <row r="73" hidden="1" customHeight="1" spans="1:5">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -6711,13 +6741,16 @@
         <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
       </c>
       <c r="E73" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:5">
+    <row r="74" hidden="1" customHeight="1" spans="1:5">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6725,13 +6758,16 @@
         <v>154</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
       </c>
       <c r="E74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:5">
+    <row r="75" hidden="1" customHeight="1" spans="1:5">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -6739,13 +6775,16 @@
         <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
       </c>
       <c r="E75" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:5">
+    <row r="76" hidden="1" customHeight="1" spans="1:5">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -6755,11 +6794,14 @@
       <c r="C76" t="s">
         <v>71</v>
       </c>
+      <c r="D76" t="s">
+        <v>72</v>
+      </c>
       <c r="E76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:5">
+    <row r="77" hidden="1" customHeight="1" spans="1:5">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -6769,11 +6811,14 @@
       <c r="C77" t="s">
         <v>71</v>
       </c>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
       <c r="E77" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:5">
+    <row r="78" hidden="1" customHeight="1" spans="1:5">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -6783,11 +6828,14 @@
       <c r="C78" t="s">
         <v>71</v>
       </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
       <c r="E78" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:5">
+    <row r="79" hidden="1" customHeight="1" spans="1:5">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -6797,11 +6845,14 @@
       <c r="C79" t="s">
         <v>71</v>
       </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
       <c r="E79" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:5">
+    <row r="80" hidden="1" customHeight="1" spans="1:5">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -6811,11 +6862,14 @@
       <c r="C80" t="s">
         <v>71</v>
       </c>
+      <c r="D80" t="s">
+        <v>72</v>
+      </c>
       <c r="E80" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:5">
+    <row r="81" hidden="1" customHeight="1" spans="1:5">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -6825,11 +6879,14 @@
       <c r="C81" t="s">
         <v>71</v>
       </c>
+      <c r="D81" t="s">
+        <v>72</v>
+      </c>
       <c r="E81" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:5">
+    <row r="82" hidden="1" customHeight="1" spans="1:5">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -6839,11 +6896,14 @@
       <c r="C82" t="s">
         <v>71</v>
       </c>
+      <c r="D82" t="s">
+        <v>72</v>
+      </c>
       <c r="E82" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:5">
+    <row r="83" hidden="1" customHeight="1" spans="1:5">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -6853,11 +6913,14 @@
       <c r="C83" t="s">
         <v>71</v>
       </c>
+      <c r="D83" t="s">
+        <v>72</v>
+      </c>
       <c r="E83" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:5">
+    <row r="84" hidden="1" customHeight="1" spans="1:5">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -6867,11 +6930,14 @@
       <c r="C84" t="s">
         <v>71</v>
       </c>
+      <c r="D84" t="s">
+        <v>72</v>
+      </c>
       <c r="E84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:5">
+    <row r="85" hidden="1" customHeight="1" spans="1:5">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -6881,11 +6947,14 @@
       <c r="C85" t="s">
         <v>71</v>
       </c>
+      <c r="D85" t="s">
+        <v>72</v>
+      </c>
       <c r="E85" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:5">
+    <row r="86" hidden="1" customHeight="1" spans="1:5">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -6895,11 +6964,14 @@
       <c r="C86" t="s">
         <v>71</v>
       </c>
+      <c r="D86" t="s">
+        <v>72</v>
+      </c>
       <c r="E86" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:5">
+    <row r="87" hidden="1" customHeight="1" spans="1:5">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -6909,11 +6981,14 @@
       <c r="C87" t="s">
         <v>71</v>
       </c>
+      <c r="D87" t="s">
+        <v>72</v>
+      </c>
       <c r="E87" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:5">
+    <row r="88" hidden="1" customHeight="1" spans="1:5">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -6923,11 +6998,14 @@
       <c r="C88" t="s">
         <v>71</v>
       </c>
+      <c r="D88" t="s">
+        <v>72</v>
+      </c>
       <c r="E88" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:5">
+    <row r="89" hidden="1" customHeight="1" spans="1:5">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -6937,11 +7015,14 @@
       <c r="C89" t="s">
         <v>71</v>
       </c>
+      <c r="D89" t="s">
+        <v>72</v>
+      </c>
       <c r="E89" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:5">
+    <row r="90" hidden="1" customHeight="1" spans="1:5">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -6951,11 +7032,14 @@
       <c r="C90" t="s">
         <v>71</v>
       </c>
+      <c r="D90" t="s">
+        <v>72</v>
+      </c>
       <c r="E90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:5">
+    <row r="91" hidden="1" customHeight="1" spans="1:5">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -6965,28 +7049,31 @@
       <c r="C91" t="s">
         <v>7</v>
       </c>
+      <c r="D91" t="s">
+        <v>186</v>
+      </c>
       <c r="E91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" customHeight="1" spans="1:5">
+      <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" t="s">
+      <c r="E92" t="s">
         <v>187</v>
       </c>
-      <c r="B92" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>189</v>
-      </c>
-      <c r="E92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:5">
+    </row>
+    <row r="93" hidden="1" customHeight="1" spans="1:5">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6997,13 +7084,13 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" customHeight="1" spans="1:5">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -7014,13 +7101,13 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" customHeight="1" spans="1:5">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -7031,13 +7118,13 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" customHeight="1" spans="1:5">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -7048,13 +7135,13 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" customHeight="1" spans="1:5">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -7065,13 +7152,13 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E97" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" customHeight="1" spans="1:5">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -7082,13 +7169,13 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" customHeight="1" spans="1:5">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -7099,13 +7186,13 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" customHeight="1" spans="1:5">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -7116,15 +7203,15 @@
         <v>71</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" customHeight="1" spans="1:5">
       <c r="A101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
@@ -7133,32 +7220,32 @@
         <v>71</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" customHeight="1" spans="1:5">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C102" t="s">
         <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E102" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" customHeight="1" spans="1:5">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
         <v>141</v>
@@ -7167,49 +7254,49 @@
         <v>71</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" customHeight="1" spans="1:5">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C104" t="s">
         <v>71</v>
       </c>
       <c r="D104" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C105" t="s">
         <v>71</v>
       </c>
       <c r="D105" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
         <v>88</v>
@@ -7218,64 +7305,64 @@
         <v>71</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E106" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" hidden="1" customHeight="1" spans="1:5">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" customHeight="1" spans="1:5">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" hidden="1" customHeight="1" spans="1:5">
+      <c r="A109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:5">
-      <c r="A107" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" t="s">
-        <v>71</v>
-      </c>
-      <c r="D107" t="s">
-        <v>189</v>
-      </c>
-      <c r="E107" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:5">
-      <c r="A108" t="s">
-        <v>215</v>
-      </c>
-      <c r="B108" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" t="s">
-        <v>71</v>
-      </c>
-      <c r="D108" t="s">
-        <v>189</v>
-      </c>
-      <c r="E108" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" t="s">
-        <v>217</v>
-      </c>
-      <c r="B109" t="s">
-        <v>218</v>
-      </c>
-      <c r="C109" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" t="s">
-        <v>219</v>
       </c>
       <c r="E109" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:5">
+    <row r="110" hidden="1" customHeight="1" spans="1:5">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -7286,13 +7373,13 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:5">
+    <row r="111" hidden="1" customHeight="1" spans="1:5">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -7303,13 +7390,13 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E111" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:5">
+    <row r="112" hidden="1" customHeight="1" spans="1:5">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -7320,13 +7407,13 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E112" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:5">
+    <row r="113" hidden="1" customHeight="1" spans="1:5">
       <c r="A113" t="s">
         <v>226</v>
       </c>
@@ -7337,13 +7424,13 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E113" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:5">
+    <row r="114" hidden="1" customHeight="1" spans="1:5">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -7354,15 +7441,15 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E114" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:5">
+    <row r="115" hidden="1" customHeight="1" spans="1:5">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
         <v>229</v>
@@ -7371,13 +7458,13 @@
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E115" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:5">
+    <row r="116" hidden="1" customHeight="1" spans="1:5">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -7388,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E116" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:5">
+    <row r="117" hidden="1" customHeight="1" spans="1:5">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -7405,13 +7492,13 @@
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E117" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:5">
+    <row r="118" hidden="1" customHeight="1" spans="1:5">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -7422,13 +7509,13 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E118" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:5">
+    <row r="119" hidden="1" customHeight="1" spans="1:5">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -7439,13 +7526,13 @@
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E119" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:5">
+    <row r="120" hidden="1" customHeight="1" spans="1:5">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -7456,13 +7543,13 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E120" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:5">
+    <row r="121" hidden="1" customHeight="1" spans="1:5">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -7473,13 +7560,13 @@
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E121" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:5">
+    <row r="122" hidden="1" customHeight="1" spans="1:5">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -7490,13 +7577,13 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E122" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:5">
+    <row r="123" hidden="1" customHeight="1" spans="1:5">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -7507,13 +7594,13 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E123" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:5">
+    <row r="124" hidden="1" customHeight="1" spans="1:5">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -7524,13 +7611,13 @@
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E124" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:5">
+    <row r="125" hidden="1" customHeight="1" spans="1:5">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -7541,13 +7628,13 @@
         <v>71</v>
       </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E125" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:5">
+    <row r="126" hidden="1" customHeight="1" spans="1:5">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -7558,13 +7645,13 @@
         <v>71</v>
       </c>
       <c r="D126" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E126" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:5">
+    <row r="127" hidden="1" customHeight="1" spans="1:5">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -7575,13 +7662,13 @@
         <v>71</v>
       </c>
       <c r="D127" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E127" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:5">
+    <row r="128" hidden="1" customHeight="1" spans="1:5">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -7592,13 +7679,13 @@
         <v>71</v>
       </c>
       <c r="D128" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E128" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:5">
+    <row r="129" hidden="1" customHeight="1" spans="1:5">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -7609,13 +7696,13 @@
         <v>71</v>
       </c>
       <c r="D129" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E129" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:5">
+    <row r="130" hidden="1" customHeight="1" spans="1:5">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -7626,13 +7713,13 @@
         <v>71</v>
       </c>
       <c r="D130" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E130" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:5">
+    <row r="131" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -7643,13 +7730,13 @@
         <v>71</v>
       </c>
       <c r="D131" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E131" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:5">
+    <row r="132" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -7660,13 +7747,13 @@
         <v>71</v>
       </c>
       <c r="D132" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E132" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:5">
+    <row r="133" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -7677,13 +7764,13 @@
         <v>71</v>
       </c>
       <c r="D133" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E133" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:5">
+    <row r="134" hidden="1" customHeight="1" spans="1:5">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -7694,13 +7781,13 @@
         <v>71</v>
       </c>
       <c r="D134" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E134" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:5">
+    <row r="135" hidden="1" customHeight="1" spans="1:5">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -7711,13 +7798,13 @@
         <v>71</v>
       </c>
       <c r="D135" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E135" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:5">
+    <row r="136" hidden="1" customHeight="1" spans="1:5">
       <c r="A136" t="s">
         <v>267</v>
       </c>
@@ -7728,13 +7815,13 @@
         <v>71</v>
       </c>
       <c r="D136" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E136" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:5">
+    <row r="137" hidden="1" customHeight="1" spans="1:5">
       <c r="A137" t="s">
         <v>269</v>
       </c>
@@ -7745,13 +7832,13 @@
         <v>71</v>
       </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E137" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:5">
+    <row r="138" hidden="1" customHeight="1" spans="1:5">
       <c r="A138" t="s">
         <v>271</v>
       </c>
@@ -7762,13 +7849,13 @@
         <v>71</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E138" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:5">
+    <row r="139" hidden="1" customHeight="1" spans="1:5">
       <c r="A139" t="s">
         <v>273</v>
       </c>
@@ -7779,13 +7866,13 @@
         <v>71</v>
       </c>
       <c r="D139" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E139" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:5">
+    <row r="140" hidden="1" customHeight="1" spans="1:5">
       <c r="A140" t="s">
         <v>275</v>
       </c>
@@ -7796,13 +7883,13 @@
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E140" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:5">
+    <row r="141" hidden="1" customHeight="1" spans="1:5">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -7813,13 +7900,13 @@
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E141" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:5">
+    <row r="142" hidden="1" customHeight="1" spans="1:5">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -7830,13 +7917,13 @@
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E142" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:5">
+    <row r="143" hidden="1" customHeight="1" spans="1:5">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -7847,13 +7934,13 @@
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E143" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:5">
+    <row r="144" hidden="1" customHeight="1" spans="1:5">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -7864,13 +7951,13 @@
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E144" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:5">
+    <row r="145" hidden="1" customHeight="1" spans="1:5">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -7881,13 +7968,13 @@
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E145" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:5">
+    <row r="146" hidden="1" customHeight="1" spans="1:5">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -7898,13 +7985,13 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E146" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:5">
+    <row r="147" hidden="1" customHeight="1" spans="1:5">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -7915,13 +8002,13 @@
         <v>71</v>
       </c>
       <c r="D147" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E147" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:5">
+    <row r="148" hidden="1" customHeight="1" spans="1:5">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -7932,13 +8019,13 @@
         <v>71</v>
       </c>
       <c r="D148" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E148" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:5">
+    <row r="149" hidden="1" customHeight="1" spans="1:5">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -7949,13 +8036,13 @@
         <v>71</v>
       </c>
       <c r="D149" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E149" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:5">
+    <row r="150" hidden="1" customHeight="1" spans="1:5">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -7966,13 +8053,13 @@
         <v>71</v>
       </c>
       <c r="D150" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E150" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:5">
+    <row r="151" hidden="1" customHeight="1" spans="1:5">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -7983,13 +8070,13 @@
         <v>71</v>
       </c>
       <c r="D151" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E151" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:5">
+    <row r="152" hidden="1" customHeight="1" spans="1:5">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -8000,13 +8087,13 @@
         <v>71</v>
       </c>
       <c r="D152" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E152" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:5">
+    <row r="153" hidden="1" customHeight="1" spans="1:5">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -8017,13 +8104,13 @@
         <v>71</v>
       </c>
       <c r="D153" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E153" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:5">
+    <row r="154" hidden="1" customHeight="1" spans="1:5">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -8034,13 +8121,13 @@
         <v>71</v>
       </c>
       <c r="D154" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E154" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:5">
+    <row r="155" hidden="1" customHeight="1" spans="1:5">
       <c r="A155" t="s">
         <v>305</v>
       </c>
@@ -8057,7 +8144,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:5">
+    <row r="156" hidden="1" customHeight="1" spans="1:5">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -8074,7 +8161,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:5">
+    <row r="157" hidden="1" customHeight="1" spans="1:5">
       <c r="A157" t="s">
         <v>95</v>
       </c>
@@ -8091,7 +8178,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:5">
+    <row r="158" hidden="1" customHeight="1" spans="1:5">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -8108,7 +8195,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:5">
+    <row r="159" hidden="1" customHeight="1" spans="1:5">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -8125,7 +8212,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:5">
+    <row r="160" hidden="1" customHeight="1" spans="1:5">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -8142,7 +8229,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:5">
+    <row r="161" hidden="1" customHeight="1" spans="1:5">
       <c r="A161" t="s">
         <v>317</v>
       </c>
@@ -8159,7 +8246,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:5">
+    <row r="162" hidden="1" customHeight="1" spans="1:5">
       <c r="A162" t="s">
         <v>319</v>
       </c>
@@ -8176,7 +8263,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:5">
+    <row r="163" hidden="1" customHeight="1" spans="1:5">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -8193,7 +8280,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:5">
+    <row r="164" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" t="s">
         <v>322</v>
       </c>
@@ -8210,7 +8297,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:5">
+    <row r="165" hidden="1" customHeight="1" spans="1:5">
       <c r="A165" t="s">
         <v>324</v>
       </c>
@@ -8227,7 +8314,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:5">
+    <row r="166" hidden="1" customHeight="1" spans="1:5">
       <c r="A166" t="s">
         <v>326</v>
       </c>
@@ -8244,7 +8331,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:5">
+    <row r="167" hidden="1" customHeight="1" spans="1:5">
       <c r="A167" t="s">
         <v>328</v>
       </c>
@@ -8261,7 +8348,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:5">
+    <row r="168" hidden="1" customHeight="1" spans="1:5">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -8278,7 +8365,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:5">
+    <row r="169" hidden="1" customHeight="1" spans="1:5">
       <c r="A169" t="s">
         <v>332</v>
       </c>
@@ -8295,7 +8382,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="1:5">
+    <row r="170" hidden="1" customHeight="1" spans="1:5">
       <c r="A170" t="s">
         <v>332</v>
       </c>
@@ -8312,7 +8399,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:5">
+    <row r="171" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" t="s">
         <v>335</v>
       </c>
@@ -8329,7 +8416,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:5">
+    <row r="172" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" t="s">
         <v>337</v>
       </c>
@@ -8346,7 +8433,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:5">
+    <row r="173" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" t="s">
         <v>339</v>
       </c>
@@ -8363,7 +8450,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:5">
+    <row r="174" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" t="s">
         <v>341</v>
       </c>
@@ -8380,7 +8467,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:5">
+    <row r="175" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" t="s">
         <v>343</v>
       </c>
@@ -8397,7 +8484,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:5">
+    <row r="176" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -8414,7 +8501,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:5">
+    <row r="177" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" t="s">
         <v>347</v>
       </c>
@@ -8431,7 +8518,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:5">
+    <row r="178" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" t="s">
         <v>349</v>
       </c>
@@ -8448,7 +8535,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:5">
+    <row r="179" hidden="1" customHeight="1" spans="1:5">
       <c r="A179" t="s">
         <v>351</v>
       </c>
@@ -8465,7 +8552,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:5">
+    <row r="180" hidden="1" customHeight="1" spans="1:5">
       <c r="A180" t="s">
         <v>353</v>
       </c>
@@ -8482,7 +8569,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:5">
+    <row r="181" hidden="1" customHeight="1" spans="1:5">
       <c r="A181" t="s">
         <v>355</v>
       </c>
@@ -8499,7 +8586,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:5">
+    <row r="182" hidden="1" customHeight="1" spans="1:5">
       <c r="A182" t="s">
         <v>357</v>
       </c>
@@ -8516,7 +8603,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:5">
+    <row r="183" hidden="1" customHeight="1" spans="1:5">
       <c r="A183" t="s">
         <v>359</v>
       </c>
@@ -8533,7 +8620,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:5">
+    <row r="184" hidden="1" customHeight="1" spans="1:5">
       <c r="A184" t="s">
         <v>361</v>
       </c>
@@ -8550,7 +8637,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:5">
+    <row r="185" hidden="1" customHeight="1" spans="1:5">
       <c r="A185" t="s">
         <v>363</v>
       </c>
@@ -8567,7 +8654,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:5">
+    <row r="186" hidden="1" customHeight="1" spans="1:5">
       <c r="A186" t="s">
         <v>364</v>
       </c>
@@ -8584,7 +8671,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:5">
+    <row r="187" hidden="1" customHeight="1" spans="1:5">
       <c r="A187" t="s">
         <v>366</v>
       </c>
@@ -8601,7 +8688,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:5">
+    <row r="188" hidden="1" customHeight="1" spans="1:5">
       <c r="A188" t="s">
         <v>368</v>
       </c>
@@ -8618,7 +8705,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:5">
+    <row r="189" hidden="1" customHeight="1" spans="1:5">
       <c r="A189" t="s">
         <v>370</v>
       </c>
@@ -8635,7 +8722,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:5">
+    <row r="190" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -8652,7 +8739,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:5">
+    <row r="191" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -8669,7 +8756,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:5">
+    <row r="192" hidden="1" customHeight="1" spans="1:5">
       <c r="A192" t="s">
         <v>374</v>
       </c>
@@ -8686,7 +8773,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:5">
+    <row r="193" hidden="1" customHeight="1" spans="1:5">
       <c r="A193" t="s">
         <v>376</v>
       </c>
@@ -8703,7 +8790,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:5">
+    <row r="194" hidden="1" customHeight="1" spans="1:5">
       <c r="A194" t="s">
         <v>378</v>
       </c>
@@ -8720,7 +8807,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:5">
+    <row r="195" hidden="1" customHeight="1" spans="1:5">
       <c r="A195" t="s">
         <v>380</v>
       </c>
@@ -8737,7 +8824,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:5">
+    <row r="196" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" t="s">
         <v>382</v>
       </c>
@@ -8754,7 +8841,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:5">
+    <row r="197" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" t="s">
         <v>384</v>
       </c>
@@ -8771,7 +8858,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:5">
+    <row r="198" hidden="1" customHeight="1" spans="1:5">
       <c r="A198" t="s">
         <v>386</v>
       </c>
@@ -8788,7 +8875,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="199" customHeight="1" spans="1:5">
+    <row r="199" hidden="1" customHeight="1" spans="1:5">
       <c r="A199" t="s">
         <v>388</v>
       </c>
@@ -8805,7 +8892,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:5">
+    <row r="200" hidden="1" customHeight="1" spans="1:5">
       <c r="A200" t="s">
         <v>389</v>
       </c>
@@ -8822,7 +8909,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:5">
+    <row r="201" hidden="1" customHeight="1" spans="1:5">
       <c r="A201" t="s">
         <v>391</v>
       </c>
@@ -8839,7 +8926,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="1:5">
+    <row r="202" hidden="1" customHeight="1" spans="1:5">
       <c r="A202" t="s">
         <v>393</v>
       </c>
@@ -8856,7 +8943,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:5">
+    <row r="203" hidden="1" customHeight="1" spans="1:5">
       <c r="A203" t="s">
         <v>394</v>
       </c>
@@ -8873,7 +8960,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="204" customHeight="1" spans="1:5">
+    <row r="204" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" t="s">
         <v>396</v>
       </c>
@@ -8890,7 +8977,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="205" customHeight="1" spans="1:5">
+    <row r="205" hidden="1" customHeight="1" spans="1:5">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -8907,7 +8994,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="206" customHeight="1" spans="1:5">
+    <row r="206" hidden="1" customHeight="1" spans="1:5">
       <c r="A206" t="s">
         <v>400</v>
       </c>
@@ -8924,7 +9011,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="207" customHeight="1" spans="1:5">
+    <row r="207" hidden="1" customHeight="1" spans="1:5">
       <c r="A207" t="s">
         <v>402</v>
       </c>
@@ -8941,7 +9028,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="208" customHeight="1" spans="1:5">
+    <row r="208" hidden="1" customHeight="1" spans="1:5">
       <c r="A208" t="s">
         <v>404</v>
       </c>
@@ -8958,7 +9045,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="1:5">
+    <row r="209" hidden="1" customHeight="1" spans="1:5">
       <c r="A209" t="s">
         <v>406</v>
       </c>
@@ -8975,7 +9062,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="210" customHeight="1" spans="1:5">
+    <row r="210" hidden="1" customHeight="1" spans="1:5">
       <c r="A210" t="s">
         <v>408</v>
       </c>
@@ -8992,7 +9079,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" customHeight="1" spans="1:5">
+    <row r="211" hidden="1" customHeight="1" spans="1:5">
       <c r="A211" t="s">
         <v>410</v>
       </c>
@@ -9009,7 +9096,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="212" customHeight="1" spans="1:5">
+    <row r="212" hidden="1" customHeight="1" spans="1:5">
       <c r="A212" t="s">
         <v>412</v>
       </c>
@@ -9026,7 +9113,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="213" customHeight="1" spans="1:5">
+    <row r="213" hidden="1" customHeight="1" spans="1:5">
       <c r="A213" t="s">
         <v>414</v>
       </c>
@@ -9043,7 +9130,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="214" customHeight="1" spans="1:5">
+    <row r="214" hidden="1" customHeight="1" spans="1:5">
       <c r="A214" t="s">
         <v>416</v>
       </c>
@@ -9060,7 +9147,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="215" customHeight="1" spans="1:5">
+    <row r="215" hidden="1" customHeight="1" spans="1:5">
       <c r="A215" t="s">
         <v>417</v>
       </c>
@@ -9077,7 +9164,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:5">
+    <row r="216" hidden="1" customHeight="1" spans="1:5">
       <c r="A216" t="s">
         <v>419</v>
       </c>
@@ -9094,7 +9181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="1:5">
+    <row r="217" hidden="1" customHeight="1" spans="1:5">
       <c r="A217" t="s">
         <v>421</v>
       </c>
@@ -9111,7 +9198,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="218" customHeight="1" spans="1:5">
+    <row r="218" hidden="1" customHeight="1" spans="1:5">
       <c r="A218" t="s">
         <v>423</v>
       </c>
@@ -9128,7 +9215,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="219" customHeight="1" spans="1:5">
+    <row r="219" hidden="1" customHeight="1" spans="1:5">
       <c r="A219" t="s">
         <v>424</v>
       </c>
@@ -9145,7 +9232,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="220" customHeight="1" spans="1:5">
+    <row r="220" hidden="1" customHeight="1" spans="1:5">
       <c r="A220" t="s">
         <v>426</v>
       </c>
@@ -9162,7 +9249,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:5">
+    <row r="221" hidden="1" customHeight="1" spans="1:5">
       <c r="A221" t="s">
         <v>428</v>
       </c>
@@ -9179,7 +9266,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="222" customHeight="1" spans="1:5">
+    <row r="222" hidden="1" customHeight="1" spans="1:5">
       <c r="A222" t="s">
         <v>429</v>
       </c>
@@ -9196,7 +9283,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="223" customHeight="1" spans="1:5">
+    <row r="223" hidden="1" customHeight="1" spans="1:5">
       <c r="A223" t="s">
         <v>431</v>
       </c>
@@ -9213,7 +9300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:5">
+    <row r="224" hidden="1" customHeight="1" spans="1:5">
       <c r="A224" t="s">
         <v>432</v>
       </c>
@@ -9230,7 +9317,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="225" customHeight="1" spans="1:5">
+    <row r="225" hidden="1" customHeight="1" spans="1:5">
       <c r="A225" t="s">
         <v>434</v>
       </c>
@@ -9247,7 +9334,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="226" customHeight="1" spans="1:5">
+    <row r="226" hidden="1" customHeight="1" spans="1:5">
       <c r="A226" t="s">
         <v>436</v>
       </c>
@@ -9264,7 +9351,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="1:5">
+    <row r="227" hidden="1" customHeight="1" spans="1:5">
       <c r="A227" t="s">
         <v>438</v>
       </c>
@@ -9281,7 +9368,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:5">
+    <row r="228" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -9298,7 +9385,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="229" customHeight="1" spans="1:5">
+    <row r="229" hidden="1" customHeight="1" spans="1:5">
       <c r="A229" t="s">
         <v>442</v>
       </c>
@@ -9315,7 +9402,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="230" customHeight="1" spans="1:5">
+    <row r="230" hidden="1" customHeight="1" spans="1:5">
       <c r="A230" t="s">
         <v>446</v>
       </c>
@@ -9332,7 +9419,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:5">
+    <row r="231" hidden="1" customHeight="1" spans="1:5">
       <c r="A231" t="s">
         <v>447</v>
       </c>
@@ -9349,7 +9436,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:5">
+    <row r="232" hidden="1" customHeight="1" spans="1:5">
       <c r="A232" t="s">
         <v>448</v>
       </c>
@@ -9366,7 +9453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="1:5">
+    <row r="233" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" t="s">
         <v>450</v>
       </c>
@@ -9383,7 +9470,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:5">
+    <row r="234" hidden="1" customHeight="1" spans="1:5">
       <c r="A234" t="s">
         <v>452</v>
       </c>
@@ -9400,7 +9487,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:5">
+    <row r="235" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" t="s">
         <v>454</v>
       </c>
@@ -9417,7 +9504,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="236" customHeight="1" spans="1:5">
+    <row r="236" hidden="1" customHeight="1" spans="1:5">
       <c r="A236" t="s">
         <v>455</v>
       </c>
@@ -9434,7 +9521,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="237" customHeight="1" spans="1:5">
+    <row r="237" hidden="1" customHeight="1" spans="1:5">
       <c r="A237" t="s">
         <v>457</v>
       </c>
@@ -9451,7 +9538,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:5">
+    <row r="238" hidden="1" customHeight="1" spans="1:5">
       <c r="A238" t="s">
         <v>459</v>
       </c>
@@ -9468,7 +9555,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" customHeight="1" spans="1:5">
+    <row r="239" hidden="1" customHeight="1" spans="1:5">
       <c r="A239" t="s">
         <v>36</v>
       </c>
@@ -9485,7 +9572,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="240" customHeight="1" spans="1:5">
+    <row r="240" hidden="1" customHeight="1" spans="1:5">
       <c r="A240" t="s">
         <v>462</v>
       </c>
@@ -9502,7 +9589,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" customHeight="1" spans="1:5">
+    <row r="241" hidden="1" customHeight="1" spans="1:5">
       <c r="A241" t="s">
         <v>464</v>
       </c>
@@ -9519,7 +9606,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="242" customHeight="1" spans="1:5">
+    <row r="242" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" t="s">
         <v>466</v>
       </c>
@@ -9536,7 +9623,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="243" customHeight="1" spans="1:5">
+    <row r="243" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -9553,7 +9640,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="1:5">
+    <row r="244" hidden="1" customHeight="1" spans="1:5">
       <c r="A244" t="s">
         <v>43</v>
       </c>
@@ -9570,7 +9657,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="245" customHeight="1" spans="1:5">
+    <row r="245" hidden="1" customHeight="1" spans="1:5">
       <c r="A245" t="s">
         <v>470</v>
       </c>
@@ -9587,7 +9674,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="246" customHeight="1" spans="1:5">
+    <row r="246" hidden="1" customHeight="1" spans="1:5">
       <c r="A246" t="s">
         <v>472</v>
       </c>
@@ -9604,7 +9691,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:5">
+    <row r="247" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" t="s">
         <v>474</v>
       </c>
@@ -9621,7 +9708,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="1:5">
+    <row r="248" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" t="s">
         <v>477</v>
       </c>
@@ -9638,7 +9725,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" customHeight="1" spans="1:5">
+    <row r="249" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" t="s">
         <v>478</v>
       </c>
@@ -9655,7 +9742,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" customHeight="1" spans="1:5">
+    <row r="250" hidden="1" customHeight="1" spans="1:5">
       <c r="A250" t="s">
         <v>478</v>
       </c>
@@ -9672,7 +9759,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:5">
+    <row r="251" hidden="1" customHeight="1" spans="1:5">
       <c r="A251" t="s">
         <v>481</v>
       </c>
@@ -9689,7 +9776,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="252" customHeight="1" spans="1:5">
+    <row r="252" hidden="1" customHeight="1" spans="1:5">
       <c r="A252" t="s">
         <v>482</v>
       </c>
@@ -9706,7 +9793,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:5">
+    <row r="253" hidden="1" customHeight="1" spans="1:5">
       <c r="A253" t="s">
         <v>484</v>
       </c>
@@ -9723,7 +9810,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" customHeight="1" spans="1:5">
+    <row r="254" hidden="1" customHeight="1" spans="1:5">
       <c r="A254" t="s">
         <v>486</v>
       </c>
@@ -9740,7 +9827,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" customHeight="1" spans="1:5">
+    <row r="255" hidden="1" customHeight="1" spans="1:5">
       <c r="A255" t="s">
         <v>488</v>
       </c>
@@ -9757,7 +9844,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" customHeight="1" spans="1:5">
+    <row r="256" hidden="1" customHeight="1" spans="1:5">
       <c r="A256" t="s">
         <v>489</v>
       </c>
@@ -9774,7 +9861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" customHeight="1" spans="1:5">
+    <row r="257" hidden="1" customHeight="1" spans="1:5">
       <c r="A257" t="s">
         <v>491</v>
       </c>
@@ -9791,7 +9878,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="258" customHeight="1" spans="1:5">
+    <row r="258" hidden="1" customHeight="1" spans="1:5">
       <c r="A258" t="s">
         <v>492</v>
       </c>
@@ -9808,7 +9895,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" customHeight="1" spans="1:5">
+    <row r="259" hidden="1" customHeight="1" spans="1:5">
       <c r="A259" t="s">
         <v>494</v>
       </c>
@@ -9825,7 +9912,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="1:5">
+    <row r="260" hidden="1" customHeight="1" spans="1:5">
       <c r="A260" t="s">
         <v>496</v>
       </c>
@@ -9842,7 +9929,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:5">
+    <row r="261" hidden="1" customHeight="1" spans="1:5">
       <c r="A261" t="s">
         <v>497</v>
       </c>
@@ -9859,7 +9946,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="1:5">
+    <row r="262" hidden="1" customHeight="1" spans="1:5">
       <c r="A262" t="s">
         <v>499</v>
       </c>
@@ -9876,7 +9963,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="263" customHeight="1" spans="1:5">
+    <row r="263" hidden="1" customHeight="1" spans="1:5">
       <c r="A263" t="s">
         <v>500</v>
       </c>
@@ -9893,7 +9980,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" customHeight="1" spans="1:5">
+    <row r="264" hidden="1" customHeight="1" spans="1:5">
       <c r="A264" t="s">
         <v>502</v>
       </c>
@@ -9910,7 +9997,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" customHeight="1" spans="1:5">
+    <row r="265" hidden="1" customHeight="1" spans="1:5">
       <c r="A265" t="s">
         <v>504</v>
       </c>
@@ -9927,7 +10014,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" customHeight="1" spans="1:5">
+    <row r="266" hidden="1" customHeight="1" spans="1:5">
       <c r="A266" t="s">
         <v>506</v>
       </c>
@@ -9944,7 +10031,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" customHeight="1" spans="1:5">
+    <row r="267" hidden="1" customHeight="1" spans="1:5">
       <c r="A267" t="s">
         <v>510</v>
       </c>
@@ -9961,7 +10048,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:5">
+    <row r="268" hidden="1" customHeight="1" spans="1:5">
       <c r="A268" t="s">
         <v>512</v>
       </c>
@@ -9978,7 +10065,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:5">
+    <row r="269" hidden="1" customHeight="1" spans="1:5">
       <c r="A269" t="s">
         <v>514</v>
       </c>
@@ -9995,7 +10082,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="1:5">
+    <row r="270" hidden="1" customHeight="1" spans="1:5">
       <c r="A270" t="s">
         <v>516</v>
       </c>
@@ -10012,7 +10099,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" customHeight="1" spans="1:5">
+    <row r="271" hidden="1" customHeight="1" spans="1:5">
       <c r="A271" t="s">
         <v>516</v>
       </c>
@@ -10029,7 +10116,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" customHeight="1" spans="1:5">
+    <row r="272" hidden="1" customHeight="1" spans="1:5">
       <c r="A272" t="s">
         <v>519</v>
       </c>
@@ -10046,7 +10133,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="273" customHeight="1" spans="1:5">
+    <row r="273" hidden="1" customHeight="1" spans="1:5">
       <c r="A273" t="s">
         <v>521</v>
       </c>
@@ -10063,7 +10150,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="274" customHeight="1" spans="1:5">
+    <row r="274" hidden="1" customHeight="1" spans="1:5">
       <c r="A274" t="s">
         <v>523</v>
       </c>
@@ -10080,7 +10167,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" customHeight="1" spans="1:5">
+    <row r="275" hidden="1" customHeight="1" spans="1:5">
       <c r="A275" t="s">
         <v>525</v>
       </c>
@@ -10097,7 +10184,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="276" customHeight="1" spans="1:5">
+    <row r="276" hidden="1" customHeight="1" spans="1:5">
       <c r="A276" t="s">
         <v>527</v>
       </c>
@@ -10114,7 +10201,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" customHeight="1" spans="1:5">
+    <row r="277" hidden="1" customHeight="1" spans="1:5">
       <c r="A277" t="s">
         <v>528</v>
       </c>
@@ -10131,7 +10218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="278" customHeight="1" spans="1:5">
+    <row r="278" hidden="1" customHeight="1" spans="1:5">
       <c r="A278" t="s">
         <v>530</v>
       </c>
@@ -10148,7 +10235,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="1:5">
+    <row r="279" hidden="1" customHeight="1" spans="1:5">
       <c r="A279" t="s">
         <v>531</v>
       </c>
@@ -10165,7 +10252,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="280" customHeight="1" spans="1:5">
+    <row r="280" hidden="1" customHeight="1" spans="1:5">
       <c r="A280" t="s">
         <v>533</v>
       </c>
@@ -10182,7 +10269,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="1:5">
+    <row r="281" hidden="1" customHeight="1" spans="1:5">
       <c r="A281" t="s">
         <v>535</v>
       </c>
@@ -10199,7 +10286,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="282" customHeight="1" spans="1:5">
+    <row r="282" hidden="1" customHeight="1" spans="1:5">
       <c r="A282" t="s">
         <v>537</v>
       </c>
@@ -10216,7 +10303,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" customHeight="1" spans="1:5">
+    <row r="283" hidden="1" customHeight="1" spans="1:5">
       <c r="A283" t="s">
         <v>539</v>
       </c>
@@ -10233,7 +10320,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="284" customHeight="1" spans="1:5">
+    <row r="284" hidden="1" customHeight="1" spans="1:5">
       <c r="A284" t="s">
         <v>541</v>
       </c>
@@ -10250,7 +10337,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="285" customHeight="1" spans="1:5">
+    <row r="285" hidden="1" customHeight="1" spans="1:5">
       <c r="A285" t="s">
         <v>544</v>
       </c>
@@ -10267,7 +10354,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:5">
+    <row r="286" hidden="1" customHeight="1" spans="1:5">
       <c r="A286" t="s">
         <v>546</v>
       </c>
@@ -10284,7 +10371,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="287" customHeight="1" spans="1:5">
+    <row r="287" hidden="1" customHeight="1" spans="1:5">
       <c r="A287" t="s">
         <v>548</v>
       </c>
@@ -10301,7 +10388,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:5">
+    <row r="288" hidden="1" customHeight="1" spans="1:5">
       <c r="A288" t="s">
         <v>550</v>
       </c>
@@ -10318,7 +10405,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="289" customHeight="1" spans="1:5">
+    <row r="289" hidden="1" customHeight="1" spans="1:5">
       <c r="A289" t="s">
         <v>551</v>
       </c>
@@ -10335,7 +10422,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" customHeight="1" spans="1:5">
+    <row r="290" hidden="1" customHeight="1" spans="1:5">
       <c r="A290" t="s">
         <v>553</v>
       </c>
@@ -10352,7 +10439,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" customHeight="1" spans="1:5">
+    <row r="291" hidden="1" customHeight="1" spans="1:5">
       <c r="A291" t="s">
         <v>555</v>
       </c>
@@ -10369,12 +10456,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="292" customHeight="1" spans="1:5">
+    <row r="292" hidden="1" customHeight="1" spans="1:5">
       <c r="A292" t="s">
         <v>557</v>
       </c>
       <c r="B292" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C292" t="s">
         <v>508</v>
@@ -10386,7 +10473,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="293" customHeight="1" spans="1:5">
+    <row r="293" hidden="1" customHeight="1" spans="1:5">
       <c r="A293" t="s">
         <v>558</v>
       </c>
@@ -10403,7 +10490,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="294" customHeight="1" spans="1:5">
+    <row r="294" hidden="1" customHeight="1" spans="1:5">
       <c r="A294" t="s">
         <v>560</v>
       </c>
@@ -10420,7 +10507,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="295" customHeight="1" spans="1:5">
+    <row r="295" hidden="1" customHeight="1" spans="1:5">
       <c r="A295" t="s">
         <v>562</v>
       </c>
@@ -10437,7 +10524,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="296" customHeight="1" spans="1:5">
+    <row r="296" hidden="1" customHeight="1" spans="1:5">
       <c r="A296" t="s">
         <v>564</v>
       </c>
@@ -10454,7 +10541,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="297" customHeight="1" spans="1:5">
+    <row r="297" hidden="1" customHeight="1" spans="1:5">
       <c r="A297" t="s">
         <v>565</v>
       </c>
@@ -10471,7 +10558,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="298" customHeight="1" spans="1:5">
+    <row r="298" hidden="1" customHeight="1" spans="1:5">
       <c r="A298" t="s">
         <v>567</v>
       </c>
@@ -10488,7 +10575,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="299" customHeight="1" spans="1:5">
+    <row r="299" hidden="1" customHeight="1" spans="1:5">
       <c r="A299" t="s">
         <v>568</v>
       </c>
@@ -10505,7 +10592,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="300" customHeight="1" spans="1:5">
+    <row r="300" hidden="1" customHeight="1" spans="1:5">
       <c r="A300" t="s">
         <v>570</v>
       </c>
@@ -10522,7 +10609,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="301" customHeight="1" spans="1:5">
+    <row r="301" hidden="1" customHeight="1" spans="1:5">
       <c r="A301" t="s">
         <v>572</v>
       </c>
@@ -10539,7 +10626,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="302" customHeight="1" spans="1:5">
+    <row r="302" hidden="1" customHeight="1" spans="1:5">
       <c r="A302" t="s">
         <v>573</v>
       </c>
@@ -10556,7 +10643,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="303" customHeight="1" spans="1:5">
+    <row r="303" hidden="1" customHeight="1" spans="1:5">
       <c r="A303" t="s">
         <v>575</v>
       </c>
@@ -10573,7 +10660,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="304" customHeight="1" spans="1:5">
+    <row r="304" hidden="1" customHeight="1" spans="1:5">
       <c r="A304" t="s">
         <v>579</v>
       </c>
@@ -10590,7 +10677,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="305" customHeight="1" spans="1:5">
+    <row r="305" hidden="1" customHeight="1" spans="1:5">
       <c r="A305" t="s">
         <v>581</v>
       </c>
@@ -10607,7 +10694,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="306" customHeight="1" spans="1:5">
+    <row r="306" hidden="1" customHeight="1" spans="1:5">
       <c r="A306" t="s">
         <v>583</v>
       </c>
@@ -10624,7 +10711,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="307" customHeight="1" spans="1:5">
+    <row r="307" hidden="1" customHeight="1" spans="1:5">
       <c r="A307" t="s">
         <v>585</v>
       </c>
@@ -10641,7 +10728,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" customHeight="1" spans="1:5">
+    <row r="308" hidden="1" customHeight="1" spans="1:5">
       <c r="A308" t="s">
         <v>586</v>
       </c>
@@ -10658,7 +10745,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" customHeight="1" spans="1:5">
+    <row r="309" hidden="1" customHeight="1" spans="1:5">
       <c r="A309" t="s">
         <v>588</v>
       </c>
@@ -10675,7 +10762,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" customHeight="1" spans="1:5">
+    <row r="310" hidden="1" customHeight="1" spans="1:5">
       <c r="A310" t="s">
         <v>590</v>
       </c>
@@ -10692,7 +10779,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="311" customHeight="1" spans="1:5">
+    <row r="311" hidden="1" customHeight="1" spans="1:5">
       <c r="A311" t="s">
         <v>592</v>
       </c>
@@ -10709,7 +10796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="312" customHeight="1" spans="1:5">
+    <row r="312" hidden="1" customHeight="1" spans="1:5">
       <c r="A312" t="s">
         <v>594</v>
       </c>
@@ -10726,7 +10813,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="313" customHeight="1" spans="1:5">
+    <row r="313" hidden="1" customHeight="1" spans="1:5">
       <c r="A313" t="s">
         <v>596</v>
       </c>
@@ -10743,7 +10830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="314" customHeight="1" spans="1:5">
+    <row r="314" hidden="1" customHeight="1" spans="1:5">
       <c r="A314" t="s">
         <v>598</v>
       </c>
@@ -10760,7 +10847,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="315" customHeight="1" spans="1:5">
+    <row r="315" hidden="1" customHeight="1" spans="1:5">
       <c r="A315" t="s">
         <v>599</v>
       </c>
@@ -10777,7 +10864,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="316" customHeight="1" spans="1:5">
+    <row r="316" hidden="1" customHeight="1" spans="1:5">
       <c r="A316" t="s">
         <v>601</v>
       </c>
@@ -10794,7 +10881,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="317" customHeight="1" spans="1:5">
+    <row r="317" hidden="1" customHeight="1" spans="1:5">
       <c r="A317" t="s">
         <v>603</v>
       </c>
@@ -10811,7 +10898,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="318" customHeight="1" spans="1:5">
+    <row r="318" hidden="1" customHeight="1" spans="1:5">
       <c r="A318" t="s">
         <v>605</v>
       </c>
@@ -10828,7 +10915,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="319" customHeight="1" spans="1:5">
+    <row r="319" hidden="1" customHeight="1" spans="1:5">
       <c r="A319" t="s">
         <v>607</v>
       </c>
@@ -10845,7 +10932,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" customHeight="1" spans="1:5">
+    <row r="320" hidden="1" customHeight="1" spans="1:5">
       <c r="A320" t="s">
         <v>609</v>
       </c>
@@ -10862,7 +10949,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="321" customHeight="1" spans="1:5">
+    <row r="321" hidden="1" customHeight="1" spans="1:5">
       <c r="A321" t="s">
         <v>611</v>
       </c>
@@ -10879,7 +10966,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="322" customHeight="1" spans="1:5">
+    <row r="322" hidden="1" customHeight="1" spans="1:5">
       <c r="A322" t="s">
         <v>611</v>
       </c>
@@ -10896,7 +10983,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="323" customHeight="1" spans="1:5">
+    <row r="323" hidden="1" customHeight="1" spans="1:5">
       <c r="A323" t="s">
         <v>614</v>
       </c>
@@ -10913,7 +11000,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="324" customHeight="1" spans="1:5">
+    <row r="324" hidden="1" customHeight="1" spans="1:5">
       <c r="A324" t="s">
         <v>616</v>
       </c>
@@ -10930,7 +11017,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="325" customHeight="1" spans="1:5">
+    <row r="325" hidden="1" customHeight="1" spans="1:5">
       <c r="A325" t="s">
         <v>618</v>
       </c>
@@ -10947,7 +11034,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="326" customHeight="1" spans="1:5">
+    <row r="326" hidden="1" customHeight="1" spans="1:5">
       <c r="A326" t="s">
         <v>619</v>
       </c>
@@ -10964,7 +11051,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" customHeight="1" spans="1:5">
+    <row r="327" hidden="1" customHeight="1" spans="1:5">
       <c r="A327" t="s">
         <v>621</v>
       </c>
@@ -10981,7 +11068,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="328" customHeight="1" spans="1:5">
+    <row r="328" hidden="1" customHeight="1" spans="1:5">
       <c r="A328" t="s">
         <v>623</v>
       </c>
@@ -10998,7 +11085,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="329" customHeight="1" spans="1:5">
+    <row r="329" hidden="1" customHeight="1" spans="1:5">
       <c r="A329" t="s">
         <v>625</v>
       </c>
@@ -11015,7 +11102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="330" customHeight="1" spans="1:5">
+    <row r="330" hidden="1" customHeight="1" spans="1:5">
       <c r="A330" t="s">
         <v>627</v>
       </c>
@@ -11032,7 +11119,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="331" customHeight="1" spans="1:5">
+    <row r="331" hidden="1" customHeight="1" spans="1:5">
       <c r="A331" t="s">
         <v>629</v>
       </c>
@@ -11049,7 +11136,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="332" customHeight="1" spans="1:5">
+    <row r="332" hidden="1" customHeight="1" spans="1:5">
       <c r="A332" t="s">
         <v>630</v>
       </c>
@@ -11066,7 +11153,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="333" customHeight="1" spans="1:5">
+    <row r="333" hidden="1" customHeight="1" spans="1:5">
       <c r="A333" t="s">
         <v>632</v>
       </c>
@@ -11083,7 +11170,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="334" customHeight="1" spans="1:5">
+    <row r="334" hidden="1" customHeight="1" spans="1:5">
       <c r="A334" t="s">
         <v>634</v>
       </c>
@@ -11100,7 +11187,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="335" customHeight="1" spans="1:5">
+    <row r="335" hidden="1" customHeight="1" spans="1:5">
       <c r="A335" t="s">
         <v>636</v>
       </c>
@@ -11117,7 +11204,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="336" customHeight="1" spans="1:5">
+    <row r="336" hidden="1" customHeight="1" spans="1:5">
       <c r="A336" t="s">
         <v>638</v>
       </c>
@@ -11134,7 +11221,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="337" customHeight="1" spans="1:5">
+    <row r="337" hidden="1" customHeight="1" spans="1:5">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -11151,7 +11238,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="338" customHeight="1" spans="1:5">
+    <row r="338" hidden="1" customHeight="1" spans="1:5">
       <c r="A338" t="s">
         <v>642</v>
       </c>
@@ -11168,7 +11255,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="339" customHeight="1" spans="1:5">
+    <row r="339" hidden="1" customHeight="1" spans="1:5">
       <c r="A339" t="s">
         <v>643</v>
       </c>
@@ -11185,7 +11272,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="340" customHeight="1" spans="1:5">
+    <row r="340" hidden="1" customHeight="1" spans="1:5">
       <c r="A340" t="s">
         <v>645</v>
       </c>
@@ -11202,7 +11289,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="341" customHeight="1" spans="1:5">
+    <row r="341" hidden="1" customHeight="1" spans="1:5">
       <c r="A341" t="s">
         <v>648</v>
       </c>
@@ -11219,7 +11306,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="342" customHeight="1" spans="1:5">
+    <row r="342" hidden="1" customHeight="1" spans="1:5">
       <c r="A342" t="s">
         <v>650</v>
       </c>
@@ -11236,7 +11323,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="343" customHeight="1" spans="1:5">
+    <row r="343" hidden="1" customHeight="1" spans="1:5">
       <c r="A343" t="s">
         <v>652</v>
       </c>
@@ -11253,7 +11340,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="344" customHeight="1" spans="1:5">
+    <row r="344" hidden="1" customHeight="1" spans="1:5">
       <c r="A344" t="s">
         <v>654</v>
       </c>
@@ -11270,7 +11357,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" customHeight="1" spans="1:5">
+    <row r="345" hidden="1" customHeight="1" spans="1:5">
       <c r="A345" t="s">
         <v>654</v>
       </c>
@@ -11287,7 +11374,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" customHeight="1" spans="1:5">
+    <row r="346" hidden="1" customHeight="1" spans="1:5">
       <c r="A346" t="s">
         <v>657</v>
       </c>
@@ -11304,7 +11391,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" customHeight="1" spans="1:5">
+    <row r="347" hidden="1" customHeight="1" spans="1:5">
       <c r="A347" t="s">
         <v>658</v>
       </c>
@@ -11321,7 +11408,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="348" customHeight="1" spans="1:5">
+    <row r="348" hidden="1" customHeight="1" spans="1:5">
       <c r="A348" t="s">
         <v>660</v>
       </c>
@@ -11338,7 +11425,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="349" customHeight="1" spans="1:5">
+    <row r="349" hidden="1" customHeight="1" spans="1:5">
       <c r="A349" t="s">
         <v>662</v>
       </c>
@@ -11355,7 +11442,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="350" customHeight="1" spans="1:5">
+    <row r="350" hidden="1" customHeight="1" spans="1:5">
       <c r="A350" t="s">
         <v>663</v>
       </c>
@@ -11372,7 +11459,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="351" customHeight="1" spans="1:5">
+    <row r="351" hidden="1" customHeight="1" spans="1:5">
       <c r="A351" t="s">
         <v>665</v>
       </c>
@@ -11389,7 +11476,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="352" customHeight="1" spans="1:5">
+    <row r="352" hidden="1" customHeight="1" spans="1:5">
       <c r="A352" t="s">
         <v>559</v>
       </c>
@@ -11406,7 +11493,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="353" customHeight="1" spans="1:5">
+    <row r="353" hidden="1" customHeight="1" spans="1:5">
       <c r="A353" t="s">
         <v>667</v>
       </c>
@@ -11423,7 +11510,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="354" customHeight="1" spans="1:5">
+    <row r="354" hidden="1" customHeight="1" spans="1:5">
       <c r="A354" t="s">
         <v>669</v>
       </c>
@@ -11440,7 +11527,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="355" customHeight="1" spans="1:5">
+    <row r="355" hidden="1" customHeight="1" spans="1:5">
       <c r="A355" t="s">
         <v>671</v>
       </c>
@@ -11457,7 +11544,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="356" customHeight="1" spans="1:5">
+    <row r="356" hidden="1" customHeight="1" spans="1:5">
       <c r="A356" t="s">
         <v>673</v>
       </c>
@@ -11474,7 +11561,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="357" customHeight="1" spans="1:5">
+    <row r="357" hidden="1" customHeight="1" spans="1:5">
       <c r="A357" t="s">
         <v>675</v>
       </c>
@@ -11491,7 +11578,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="358" customHeight="1" spans="1:5">
+    <row r="358" hidden="1" customHeight="1" spans="1:5">
       <c r="A358" t="s">
         <v>677</v>
       </c>
@@ -11508,7 +11595,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="359" customHeight="1" spans="1:5">
+    <row r="359" hidden="1" customHeight="1" spans="1:5">
       <c r="A359" t="s">
         <v>680</v>
       </c>
@@ -11525,7 +11612,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="360" customHeight="1" spans="1:5">
+    <row r="360" hidden="1" customHeight="1" spans="1:5">
       <c r="A360" t="s">
         <v>681</v>
       </c>
@@ -11542,7 +11629,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="361" customHeight="1" spans="1:5">
+    <row r="361" hidden="1" customHeight="1" spans="1:5">
       <c r="A361" t="s">
         <v>682</v>
       </c>
@@ -11559,7 +11646,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="362" customHeight="1" spans="1:5">
+    <row r="362" hidden="1" customHeight="1" spans="1:5">
       <c r="A362" t="s">
         <v>683</v>
       </c>
@@ -11576,7 +11663,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="363" customHeight="1" spans="1:5">
+    <row r="363" hidden="1" customHeight="1" spans="1:5">
       <c r="A363" t="s">
         <v>685</v>
       </c>
@@ -11593,7 +11680,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="364" customHeight="1" spans="1:5">
+    <row r="364" hidden="1" customHeight="1" spans="1:5">
       <c r="A364" t="s">
         <v>687</v>
       </c>
@@ -11610,7 +11697,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="365" customHeight="1" spans="1:5">
+    <row r="365" hidden="1" customHeight="1" spans="1:5">
       <c r="A365" t="s">
         <v>688</v>
       </c>
@@ -11627,7 +11714,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="366" customHeight="1" spans="1:5">
+    <row r="366" hidden="1" customHeight="1" spans="1:5">
       <c r="A366" t="s">
         <v>690</v>
       </c>
@@ -11644,7 +11731,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="367" customHeight="1" spans="1:5">
+    <row r="367" hidden="1" customHeight="1" spans="1:5">
       <c r="A367" t="s">
         <v>569</v>
       </c>
@@ -11661,7 +11748,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="368" customHeight="1" spans="1:5">
+    <row r="368" hidden="1" customHeight="1" spans="1:5">
       <c r="A368" t="s">
         <v>693</v>
       </c>
@@ -11678,7 +11765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="369" customHeight="1" spans="1:5">
+    <row r="369" hidden="1" customHeight="1" spans="1:5">
       <c r="A369" t="s">
         <v>694</v>
       </c>
@@ -11695,9 +11782,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="370" customHeight="1" spans="1:5">
+    <row r="370" hidden="1" customHeight="1" spans="1:5">
       <c r="A370" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B370" t="s">
         <v>695</v>
@@ -11712,7 +11799,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="371" customHeight="1" spans="1:5">
+    <row r="371" hidden="1" customHeight="1" spans="1:5">
       <c r="A371" t="s">
         <v>696</v>
       </c>
@@ -11729,7 +11816,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="372" customHeight="1" spans="1:5">
+    <row r="372" hidden="1" customHeight="1" spans="1:5">
       <c r="A372" t="s">
         <v>698</v>
       </c>
@@ -11746,7 +11833,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="373" customHeight="1" spans="1:5">
+    <row r="373" hidden="1" customHeight="1" spans="1:5">
       <c r="A373" t="s">
         <v>699</v>
       </c>
@@ -11763,7 +11850,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="374" customHeight="1" spans="1:5">
+    <row r="374" hidden="1" customHeight="1" spans="1:5">
       <c r="A374" t="s">
         <v>547</v>
       </c>
@@ -11780,7 +11867,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="375" customHeight="1" spans="1:5">
+    <row r="375" hidden="1" customHeight="1" spans="1:5">
       <c r="A375" t="s">
         <v>701</v>
       </c>
@@ -11797,7 +11884,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="376" customHeight="1" spans="1:5">
+    <row r="376" hidden="1" customHeight="1" spans="1:5">
       <c r="A376" t="s">
         <v>703</v>
       </c>
@@ -11814,7 +11901,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="377" customHeight="1" spans="1:5">
+    <row r="377" hidden="1" customHeight="1" spans="1:5">
       <c r="A377" t="s">
         <v>705</v>
       </c>
@@ -11831,7 +11918,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="378" customHeight="1" spans="1:5">
+    <row r="378" hidden="1" customHeight="1" spans="1:5">
       <c r="A378" t="s">
         <v>709</v>
       </c>
@@ -11848,7 +11935,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" customHeight="1" spans="1:5">
+    <row r="379" hidden="1" customHeight="1" spans="1:5">
       <c r="A379" t="s">
         <v>711</v>
       </c>
@@ -11865,7 +11952,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="380" customHeight="1" spans="1:5">
+    <row r="380" hidden="1" customHeight="1" spans="1:5">
       <c r="A380" t="s">
         <v>713</v>
       </c>
@@ -11882,7 +11969,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="381" customHeight="1" spans="1:5">
+    <row r="381" hidden="1" customHeight="1" spans="1:5">
       <c r="A381" t="s">
         <v>713</v>
       </c>
@@ -11899,7 +11986,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="382" customHeight="1" spans="1:5">
+    <row r="382" hidden="1" customHeight="1" spans="1:5">
       <c r="A382" t="s">
         <v>714</v>
       </c>
@@ -11916,7 +12003,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="383" customHeight="1" spans="1:5">
+    <row r="383" hidden="1" customHeight="1" spans="1:5">
       <c r="A383" t="s">
         <v>715</v>
       </c>
@@ -11933,7 +12020,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="384" customHeight="1" spans="1:5">
+    <row r="384" hidden="1" customHeight="1" spans="1:5">
       <c r="A384" t="s">
         <v>717</v>
       </c>
@@ -11950,7 +12037,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="385" customHeight="1" spans="1:5">
+    <row r="385" hidden="1" customHeight="1" spans="1:5">
       <c r="A385" t="s">
         <v>718</v>
       </c>
@@ -11967,7 +12054,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="386" customHeight="1" spans="1:5">
+    <row r="386" hidden="1" customHeight="1" spans="1:5">
       <c r="A386" t="s">
         <v>720</v>
       </c>
@@ -11984,7 +12071,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="387" customHeight="1" spans="1:5">
+    <row r="387" hidden="1" customHeight="1" spans="1:5">
       <c r="A387" t="s">
         <v>722</v>
       </c>
@@ -12001,7 +12088,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="388" customHeight="1" spans="1:5">
+    <row r="388" hidden="1" customHeight="1" spans="1:5">
       <c r="A388" t="s">
         <v>724</v>
       </c>
@@ -12018,7 +12105,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" customHeight="1" spans="1:5">
+    <row r="389" hidden="1" customHeight="1" spans="1:5">
       <c r="A389" t="s">
         <v>725</v>
       </c>
@@ -12035,7 +12122,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="390" customHeight="1" spans="1:5">
+    <row r="390" hidden="1" customHeight="1" spans="1:5">
       <c r="A390" t="s">
         <v>727</v>
       </c>
@@ -12052,7 +12139,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="391" customHeight="1" spans="1:5">
+    <row r="391" hidden="1" customHeight="1" spans="1:5">
       <c r="A391" t="s">
         <v>196</v>
       </c>
@@ -12069,7 +12156,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="392" customHeight="1" spans="1:5">
+    <row r="392" hidden="1" customHeight="1" spans="1:5">
       <c r="A392" t="s">
         <v>730</v>
       </c>
@@ -12086,7 +12173,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="393" customHeight="1" spans="1:5">
+    <row r="393" hidden="1" customHeight="1" spans="1:5">
       <c r="A393" t="s">
         <v>732</v>
       </c>
@@ -12103,7 +12190,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="394" customHeight="1" spans="1:5">
+    <row r="394" hidden="1" customHeight="1" spans="1:5">
       <c r="A394" t="s">
         <v>732</v>
       </c>
@@ -12120,7 +12207,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="395" customHeight="1" spans="1:5">
+    <row r="395" hidden="1" customHeight="1" spans="1:5">
       <c r="A395" t="s">
         <v>735</v>
       </c>
@@ -12137,7 +12224,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" customHeight="1" spans="1:5">
+    <row r="396" hidden="1" customHeight="1" spans="1:5">
       <c r="A396" t="s">
         <v>737</v>
       </c>
@@ -12154,7 +12241,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="397" customHeight="1" spans="1:5">
+    <row r="397" hidden="1" customHeight="1" spans="1:5">
       <c r="A397" t="s">
         <v>740</v>
       </c>
@@ -12171,7 +12258,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="398" customHeight="1" spans="1:5">
+    <row r="398" hidden="1" customHeight="1" spans="1:5">
       <c r="A398" t="s">
         <v>742</v>
       </c>
@@ -12188,7 +12275,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="399" customHeight="1" spans="1:5">
+    <row r="399" hidden="1" customHeight="1" spans="1:5">
       <c r="A399" t="s">
         <v>744</v>
       </c>
@@ -12205,7 +12292,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="400" customHeight="1" spans="1:5">
+    <row r="400" hidden="1" customHeight="1" spans="1:5">
       <c r="A400" t="s">
         <v>746</v>
       </c>
@@ -12222,7 +12309,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" customHeight="1" spans="1:5">
+    <row r="401" hidden="1" customHeight="1" spans="1:5">
       <c r="A401" t="s">
         <v>101</v>
       </c>
@@ -12239,7 +12326,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="402" customHeight="1" spans="1:5">
+    <row r="402" hidden="1" customHeight="1" spans="1:5">
       <c r="A402" t="s">
         <v>748</v>
       </c>
@@ -12256,7 +12343,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="403" customHeight="1" spans="1:5">
+    <row r="403" hidden="1" customHeight="1" spans="1:5">
       <c r="A403" t="s">
         <v>750</v>
       </c>
@@ -12273,7 +12360,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="404" customHeight="1" spans="1:5">
+    <row r="404" hidden="1" customHeight="1" spans="1:5">
       <c r="A404" t="s">
         <v>752</v>
       </c>
@@ -12290,7 +12377,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="405" customHeight="1" spans="1:5">
+    <row r="405" hidden="1" customHeight="1" spans="1:5">
       <c r="A405" t="s">
         <v>754</v>
       </c>
@@ -12307,7 +12394,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="406" customHeight="1" spans="1:5">
+    <row r="406" hidden="1" customHeight="1" spans="1:5">
       <c r="A406" t="s">
         <v>756</v>
       </c>
@@ -12324,7 +12411,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="407" customHeight="1" spans="1:5">
+    <row r="407" hidden="1" customHeight="1" spans="1:5">
       <c r="A407" t="s">
         <v>757</v>
       </c>
@@ -12341,7 +12428,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="408" customHeight="1" spans="1:5">
+    <row r="408" hidden="1" customHeight="1" spans="1:5">
       <c r="A408" t="s">
         <v>759</v>
       </c>
@@ -12358,7 +12445,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="409" customHeight="1" spans="1:5">
+    <row r="409" hidden="1" customHeight="1" spans="1:5">
       <c r="A409" t="s">
         <v>761</v>
       </c>
@@ -12375,7 +12462,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="410" customHeight="1" spans="1:5">
+    <row r="410" hidden="1" customHeight="1" spans="1:5">
       <c r="A410" t="s">
         <v>763</v>
       </c>
@@ -12392,7 +12479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="411" customHeight="1" spans="1:5">
+    <row r="411" hidden="1" customHeight="1" spans="1:5">
       <c r="A411" t="s">
         <v>127</v>
       </c>
@@ -12409,7 +12496,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="412" customHeight="1" spans="1:5">
+    <row r="412" hidden="1" customHeight="1" spans="1:5">
       <c r="A412" t="s">
         <v>765</v>
       </c>
@@ -12426,7 +12513,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="413" customHeight="1" spans="1:5">
+    <row r="413" hidden="1" customHeight="1" spans="1:5">
       <c r="A413" t="s">
         <v>767</v>
       </c>
@@ -12443,7 +12530,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="414" customHeight="1" spans="1:5">
+    <row r="414" hidden="1" customHeight="1" spans="1:5">
       <c r="A414" t="s">
         <v>769</v>
       </c>
@@ -12460,7 +12547,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="415" customHeight="1" spans="1:5">
+    <row r="415" hidden="1" customHeight="1" spans="1:5">
       <c r="A415" t="s">
         <v>771</v>
       </c>
@@ -12477,7 +12564,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="416" customHeight="1" spans="1:5">
+    <row r="416" hidden="1" customHeight="1" spans="1:5">
       <c r="A416" t="s">
         <v>775</v>
       </c>
@@ -12494,7 +12581,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="417" customHeight="1" spans="1:5">
+    <row r="417" hidden="1" customHeight="1" spans="1:5">
       <c r="A417" t="s">
         <v>776</v>
       </c>
@@ -12511,7 +12598,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="418" customHeight="1" spans="1:5">
+    <row r="418" hidden="1" customHeight="1" spans="1:5">
       <c r="A418" t="s">
         <v>778</v>
       </c>
@@ -12528,7 +12615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="419" customHeight="1" spans="1:5">
+    <row r="419" hidden="1" customHeight="1" spans="1:5">
       <c r="A419" t="s">
         <v>780</v>
       </c>
@@ -12545,7 +12632,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="420" customHeight="1" spans="1:5">
+    <row r="420" hidden="1" customHeight="1" spans="1:5">
       <c r="A420" t="s">
         <v>782</v>
       </c>
@@ -12562,7 +12649,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="421" customHeight="1" spans="1:5">
+    <row r="421" hidden="1" customHeight="1" spans="1:5">
       <c r="A421" t="s">
         <v>784</v>
       </c>
@@ -12579,7 +12666,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="422" customHeight="1" spans="1:5">
+    <row r="422" hidden="1" customHeight="1" spans="1:5">
       <c r="A422" t="s">
         <v>786</v>
       </c>
@@ -12596,7 +12683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="423" customHeight="1" spans="1:5">
+    <row r="423" hidden="1" customHeight="1" spans="1:5">
       <c r="A423" t="s">
         <v>787</v>
       </c>
@@ -12613,7 +12700,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="424" customHeight="1" spans="1:5">
+    <row r="424" hidden="1" customHeight="1" spans="1:5">
       <c r="A424" t="s">
         <v>789</v>
       </c>
@@ -12630,7 +12717,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="425" customHeight="1" spans="1:5">
+    <row r="425" hidden="1" customHeight="1" spans="1:5">
       <c r="A425" t="s">
         <v>791</v>
       </c>
@@ -12647,7 +12734,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="426" customHeight="1" spans="1:5">
+    <row r="426" hidden="1" customHeight="1" spans="1:5">
       <c r="A426" t="s">
         <v>793</v>
       </c>
@@ -12664,7 +12751,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="427" customHeight="1" spans="1:5">
+    <row r="427" hidden="1" customHeight="1" spans="1:5">
       <c r="A427" t="s">
         <v>794</v>
       </c>
@@ -12681,7 +12768,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="428" customHeight="1" spans="1:5">
+    <row r="428" hidden="1" customHeight="1" spans="1:5">
       <c r="A428" t="s">
         <v>796</v>
       </c>
@@ -12698,7 +12785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="429" customHeight="1" spans="1:5">
+    <row r="429" hidden="1" customHeight="1" spans="1:5">
       <c r="A429" t="s">
         <v>798</v>
       </c>
@@ -12715,7 +12802,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="430" customHeight="1" spans="1:5">
+    <row r="430" hidden="1" customHeight="1" spans="1:5">
       <c r="A430" t="s">
         <v>799</v>
       </c>
@@ -12732,7 +12819,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="431" customHeight="1" spans="1:5">
+    <row r="431" hidden="1" customHeight="1" spans="1:5">
       <c r="A431" t="s">
         <v>801</v>
       </c>
@@ -12749,7 +12836,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="432" customHeight="1" spans="1:5">
+    <row r="432" hidden="1" customHeight="1" spans="1:5">
       <c r="A432" t="s">
         <v>803</v>
       </c>
@@ -12766,7 +12853,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="433" customHeight="1" spans="1:5">
+    <row r="433" hidden="1" customHeight="1" spans="1:5">
       <c r="A433" t="s">
         <v>805</v>
       </c>
@@ -12783,7 +12870,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="434" customHeight="1" spans="1:5">
+    <row r="434" hidden="1" customHeight="1" spans="1:5">
       <c r="A434" t="s">
         <v>808</v>
       </c>
@@ -12800,7 +12887,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="435" customHeight="1" spans="1:5">
+    <row r="435" hidden="1" customHeight="1" spans="1:5">
       <c r="A435" t="s">
         <v>600</v>
       </c>
@@ -12817,7 +12904,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="436" customHeight="1" spans="1:5">
+    <row r="436" hidden="1" customHeight="1" spans="1:5">
       <c r="A436" t="s">
         <v>811</v>
       </c>
@@ -12834,7 +12921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="437" customHeight="1" spans="1:5">
+    <row r="437" hidden="1" customHeight="1" spans="1:5">
       <c r="A437" t="s">
         <v>811</v>
       </c>
@@ -12851,7 +12938,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="438" customHeight="1" spans="1:5">
+    <row r="438" hidden="1" customHeight="1" spans="1:5">
       <c r="A438" t="s">
         <v>813</v>
       </c>
@@ -12868,7 +12955,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="439" customHeight="1" spans="1:5">
+    <row r="439" hidden="1" customHeight="1" spans="1:5">
       <c r="A439" t="s">
         <v>815</v>
       </c>
@@ -12885,7 +12972,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="440" customHeight="1" spans="1:5">
+    <row r="440" hidden="1" customHeight="1" spans="1:5">
       <c r="A440" t="s">
         <v>815</v>
       </c>
@@ -12902,7 +12989,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="441" customHeight="1" spans="1:5">
+    <row r="441" hidden="1" customHeight="1" spans="1:5">
       <c r="A441" t="s">
         <v>818</v>
       </c>
@@ -12919,7 +13006,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="442" customHeight="1" spans="1:5">
+    <row r="442" hidden="1" customHeight="1" spans="1:5">
       <c r="A442" t="s">
         <v>820</v>
       </c>
@@ -12936,7 +13023,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="443" customHeight="1" spans="1:5">
+    <row r="443" hidden="1" customHeight="1" spans="1:5">
       <c r="A443" t="s">
         <v>822</v>
       </c>
@@ -12953,7 +13040,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="444" customHeight="1" spans="1:5">
+    <row r="444" hidden="1" customHeight="1" spans="1:5">
       <c r="A444" t="s">
         <v>824</v>
       </c>
@@ -12970,7 +13057,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="445" customHeight="1" spans="1:5">
+    <row r="445" hidden="1" customHeight="1" spans="1:5">
       <c r="A445" t="s">
         <v>826</v>
       </c>
@@ -12987,7 +13074,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="446" customHeight="1" spans="1:5">
+    <row r="446" hidden="1" customHeight="1" spans="1:5">
       <c r="A446" t="s">
         <v>827</v>
       </c>
@@ -13004,7 +13091,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="447" customHeight="1" spans="1:5">
+    <row r="447" hidden="1" customHeight="1" spans="1:5">
       <c r="A447" t="s">
         <v>828</v>
       </c>
@@ -13021,7 +13108,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="448" customHeight="1" spans="1:5">
+    <row r="448" hidden="1" customHeight="1" spans="1:5">
       <c r="A448" t="s">
         <v>830</v>
       </c>
@@ -13038,7 +13125,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="449" customHeight="1" spans="1:5">
+    <row r="449" hidden="1" customHeight="1" spans="1:5">
       <c r="A449" t="s">
         <v>831</v>
       </c>
@@ -13055,7 +13142,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="450" customHeight="1" spans="1:5">
+    <row r="450" hidden="1" customHeight="1" spans="1:5">
       <c r="A450" t="s">
         <v>833</v>
       </c>
@@ -13072,7 +13159,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="451" customHeight="1" spans="1:5">
+    <row r="451" hidden="1" customHeight="1" spans="1:5">
       <c r="A451" t="s">
         <v>835</v>
       </c>
@@ -13089,7 +13176,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="452" customHeight="1" spans="1:5">
+    <row r="452" hidden="1" customHeight="1" spans="1:5">
       <c r="A452" t="s">
         <v>837</v>
       </c>
@@ -13106,7 +13193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="453" customHeight="1" spans="1:5">
+    <row r="453" hidden="1" customHeight="1" spans="1:5">
       <c r="A453" t="s">
         <v>839</v>
       </c>
@@ -13123,7 +13210,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="454" customHeight="1" spans="1:5">
+    <row r="454" hidden="1" customHeight="1" spans="1:5">
       <c r="A454" t="s">
         <v>841</v>
       </c>
@@ -13140,7 +13227,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="455" customHeight="1" spans="1:5">
+    <row r="455" hidden="1" customHeight="1" spans="1:5">
       <c r="A455" t="s">
         <v>10</v>
       </c>
@@ -13157,7 +13244,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="456" customHeight="1" spans="1:5">
+    <row r="456" hidden="1" customHeight="1" spans="1:5">
       <c r="A456" t="s">
         <v>845</v>
       </c>
@@ -13174,7 +13261,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="457" customHeight="1" spans="1:5">
+    <row r="457" hidden="1" customHeight="1" spans="1:5">
       <c r="A457" t="s">
         <v>847</v>
       </c>
@@ -13191,7 +13278,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="458" customHeight="1" spans="1:5">
+    <row r="458" hidden="1" customHeight="1" spans="1:5">
       <c r="A458" t="s">
         <v>849</v>
       </c>
@@ -13208,7 +13295,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="459" customHeight="1" spans="1:5">
+    <row r="459" hidden="1" customHeight="1" spans="1:5">
       <c r="A459" t="s">
         <v>851</v>
       </c>
@@ -13225,7 +13312,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="460" customHeight="1" spans="1:5">
+    <row r="460" hidden="1" customHeight="1" spans="1:5">
       <c r="A460" t="s">
         <v>853</v>
       </c>
@@ -13242,7 +13329,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="461" customHeight="1" spans="1:5">
+    <row r="461" hidden="1" customHeight="1" spans="1:5">
       <c r="A461" t="s">
         <v>855</v>
       </c>
@@ -13259,7 +13346,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="462" customHeight="1" spans="1:5">
+    <row r="462" hidden="1" customHeight="1" spans="1:5">
       <c r="A462" t="s">
         <v>23</v>
       </c>
@@ -13276,7 +13363,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="463" customHeight="1" spans="1:5">
+    <row r="463" hidden="1" customHeight="1" spans="1:5">
       <c r="A463" t="s">
         <v>857</v>
       </c>
@@ -13293,7 +13380,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="464" customHeight="1" spans="1:5">
+    <row r="464" hidden="1" customHeight="1" spans="1:5">
       <c r="A464" t="s">
         <v>859</v>
       </c>
@@ -13310,7 +13397,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="465" customHeight="1" spans="1:5">
+    <row r="465" hidden="1" customHeight="1" spans="1:5">
       <c r="A465" t="s">
         <v>861</v>
       </c>
@@ -13327,7 +13414,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="466" customHeight="1" spans="1:5">
+    <row r="466" hidden="1" customHeight="1" spans="1:5">
       <c r="A466" t="s">
         <v>862</v>
       </c>
@@ -13344,7 +13431,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="467" customHeight="1" spans="1:5">
+    <row r="467" hidden="1" customHeight="1" spans="1:5">
       <c r="A467" t="s">
         <v>864</v>
       </c>
@@ -13361,7 +13448,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="468" customHeight="1" spans="1:5">
+    <row r="468" hidden="1" customHeight="1" spans="1:5">
       <c r="A468" t="s">
         <v>866</v>
       </c>
@@ -13378,7 +13465,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="469" customHeight="1" spans="1:5">
+    <row r="469" hidden="1" customHeight="1" spans="1:5">
       <c r="A469" t="s">
         <v>867</v>
       </c>
@@ -13395,7 +13482,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="470" customHeight="1" spans="1:5">
+    <row r="470" hidden="1" customHeight="1" spans="1:5">
       <c r="A470" t="s">
         <v>869</v>
       </c>
@@ -13412,7 +13499,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="471" customHeight="1" spans="1:5">
+    <row r="471" hidden="1" customHeight="1" spans="1:5">
       <c r="A471" t="s">
         <v>871</v>
       </c>
@@ -13429,7 +13516,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="472" customHeight="1" spans="1:5">
+    <row r="472" hidden="1" customHeight="1" spans="1:5">
       <c r="A472" t="s">
         <v>873</v>
       </c>
@@ -13446,7 +13533,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="473" customHeight="1" spans="1:5">
+    <row r="473" hidden="1" customHeight="1" spans="1:5">
       <c r="A473" t="s">
         <v>875</v>
       </c>
@@ -13463,7 +13550,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="474" customHeight="1" spans="1:5">
+    <row r="474" hidden="1" customHeight="1" spans="1:5">
       <c r="A474" t="s">
         <v>466</v>
       </c>
@@ -13480,7 +13567,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="475" customHeight="1" spans="1:5">
+    <row r="475" hidden="1" customHeight="1" spans="1:5">
       <c r="A475" t="s">
         <v>878</v>
       </c>
@@ -13497,7 +13584,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="476" customHeight="1" spans="1:5">
+    <row r="476" hidden="1" customHeight="1" spans="1:5">
       <c r="A476" t="s">
         <v>880</v>
       </c>
@@ -13514,7 +13601,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="477" customHeight="1" spans="1:5">
+    <row r="477" hidden="1" customHeight="1" spans="1:5">
       <c r="A477" t="s">
         <v>882</v>
       </c>
@@ -13531,7 +13618,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="478" customHeight="1" spans="1:5">
+    <row r="478" hidden="1" customHeight="1" spans="1:5">
       <c r="A478" t="s">
         <v>884</v>
       </c>
@@ -13548,7 +13635,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="479" customHeight="1" spans="1:5">
+    <row r="479" hidden="1" customHeight="1" spans="1:5">
       <c r="A479" t="s">
         <v>884</v>
       </c>
@@ -13565,7 +13652,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="480" customHeight="1" spans="1:5">
+    <row r="480" hidden="1" customHeight="1" spans="1:5">
       <c r="A480" t="s">
         <v>887</v>
       </c>
@@ -13582,7 +13669,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="481" customHeight="1" spans="1:5">
+    <row r="481" hidden="1" customHeight="1" spans="1:5">
       <c r="A481" t="s">
         <v>51</v>
       </c>
@@ -13599,7 +13686,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="482" customHeight="1" spans="1:5">
+    <row r="482" hidden="1" customHeight="1" spans="1:5">
       <c r="A482" t="s">
         <v>890</v>
       </c>
@@ -13616,7 +13703,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="483" customHeight="1" spans="1:5">
+    <row r="483" hidden="1" customHeight="1" spans="1:5">
       <c r="A483" t="s">
         <v>892</v>
       </c>
@@ -13633,7 +13720,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="484" customHeight="1" spans="1:5">
+    <row r="484" hidden="1" customHeight="1" spans="1:5">
       <c r="A484" t="s">
         <v>894</v>
       </c>
@@ -13650,7 +13737,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="485" customHeight="1" spans="1:5">
+    <row r="485" hidden="1" customHeight="1" spans="1:5">
       <c r="A485" t="s">
         <v>528</v>
       </c>
@@ -13667,7 +13754,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="486" customHeight="1" spans="1:5">
+    <row r="486" hidden="1" customHeight="1" spans="1:5">
       <c r="A486" t="s">
         <v>897</v>
       </c>
@@ -13684,7 +13771,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="487" customHeight="1" spans="1:5">
+    <row r="487" hidden="1" customHeight="1" spans="1:5">
       <c r="A487" t="s">
         <v>899</v>
       </c>
@@ -13701,7 +13788,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="488" customHeight="1" spans="1:5">
+    <row r="488" hidden="1" customHeight="1" spans="1:5">
       <c r="A488" t="s">
         <v>901</v>
       </c>
@@ -13718,7 +13805,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="489" customHeight="1" spans="1:5">
+    <row r="489" hidden="1" customHeight="1" spans="1:5">
       <c r="A489" t="s">
         <v>903</v>
       </c>
@@ -13735,7 +13822,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="490" customHeight="1" spans="1:5">
+    <row r="490" hidden="1" customHeight="1" spans="1:5">
       <c r="A490" t="s">
         <v>905</v>
       </c>
@@ -13752,7 +13839,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="491" customHeight="1" spans="1:5">
+    <row r="491" hidden="1" customHeight="1" spans="1:5">
       <c r="A491" t="s">
         <v>907</v>
       </c>
@@ -13769,7 +13856,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="492" customHeight="1" spans="1:5">
+    <row r="492" hidden="1" customHeight="1" spans="1:5">
       <c r="A492" t="s">
         <v>909</v>
       </c>
@@ -13786,7 +13873,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="493" customHeight="1" spans="1:5">
+    <row r="493" hidden="1" customHeight="1" spans="1:5">
       <c r="A493" t="s">
         <v>581</v>
       </c>
@@ -13803,7 +13890,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="494" customHeight="1" spans="1:5">
+    <row r="494" hidden="1" customHeight="1" spans="1:5">
       <c r="A494" t="s">
         <v>912</v>
       </c>
@@ -13820,7 +13907,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="495" customHeight="1" spans="1:5">
+    <row r="495" hidden="1" customHeight="1" spans="1:5">
       <c r="A495" t="s">
         <v>914</v>
       </c>
@@ -13837,7 +13924,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="496" customHeight="1" spans="1:5">
+    <row r="496" hidden="1" customHeight="1" spans="1:5">
       <c r="A496" t="s">
         <v>916</v>
       </c>
@@ -13854,7 +13941,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="497" customHeight="1" spans="1:5">
+    <row r="497" hidden="1" customHeight="1" spans="1:5">
       <c r="A497" t="s">
         <v>144</v>
       </c>
@@ -13871,7 +13958,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="498" customHeight="1" spans="1:5">
+    <row r="498" hidden="1" customHeight="1" spans="1:5">
       <c r="A498" t="s">
         <v>919</v>
       </c>
@@ -13888,7 +13975,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="499" customHeight="1" spans="1:5">
+    <row r="499" hidden="1" customHeight="1" spans="1:5">
       <c r="A499" t="s">
         <v>921</v>
       </c>
@@ -13905,7 +13992,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="500" customHeight="1" spans="1:5">
+    <row r="500" hidden="1" customHeight="1" spans="1:5">
       <c r="A500" t="s">
         <v>611</v>
       </c>
@@ -13922,7 +14009,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="501" customHeight="1" spans="1:5">
+    <row r="501" hidden="1" customHeight="1" spans="1:5">
       <c r="A501" t="s">
         <v>924</v>
       </c>
@@ -13939,7 +14026,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="502" customHeight="1" spans="1:5">
+    <row r="502" hidden="1" customHeight="1" spans="1:5">
       <c r="A502" t="s">
         <v>925</v>
       </c>
@@ -13956,7 +14043,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="503" customHeight="1" spans="1:5">
+    <row r="503" hidden="1" customHeight="1" spans="1:5">
       <c r="A503" t="s">
         <v>927</v>
       </c>
@@ -13973,7 +14060,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="504" customHeight="1" spans="1:5">
+    <row r="504" hidden="1" customHeight="1" spans="1:5">
       <c r="A504" t="s">
         <v>929</v>
       </c>
@@ -13990,7 +14077,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="505" customHeight="1" spans="1:5">
+    <row r="505" hidden="1" customHeight="1" spans="1:5">
       <c r="A505" t="s">
         <v>931</v>
       </c>
@@ -14007,7 +14094,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="506" customHeight="1" spans="1:5">
+    <row r="506" hidden="1" customHeight="1" spans="1:5">
       <c r="A506" t="s">
         <v>933</v>
       </c>
@@ -14024,7 +14111,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="507" customHeight="1" spans="1:5">
+    <row r="507" hidden="1" customHeight="1" spans="1:5">
       <c r="A507" t="s">
         <v>182</v>
       </c>
@@ -14041,7 +14128,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="508" customHeight="1" spans="1:5">
+    <row r="508" hidden="1" customHeight="1" spans="1:5">
       <c r="A508" t="s">
         <v>77</v>
       </c>
@@ -14058,7 +14145,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="509" customHeight="1" spans="1:5">
+    <row r="509" hidden="1" customHeight="1" spans="1:5">
       <c r="A509" t="s">
         <v>936</v>
       </c>
@@ -14075,7 +14162,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="510" customHeight="1" spans="1:5">
+    <row r="510" hidden="1" customHeight="1" spans="1:5">
       <c r="A510" t="s">
         <v>938</v>
       </c>
@@ -14092,7 +14179,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="511" customHeight="1" spans="1:5">
+    <row r="511" hidden="1" customHeight="1" spans="1:5">
       <c r="A511" t="s">
         <v>939</v>
       </c>
@@ -14109,7 +14196,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="512" customHeight="1" spans="1:5">
+    <row r="512" hidden="1" customHeight="1" spans="1:5">
       <c r="A512" t="s">
         <v>941</v>
       </c>
@@ -14126,7 +14213,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="513" customHeight="1" spans="1:5">
+    <row r="513" hidden="1" customHeight="1" spans="1:5">
       <c r="A513" t="s">
         <v>943</v>
       </c>
@@ -14143,7 +14230,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="514" customHeight="1" spans="1:5">
+    <row r="514" hidden="1" customHeight="1" spans="1:5">
       <c r="A514" t="s">
         <v>945</v>
       </c>
@@ -14160,7 +14247,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="515" customHeight="1" spans="1:5">
+    <row r="515" hidden="1" customHeight="1" spans="1:5">
       <c r="A515" t="s">
         <v>945</v>
       </c>
@@ -14177,7 +14264,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="516" customHeight="1" spans="1:5">
+    <row r="516" hidden="1" customHeight="1" spans="1:5">
       <c r="A516" t="s">
         <v>947</v>
       </c>
@@ -14194,7 +14281,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="517" customHeight="1" spans="1:5">
+    <row r="517" hidden="1" customHeight="1" spans="1:5">
       <c r="A517" t="s">
         <v>949</v>
       </c>
@@ -14211,7 +14298,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="518" customHeight="1" spans="1:5">
+    <row r="518" hidden="1" customHeight="1" spans="1:5">
       <c r="A518" t="s">
         <v>950</v>
       </c>
@@ -14228,7 +14315,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="519" customHeight="1" spans="1:5">
+    <row r="519" hidden="1" customHeight="1" spans="1:5">
       <c r="A519" t="s">
         <v>952</v>
       </c>
@@ -14245,7 +14332,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="520" customHeight="1" spans="1:5">
+    <row r="520" hidden="1" customHeight="1" spans="1:5">
       <c r="A520" t="s">
         <v>954</v>
       </c>
@@ -14262,7 +14349,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="521" customHeight="1" spans="1:5">
+    <row r="521" hidden="1" customHeight="1" spans="1:5">
       <c r="A521" t="s">
         <v>956</v>
       </c>
@@ -14279,7 +14366,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="522" customHeight="1" spans="1:5">
+    <row r="522" hidden="1" customHeight="1" spans="1:5">
       <c r="A522" t="s">
         <v>958</v>
       </c>
@@ -14296,7 +14383,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="523" customHeight="1" spans="1:5">
+    <row r="523" hidden="1" customHeight="1" spans="1:5">
       <c r="A523" t="s">
         <v>960</v>
       </c>
@@ -14313,7 +14400,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="524" customHeight="1" spans="1:5">
+    <row r="524" hidden="1" customHeight="1" spans="1:5">
       <c r="A524" t="s">
         <v>962</v>
       </c>
@@ -14330,7 +14417,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="525" customHeight="1" spans="1:5">
+    <row r="525" hidden="1" customHeight="1" spans="1:5">
       <c r="A525" t="s">
         <v>964</v>
       </c>
@@ -14347,7 +14434,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="526" customHeight="1" spans="1:5">
+    <row r="526" hidden="1" customHeight="1" spans="1:5">
       <c r="A526" t="s">
         <v>705</v>
       </c>
@@ -14364,7 +14451,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="527" customHeight="1" spans="1:5">
+    <row r="527" hidden="1" customHeight="1" spans="1:5">
       <c r="A527" t="s">
         <v>966</v>
       </c>
@@ -14381,7 +14468,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="528" customHeight="1" spans="1:5">
+    <row r="528" hidden="1" customHeight="1" spans="1:5">
       <c r="A528" t="s">
         <v>91</v>
       </c>
@@ -14398,7 +14485,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="529" customHeight="1" spans="1:5">
+    <row r="529" hidden="1" customHeight="1" spans="1:5">
       <c r="A529" t="s">
         <v>969</v>
       </c>
@@ -14415,7 +14502,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="530" customHeight="1" spans="1:5">
+    <row r="530" hidden="1" customHeight="1" spans="1:5">
       <c r="A530" t="s">
         <v>971</v>
       </c>
@@ -14432,7 +14519,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="531" customHeight="1" spans="1:5">
+    <row r="531" hidden="1" customHeight="1" spans="1:5">
       <c r="A531" t="s">
         <v>973</v>
       </c>
@@ -14449,7 +14536,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="532" customHeight="1" spans="1:5">
+    <row r="532" hidden="1" customHeight="1" spans="1:5">
       <c r="A532" t="s">
         <v>735</v>
       </c>
@@ -14466,7 +14553,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="533" customHeight="1" spans="1:5">
+    <row r="533" hidden="1" customHeight="1" spans="1:5">
       <c r="A533" t="s">
         <v>976</v>
       </c>
@@ -14483,7 +14570,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="534" customHeight="1" spans="1:5">
+    <row r="534" hidden="1" customHeight="1" spans="1:5">
       <c r="A534" t="s">
         <v>978</v>
       </c>
@@ -14500,7 +14587,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="535" customHeight="1" spans="1:5">
+    <row r="535" hidden="1" customHeight="1" spans="1:5">
       <c r="A535" t="s">
         <v>980</v>
       </c>
@@ -14517,7 +14604,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="536" customHeight="1" spans="1:5">
+    <row r="536" hidden="1" customHeight="1" spans="1:5">
       <c r="A536" t="s">
         <v>982</v>
       </c>
@@ -14534,7 +14621,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="537" customHeight="1" spans="1:5">
+    <row r="537" hidden="1" customHeight="1" spans="1:5">
       <c r="A537" t="s">
         <v>984</v>
       </c>
@@ -14551,7 +14638,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="538" customHeight="1" spans="1:5">
+    <row r="538" hidden="1" customHeight="1" spans="1:5">
       <c r="A538" t="s">
         <v>787</v>
       </c>
@@ -14568,7 +14655,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="539" customHeight="1" spans="1:5">
+    <row r="539" hidden="1" customHeight="1" spans="1:5">
       <c r="A539" t="s">
         <v>109</v>
       </c>
@@ -14585,7 +14672,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="540" customHeight="1" spans="1:5">
+    <row r="540" hidden="1" customHeight="1" spans="1:5">
       <c r="A540" t="s">
         <v>987</v>
       </c>
@@ -14602,7 +14689,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="541" customHeight="1" spans="1:5">
+    <row r="541" hidden="1" customHeight="1" spans="1:5">
       <c r="A541" t="s">
         <v>988</v>
       </c>
@@ -14619,7 +14706,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="542" customHeight="1" spans="1:5">
+    <row r="542" hidden="1" customHeight="1" spans="1:5">
       <c r="A542" t="s">
         <v>990</v>
       </c>
@@ -14636,7 +14723,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="543" customHeight="1" spans="1:5">
+    <row r="543" hidden="1" customHeight="1" spans="1:5">
       <c r="A543" t="s">
         <v>992</v>
       </c>
@@ -14653,7 +14740,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="544" customHeight="1" spans="1:5">
+    <row r="544" hidden="1" customHeight="1" spans="1:5">
       <c r="A544" t="s">
         <v>992</v>
       </c>
@@ -14670,7 +14757,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="545" customHeight="1" spans="1:5">
+    <row r="545" hidden="1" customHeight="1" spans="1:5">
       <c r="A545" t="s">
         <v>303</v>
       </c>
@@ -14687,7 +14774,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="546" customHeight="1" spans="1:5">
+    <row r="546" hidden="1" customHeight="1" spans="1:5">
       <c r="A546" t="s">
         <v>996</v>
       </c>
@@ -14704,7 +14791,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="547" customHeight="1" spans="1:5">
+    <row r="547" hidden="1" customHeight="1" spans="1:5">
       <c r="A547" t="s">
         <v>998</v>
       </c>
@@ -14721,7 +14808,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="548" customHeight="1" spans="1:5">
+    <row r="548" hidden="1" customHeight="1" spans="1:5">
       <c r="A548" t="s">
         <v>1000</v>
       </c>
@@ -14738,7 +14825,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="549" customHeight="1" spans="1:5">
+    <row r="549" hidden="1" customHeight="1" spans="1:5">
       <c r="A549" t="s">
         <v>1000</v>
       </c>
@@ -14755,7 +14842,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="550" customHeight="1" spans="1:5">
+    <row r="550" hidden="1" customHeight="1" spans="1:5">
       <c r="A550" t="s">
         <v>1003</v>
       </c>
@@ -14772,7 +14859,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="551" customHeight="1" spans="1:5">
+    <row r="551" hidden="1" customHeight="1" spans="1:5">
       <c r="A551" t="s">
         <v>1006</v>
       </c>
@@ -14789,7 +14876,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="552" customHeight="1" spans="1:5">
+    <row r="552" hidden="1" customHeight="1" spans="1:5">
       <c r="A552" t="s">
         <v>1008</v>
       </c>
@@ -14806,7 +14893,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="553" customHeight="1" spans="1:5">
+    <row r="553" hidden="1" customHeight="1" spans="1:5">
       <c r="A553" t="s">
         <v>1009</v>
       </c>
@@ -14823,7 +14910,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="554" customHeight="1" spans="1:5">
+    <row r="554" hidden="1" customHeight="1" spans="1:5">
       <c r="A554" t="s">
         <v>1011</v>
       </c>
@@ -14840,7 +14927,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="555" customHeight="1" spans="1:5">
+    <row r="555" hidden="1" customHeight="1" spans="1:5">
       <c r="A555" t="s">
         <v>1013</v>
       </c>
@@ -14857,7 +14944,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="556" customHeight="1" spans="1:5">
+    <row r="556" hidden="1" customHeight="1" spans="1:5">
       <c r="A556" t="s">
         <v>1015</v>
       </c>
@@ -14874,7 +14961,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="557" customHeight="1" spans="1:5">
+    <row r="557" hidden="1" customHeight="1" spans="1:5">
       <c r="A557" t="s">
         <v>1017</v>
       </c>
@@ -14891,7 +14978,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="558" customHeight="1" spans="1:5">
+    <row r="558" hidden="1" customHeight="1" spans="1:5">
       <c r="A558" t="s">
         <v>1019</v>
       </c>
@@ -14908,7 +14995,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="559" customHeight="1" spans="1:5">
+    <row r="559" hidden="1" customHeight="1" spans="1:5">
       <c r="A559" t="s">
         <v>1021</v>
       </c>
@@ -14925,7 +15012,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="560" customHeight="1" spans="1:5">
+    <row r="560" hidden="1" customHeight="1" spans="1:5">
       <c r="A560" t="s">
         <v>1023</v>
       </c>
@@ -14942,7 +15029,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="561" customHeight="1" spans="1:5">
+    <row r="561" hidden="1" customHeight="1" spans="1:5">
       <c r="A561" t="s">
         <v>853</v>
       </c>
@@ -14959,7 +15046,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="562" customHeight="1" spans="1:5">
+    <row r="562" hidden="1" customHeight="1" spans="1:5">
       <c r="A562" t="s">
         <v>1026</v>
       </c>
@@ -14976,7 +15063,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="563" customHeight="1" spans="1:5">
+    <row r="563" hidden="1" customHeight="1" spans="1:5">
       <c r="A563" t="s">
         <v>1028</v>
       </c>
@@ -14993,7 +15080,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="564" customHeight="1" spans="1:5">
+    <row r="564" hidden="1" customHeight="1" spans="1:5">
       <c r="A564" t="s">
         <v>1030</v>
       </c>
@@ -15010,7 +15097,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="565" customHeight="1" spans="1:5">
+    <row r="565" hidden="1" customHeight="1" spans="1:5">
       <c r="A565" t="s">
         <v>1032</v>
       </c>
@@ -15027,7 +15114,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="566" customHeight="1" spans="1:5">
+    <row r="566" hidden="1" customHeight="1" spans="1:5">
       <c r="A566" t="s">
         <v>1034</v>
       </c>
@@ -15044,7 +15131,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="567" customHeight="1" spans="1:5">
+    <row r="567" hidden="1" customHeight="1" spans="1:5">
       <c r="A567" t="s">
         <v>1034</v>
       </c>
@@ -15061,7 +15148,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="568" customHeight="1" spans="1:5">
+    <row r="568" hidden="1" customHeight="1" spans="1:5">
       <c r="A568" t="s">
         <v>1034</v>
       </c>
@@ -15078,7 +15165,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="569" customHeight="1" spans="1:5">
+    <row r="569" hidden="1" customHeight="1" spans="1:5">
       <c r="A569" t="s">
         <v>1037</v>
       </c>
@@ -15095,7 +15182,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="570" customHeight="1" spans="1:5">
+    <row r="570" hidden="1" customHeight="1" spans="1:5">
       <c r="A570" t="s">
         <v>1038</v>
       </c>
@@ -15112,7 +15199,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="571" customHeight="1" spans="1:5">
+    <row r="571" hidden="1" customHeight="1" spans="1:5">
       <c r="A571" t="s">
         <v>380</v>
       </c>
@@ -15129,7 +15216,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="572" customHeight="1" spans="1:5">
+    <row r="572" hidden="1" customHeight="1" spans="1:5">
       <c r="A572" t="s">
         <v>380</v>
       </c>
@@ -15146,7 +15233,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="573" customHeight="1" spans="1:5">
+    <row r="573" hidden="1" customHeight="1" spans="1:5">
       <c r="A573" t="s">
         <v>1042</v>
       </c>
@@ -15163,7 +15250,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="574" customHeight="1" spans="1:5">
+    <row r="574" hidden="1" customHeight="1" spans="1:5">
       <c r="A574" t="s">
         <v>1044</v>
       </c>
@@ -15180,7 +15267,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="575" customHeight="1" spans="1:5">
+    <row r="575" hidden="1" customHeight="1" spans="1:5">
       <c r="A575" t="s">
         <v>221</v>
       </c>
@@ -15197,7 +15284,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="576" customHeight="1" spans="1:5">
+    <row r="576" hidden="1" customHeight="1" spans="1:5">
       <c r="A576" t="s">
         <v>1047</v>
       </c>
@@ -15214,7 +15301,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="577" customHeight="1" spans="1:5">
+    <row r="577" hidden="1" customHeight="1" spans="1:5">
       <c r="A577" t="s">
         <v>1049</v>
       </c>
@@ -15231,7 +15318,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="578" customHeight="1" spans="1:5">
+    <row r="578" hidden="1" customHeight="1" spans="1:5">
       <c r="A578" t="s">
         <v>1051</v>
       </c>
@@ -15248,7 +15335,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="579" customHeight="1" spans="1:5">
+    <row r="579" hidden="1" customHeight="1" spans="1:5">
       <c r="A579" t="s">
         <v>1053</v>
       </c>
@@ -15265,7 +15352,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="580" customHeight="1" spans="1:5">
+    <row r="580" hidden="1" customHeight="1" spans="1:5">
       <c r="A580" t="s">
         <v>1055</v>
       </c>
@@ -15282,7 +15369,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="581" customHeight="1" spans="1:5">
+    <row r="581" hidden="1" customHeight="1" spans="1:5">
       <c r="A581" t="s">
         <v>1057</v>
       </c>
@@ -15299,7 +15386,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="582" customHeight="1" spans="1:5">
+    <row r="582" hidden="1" customHeight="1" spans="1:5">
       <c r="A582" t="s">
         <v>1059</v>
       </c>
@@ -15316,7 +15403,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="583" customHeight="1" spans="1:5">
+    <row r="583" hidden="1" customHeight="1" spans="1:5">
       <c r="A583" t="s">
         <v>1060</v>
       </c>
@@ -15333,7 +15420,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="584" customHeight="1" spans="1:5">
+    <row r="584" hidden="1" customHeight="1" spans="1:5">
       <c r="A584" t="s">
         <v>1062</v>
       </c>
@@ -15350,7 +15437,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="585" customHeight="1" spans="1:5">
+    <row r="585" hidden="1" customHeight="1" spans="1:5">
       <c r="A585" t="s">
         <v>466</v>
       </c>
@@ -15367,7 +15454,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="586" customHeight="1" spans="1:5">
+    <row r="586" hidden="1" customHeight="1" spans="1:5">
       <c r="A586" t="s">
         <v>1063</v>
       </c>
@@ -15384,7 +15471,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="587" customHeight="1" spans="1:5">
+    <row r="587" hidden="1" customHeight="1" spans="1:5">
       <c r="A587" t="s">
         <v>506</v>
       </c>
@@ -15401,7 +15488,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="588" customHeight="1" spans="1:5">
+    <row r="588" hidden="1" customHeight="1" spans="1:5">
       <c r="A588" t="s">
         <v>1066</v>
       </c>
@@ -15418,7 +15505,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="589" customHeight="1" spans="1:5">
+    <row r="589" hidden="1" customHeight="1" spans="1:5">
       <c r="A589" t="s">
         <v>1068</v>
       </c>
@@ -15435,7 +15522,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="590" customHeight="1" spans="1:5">
+    <row r="590" hidden="1" customHeight="1" spans="1:5">
       <c r="A590" t="s">
         <v>1069</v>
       </c>
@@ -15452,7 +15539,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="591" customHeight="1" spans="1:5">
+    <row r="591" hidden="1" customHeight="1" spans="1:5">
       <c r="A591" t="s">
         <v>1071</v>
       </c>
@@ -15469,7 +15556,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="592" customHeight="1" spans="1:5">
+    <row r="592" hidden="1" customHeight="1" spans="1:5">
       <c r="A592" t="s">
         <v>1073</v>
       </c>
@@ -15486,7 +15573,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="593" customHeight="1" spans="1:5">
+    <row r="593" hidden="1" customHeight="1" spans="1:5">
       <c r="A593" t="s">
         <v>1075</v>
       </c>
@@ -15503,7 +15590,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="594" customHeight="1" spans="1:5">
+    <row r="594" hidden="1" customHeight="1" spans="1:5">
       <c r="A594" t="s">
         <v>1077</v>
       </c>
@@ -15520,7 +15607,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="595" customHeight="1" spans="1:5">
+    <row r="595" hidden="1" customHeight="1" spans="1:5">
       <c r="A595" t="s">
         <v>1079</v>
       </c>
@@ -15537,7 +15624,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="596" customHeight="1" spans="1:5">
+    <row r="596" hidden="1" customHeight="1" spans="1:5">
       <c r="A596" t="s">
         <v>1081</v>
       </c>
@@ -15554,7 +15641,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="597" customHeight="1" spans="1:5">
+    <row r="597" hidden="1" customHeight="1" spans="1:5">
       <c r="A597" t="s">
         <v>1083</v>
       </c>
@@ -15571,7 +15658,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="598" customHeight="1" spans="1:5">
+    <row r="598" hidden="1" customHeight="1" spans="1:5">
       <c r="A598" t="s">
         <v>1085</v>
       </c>
@@ -15588,7 +15675,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="599" customHeight="1" spans="1:5">
+    <row r="599" hidden="1" customHeight="1" spans="1:5">
       <c r="A599" t="s">
         <v>1086</v>
       </c>
@@ -15605,7 +15692,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="600" customHeight="1" spans="1:5">
+    <row r="600" hidden="1" customHeight="1" spans="1:5">
       <c r="A600" t="s">
         <v>1088</v>
       </c>
@@ -15622,7 +15709,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="601" customHeight="1" spans="1:5">
+    <row r="601" hidden="1" customHeight="1" spans="1:5">
       <c r="A601" t="s">
         <v>1089</v>
       </c>
@@ -15639,7 +15726,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="602" customHeight="1" spans="1:5">
+    <row r="602" hidden="1" customHeight="1" spans="1:5">
       <c r="A602" t="s">
         <v>55</v>
       </c>
@@ -15656,7 +15743,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="603" customHeight="1" spans="1:5">
+    <row r="603" hidden="1" customHeight="1" spans="1:5">
       <c r="A603" t="s">
         <v>1091</v>
       </c>
@@ -15673,7 +15760,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="604" customHeight="1" spans="1:5">
+    <row r="604" hidden="1" customHeight="1" spans="1:5">
       <c r="A604" t="s">
         <v>1092</v>
       </c>
@@ -15690,7 +15777,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="605" customHeight="1" spans="1:5">
+    <row r="605" hidden="1" customHeight="1" spans="1:5">
       <c r="A605" t="s">
         <v>1093</v>
       </c>
@@ -15707,7 +15794,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="606" customHeight="1" spans="1:5">
+    <row r="606" hidden="1" customHeight="1" spans="1:5">
       <c r="A606" t="s">
         <v>1094</v>
       </c>
@@ -15724,7 +15811,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="607" customHeight="1" spans="1:5">
+    <row r="607" hidden="1" customHeight="1" spans="1:5">
       <c r="A607" t="s">
         <v>1096</v>
       </c>
@@ -15741,7 +15828,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="608" customHeight="1" spans="1:5">
+    <row r="608" hidden="1" customHeight="1" spans="1:5">
       <c r="A608" t="s">
         <v>146</v>
       </c>
@@ -15758,7 +15845,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="609" customHeight="1" spans="1:5">
+    <row r="609" hidden="1" customHeight="1" spans="1:5">
       <c r="A609" t="s">
         <v>611</v>
       </c>
@@ -15775,7 +15862,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="610" customHeight="1" spans="1:5">
+    <row r="610" hidden="1" customHeight="1" spans="1:5">
       <c r="A610" t="s">
         <v>1098</v>
       </c>
@@ -15792,7 +15879,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="611" customHeight="1" spans="1:5">
+    <row r="611" hidden="1" customHeight="1" spans="1:5">
       <c r="A611" t="s">
         <v>149</v>
       </c>
@@ -15809,7 +15896,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="612" customHeight="1" spans="1:5">
+    <row r="612" hidden="1" customHeight="1" spans="1:5">
       <c r="A612" t="s">
         <v>1100</v>
       </c>
@@ -15826,7 +15913,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="613" customHeight="1" spans="1:5">
+    <row r="613" hidden="1" customHeight="1" spans="1:5">
       <c r="A613" t="s">
         <v>1102</v>
       </c>
@@ -15843,7 +15930,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="614" customHeight="1" spans="1:5">
+    <row r="614" hidden="1" customHeight="1" spans="1:5">
       <c r="A614" t="s">
         <v>634</v>
       </c>
@@ -15860,7 +15947,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="615" customHeight="1" spans="1:5">
+    <row r="615" hidden="1" customHeight="1" spans="1:5">
       <c r="A615" t="s">
         <v>1103</v>
       </c>
@@ -15877,7 +15964,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="616" customHeight="1" spans="1:5">
+    <row r="616" hidden="1" customHeight="1" spans="1:5">
       <c r="A616" t="s">
         <v>1105</v>
       </c>
@@ -15894,7 +15981,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="617" customHeight="1" spans="1:5">
+    <row r="617" hidden="1" customHeight="1" spans="1:5">
       <c r="A617" t="s">
         <v>1107</v>
       </c>
@@ -15911,7 +15998,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="618" customHeight="1" spans="1:5">
+    <row r="618" hidden="1" customHeight="1" spans="1:5">
       <c r="A618" t="s">
         <v>1109</v>
       </c>
@@ -15928,7 +16015,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="619" customHeight="1" spans="1:5">
+    <row r="619" hidden="1" customHeight="1" spans="1:5">
       <c r="A619" t="s">
         <v>1111</v>
       </c>
@@ -15945,7 +16032,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="620" customHeight="1" spans="1:5">
+    <row r="620" hidden="1" customHeight="1" spans="1:5">
       <c r="A620" t="s">
         <v>1113</v>
       </c>
@@ -15962,7 +16049,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="621" customHeight="1" spans="1:5">
+    <row r="621" hidden="1" customHeight="1" spans="1:5">
       <c r="A621" t="s">
         <v>1115</v>
       </c>
@@ -15979,7 +16066,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="622" customHeight="1" spans="1:5">
+    <row r="622" hidden="1" customHeight="1" spans="1:5">
       <c r="A622" t="s">
         <v>1117</v>
       </c>
@@ -15996,7 +16083,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="623" customHeight="1" spans="1:5">
+    <row r="623" hidden="1" customHeight="1" spans="1:5">
       <c r="A623" t="s">
         <v>1118</v>
       </c>
@@ -16013,7 +16100,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="624" customHeight="1" spans="1:5">
+    <row r="624" hidden="1" customHeight="1" spans="1:5">
       <c r="A624" t="s">
         <v>1120</v>
       </c>
@@ -16030,7 +16117,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="625" customHeight="1" spans="1:5">
+    <row r="625" hidden="1" customHeight="1" spans="1:5">
       <c r="A625" t="s">
         <v>1121</v>
       </c>
@@ -16047,7 +16134,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="626" customHeight="1" spans="1:5">
+    <row r="626" hidden="1" customHeight="1" spans="1:5">
       <c r="A626" t="s">
         <v>1122</v>
       </c>
@@ -16064,7 +16151,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="627" customHeight="1" spans="1:5">
+    <row r="627" hidden="1" customHeight="1" spans="1:5">
       <c r="A627" t="s">
         <v>1124</v>
       </c>
@@ -16081,7 +16168,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="628" customHeight="1" spans="1:5">
+    <row r="628" hidden="1" customHeight="1" spans="1:5">
       <c r="A628" t="s">
         <v>683</v>
       </c>
@@ -16098,7 +16185,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="629" customHeight="1" spans="1:5">
+    <row r="629" hidden="1" customHeight="1" spans="1:5">
       <c r="A629" t="s">
         <v>1127</v>
       </c>
@@ -16115,7 +16202,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="630" customHeight="1" spans="1:5">
+    <row r="630" hidden="1" customHeight="1" spans="1:5">
       <c r="A630" t="s">
         <v>1129</v>
       </c>
@@ -16132,7 +16219,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="631" customHeight="1" spans="1:5">
+    <row r="631" hidden="1" customHeight="1" spans="1:5">
       <c r="A631" t="s">
         <v>1131</v>
       </c>
@@ -16149,7 +16236,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="632" customHeight="1" spans="1:5">
+    <row r="632" hidden="1" customHeight="1" spans="1:5">
       <c r="A632" t="s">
         <v>696</v>
       </c>
@@ -16166,7 +16253,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="633" customHeight="1" spans="1:5">
+    <row r="633" hidden="1" customHeight="1" spans="1:5">
       <c r="A633" t="s">
         <v>547</v>
       </c>
@@ -16183,7 +16270,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="634" customHeight="1" spans="1:5">
+    <row r="634" hidden="1" customHeight="1" spans="1:5">
       <c r="A634" t="s">
         <v>1134</v>
       </c>
@@ -16200,7 +16287,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="635" customHeight="1" spans="1:5">
+    <row r="635" hidden="1" customHeight="1" spans="1:5">
       <c r="A635" t="s">
         <v>1136</v>
       </c>
@@ -16217,7 +16304,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="636" customHeight="1" spans="1:5">
+    <row r="636" hidden="1" customHeight="1" spans="1:5">
       <c r="A636" t="s">
         <v>705</v>
       </c>
@@ -16234,7 +16321,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="637" customHeight="1" spans="1:5">
+    <row r="637" hidden="1" customHeight="1" spans="1:5">
       <c r="A637" t="s">
         <v>1139</v>
       </c>
@@ -16251,7 +16338,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="638" customHeight="1" spans="1:5">
+    <row r="638" hidden="1" customHeight="1" spans="1:5">
       <c r="A638" t="s">
         <v>1140</v>
       </c>
@@ -16268,7 +16355,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="639" customHeight="1" spans="1:5">
+    <row r="639" hidden="1" customHeight="1" spans="1:5">
       <c r="A639" t="s">
         <v>1141</v>
       </c>
@@ -16285,7 +16372,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="640" customHeight="1" spans="1:5">
+    <row r="640" hidden="1" customHeight="1" spans="1:5">
       <c r="A640" t="s">
         <v>1143</v>
       </c>
@@ -16302,7 +16389,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="641" customHeight="1" spans="1:5">
+    <row r="641" hidden="1" customHeight="1" spans="1:5">
       <c r="A641" t="s">
         <v>1145</v>
       </c>
@@ -16319,7 +16406,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="642" customHeight="1" spans="1:5">
+    <row r="642" hidden="1" customHeight="1" spans="1:5">
       <c r="A642" t="s">
         <v>1147</v>
       </c>
@@ -16336,7 +16423,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="643" customHeight="1" spans="1:5">
+    <row r="643" hidden="1" customHeight="1" spans="1:5">
       <c r="A643" t="s">
         <v>1149</v>
       </c>
@@ -16353,7 +16440,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="644" customHeight="1" spans="1:5">
+    <row r="644" hidden="1" customHeight="1" spans="1:5">
       <c r="A644" t="s">
         <v>1150</v>
       </c>
@@ -16370,7 +16457,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="645" customHeight="1" spans="1:5">
+    <row r="645" hidden="1" customHeight="1" spans="1:5">
       <c r="A645" t="s">
         <v>1152</v>
       </c>
@@ -16387,7 +16474,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="646" customHeight="1" spans="1:5">
+    <row r="646" hidden="1" customHeight="1" spans="1:5">
       <c r="A646" t="s">
         <v>1154</v>
       </c>
@@ -16404,7 +16491,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="647" customHeight="1" spans="1:5">
+    <row r="647" hidden="1" customHeight="1" spans="1:5">
       <c r="A647" t="s">
         <v>1155</v>
       </c>
@@ -16421,7 +16508,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="648" customHeight="1" spans="1:5">
+    <row r="648" hidden="1" customHeight="1" spans="1:5">
       <c r="A648" t="s">
         <v>1157</v>
       </c>
@@ -16438,7 +16525,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="649" customHeight="1" spans="1:5">
+    <row r="649" hidden="1" customHeight="1" spans="1:5">
       <c r="A649" t="s">
         <v>1159</v>
       </c>
@@ -16455,7 +16542,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="650" customHeight="1" spans="1:5">
+    <row r="650" hidden="1" customHeight="1" spans="1:5">
       <c r="A650" t="s">
         <v>1161</v>
       </c>
@@ -16472,7 +16559,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="651" customHeight="1" spans="1:5">
+    <row r="651" hidden="1" customHeight="1" spans="1:5">
       <c r="A651" t="s">
         <v>1162</v>
       </c>
@@ -16489,7 +16576,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="652" customHeight="1" spans="1:5">
+    <row r="652" hidden="1" customHeight="1" spans="1:5">
       <c r="A652" t="s">
         <v>1164</v>
       </c>
@@ -16506,7 +16593,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="653" customHeight="1" spans="1:5">
+    <row r="653" hidden="1" customHeight="1" spans="1:5">
       <c r="A653" t="s">
         <v>1165</v>
       </c>
@@ -16523,7 +16610,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="654" customHeight="1" spans="1:5">
+    <row r="654" hidden="1" customHeight="1" spans="1:5">
       <c r="A654" t="s">
         <v>1167</v>
       </c>
@@ -16540,7 +16627,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="655" customHeight="1" spans="1:5">
+    <row r="655" hidden="1" customHeight="1" spans="1:5">
       <c r="A655" t="s">
         <v>1169</v>
       </c>
@@ -16557,7 +16644,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="656" customHeight="1" spans="1:5">
+    <row r="656" hidden="1" customHeight="1" spans="1:5">
       <c r="A656" t="s">
         <v>1171</v>
       </c>
@@ -16574,7 +16661,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="657" customHeight="1" spans="1:5">
+    <row r="657" hidden="1" customHeight="1" spans="1:5">
       <c r="A657" t="s">
         <v>1173</v>
       </c>
@@ -16591,7 +16678,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="658" customHeight="1" spans="1:5">
+    <row r="658" hidden="1" customHeight="1" spans="1:5">
       <c r="A658" t="s">
         <v>1175</v>
       </c>
@@ -16608,7 +16695,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="659" customHeight="1" spans="1:5">
+    <row r="659" hidden="1" customHeight="1" spans="1:5">
       <c r="A659" t="s">
         <v>1177</v>
       </c>
@@ -17798,7 +17885,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="729" customHeight="1" spans="1:5">
+    <row r="729" hidden="1" customHeight="1" spans="1:5">
       <c r="A729" t="s">
         <v>1187</v>
       </c>
@@ -17809,13 +17896,13 @@
         <v>7</v>
       </c>
       <c r="D729" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E729" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="730" customHeight="1" spans="1:5">
+    <row r="730" hidden="1" customHeight="1" spans="1:5">
       <c r="A730" t="s">
         <v>873</v>
       </c>
@@ -17826,13 +17913,13 @@
         <v>7</v>
       </c>
       <c r="D730" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E730" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="731" customHeight="1" spans="1:5">
+    <row r="731" hidden="1" customHeight="1" spans="1:5">
       <c r="A731" t="s">
         <v>1292</v>
       </c>
@@ -17843,13 +17930,13 @@
         <v>7</v>
       </c>
       <c r="D731" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E731" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="732" customHeight="1" spans="1:5">
+    <row r="732" hidden="1" customHeight="1" spans="1:5">
       <c r="A732" t="s">
         <v>1294</v>
       </c>
@@ -17860,13 +17947,13 @@
         <v>7</v>
       </c>
       <c r="D732" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E732" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="733" customHeight="1" spans="1:5">
+    <row r="733" hidden="1" customHeight="1" spans="1:5">
       <c r="A733" t="s">
         <v>1296</v>
       </c>
@@ -17877,13 +17964,13 @@
         <v>7</v>
       </c>
       <c r="D733" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E733" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="734" customHeight="1" spans="1:5">
+    <row r="734" hidden="1" customHeight="1" spans="1:5">
       <c r="A734" t="s">
         <v>1298</v>
       </c>
@@ -17894,13 +17981,13 @@
         <v>7</v>
       </c>
       <c r="D734" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E734" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="735" customHeight="1" spans="1:5">
+    <row r="735" hidden="1" customHeight="1" spans="1:5">
       <c r="A735" t="s">
         <v>1300</v>
       </c>
@@ -17911,13 +17998,13 @@
         <v>7</v>
       </c>
       <c r="D735" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E735" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="736" customHeight="1" spans="1:5">
+    <row r="736" hidden="1" customHeight="1" spans="1:5">
       <c r="A736" t="s">
         <v>169</v>
       </c>
@@ -17928,13 +18015,13 @@
         <v>7</v>
       </c>
       <c r="D736" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E736" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="737" customHeight="1" spans="1:5">
+    <row r="737" hidden="1" customHeight="1" spans="1:5">
       <c r="A737" t="s">
         <v>1302</v>
       </c>
@@ -17945,13 +18032,13 @@
         <v>7</v>
       </c>
       <c r="D737" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E737" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="738" customHeight="1" spans="1:5">
+    <row r="738" hidden="1" customHeight="1" spans="1:5">
       <c r="A738" t="s">
         <v>1303</v>
       </c>
@@ -17962,13 +18049,13 @@
         <v>71</v>
       </c>
       <c r="D738" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E738" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="739" customHeight="1" spans="1:5">
+    <row r="739" hidden="1" customHeight="1" spans="1:5">
       <c r="A739" t="s">
         <v>91</v>
       </c>
@@ -17979,13 +18066,13 @@
         <v>71</v>
       </c>
       <c r="D739" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E739" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="740" customHeight="1" spans="1:5">
+    <row r="740" hidden="1" customHeight="1" spans="1:5">
       <c r="A740" t="s">
         <v>1134</v>
       </c>
@@ -17996,13 +18083,13 @@
         <v>71</v>
       </c>
       <c r="D740" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E740" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="741" customHeight="1" spans="1:5">
+    <row r="741" hidden="1" customHeight="1" spans="1:5">
       <c r="A741" t="s">
         <v>735</v>
       </c>
@@ -18013,13 +18100,13 @@
         <v>71</v>
       </c>
       <c r="D741" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E741" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="742" customHeight="1" spans="1:5">
+    <row r="742" hidden="1" customHeight="1" spans="1:5">
       <c r="A742" t="s">
         <v>1306</v>
       </c>
@@ -18030,13 +18117,13 @@
         <v>71</v>
       </c>
       <c r="D742" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E742" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="743" customHeight="1" spans="1:5">
+    <row r="743" hidden="1" customHeight="1" spans="1:5">
       <c r="A743" t="s">
         <v>1308</v>
       </c>
@@ -18047,13 +18134,13 @@
         <v>71</v>
       </c>
       <c r="D743" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E743" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="744" customHeight="1" spans="1:5">
+    <row r="744" hidden="1" customHeight="1" spans="1:5">
       <c r="A744" t="s">
         <v>833</v>
       </c>
@@ -18064,13 +18151,13 @@
         <v>71</v>
       </c>
       <c r="D744" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E744" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="745" customHeight="1" spans="1:5">
+    <row r="745" hidden="1" customHeight="1" spans="1:5">
       <c r="A745" t="s">
         <v>1311</v>
       </c>
@@ -18081,13 +18168,13 @@
         <v>71</v>
       </c>
       <c r="D745" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E745" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="746" customHeight="1" spans="1:5">
+    <row r="746" hidden="1" customHeight="1" spans="1:5">
       <c r="A746" t="s">
         <v>1312</v>
       </c>
@@ -18098,13 +18185,13 @@
         <v>7</v>
       </c>
       <c r="D746" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E746" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="747" customHeight="1" spans="1:5">
+    <row r="747" hidden="1" customHeight="1" spans="1:5">
       <c r="A747" t="s">
         <v>1315</v>
       </c>
@@ -18115,13 +18202,13 @@
         <v>7</v>
       </c>
       <c r="D747" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E747" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="748" customHeight="1" spans="1:5">
+    <row r="748" hidden="1" customHeight="1" spans="1:5">
       <c r="A748" t="s">
         <v>1316</v>
       </c>
@@ -18132,30 +18219,30 @@
         <v>7</v>
       </c>
       <c r="D748" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E748" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="749" customHeight="1" spans="1:5">
+    <row r="749" hidden="1" customHeight="1" spans="1:5">
       <c r="A749" t="s">
         <v>1317</v>
       </c>
       <c r="B749" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C749" t="s">
         <v>7</v>
       </c>
       <c r="D749" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E749" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="750" customHeight="1" spans="1:5">
+    <row r="750" hidden="1" customHeight="1" spans="1:5">
       <c r="A750" t="s">
         <v>1318</v>
       </c>
@@ -18166,13 +18253,13 @@
         <v>7</v>
       </c>
       <c r="D750" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E750" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="751" customHeight="1" spans="1:5">
+    <row r="751" hidden="1" customHeight="1" spans="1:5">
       <c r="A751" t="s">
         <v>1298</v>
       </c>
@@ -18183,13 +18270,13 @@
         <v>7</v>
       </c>
       <c r="D751" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E751" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="752" customHeight="1" spans="1:5">
+    <row r="752" hidden="1" customHeight="1" spans="1:5">
       <c r="A752" t="s">
         <v>1321</v>
       </c>
@@ -18200,13 +18287,13 @@
         <v>7</v>
       </c>
       <c r="D752" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E752" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="753" customHeight="1" spans="1:5">
+    <row r="753" hidden="1" customHeight="1" spans="1:5">
       <c r="A753" t="s">
         <v>1323</v>
       </c>
@@ -18217,13 +18304,13 @@
         <v>7</v>
       </c>
       <c r="D753" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E753" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="754" customHeight="1" spans="1:5">
+    <row r="754" hidden="1" customHeight="1" spans="1:5">
       <c r="A754" t="s">
         <v>662</v>
       </c>
@@ -18234,13 +18321,13 @@
         <v>7</v>
       </c>
       <c r="D754" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E754" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="755" customHeight="1" spans="1:5">
+    <row r="755" hidden="1" customHeight="1" spans="1:5">
       <c r="A755" t="s">
         <v>1326</v>
       </c>
@@ -18251,13 +18338,13 @@
         <v>71</v>
       </c>
       <c r="D755" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E755" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="756" customHeight="1" spans="1:5">
+    <row r="756" hidden="1" customHeight="1" spans="1:5">
       <c r="A756" t="s">
         <v>1327</v>
       </c>
@@ -18268,13 +18355,13 @@
         <v>71</v>
       </c>
       <c r="D756" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E756" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="757" customHeight="1" spans="1:5">
+    <row r="757" hidden="1" customHeight="1" spans="1:5">
       <c r="A757" t="s">
         <v>698</v>
       </c>
@@ -18285,13 +18372,13 @@
         <v>71</v>
       </c>
       <c r="D757" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E757" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="758" customHeight="1" spans="1:5">
+    <row r="758" hidden="1" customHeight="1" spans="1:5">
       <c r="A758" t="s">
         <v>1330</v>
       </c>
@@ -18302,13 +18389,13 @@
         <v>71</v>
       </c>
       <c r="D758" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E758" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="759" customHeight="1" spans="1:5">
+    <row r="759" hidden="1" customHeight="1" spans="1:5">
       <c r="A759" t="s">
         <v>1332</v>
       </c>
@@ -18319,13 +18406,13 @@
         <v>71</v>
       </c>
       <c r="D759" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E759" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="760" customHeight="1" spans="1:5">
+    <row r="760" hidden="1" customHeight="1" spans="1:5">
       <c r="A760" t="s">
         <v>1278</v>
       </c>
@@ -18336,13 +18423,13 @@
         <v>71</v>
       </c>
       <c r="D760" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E760" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="761" customHeight="1" spans="1:5">
+    <row r="761" hidden="1" customHeight="1" spans="1:5">
       <c r="A761" t="s">
         <v>1306</v>
       </c>
@@ -18353,13 +18440,13 @@
         <v>71</v>
       </c>
       <c r="D761" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E761" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="762" customHeight="1" spans="1:5">
+    <row r="762" hidden="1" customHeight="1" spans="1:5">
       <c r="A762" t="s">
         <v>1335</v>
       </c>
@@ -18370,13 +18457,13 @@
         <v>71</v>
       </c>
       <c r="D762" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E762" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="763" customHeight="1" spans="1:5">
+    <row r="763" hidden="1" customHeight="1" spans="1:5">
       <c r="A763" t="s">
         <v>811</v>
       </c>
@@ -18387,13 +18474,13 @@
         <v>71</v>
       </c>
       <c r="D763" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E763" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="764" customHeight="1" spans="1:5">
+    <row r="764" hidden="1" customHeight="1" spans="1:5">
       <c r="A764" t="s">
         <v>1338</v>
       </c>
@@ -18404,13 +18491,13 @@
         <v>7</v>
       </c>
       <c r="D764" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E764" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="765" customHeight="1" spans="1:5">
+    <row r="765" hidden="1" customHeight="1" spans="1:5">
       <c r="A765" t="s">
         <v>1341</v>
       </c>
@@ -18421,13 +18508,13 @@
         <v>7</v>
       </c>
       <c r="D765" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E765" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="766" customHeight="1" spans="1:5">
+    <row r="766" hidden="1" customHeight="1" spans="1:5">
       <c r="A766" t="s">
         <v>1343</v>
       </c>
@@ -18438,13 +18525,13 @@
         <v>7</v>
       </c>
       <c r="D766" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E766" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="767" customHeight="1" spans="1:5">
+    <row r="767" hidden="1" customHeight="1" spans="1:5">
       <c r="A767" t="s">
         <v>1345</v>
       </c>
@@ -18455,13 +18542,13 @@
         <v>7</v>
       </c>
       <c r="D767" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E767" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="768" customHeight="1" spans="1:5">
+    <row r="768" hidden="1" customHeight="1" spans="1:5">
       <c r="A768" t="s">
         <v>1347</v>
       </c>
@@ -18472,13 +18559,13 @@
         <v>7</v>
       </c>
       <c r="D768" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E768" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="769" customHeight="1" spans="1:5">
+    <row r="769" hidden="1" customHeight="1" spans="1:5">
       <c r="A769" t="s">
         <v>1349</v>
       </c>
@@ -18489,13 +18576,13 @@
         <v>7</v>
       </c>
       <c r="D769" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E769" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="770" customHeight="1" spans="1:5">
+    <row r="770" hidden="1" customHeight="1" spans="1:5">
       <c r="A770" t="s">
         <v>1349</v>
       </c>
@@ -18506,13 +18593,13 @@
         <v>7</v>
       </c>
       <c r="D770" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E770" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="771" customHeight="1" spans="1:5">
+    <row r="771" hidden="1" customHeight="1" spans="1:5">
       <c r="A771" t="s">
         <v>1352</v>
       </c>
@@ -18523,13 +18610,13 @@
         <v>7</v>
       </c>
       <c r="D771" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E771" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="772" customHeight="1" spans="1:5">
+    <row r="772" hidden="1" customHeight="1" spans="1:5">
       <c r="A772" t="s">
         <v>1354</v>
       </c>
@@ -18540,13 +18627,13 @@
         <v>7</v>
       </c>
       <c r="D772" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E772" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="773" customHeight="1" spans="1:5">
+    <row r="773" hidden="1" customHeight="1" spans="1:5">
       <c r="A773" t="s">
         <v>140</v>
       </c>
@@ -18557,13 +18644,13 @@
         <v>7</v>
       </c>
       <c r="D773" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E773" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="774" customHeight="1" spans="1:5">
+    <row r="774" hidden="1" customHeight="1" spans="1:5">
       <c r="A774" t="s">
         <v>55</v>
       </c>
@@ -18574,13 +18661,13 @@
         <v>7</v>
       </c>
       <c r="D774" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E774" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="775" customHeight="1" spans="1:5">
+    <row r="775" hidden="1" customHeight="1" spans="1:5">
       <c r="A775" t="s">
         <v>1358</v>
       </c>
@@ -18591,13 +18678,13 @@
         <v>7</v>
       </c>
       <c r="D775" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E775" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="776" customHeight="1" spans="1:5">
+    <row r="776" hidden="1" customHeight="1" spans="1:5">
       <c r="A776" t="s">
         <v>1360</v>
       </c>
@@ -18608,13 +18695,13 @@
         <v>71</v>
       </c>
       <c r="D776" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E776" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="777" customHeight="1" spans="1:5">
+    <row r="777" hidden="1" customHeight="1" spans="1:5">
       <c r="A777" t="s">
         <v>1362</v>
       </c>
@@ -18625,13 +18712,13 @@
         <v>71</v>
       </c>
       <c r="D777" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E777" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="778" customHeight="1" spans="1:5">
+    <row r="778" hidden="1" customHeight="1" spans="1:5">
       <c r="A778" t="s">
         <v>1364</v>
       </c>
@@ -18642,13 +18729,13 @@
         <v>71</v>
       </c>
       <c r="D778" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E778" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="779" customHeight="1" spans="1:5">
+    <row r="779" hidden="1" customHeight="1" spans="1:5">
       <c r="A779" t="s">
         <v>1366</v>
       </c>
@@ -18659,13 +18746,13 @@
         <v>71</v>
       </c>
       <c r="D779" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E779" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="780" customHeight="1" spans="1:5">
+    <row r="780" hidden="1" customHeight="1" spans="1:5">
       <c r="A780" t="s">
         <v>1252</v>
       </c>
@@ -18676,13 +18763,13 @@
         <v>71</v>
       </c>
       <c r="D780" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E780" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="781" customHeight="1" spans="1:5">
+    <row r="781" hidden="1" customHeight="1" spans="1:5">
       <c r="A781" t="s">
         <v>1330</v>
       </c>
@@ -18693,13 +18780,13 @@
         <v>71</v>
       </c>
       <c r="D781" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E781" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="782" customHeight="1" spans="1:5">
+    <row r="782" hidden="1" customHeight="1" spans="1:5">
       <c r="A782" t="s">
         <v>1369</v>
       </c>
@@ -18710,13 +18797,13 @@
         <v>71</v>
       </c>
       <c r="D782" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E782" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="783" customHeight="1" spans="1:5">
+    <row r="783" hidden="1" customHeight="1" spans="1:5">
       <c r="A783" t="s">
         <v>1371</v>
       </c>
@@ -18727,13 +18814,13 @@
         <v>71</v>
       </c>
       <c r="D783" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E783" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="784" customHeight="1" spans="1:5">
+    <row r="784" hidden="1" customHeight="1" spans="1:5">
       <c r="A784" t="s">
         <v>730</v>
       </c>
@@ -18744,13 +18831,13 @@
         <v>71</v>
       </c>
       <c r="D784" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E784" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="785" customHeight="1" spans="1:5">
+    <row r="785" hidden="1" customHeight="1" spans="1:5">
       <c r="A785" t="s">
         <v>101</v>
       </c>
@@ -18761,13 +18848,13 @@
         <v>71</v>
       </c>
       <c r="D785" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E785" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="786" customHeight="1" spans="1:5">
+    <row r="786" hidden="1" customHeight="1" spans="1:5">
       <c r="A786" t="s">
         <v>1375</v>
       </c>
@@ -18778,13 +18865,13 @@
         <v>71</v>
       </c>
       <c r="D786" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E786" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="787" customHeight="1" spans="1:5">
+    <row r="787" hidden="1" customHeight="1" spans="1:5">
       <c r="A787" t="s">
         <v>1377</v>
       </c>
@@ -18795,13 +18882,13 @@
         <v>71</v>
       </c>
       <c r="D787" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E787" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="788" customHeight="1" spans="1:5">
+    <row r="788" hidden="1" customHeight="1" spans="1:5">
       <c r="A788" t="s">
         <v>1379</v>
       </c>
@@ -18812,13 +18899,13 @@
         <v>71</v>
       </c>
       <c r="D788" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E788" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="789" customHeight="1" spans="1:5">
+    <row r="789" hidden="1" customHeight="1" spans="1:5">
       <c r="A789" t="s">
         <v>1381</v>
       </c>
@@ -18829,13 +18916,13 @@
         <v>7</v>
       </c>
       <c r="D789" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E789" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="790" customHeight="1" spans="1:5">
+    <row r="790" hidden="1" customHeight="1" spans="1:5">
       <c r="A790" t="s">
         <v>749</v>
       </c>
@@ -18846,13 +18933,13 @@
         <v>7</v>
       </c>
       <c r="D790" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E790" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="791" customHeight="1" spans="1:5">
+    <row r="791" hidden="1" customHeight="1" spans="1:5">
       <c r="A791" t="s">
         <v>1384</v>
       </c>
@@ -18863,13 +18950,13 @@
         <v>7</v>
       </c>
       <c r="D791" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E791" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="792" customHeight="1" spans="1:5">
+    <row r="792" hidden="1" customHeight="1" spans="1:5">
       <c r="A792" t="s">
         <v>1386</v>
       </c>
@@ -18880,13 +18967,13 @@
         <v>7</v>
       </c>
       <c r="D792" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E792" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="793" customHeight="1" spans="1:5">
+    <row r="793" hidden="1" customHeight="1" spans="1:5">
       <c r="A793" t="s">
         <v>1388</v>
       </c>
@@ -18897,13 +18984,13 @@
         <v>7</v>
       </c>
       <c r="D793" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E793" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="794" customHeight="1" spans="1:5">
+    <row r="794" hidden="1" customHeight="1" spans="1:5">
       <c r="A794" t="s">
         <v>1390</v>
       </c>
@@ -18914,13 +19001,13 @@
         <v>7</v>
       </c>
       <c r="D794" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E794" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="795" customHeight="1" spans="1:5">
+    <row r="795" hidden="1" customHeight="1" spans="1:5">
       <c r="A795" t="s">
         <v>1392</v>
       </c>
@@ -18931,13 +19018,13 @@
         <v>7</v>
       </c>
       <c r="D795" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E795" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="796" customHeight="1" spans="1:5">
+    <row r="796" hidden="1" customHeight="1" spans="1:5">
       <c r="A796" t="s">
         <v>1393</v>
       </c>
@@ -18948,13 +19035,13 @@
         <v>7</v>
       </c>
       <c r="D796" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E796" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="797" customHeight="1" spans="1:5">
+    <row r="797" hidden="1" customHeight="1" spans="1:5">
       <c r="A797" t="s">
         <v>1395</v>
       </c>
@@ -18965,13 +19052,13 @@
         <v>7</v>
       </c>
       <c r="D797" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E797" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="798" customHeight="1" spans="1:5">
+    <row r="798" hidden="1" customHeight="1" spans="1:5">
       <c r="A798" t="s">
         <v>1396</v>
       </c>
@@ -18982,13 +19069,13 @@
         <v>7</v>
       </c>
       <c r="D798" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E798" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="799" customHeight="1" spans="1:5">
+    <row r="799" hidden="1" customHeight="1" spans="1:5">
       <c r="A799" t="s">
         <v>1398</v>
       </c>
@@ -18999,13 +19086,13 @@
         <v>71</v>
       </c>
       <c r="D799" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E799" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="800" customHeight="1" spans="1:5">
+    <row r="800" hidden="1" customHeight="1" spans="1:5">
       <c r="A800" t="s">
         <v>1400</v>
       </c>
@@ -19016,13 +19103,13 @@
         <v>71</v>
       </c>
       <c r="D800" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E800" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="801" customHeight="1" spans="1:5">
+    <row r="801" hidden="1" customHeight="1" spans="1:5">
       <c r="A801" t="s">
         <v>1402</v>
       </c>
@@ -19033,13 +19120,13 @@
         <v>71</v>
       </c>
       <c r="D801" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E801" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="802" customHeight="1" spans="1:5">
+    <row r="802" hidden="1" customHeight="1" spans="1:5">
       <c r="A802" t="s">
         <v>1403</v>
       </c>
@@ -19050,13 +19137,13 @@
         <v>71</v>
       </c>
       <c r="D802" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E802" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="803" customHeight="1" spans="1:5">
+    <row r="803" hidden="1" customHeight="1" spans="1:5">
       <c r="A803" t="s">
         <v>1405</v>
       </c>
@@ -19067,13 +19154,13 @@
         <v>71</v>
       </c>
       <c r="D803" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E803" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="804" customHeight="1" spans="1:5">
+    <row r="804" hidden="1" customHeight="1" spans="1:5">
       <c r="A804" t="s">
         <v>1136</v>
       </c>
@@ -19084,13 +19171,13 @@
         <v>71</v>
       </c>
       <c r="D804" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E804" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="805" customHeight="1" spans="1:5">
+    <row r="805" hidden="1" customHeight="1" spans="1:5">
       <c r="A805" t="s">
         <v>1408</v>
       </c>
@@ -19101,13 +19188,13 @@
         <v>71</v>
       </c>
       <c r="D805" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E805" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="806" customHeight="1" spans="1:5">
+    <row r="806" hidden="1" customHeight="1" spans="1:5">
       <c r="A806" t="s">
         <v>1410</v>
       </c>
@@ -19118,13 +19205,13 @@
         <v>71</v>
       </c>
       <c r="D806" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E806" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="807" customHeight="1" spans="1:5">
+    <row r="807" hidden="1" customHeight="1" spans="1:5">
       <c r="A807" t="s">
         <v>1412</v>
       </c>
@@ -19135,13 +19222,13 @@
         <v>71</v>
       </c>
       <c r="D807" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E807" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="808" customHeight="1" spans="1:5">
+    <row r="808" hidden="1" customHeight="1" spans="1:5">
       <c r="A808" t="s">
         <v>1414</v>
       </c>
@@ -19152,13 +19239,13 @@
         <v>71</v>
       </c>
       <c r="D808" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E808" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="809" customHeight="1" spans="1:5">
+    <row r="809" hidden="1" customHeight="1" spans="1:5">
       <c r="A809" t="s">
         <v>1416</v>
       </c>
@@ -19169,13 +19256,13 @@
         <v>71</v>
       </c>
       <c r="D809" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E809" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="810" customHeight="1" spans="1:5">
+    <row r="810" hidden="1" customHeight="1" spans="1:5">
       <c r="A810" t="s">
         <v>1418</v>
       </c>
@@ -19192,7 +19279,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="811" customHeight="1" spans="1:5">
+    <row r="811" hidden="1" customHeight="1" spans="1:5">
       <c r="A811" t="s">
         <v>1421</v>
       </c>
@@ -19209,7 +19296,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="812" customHeight="1" spans="1:5">
+    <row r="812" hidden="1" customHeight="1" spans="1:5">
       <c r="A812" t="s">
         <v>1422</v>
       </c>
@@ -19226,7 +19313,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="813" customHeight="1" spans="1:5">
+    <row r="813" hidden="1" customHeight="1" spans="1:5">
       <c r="A813" t="s">
         <v>1423</v>
       </c>
@@ -19243,7 +19330,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="814" customHeight="1" spans="1:5">
+    <row r="814" hidden="1" customHeight="1" spans="1:5">
       <c r="A814" t="s">
         <v>1425</v>
       </c>
@@ -19260,7 +19347,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="815" customHeight="1" spans="1:5">
+    <row r="815" hidden="1" customHeight="1" spans="1:5">
       <c r="A815" t="s">
         <v>857</v>
       </c>
@@ -19277,7 +19364,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="816" customHeight="1" spans="1:5">
+    <row r="816" hidden="1" customHeight="1" spans="1:5">
       <c r="A816" t="s">
         <v>1428</v>
       </c>
@@ -19294,7 +19381,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="817" customHeight="1" spans="1:5">
+    <row r="817" hidden="1" customHeight="1" spans="1:5">
       <c r="A817" t="s">
         <v>1429</v>
       </c>
@@ -19311,7 +19398,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="818" customHeight="1" spans="1:5">
+    <row r="818" hidden="1" customHeight="1" spans="1:5">
       <c r="A818" t="s">
         <v>1430</v>
       </c>
@@ -19328,7 +19415,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="819" customHeight="1" spans="1:5">
+    <row r="819" hidden="1" customHeight="1" spans="1:5">
       <c r="A819" t="s">
         <v>1432</v>
       </c>
@@ -19345,7 +19432,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="820" customHeight="1" spans="1:5">
+    <row r="820" hidden="1" customHeight="1" spans="1:5">
       <c r="A820" t="s">
         <v>1433</v>
       </c>
@@ -19362,7 +19449,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="821" customHeight="1" spans="1:5">
+    <row r="821" hidden="1" customHeight="1" spans="1:5">
       <c r="A821" t="s">
         <v>1434</v>
       </c>
@@ -19379,7 +19466,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="822" customHeight="1" spans="1:5">
+    <row r="822" hidden="1" customHeight="1" spans="1:5">
       <c r="A822" t="s">
         <v>1436</v>
       </c>
@@ -19396,7 +19483,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="823" customHeight="1" spans="1:5">
+    <row r="823" hidden="1" customHeight="1" spans="1:5">
       <c r="A823" t="s">
         <v>1437</v>
       </c>
@@ -19413,7 +19500,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="824" customHeight="1" spans="1:5">
+    <row r="824" hidden="1" customHeight="1" spans="1:5">
       <c r="A824" t="s">
         <v>1439</v>
       </c>
@@ -19430,7 +19517,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="825" customHeight="1" spans="1:5">
+    <row r="825" hidden="1" customHeight="1" spans="1:5">
       <c r="A825" t="s">
         <v>1441</v>
       </c>
@@ -19447,7 +19534,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="826" customHeight="1" spans="1:5">
+    <row r="826" hidden="1" customHeight="1" spans="1:5">
       <c r="A826" t="s">
         <v>1442</v>
       </c>
@@ -19464,7 +19551,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="827" customHeight="1" spans="1:5">
+    <row r="827" hidden="1" customHeight="1" spans="1:5">
       <c r="A827" t="s">
         <v>1444</v>
       </c>
@@ -19481,7 +19568,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="828" customHeight="1" spans="1:5">
+    <row r="828" hidden="1" customHeight="1" spans="1:5">
       <c r="A828" t="s">
         <v>1446</v>
       </c>
@@ -19498,7 +19585,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="829" customHeight="1" spans="1:5">
+    <row r="829" hidden="1" customHeight="1" spans="1:5">
       <c r="A829" t="s">
         <v>535</v>
       </c>
@@ -19515,7 +19602,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="830" customHeight="1" spans="1:5">
+    <row r="830" hidden="1" customHeight="1" spans="1:5">
       <c r="A830" t="s">
         <v>550</v>
       </c>
@@ -19532,7 +19619,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="831" customHeight="1" spans="1:5">
+    <row r="831" hidden="1" customHeight="1" spans="1:5">
       <c r="A831" t="s">
         <v>1449</v>
       </c>
@@ -19549,7 +19636,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="832" customHeight="1" spans="1:5">
+    <row r="832" hidden="1" customHeight="1" spans="1:5">
       <c r="A832" t="s">
         <v>1451</v>
       </c>
@@ -19566,12 +19653,12 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="833" customHeight="1" spans="1:5">
+    <row r="833" hidden="1" customHeight="1" spans="1:5">
       <c r="A833" t="s">
         <v>614</v>
       </c>
       <c r="B833" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C833" t="s">
         <v>7</v>
@@ -19583,7 +19670,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="834" customHeight="1" spans="1:5">
+    <row r="834" hidden="1" customHeight="1" spans="1:5">
       <c r="A834" t="s">
         <v>1452</v>
       </c>
@@ -19600,7 +19687,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="835" customHeight="1" spans="1:5">
+    <row r="835" hidden="1" customHeight="1" spans="1:5">
       <c r="A835" t="s">
         <v>1453</v>
       </c>
@@ -19617,7 +19704,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="836" customHeight="1" spans="1:5">
+    <row r="836" hidden="1" customHeight="1" spans="1:5">
       <c r="A836" t="s">
         <v>634</v>
       </c>
@@ -19634,7 +19721,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="837" customHeight="1" spans="1:5">
+    <row r="837" hidden="1" customHeight="1" spans="1:5">
       <c r="A837" t="s">
         <v>1455</v>
       </c>
@@ -19651,7 +19738,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="838" customHeight="1" spans="1:5">
+    <row r="838" hidden="1" customHeight="1" spans="1:5">
       <c r="A838" t="s">
         <v>1457</v>
       </c>
@@ -19668,7 +19755,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="839" customHeight="1" spans="1:5">
+    <row r="839" hidden="1" customHeight="1" spans="1:5">
       <c r="A839" t="s">
         <v>1459</v>
       </c>
@@ -19685,7 +19772,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="840" customHeight="1" spans="1:5">
+    <row r="840" hidden="1" customHeight="1" spans="1:5">
       <c r="A840" t="s">
         <v>1460</v>
       </c>
@@ -19702,7 +19789,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="841" customHeight="1" spans="1:5">
+    <row r="841" hidden="1" customHeight="1" spans="1:5">
       <c r="A841" t="s">
         <v>1462</v>
       </c>
@@ -19719,7 +19806,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="842" customHeight="1" spans="1:5">
+    <row r="842" hidden="1" customHeight="1" spans="1:5">
       <c r="A842" t="s">
         <v>742</v>
       </c>
@@ -19736,7 +19823,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="843" customHeight="1" spans="1:5">
+    <row r="843" hidden="1" customHeight="1" spans="1:5">
       <c r="A843" t="s">
         <v>1465</v>
       </c>
@@ -19753,7 +19840,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="844" customHeight="1" spans="1:5">
+    <row r="844" hidden="1" customHeight="1" spans="1:5">
       <c r="A844" t="s">
         <v>1467</v>
       </c>
@@ -19770,7 +19857,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="845" customHeight="1" spans="1:5">
+    <row r="845" hidden="1" customHeight="1" spans="1:5">
       <c r="A845" t="s">
         <v>803</v>
       </c>
@@ -19787,7 +19874,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="846" customHeight="1" spans="1:5">
+    <row r="846" hidden="1" customHeight="1" spans="1:5">
       <c r="A846" t="s">
         <v>1470</v>
       </c>
@@ -19804,7 +19891,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="847" customHeight="1" spans="1:5">
+    <row r="847" hidden="1" customHeight="1" spans="1:5">
       <c r="A847" t="s">
         <v>1472</v>
       </c>
@@ -19821,7 +19908,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="848" customHeight="1" spans="1:5">
+    <row r="848" hidden="1" customHeight="1" spans="1:5">
       <c r="A848" t="s">
         <v>1474</v>
       </c>
@@ -19838,7 +19925,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="849" customHeight="1" spans="1:5">
+    <row r="849" hidden="1" customHeight="1" spans="1:5">
       <c r="A849" t="s">
         <v>1476</v>
       </c>
@@ -19855,7 +19942,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="850" customHeight="1" spans="1:5">
+    <row r="850" hidden="1" customHeight="1" spans="1:5">
       <c r="A850" t="s">
         <v>1312</v>
       </c>
@@ -19866,13 +19953,13 @@
         <v>7</v>
       </c>
       <c r="D850" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E850" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="851" customHeight="1" spans="1:5">
+    <row r="851" hidden="1" customHeight="1" spans="1:5">
       <c r="A851" t="s">
         <v>1423</v>
       </c>
@@ -19883,13 +19970,13 @@
         <v>7</v>
       </c>
       <c r="D851" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E851" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="852" customHeight="1" spans="1:5">
+    <row r="852" hidden="1" customHeight="1" spans="1:5">
       <c r="A852" t="s">
         <v>330</v>
       </c>
@@ -19900,13 +19987,13 @@
         <v>7</v>
       </c>
       <c r="D852" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E852" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="853" customHeight="1" spans="1:5">
+    <row r="853" hidden="1" customHeight="1" spans="1:5">
       <c r="A853" t="s">
         <v>235</v>
       </c>
@@ -19917,13 +20004,13 @@
         <v>7</v>
       </c>
       <c r="D853" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E853" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="854" customHeight="1" spans="1:5">
+    <row r="854" hidden="1" customHeight="1" spans="1:5">
       <c r="A854" t="s">
         <v>1482</v>
       </c>
@@ -19934,13 +20021,13 @@
         <v>7</v>
       </c>
       <c r="D854" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E854" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="855" customHeight="1" spans="1:5">
+    <row r="855" hidden="1" customHeight="1" spans="1:5">
       <c r="A855" t="s">
         <v>1483</v>
       </c>
@@ -19951,13 +20038,13 @@
         <v>7</v>
       </c>
       <c r="D855" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E855" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="856" customHeight="1" spans="1:5">
+    <row r="856" hidden="1" customHeight="1" spans="1:5">
       <c r="A856" t="s">
         <v>419</v>
       </c>
@@ -19968,13 +20055,13 @@
         <v>7</v>
       </c>
       <c r="D856" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E856" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="857" customHeight="1" spans="1:5">
+    <row r="857" hidden="1" customHeight="1" spans="1:5">
       <c r="A857" t="s">
         <v>1485</v>
       </c>
@@ -19985,13 +20072,13 @@
         <v>7</v>
       </c>
       <c r="D857" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E857" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="858" customHeight="1" spans="1:5">
+    <row r="858" hidden="1" customHeight="1" spans="1:5">
       <c r="A858" t="s">
         <v>1487</v>
       </c>
@@ -20002,13 +20089,13 @@
         <v>7</v>
       </c>
       <c r="D858" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E858" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="859" customHeight="1" spans="1:5">
+    <row r="859" hidden="1" customHeight="1" spans="1:5">
       <c r="A859" t="s">
         <v>567</v>
       </c>
@@ -20019,13 +20106,13 @@
         <v>7</v>
       </c>
       <c r="D859" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E859" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="860" customHeight="1" spans="1:5">
+    <row r="860" hidden="1" customHeight="1" spans="1:5">
       <c r="A860" t="s">
         <v>1489</v>
       </c>
@@ -20036,13 +20123,13 @@
         <v>7</v>
       </c>
       <c r="D860" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E860" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="861" customHeight="1" spans="1:5">
+    <row r="861" hidden="1" customHeight="1" spans="1:5">
       <c r="A861" t="s">
         <v>1491</v>
       </c>
@@ -20053,13 +20140,13 @@
         <v>7</v>
       </c>
       <c r="D861" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E861" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="862" customHeight="1" spans="1:5">
+    <row r="862" hidden="1" customHeight="1" spans="1:5">
       <c r="A862" t="s">
         <v>1492</v>
       </c>
@@ -20070,13 +20157,13 @@
         <v>7</v>
       </c>
       <c r="D862" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E862" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="863" customHeight="1" spans="1:5">
+    <row r="863" hidden="1" customHeight="1" spans="1:5">
       <c r="A863" t="s">
         <v>1494</v>
       </c>
@@ -20087,13 +20174,13 @@
         <v>7</v>
       </c>
       <c r="D863" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E863" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="864" customHeight="1" spans="1:5">
+    <row r="864" hidden="1" customHeight="1" spans="1:5">
       <c r="A864" t="s">
         <v>1495</v>
       </c>
@@ -20104,13 +20191,13 @@
         <v>7</v>
       </c>
       <c r="D864" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E864" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="865" customHeight="1" spans="1:5">
+    <row r="865" hidden="1" customHeight="1" spans="1:5">
       <c r="A865" t="s">
         <v>1241</v>
       </c>
@@ -20121,13 +20208,13 @@
         <v>7</v>
       </c>
       <c r="D865" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E865" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="866" customHeight="1" spans="1:5">
+    <row r="866" hidden="1" customHeight="1" spans="1:5">
       <c r="A866" t="s">
         <v>1496</v>
       </c>
@@ -20138,13 +20225,13 @@
         <v>7</v>
       </c>
       <c r="D866" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E866" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="867" customHeight="1" spans="1:5">
+    <row r="867" hidden="1" customHeight="1" spans="1:5">
       <c r="A867" t="s">
         <v>1497</v>
       </c>
@@ -20155,13 +20242,13 @@
         <v>7</v>
       </c>
       <c r="D867" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E867" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="868" customHeight="1" spans="1:5">
+    <row r="868" hidden="1" customHeight="1" spans="1:5">
       <c r="A868" t="s">
         <v>1499</v>
       </c>
@@ -20172,13 +20259,13 @@
         <v>7</v>
       </c>
       <c r="D868" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E868" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="869" customHeight="1" spans="1:5">
+    <row r="869" hidden="1" customHeight="1" spans="1:5">
       <c r="A869" t="s">
         <v>802</v>
       </c>
@@ -20189,13 +20276,13 @@
         <v>7</v>
       </c>
       <c r="D869" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E869" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="870" customHeight="1" spans="1:5">
+    <row r="870" hidden="1" customHeight="1" spans="1:5">
       <c r="A870" t="s">
         <v>1501</v>
       </c>
@@ -20206,13 +20293,13 @@
         <v>7</v>
       </c>
       <c r="D870" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E870" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="871" customHeight="1" spans="1:5">
+    <row r="871" hidden="1" customHeight="1" spans="1:5">
       <c r="A871" t="s">
         <v>1414</v>
       </c>
@@ -20223,13 +20310,13 @@
         <v>7</v>
       </c>
       <c r="D871" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E871" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="872" customHeight="1" spans="1:5">
+    <row r="872" hidden="1" customHeight="1" spans="1:5">
       <c r="A872" t="s">
         <v>1504</v>
       </c>
@@ -20240,13 +20327,13 @@
         <v>7</v>
       </c>
       <c r="D872" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E872" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="873" customHeight="1" spans="1:5">
+    <row r="873" hidden="1" customHeight="1" spans="1:5">
       <c r="A873" t="s">
         <v>1173</v>
       </c>
@@ -20257,13 +20344,13 @@
         <v>7</v>
       </c>
       <c r="D873" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E873" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="874" customHeight="1" spans="1:5">
+    <row r="874" hidden="1" customHeight="1" spans="1:5">
       <c r="A874" t="s">
         <v>1507</v>
       </c>
@@ -20274,13 +20361,13 @@
         <v>7</v>
       </c>
       <c r="D874" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E874" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="875" customHeight="1" spans="1:5">
+    <row r="875" hidden="1" customHeight="1" spans="1:5">
       <c r="A875" t="s">
         <v>1508</v>
       </c>
@@ -20291,7 +20378,7 @@
         <v>7</v>
       </c>
       <c r="D875" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E875" t="s">
         <v>1479</v>
@@ -20299,6 +20386,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E875" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="L3ETT"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Liste des étudiants-2025-2026.xlsx
+++ b/Liste des étudiants-2025-2026.xlsx
@@ -2564,7 +2564,7 @@
     <t>Aissa abd elazziz</t>
   </si>
   <si>
-    <t>L2ETT</t>
+    <t>L2ELT</t>
   </si>
   <si>
     <t>ABDELLAOUI</t>
@@ -3572,7 +3572,7 @@
     <t>ABDELHAMID (AD)</t>
   </si>
   <si>
-    <t>L3ETT</t>
+    <t>L3ELT</t>
   </si>
   <si>
     <t>ADDA</t>
@@ -5499,9 +5499,9 @@
   <dimension ref="A1:E875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomLeft" activeCell="E661" sqref="E661:E728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>

--- a/Liste des étudiants-2025-2026.xlsx
+++ b/Liste des étudiants-2025-2026.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="1512">
   <si>
     <t>Nom</t>
   </si>
@@ -4560,6 +4560,12 @@
   </si>
   <si>
     <t>DJAOUED ABDER</t>
+  </si>
+  <si>
+    <t>Si Moussa</t>
+  </si>
+  <si>
+    <t>Djamila</t>
   </si>
 </sst>
 </file>
@@ -5194,7 +5200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5203,6 +5209,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5282,7 +5289,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Réponses au formulaire 1-style" pivot="0" count="3" xr9:uid="{27A4199A-A9AC-441D-857F-5A6D3C63BFFE}">
+    <tableStyle name="Réponses au formulaire 1-style" pivot="0" count="3" xr9:uid="{74449AFD-70C7-4960-9EE2-7718CC376254}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -5493,15 +5500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E875"/>
+  <dimension ref="A1:E876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A860" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E661" sqref="E661:E728"/>
+      <selection pane="bottomLeft" activeCell="F867" sqref="F867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -5526,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" hidden="1" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5543,7 +5550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" hidden="1" customHeight="1" spans="1:5">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5560,7 +5567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" hidden="1" customHeight="1" spans="1:5">
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5577,7 +5584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:5">
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5594,7 +5601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:5">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5611,7 +5618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:5">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5628,7 +5635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:5">
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:5">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:5">
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:5">
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -5696,7 +5703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:5">
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5713,7 +5720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:5">
+    <row r="13" customHeight="1" spans="1:5">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:5">
+    <row r="14" customHeight="1" spans="1:5">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5747,7 +5754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:5">
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5764,7 +5771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:5">
+    <row r="16" customHeight="1" spans="1:5">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5781,7 +5788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:5">
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5798,7 +5805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:5">
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:5">
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:5">
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5849,7 +5856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:5">
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -5866,7 +5873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:5">
+    <row r="22" customHeight="1" spans="1:5">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -5883,7 +5890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:5">
+    <row r="23" customHeight="1" spans="1:5">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -5900,7 +5907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:5">
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -5917,7 +5924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:5">
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -5934,7 +5941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:5">
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -5951,7 +5958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:5">
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -5968,7 +5975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:5">
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -5985,7 +5992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:5">
+    <row r="29" customHeight="1" spans="1:5">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6002,7 +6009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:5">
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:5">
+    <row r="31" customHeight="1" spans="1:5">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -6036,7 +6043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:5">
+    <row r="32" customHeight="1" spans="1:5">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -6053,7 +6060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:5">
+    <row r="33" customHeight="1" spans="1:5">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -6070,7 +6077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:5">
+    <row r="34" customHeight="1" spans="1:5">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:5">
+    <row r="35" customHeight="1" spans="1:5">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -6104,7 +6111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:5">
+    <row r="36" customHeight="1" spans="1:5">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -6121,7 +6128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="1:5">
+    <row r="37" customHeight="1" spans="1:5">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -6138,7 +6145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="1:5">
+    <row r="38" customHeight="1" spans="1:5">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -6155,7 +6162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:5">
+    <row r="39" customHeight="1" spans="1:5">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -6172,7 +6179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:5">
+    <row r="40" customHeight="1" spans="1:5">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6189,7 +6196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:5">
+    <row r="41" customHeight="1" spans="1:5">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:5">
+    <row r="42" customHeight="1" spans="1:5">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:5">
+    <row r="43" customHeight="1" spans="1:5">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -6240,7 +6247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:5">
+    <row r="44" customHeight="1" spans="1:5">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -6257,7 +6264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:5">
+    <row r="45" customHeight="1" spans="1:5">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -6274,7 +6281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:5">
+    <row r="46" customHeight="1" spans="1:5">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -6291,7 +6298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:5">
+    <row r="47" customHeight="1" spans="1:5">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -6308,7 +6315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:5">
+    <row r="48" customHeight="1" spans="1:5">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -6325,7 +6332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:5">
+    <row r="49" customHeight="1" spans="1:5">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -6342,7 +6349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:5">
+    <row r="50" customHeight="1" spans="1:5">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -6359,7 +6366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:5">
+    <row r="51" customHeight="1" spans="1:5">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -6376,7 +6383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:5">
+    <row r="52" customHeight="1" spans="1:5">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -6393,7 +6400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:5">
+    <row r="53" customHeight="1" spans="1:5">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -6410,7 +6417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:5">
+    <row r="54" customHeight="1" spans="1:5">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6427,7 +6434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:5">
+    <row r="55" customHeight="1" spans="1:5">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -6444,7 +6451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" hidden="1" customHeight="1" spans="1:5">
+    <row r="56" customHeight="1" spans="1:5">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -6461,7 +6468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" hidden="1" customHeight="1" spans="1:5">
+    <row r="57" customHeight="1" spans="1:5">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -6478,7 +6485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" hidden="1" customHeight="1" spans="1:5">
+    <row r="58" customHeight="1" spans="1:5">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -6495,7 +6502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:5">
+    <row r="59" customHeight="1" spans="1:5">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -6512,7 +6519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:5">
+    <row r="60" customHeight="1" spans="1:5">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -6529,7 +6536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:5">
+    <row r="61" customHeight="1" spans="1:5">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -6546,7 +6553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:5">
+    <row r="62" customHeight="1" spans="1:5">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:5">
+    <row r="63" customHeight="1" spans="1:5">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -6580,7 +6587,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:5">
+    <row r="64" customHeight="1" spans="1:5">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -6597,7 +6604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:5">
+    <row r="65" customHeight="1" spans="1:5">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -6614,7 +6621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:5">
+    <row r="66" customHeight="1" spans="1:5">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -6631,7 +6638,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:5">
+    <row r="67" customHeight="1" spans="1:5">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -6648,7 +6655,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:5">
+    <row r="68" customHeight="1" spans="1:5">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -6665,7 +6672,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:5">
+    <row r="69" customHeight="1" spans="1:5">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -6682,7 +6689,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:5">
+    <row r="70" customHeight="1" spans="1:5">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -6699,7 +6706,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:5">
+    <row r="71" customHeight="1" spans="1:5">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -6716,7 +6723,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:5">
+    <row r="72" customHeight="1" spans="1:5">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -6733,7 +6740,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:5">
+    <row r="73" customHeight="1" spans="1:5">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -6750,7 +6757,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:5">
+    <row r="74" customHeight="1" spans="1:5">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6767,7 +6774,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:5">
+    <row r="75" customHeight="1" spans="1:5">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -6784,7 +6791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:5">
+    <row r="76" customHeight="1" spans="1:5">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -6801,7 +6808,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:5">
+    <row r="77" customHeight="1" spans="1:5">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -6818,7 +6825,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:5">
+    <row r="78" customHeight="1" spans="1:5">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -6835,7 +6842,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:5">
+    <row r="79" customHeight="1" spans="1:5">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -6852,7 +6859,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:5">
+    <row r="80" customHeight="1" spans="1:5">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:5">
+    <row r="81" customHeight="1" spans="1:5">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -6886,7 +6893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:5">
+    <row r="82" customHeight="1" spans="1:5">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -6903,7 +6910,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:5">
+    <row r="83" customHeight="1" spans="1:5">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -6920,7 +6927,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:5">
+    <row r="84" customHeight="1" spans="1:5">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -6937,7 +6944,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:5">
+    <row r="85" customHeight="1" spans="1:5">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -6954,7 +6961,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:5">
+    <row r="86" customHeight="1" spans="1:5">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -6971,7 +6978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:5">
+    <row r="87" customHeight="1" spans="1:5">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -6988,7 +6995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:5">
+    <row r="88" customHeight="1" spans="1:5">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -7005,7 +7012,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" hidden="1" customHeight="1" spans="1:5">
+    <row r="89" customHeight="1" spans="1:5">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -7022,7 +7029,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:5">
+    <row r="90" customHeight="1" spans="1:5">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -7039,7 +7046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" hidden="1" customHeight="1" spans="1:5">
+    <row r="91" customHeight="1" spans="1:5">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -7056,7 +7063,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:5">
+    <row r="92" customHeight="1" spans="1:5">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -7073,7 +7080,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:5">
+    <row r="93" customHeight="1" spans="1:5">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -7090,7 +7097,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:5">
+    <row r="94" customHeight="1" spans="1:5">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -7107,7 +7114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:5">
+    <row r="95" customHeight="1" spans="1:5">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:5">
+    <row r="96" customHeight="1" spans="1:5">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -7141,7 +7148,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:5">
+    <row r="97" customHeight="1" spans="1:5">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -7158,7 +7165,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:5">
+    <row r="98" customHeight="1" spans="1:5">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -7175,7 +7182,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:5">
+    <row r="99" customHeight="1" spans="1:5">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -7192,7 +7199,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:5">
+    <row r="100" customHeight="1" spans="1:5">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -7209,7 +7216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:5">
+    <row r="101" customHeight="1" spans="1:5">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -7226,7 +7233,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:5">
+    <row r="102" customHeight="1" spans="1:5">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -7243,7 +7250,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:5">
+    <row r="103" customHeight="1" spans="1:5">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -7260,7 +7267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:5">
+    <row r="104" customHeight="1" spans="1:5">
       <c r="A104" t="s">
         <v>210</v>
       </c>
@@ -7277,7 +7284,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:5">
+    <row r="105" customHeight="1" spans="1:5">
       <c r="A105" t="s">
         <v>212</v>
       </c>
@@ -7294,7 +7301,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:5">
+    <row r="106" customHeight="1" spans="1:5">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -7311,7 +7318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" hidden="1" customHeight="1" spans="1:5">
+    <row r="107" customHeight="1" spans="1:5">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -7328,7 +7335,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" hidden="1" customHeight="1" spans="1:5">
+    <row r="108" customHeight="1" spans="1:5">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -7345,7 +7352,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" hidden="1" customHeight="1" spans="1:5">
+    <row r="109" customHeight="1" spans="1:5">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -7362,7 +7369,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" hidden="1" customHeight="1" spans="1:5">
+    <row r="110" customHeight="1" spans="1:5">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -7379,7 +7386,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:5">
+    <row r="111" customHeight="1" spans="1:5">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -7396,7 +7403,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" hidden="1" customHeight="1" spans="1:5">
+    <row r="112" customHeight="1" spans="1:5">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:5">
+    <row r="113" customHeight="1" spans="1:5">
       <c r="A113" t="s">
         <v>226</v>
       </c>
@@ -7430,7 +7437,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:5">
+    <row r="114" customHeight="1" spans="1:5">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -7447,7 +7454,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:5">
+    <row r="115" customHeight="1" spans="1:5">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -7464,7 +7471,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:5">
+    <row r="116" customHeight="1" spans="1:5">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -7481,7 +7488,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" hidden="1" customHeight="1" spans="1:5">
+    <row r="117" customHeight="1" spans="1:5">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -7498,7 +7505,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" hidden="1" customHeight="1" spans="1:5">
+    <row r="118" customHeight="1" spans="1:5">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -7515,7 +7522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" hidden="1" customHeight="1" spans="1:5">
+    <row r="119" customHeight="1" spans="1:5">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -7532,7 +7539,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:5">
+    <row r="120" customHeight="1" spans="1:5">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -7549,7 +7556,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:5">
+    <row r="121" customHeight="1" spans="1:5">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -7566,7 +7573,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:5">
+    <row r="122" customHeight="1" spans="1:5">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -7583,7 +7590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:5">
+    <row r="123" customHeight="1" spans="1:5">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -7600,7 +7607,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:5">
+    <row r="124" customHeight="1" spans="1:5">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -7617,7 +7624,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:5">
+    <row r="125" customHeight="1" spans="1:5">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:5">
+    <row r="126" customHeight="1" spans="1:5">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -7651,7 +7658,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:5">
+    <row r="127" customHeight="1" spans="1:5">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -7668,7 +7675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="128" hidden="1" customHeight="1" spans="1:5">
+    <row r="128" customHeight="1" spans="1:5">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -7685,7 +7692,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:5">
+    <row r="129" customHeight="1" spans="1:5">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -7702,7 +7709,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" hidden="1" customHeight="1" spans="1:5">
+    <row r="130" customHeight="1" spans="1:5">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -7719,7 +7726,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:5">
+    <row r="131" customHeight="1" spans="1:5">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -7736,7 +7743,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:5">
+    <row r="132" customHeight="1" spans="1:5">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -7753,7 +7760,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:5">
+    <row r="133" customHeight="1" spans="1:5">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -7770,7 +7777,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:5">
+    <row r="134" customHeight="1" spans="1:5">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -7787,7 +7794,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:5">
+    <row r="135" customHeight="1" spans="1:5">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:5">
+    <row r="136" customHeight="1" spans="1:5">
       <c r="A136" t="s">
         <v>267</v>
       </c>
@@ -7821,7 +7828,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:5">
+    <row r="137" customHeight="1" spans="1:5">
       <c r="A137" t="s">
         <v>269</v>
       </c>
@@ -7838,7 +7845,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:5">
+    <row r="138" customHeight="1" spans="1:5">
       <c r="A138" t="s">
         <v>271</v>
       </c>
@@ -7855,7 +7862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:5">
+    <row r="139" customHeight="1" spans="1:5">
       <c r="A139" t="s">
         <v>273</v>
       </c>
@@ -7872,7 +7879,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:5">
+    <row r="140" customHeight="1" spans="1:5">
       <c r="A140" t="s">
         <v>275</v>
       </c>
@@ -7889,7 +7896,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" hidden="1" customHeight="1" spans="1:5">
+    <row r="141" customHeight="1" spans="1:5">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -7906,7 +7913,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" hidden="1" customHeight="1" spans="1:5">
+    <row r="142" customHeight="1" spans="1:5">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -7923,7 +7930,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:5">
+    <row r="143" customHeight="1" spans="1:5">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -7940,7 +7947,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:5">
+    <row r="144" customHeight="1" spans="1:5">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -7957,7 +7964,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" hidden="1" customHeight="1" spans="1:5">
+    <row r="145" customHeight="1" spans="1:5">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -7974,7 +7981,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:5">
+    <row r="146" customHeight="1" spans="1:5">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -7991,7 +7998,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" hidden="1" customHeight="1" spans="1:5">
+    <row r="147" customHeight="1" spans="1:5">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -8008,7 +8015,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" hidden="1" customHeight="1" spans="1:5">
+    <row r="148" customHeight="1" spans="1:5">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -8025,7 +8032,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:5">
+    <row r="149" customHeight="1" spans="1:5">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -8042,7 +8049,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:5">
+    <row r="150" customHeight="1" spans="1:5">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -8059,7 +8066,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:5">
+    <row r="151" customHeight="1" spans="1:5">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -8076,7 +8083,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="152" hidden="1" customHeight="1" spans="1:5">
+    <row r="152" customHeight="1" spans="1:5">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -8093,7 +8100,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:5">
+    <row r="153" customHeight="1" spans="1:5">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -8110,7 +8117,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:5">
+    <row r="154" customHeight="1" spans="1:5">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -8127,7 +8134,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="155" hidden="1" customHeight="1" spans="1:5">
+    <row r="155" customHeight="1" spans="1:5">
       <c r="A155" t="s">
         <v>305</v>
       </c>
@@ -8144,7 +8151,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" hidden="1" customHeight="1" spans="1:5">
+    <row r="156" customHeight="1" spans="1:5">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -8161,7 +8168,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="157" hidden="1" customHeight="1" spans="1:5">
+    <row r="157" customHeight="1" spans="1:5">
       <c r="A157" t="s">
         <v>95</v>
       </c>
@@ -8178,7 +8185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" hidden="1" customHeight="1" spans="1:5">
+    <row r="158" customHeight="1" spans="1:5">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -8195,7 +8202,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="159" hidden="1" customHeight="1" spans="1:5">
+    <row r="159" customHeight="1" spans="1:5">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -8212,7 +8219,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" hidden="1" customHeight="1" spans="1:5">
+    <row r="160" customHeight="1" spans="1:5">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -8229,7 +8236,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="161" hidden="1" customHeight="1" spans="1:5">
+    <row r="161" customHeight="1" spans="1:5">
       <c r="A161" t="s">
         <v>317</v>
       </c>
@@ -8246,7 +8253,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="162" hidden="1" customHeight="1" spans="1:5">
+    <row r="162" customHeight="1" spans="1:5">
       <c r="A162" t="s">
         <v>319</v>
       </c>
@@ -8263,7 +8270,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" hidden="1" customHeight="1" spans="1:5">
+    <row r="163" customHeight="1" spans="1:5">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -8280,7 +8287,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:5">
+    <row r="164" customHeight="1" spans="1:5">
       <c r="A164" t="s">
         <v>322</v>
       </c>
@@ -8297,7 +8304,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" hidden="1" customHeight="1" spans="1:5">
+    <row r="165" customHeight="1" spans="1:5">
       <c r="A165" t="s">
         <v>324</v>
       </c>
@@ -8314,7 +8321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" hidden="1" customHeight="1" spans="1:5">
+    <row r="166" customHeight="1" spans="1:5">
       <c r="A166" t="s">
         <v>326</v>
       </c>
@@ -8331,7 +8338,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" hidden="1" customHeight="1" spans="1:5">
+    <row r="167" customHeight="1" spans="1:5">
       <c r="A167" t="s">
         <v>328</v>
       </c>
@@ -8348,7 +8355,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" hidden="1" customHeight="1" spans="1:5">
+    <row r="168" customHeight="1" spans="1:5">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -8365,7 +8372,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" hidden="1" customHeight="1" spans="1:5">
+    <row r="169" customHeight="1" spans="1:5">
       <c r="A169" t="s">
         <v>332</v>
       </c>
@@ -8382,7 +8389,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" hidden="1" customHeight="1" spans="1:5">
+    <row r="170" customHeight="1" spans="1:5">
       <c r="A170" t="s">
         <v>332</v>
       </c>
@@ -8399,7 +8406,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" hidden="1" customHeight="1" spans="1:5">
+    <row r="171" customHeight="1" spans="1:5">
       <c r="A171" t="s">
         <v>335</v>
       </c>
@@ -8416,7 +8423,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="172" hidden="1" customHeight="1" spans="1:5">
+    <row r="172" customHeight="1" spans="1:5">
       <c r="A172" t="s">
         <v>337</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" hidden="1" customHeight="1" spans="1:5">
+    <row r="173" customHeight="1" spans="1:5">
       <c r="A173" t="s">
         <v>339</v>
       </c>
@@ -8450,7 +8457,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="174" hidden="1" customHeight="1" spans="1:5">
+    <row r="174" customHeight="1" spans="1:5">
       <c r="A174" t="s">
         <v>341</v>
       </c>
@@ -8467,7 +8474,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" hidden="1" customHeight="1" spans="1:5">
+    <row r="175" customHeight="1" spans="1:5">
       <c r="A175" t="s">
         <v>343</v>
       </c>
@@ -8484,7 +8491,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="176" hidden="1" customHeight="1" spans="1:5">
+    <row r="176" customHeight="1" spans="1:5">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -8501,7 +8508,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" hidden="1" customHeight="1" spans="1:5">
+    <row r="177" customHeight="1" spans="1:5">
       <c r="A177" t="s">
         <v>347</v>
       </c>
@@ -8518,7 +8525,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" hidden="1" customHeight="1" spans="1:5">
+    <row r="178" customHeight="1" spans="1:5">
       <c r="A178" t="s">
         <v>349</v>
       </c>
@@ -8535,7 +8542,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" hidden="1" customHeight="1" spans="1:5">
+    <row r="179" customHeight="1" spans="1:5">
       <c r="A179" t="s">
         <v>351</v>
       </c>
@@ -8552,7 +8559,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" hidden="1" customHeight="1" spans="1:5">
+    <row r="180" customHeight="1" spans="1:5">
       <c r="A180" t="s">
         <v>353</v>
       </c>
@@ -8569,7 +8576,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="181" hidden="1" customHeight="1" spans="1:5">
+    <row r="181" customHeight="1" spans="1:5">
       <c r="A181" t="s">
         <v>355</v>
       </c>
@@ -8586,7 +8593,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="182" hidden="1" customHeight="1" spans="1:5">
+    <row r="182" customHeight="1" spans="1:5">
       <c r="A182" t="s">
         <v>357</v>
       </c>
@@ -8603,7 +8610,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" hidden="1" customHeight="1" spans="1:5">
+    <row r="183" customHeight="1" spans="1:5">
       <c r="A183" t="s">
         <v>359</v>
       </c>
@@ -8620,7 +8627,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" hidden="1" customHeight="1" spans="1:5">
+    <row r="184" customHeight="1" spans="1:5">
       <c r="A184" t="s">
         <v>361</v>
       </c>
@@ -8637,7 +8644,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" hidden="1" customHeight="1" spans="1:5">
+    <row r="185" customHeight="1" spans="1:5">
       <c r="A185" t="s">
         <v>363</v>
       </c>
@@ -8654,7 +8661,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="186" hidden="1" customHeight="1" spans="1:5">
+    <row r="186" customHeight="1" spans="1:5">
       <c r="A186" t="s">
         <v>364</v>
       </c>
@@ -8671,7 +8678,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187" hidden="1" customHeight="1" spans="1:5">
+    <row r="187" customHeight="1" spans="1:5">
       <c r="A187" t="s">
         <v>366</v>
       </c>
@@ -8688,7 +8695,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" hidden="1" customHeight="1" spans="1:5">
+    <row r="188" customHeight="1" spans="1:5">
       <c r="A188" t="s">
         <v>368</v>
       </c>
@@ -8705,7 +8712,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="189" hidden="1" customHeight="1" spans="1:5">
+    <row r="189" customHeight="1" spans="1:5">
       <c r="A189" t="s">
         <v>370</v>
       </c>
@@ -8722,7 +8729,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="190" hidden="1" customHeight="1" spans="1:5">
+    <row r="190" customHeight="1" spans="1:5">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -8739,7 +8746,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" hidden="1" customHeight="1" spans="1:5">
+    <row r="191" customHeight="1" spans="1:5">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -8756,7 +8763,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" hidden="1" customHeight="1" spans="1:5">
+    <row r="192" customHeight="1" spans="1:5">
       <c r="A192" t="s">
         <v>374</v>
       </c>
@@ -8773,7 +8780,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="193" hidden="1" customHeight="1" spans="1:5">
+    <row r="193" customHeight="1" spans="1:5">
       <c r="A193" t="s">
         <v>376</v>
       </c>
@@ -8790,7 +8797,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" hidden="1" customHeight="1" spans="1:5">
+    <row r="194" customHeight="1" spans="1:5">
       <c r="A194" t="s">
         <v>378</v>
       </c>
@@ -8807,7 +8814,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="195" hidden="1" customHeight="1" spans="1:5">
+    <row r="195" customHeight="1" spans="1:5">
       <c r="A195" t="s">
         <v>380</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" hidden="1" customHeight="1" spans="1:5">
+    <row r="196" customHeight="1" spans="1:5">
       <c r="A196" t="s">
         <v>382</v>
       </c>
@@ -8841,7 +8848,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" hidden="1" customHeight="1" spans="1:5">
+    <row r="197" customHeight="1" spans="1:5">
       <c r="A197" t="s">
         <v>384</v>
       </c>
@@ -8858,7 +8865,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="198" hidden="1" customHeight="1" spans="1:5">
+    <row r="198" customHeight="1" spans="1:5">
       <c r="A198" t="s">
         <v>386</v>
       </c>
@@ -8875,7 +8882,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="199" hidden="1" customHeight="1" spans="1:5">
+    <row r="199" customHeight="1" spans="1:5">
       <c r="A199" t="s">
         <v>388</v>
       </c>
@@ -8892,7 +8899,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="200" hidden="1" customHeight="1" spans="1:5">
+    <row r="200" customHeight="1" spans="1:5">
       <c r="A200" t="s">
         <v>389</v>
       </c>
@@ -8909,7 +8916,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" hidden="1" customHeight="1" spans="1:5">
+    <row r="201" customHeight="1" spans="1:5">
       <c r="A201" t="s">
         <v>391</v>
       </c>
@@ -8926,7 +8933,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="202" hidden="1" customHeight="1" spans="1:5">
+    <row r="202" customHeight="1" spans="1:5">
       <c r="A202" t="s">
         <v>393</v>
       </c>
@@ -8943,7 +8950,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="203" hidden="1" customHeight="1" spans="1:5">
+    <row r="203" customHeight="1" spans="1:5">
       <c r="A203" t="s">
         <v>394</v>
       </c>
@@ -8960,7 +8967,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="204" hidden="1" customHeight="1" spans="1:5">
+    <row r="204" customHeight="1" spans="1:5">
       <c r="A204" t="s">
         <v>396</v>
       </c>
@@ -8977,7 +8984,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="205" hidden="1" customHeight="1" spans="1:5">
+    <row r="205" customHeight="1" spans="1:5">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -8994,7 +9001,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="206" hidden="1" customHeight="1" spans="1:5">
+    <row r="206" customHeight="1" spans="1:5">
       <c r="A206" t="s">
         <v>400</v>
       </c>
@@ -9011,7 +9018,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="207" hidden="1" customHeight="1" spans="1:5">
+    <row r="207" customHeight="1" spans="1:5">
       <c r="A207" t="s">
         <v>402</v>
       </c>
@@ -9028,7 +9035,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="208" hidden="1" customHeight="1" spans="1:5">
+    <row r="208" customHeight="1" spans="1:5">
       <c r="A208" t="s">
         <v>404</v>
       </c>
@@ -9045,7 +9052,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="209" hidden="1" customHeight="1" spans="1:5">
+    <row r="209" customHeight="1" spans="1:5">
       <c r="A209" t="s">
         <v>406</v>
       </c>
@@ -9062,7 +9069,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="210" hidden="1" customHeight="1" spans="1:5">
+    <row r="210" customHeight="1" spans="1:5">
       <c r="A210" t="s">
         <v>408</v>
       </c>
@@ -9079,7 +9086,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" hidden="1" customHeight="1" spans="1:5">
+    <row r="211" customHeight="1" spans="1:5">
       <c r="A211" t="s">
         <v>410</v>
       </c>
@@ -9096,7 +9103,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="212" hidden="1" customHeight="1" spans="1:5">
+    <row r="212" customHeight="1" spans="1:5">
       <c r="A212" t="s">
         <v>412</v>
       </c>
@@ -9113,7 +9120,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="213" hidden="1" customHeight="1" spans="1:5">
+    <row r="213" customHeight="1" spans="1:5">
       <c r="A213" t="s">
         <v>414</v>
       </c>
@@ -9130,7 +9137,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="214" hidden="1" customHeight="1" spans="1:5">
+    <row r="214" customHeight="1" spans="1:5">
       <c r="A214" t="s">
         <v>416</v>
       </c>
@@ -9147,7 +9154,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="215" hidden="1" customHeight="1" spans="1:5">
+    <row r="215" customHeight="1" spans="1:5">
       <c r="A215" t="s">
         <v>417</v>
       </c>
@@ -9164,7 +9171,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" hidden="1" customHeight="1" spans="1:5">
+    <row r="216" customHeight="1" spans="1:5">
       <c r="A216" t="s">
         <v>419</v>
       </c>
@@ -9181,7 +9188,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="217" hidden="1" customHeight="1" spans="1:5">
+    <row r="217" customHeight="1" spans="1:5">
       <c r="A217" t="s">
         <v>421</v>
       </c>
@@ -9198,7 +9205,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="218" hidden="1" customHeight="1" spans="1:5">
+    <row r="218" customHeight="1" spans="1:5">
       <c r="A218" t="s">
         <v>423</v>
       </c>
@@ -9215,7 +9222,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="219" hidden="1" customHeight="1" spans="1:5">
+    <row r="219" customHeight="1" spans="1:5">
       <c r="A219" t="s">
         <v>424</v>
       </c>
@@ -9232,7 +9239,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="220" hidden="1" customHeight="1" spans="1:5">
+    <row r="220" customHeight="1" spans="1:5">
       <c r="A220" t="s">
         <v>426</v>
       </c>
@@ -9249,7 +9256,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="221" hidden="1" customHeight="1" spans="1:5">
+    <row r="221" customHeight="1" spans="1:5">
       <c r="A221" t="s">
         <v>428</v>
       </c>
@@ -9266,7 +9273,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="222" hidden="1" customHeight="1" spans="1:5">
+    <row r="222" customHeight="1" spans="1:5">
       <c r="A222" t="s">
         <v>429</v>
       </c>
@@ -9283,7 +9290,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="223" hidden="1" customHeight="1" spans="1:5">
+    <row r="223" customHeight="1" spans="1:5">
       <c r="A223" t="s">
         <v>431</v>
       </c>
@@ -9300,7 +9307,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="224" hidden="1" customHeight="1" spans="1:5">
+    <row r="224" customHeight="1" spans="1:5">
       <c r="A224" t="s">
         <v>432</v>
       </c>
@@ -9317,7 +9324,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="225" hidden="1" customHeight="1" spans="1:5">
+    <row r="225" customHeight="1" spans="1:5">
       <c r="A225" t="s">
         <v>434</v>
       </c>
@@ -9334,7 +9341,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="226" hidden="1" customHeight="1" spans="1:5">
+    <row r="226" customHeight="1" spans="1:5">
       <c r="A226" t="s">
         <v>436</v>
       </c>
@@ -9351,7 +9358,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="227" hidden="1" customHeight="1" spans="1:5">
+    <row r="227" customHeight="1" spans="1:5">
       <c r="A227" t="s">
         <v>438</v>
       </c>
@@ -9368,7 +9375,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="228" hidden="1" customHeight="1" spans="1:5">
+    <row r="228" customHeight="1" spans="1:5">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -9385,7 +9392,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="229" hidden="1" customHeight="1" spans="1:5">
+    <row r="229" customHeight="1" spans="1:5">
       <c r="A229" t="s">
         <v>442</v>
       </c>
@@ -9402,7 +9409,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="230" hidden="1" customHeight="1" spans="1:5">
+    <row r="230" customHeight="1" spans="1:5">
       <c r="A230" t="s">
         <v>446</v>
       </c>
@@ -9419,7 +9426,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="231" hidden="1" customHeight="1" spans="1:5">
+    <row r="231" customHeight="1" spans="1:5">
       <c r="A231" t="s">
         <v>447</v>
       </c>
@@ -9436,7 +9443,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="232" hidden="1" customHeight="1" spans="1:5">
+    <row r="232" customHeight="1" spans="1:5">
       <c r="A232" t="s">
         <v>448</v>
       </c>
@@ -9453,7 +9460,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="233" hidden="1" customHeight="1" spans="1:5">
+    <row r="233" customHeight="1" spans="1:5">
       <c r="A233" t="s">
         <v>450</v>
       </c>
@@ -9470,7 +9477,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="234" hidden="1" customHeight="1" spans="1:5">
+    <row r="234" customHeight="1" spans="1:5">
       <c r="A234" t="s">
         <v>452</v>
       </c>
@@ -9487,7 +9494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="235" hidden="1" customHeight="1" spans="1:5">
+    <row r="235" customHeight="1" spans="1:5">
       <c r="A235" t="s">
         <v>454</v>
       </c>
@@ -9504,7 +9511,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="236" hidden="1" customHeight="1" spans="1:5">
+    <row r="236" customHeight="1" spans="1:5">
       <c r="A236" t="s">
         <v>455</v>
       </c>
@@ -9521,7 +9528,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="237" hidden="1" customHeight="1" spans="1:5">
+    <row r="237" customHeight="1" spans="1:5">
       <c r="A237" t="s">
         <v>457</v>
       </c>
@@ -9538,7 +9545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="238" hidden="1" customHeight="1" spans="1:5">
+    <row r="238" customHeight="1" spans="1:5">
       <c r="A238" t="s">
         <v>459</v>
       </c>
@@ -9555,7 +9562,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" hidden="1" customHeight="1" spans="1:5">
+    <row r="239" customHeight="1" spans="1:5">
       <c r="A239" t="s">
         <v>36</v>
       </c>
@@ -9572,7 +9579,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="240" hidden="1" customHeight="1" spans="1:5">
+    <row r="240" customHeight="1" spans="1:5">
       <c r="A240" t="s">
         <v>462</v>
       </c>
@@ -9589,7 +9596,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" hidden="1" customHeight="1" spans="1:5">
+    <row r="241" customHeight="1" spans="1:5">
       <c r="A241" t="s">
         <v>464</v>
       </c>
@@ -9606,7 +9613,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="242" hidden="1" customHeight="1" spans="1:5">
+    <row r="242" customHeight="1" spans="1:5">
       <c r="A242" t="s">
         <v>466</v>
       </c>
@@ -9623,7 +9630,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="243" hidden="1" customHeight="1" spans="1:5">
+    <row r="243" customHeight="1" spans="1:5">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -9640,7 +9647,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="244" hidden="1" customHeight="1" spans="1:5">
+    <row r="244" customHeight="1" spans="1:5">
       <c r="A244" t="s">
         <v>43</v>
       </c>
@@ -9657,7 +9664,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="245" hidden="1" customHeight="1" spans="1:5">
+    <row r="245" customHeight="1" spans="1:5">
       <c r="A245" t="s">
         <v>470</v>
       </c>
@@ -9674,7 +9681,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="246" hidden="1" customHeight="1" spans="1:5">
+    <row r="246" customHeight="1" spans="1:5">
       <c r="A246" t="s">
         <v>472</v>
       </c>
@@ -9691,7 +9698,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="247" hidden="1" customHeight="1" spans="1:5">
+    <row r="247" customHeight="1" spans="1:5">
       <c r="A247" t="s">
         <v>474</v>
       </c>
@@ -9708,7 +9715,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="248" hidden="1" customHeight="1" spans="1:5">
+    <row r="248" customHeight="1" spans="1:5">
       <c r="A248" t="s">
         <v>477</v>
       </c>
@@ -9725,7 +9732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" hidden="1" customHeight="1" spans="1:5">
+    <row r="249" customHeight="1" spans="1:5">
       <c r="A249" t="s">
         <v>478</v>
       </c>
@@ -9742,7 +9749,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" hidden="1" customHeight="1" spans="1:5">
+    <row r="250" customHeight="1" spans="1:5">
       <c r="A250" t="s">
         <v>478</v>
       </c>
@@ -9759,7 +9766,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="251" hidden="1" customHeight="1" spans="1:5">
+    <row r="251" customHeight="1" spans="1:5">
       <c r="A251" t="s">
         <v>481</v>
       </c>
@@ -9776,7 +9783,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="252" hidden="1" customHeight="1" spans="1:5">
+    <row r="252" customHeight="1" spans="1:5">
       <c r="A252" t="s">
         <v>482</v>
       </c>
@@ -9793,7 +9800,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="253" hidden="1" customHeight="1" spans="1:5">
+    <row r="253" customHeight="1" spans="1:5">
       <c r="A253" t="s">
         <v>484</v>
       </c>
@@ -9810,7 +9817,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" hidden="1" customHeight="1" spans="1:5">
+    <row r="254" customHeight="1" spans="1:5">
       <c r="A254" t="s">
         <v>486</v>
       </c>
@@ -9827,7 +9834,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" hidden="1" customHeight="1" spans="1:5">
+    <row r="255" customHeight="1" spans="1:5">
       <c r="A255" t="s">
         <v>488</v>
       </c>
@@ -9844,7 +9851,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" hidden="1" customHeight="1" spans="1:5">
+    <row r="256" customHeight="1" spans="1:5">
       <c r="A256" t="s">
         <v>489</v>
       </c>
@@ -9861,7 +9868,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" hidden="1" customHeight="1" spans="1:5">
+    <row r="257" customHeight="1" spans="1:5">
       <c r="A257" t="s">
         <v>491</v>
       </c>
@@ -9878,7 +9885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="258" hidden="1" customHeight="1" spans="1:5">
+    <row r="258" customHeight="1" spans="1:5">
       <c r="A258" t="s">
         <v>492</v>
       </c>
@@ -9895,7 +9902,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" hidden="1" customHeight="1" spans="1:5">
+    <row r="259" customHeight="1" spans="1:5">
       <c r="A259" t="s">
         <v>494</v>
       </c>
@@ -9912,7 +9919,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="260" hidden="1" customHeight="1" spans="1:5">
+    <row r="260" customHeight="1" spans="1:5">
       <c r="A260" t="s">
         <v>496</v>
       </c>
@@ -9929,7 +9936,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="261" hidden="1" customHeight="1" spans="1:5">
+    <row r="261" customHeight="1" spans="1:5">
       <c r="A261" t="s">
         <v>497</v>
       </c>
@@ -9946,7 +9953,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="262" hidden="1" customHeight="1" spans="1:5">
+    <row r="262" customHeight="1" spans="1:5">
       <c r="A262" t="s">
         <v>499</v>
       </c>
@@ -9963,7 +9970,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="263" hidden="1" customHeight="1" spans="1:5">
+    <row r="263" customHeight="1" spans="1:5">
       <c r="A263" t="s">
         <v>500</v>
       </c>
@@ -9980,7 +9987,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" hidden="1" customHeight="1" spans="1:5">
+    <row r="264" customHeight="1" spans="1:5">
       <c r="A264" t="s">
         <v>502</v>
       </c>
@@ -9997,7 +10004,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" hidden="1" customHeight="1" spans="1:5">
+    <row r="265" customHeight="1" spans="1:5">
       <c r="A265" t="s">
         <v>504</v>
       </c>
@@ -10014,7 +10021,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" hidden="1" customHeight="1" spans="1:5">
+    <row r="266" customHeight="1" spans="1:5">
       <c r="A266" t="s">
         <v>506</v>
       </c>
@@ -10031,7 +10038,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" hidden="1" customHeight="1" spans="1:5">
+    <row r="267" customHeight="1" spans="1:5">
       <c r="A267" t="s">
         <v>510</v>
       </c>
@@ -10048,7 +10055,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="268" hidden="1" customHeight="1" spans="1:5">
+    <row r="268" customHeight="1" spans="1:5">
       <c r="A268" t="s">
         <v>512</v>
       </c>
@@ -10065,7 +10072,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" hidden="1" customHeight="1" spans="1:5">
+    <row r="269" customHeight="1" spans="1:5">
       <c r="A269" t="s">
         <v>514</v>
       </c>
@@ -10082,7 +10089,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="270" hidden="1" customHeight="1" spans="1:5">
+    <row r="270" customHeight="1" spans="1:5">
       <c r="A270" t="s">
         <v>516</v>
       </c>
@@ -10099,7 +10106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" hidden="1" customHeight="1" spans="1:5">
+    <row r="271" customHeight="1" spans="1:5">
       <c r="A271" t="s">
         <v>516</v>
       </c>
@@ -10116,7 +10123,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" hidden="1" customHeight="1" spans="1:5">
+    <row r="272" customHeight="1" spans="1:5">
       <c r="A272" t="s">
         <v>519</v>
       </c>
@@ -10133,7 +10140,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="273" hidden="1" customHeight="1" spans="1:5">
+    <row r="273" customHeight="1" spans="1:5">
       <c r="A273" t="s">
         <v>521</v>
       </c>
@@ -10150,7 +10157,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="274" hidden="1" customHeight="1" spans="1:5">
+    <row r="274" customHeight="1" spans="1:5">
       <c r="A274" t="s">
         <v>523</v>
       </c>
@@ -10167,7 +10174,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" hidden="1" customHeight="1" spans="1:5">
+    <row r="275" customHeight="1" spans="1:5">
       <c r="A275" t="s">
         <v>525</v>
       </c>
@@ -10184,7 +10191,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="276" hidden="1" customHeight="1" spans="1:5">
+    <row r="276" customHeight="1" spans="1:5">
       <c r="A276" t="s">
         <v>527</v>
       </c>
@@ -10201,7 +10208,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" hidden="1" customHeight="1" spans="1:5">
+    <row r="277" customHeight="1" spans="1:5">
       <c r="A277" t="s">
         <v>528</v>
       </c>
@@ -10218,7 +10225,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="278" hidden="1" customHeight="1" spans="1:5">
+    <row r="278" customHeight="1" spans="1:5">
       <c r="A278" t="s">
         <v>530</v>
       </c>
@@ -10235,7 +10242,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="279" hidden="1" customHeight="1" spans="1:5">
+    <row r="279" customHeight="1" spans="1:5">
       <c r="A279" t="s">
         <v>531</v>
       </c>
@@ -10252,7 +10259,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="280" hidden="1" customHeight="1" spans="1:5">
+    <row r="280" customHeight="1" spans="1:5">
       <c r="A280" t="s">
         <v>533</v>
       </c>
@@ -10269,7 +10276,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="281" hidden="1" customHeight="1" spans="1:5">
+    <row r="281" customHeight="1" spans="1:5">
       <c r="A281" t="s">
         <v>535</v>
       </c>
@@ -10286,7 +10293,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="282" hidden="1" customHeight="1" spans="1:5">
+    <row r="282" customHeight="1" spans="1:5">
       <c r="A282" t="s">
         <v>537</v>
       </c>
@@ -10303,7 +10310,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" hidden="1" customHeight="1" spans="1:5">
+    <row r="283" customHeight="1" spans="1:5">
       <c r="A283" t="s">
         <v>539</v>
       </c>
@@ -10320,7 +10327,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="284" hidden="1" customHeight="1" spans="1:5">
+    <row r="284" customHeight="1" spans="1:5">
       <c r="A284" t="s">
         <v>541</v>
       </c>
@@ -10337,7 +10344,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="285" hidden="1" customHeight="1" spans="1:5">
+    <row r="285" customHeight="1" spans="1:5">
       <c r="A285" t="s">
         <v>544</v>
       </c>
@@ -10354,7 +10361,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="286" hidden="1" customHeight="1" spans="1:5">
+    <row r="286" customHeight="1" spans="1:5">
       <c r="A286" t="s">
         <v>546</v>
       </c>
@@ -10371,7 +10378,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="287" hidden="1" customHeight="1" spans="1:5">
+    <row r="287" customHeight="1" spans="1:5">
       <c r="A287" t="s">
         <v>548</v>
       </c>
@@ -10388,7 +10395,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="288" hidden="1" customHeight="1" spans="1:5">
+    <row r="288" customHeight="1" spans="1:5">
       <c r="A288" t="s">
         <v>550</v>
       </c>
@@ -10405,7 +10412,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="289" hidden="1" customHeight="1" spans="1:5">
+    <row r="289" customHeight="1" spans="1:5">
       <c r="A289" t="s">
         <v>551</v>
       </c>
@@ -10422,7 +10429,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" hidden="1" customHeight="1" spans="1:5">
+    <row r="290" customHeight="1" spans="1:5">
       <c r="A290" t="s">
         <v>553</v>
       </c>
@@ -10439,7 +10446,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" hidden="1" customHeight="1" spans="1:5">
+    <row r="291" customHeight="1" spans="1:5">
       <c r="A291" t="s">
         <v>555</v>
       </c>
@@ -10456,7 +10463,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="292" hidden="1" customHeight="1" spans="1:5">
+    <row r="292" customHeight="1" spans="1:5">
       <c r="A292" t="s">
         <v>557</v>
       </c>
@@ -10473,7 +10480,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="293" hidden="1" customHeight="1" spans="1:5">
+    <row r="293" customHeight="1" spans="1:5">
       <c r="A293" t="s">
         <v>558</v>
       </c>
@@ -10490,7 +10497,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="294" hidden="1" customHeight="1" spans="1:5">
+    <row r="294" customHeight="1" spans="1:5">
       <c r="A294" t="s">
         <v>560</v>
       </c>
@@ -10507,7 +10514,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="295" hidden="1" customHeight="1" spans="1:5">
+    <row r="295" customHeight="1" spans="1:5">
       <c r="A295" t="s">
         <v>562</v>
       </c>
@@ -10524,7 +10531,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="296" hidden="1" customHeight="1" spans="1:5">
+    <row r="296" customHeight="1" spans="1:5">
       <c r="A296" t="s">
         <v>564</v>
       </c>
@@ -10541,7 +10548,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="297" hidden="1" customHeight="1" spans="1:5">
+    <row r="297" customHeight="1" spans="1:5">
       <c r="A297" t="s">
         <v>565</v>
       </c>
@@ -10558,7 +10565,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="298" hidden="1" customHeight="1" spans="1:5">
+    <row r="298" customHeight="1" spans="1:5">
       <c r="A298" t="s">
         <v>567</v>
       </c>
@@ -10575,7 +10582,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="299" hidden="1" customHeight="1" spans="1:5">
+    <row r="299" customHeight="1" spans="1:5">
       <c r="A299" t="s">
         <v>568</v>
       </c>
@@ -10592,7 +10599,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="300" hidden="1" customHeight="1" spans="1:5">
+    <row r="300" customHeight="1" spans="1:5">
       <c r="A300" t="s">
         <v>570</v>
       </c>
@@ -10609,7 +10616,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="301" hidden="1" customHeight="1" spans="1:5">
+    <row r="301" customHeight="1" spans="1:5">
       <c r="A301" t="s">
         <v>572</v>
       </c>
@@ -10626,7 +10633,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="302" hidden="1" customHeight="1" spans="1:5">
+    <row r="302" customHeight="1" spans="1:5">
       <c r="A302" t="s">
         <v>573</v>
       </c>
@@ -10643,7 +10650,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="303" hidden="1" customHeight="1" spans="1:5">
+    <row r="303" customHeight="1" spans="1:5">
       <c r="A303" t="s">
         <v>575</v>
       </c>
@@ -10660,7 +10667,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="304" hidden="1" customHeight="1" spans="1:5">
+    <row r="304" customHeight="1" spans="1:5">
       <c r="A304" t="s">
         <v>579</v>
       </c>
@@ -10677,7 +10684,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="305" hidden="1" customHeight="1" spans="1:5">
+    <row r="305" customHeight="1" spans="1:5">
       <c r="A305" t="s">
         <v>581</v>
       </c>
@@ -10694,7 +10701,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="306" hidden="1" customHeight="1" spans="1:5">
+    <row r="306" customHeight="1" spans="1:5">
       <c r="A306" t="s">
         <v>583</v>
       </c>
@@ -10711,7 +10718,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="307" hidden="1" customHeight="1" spans="1:5">
+    <row r="307" customHeight="1" spans="1:5">
       <c r="A307" t="s">
         <v>585</v>
       </c>
@@ -10728,7 +10735,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" hidden="1" customHeight="1" spans="1:5">
+    <row r="308" customHeight="1" spans="1:5">
       <c r="A308" t="s">
         <v>586</v>
       </c>
@@ -10745,7 +10752,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" hidden="1" customHeight="1" spans="1:5">
+    <row r="309" customHeight="1" spans="1:5">
       <c r="A309" t="s">
         <v>588</v>
       </c>
@@ -10762,7 +10769,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" hidden="1" customHeight="1" spans="1:5">
+    <row r="310" customHeight="1" spans="1:5">
       <c r="A310" t="s">
         <v>590</v>
       </c>
@@ -10779,7 +10786,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="311" hidden="1" customHeight="1" spans="1:5">
+    <row r="311" customHeight="1" spans="1:5">
       <c r="A311" t="s">
         <v>592</v>
       </c>
@@ -10796,7 +10803,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="312" hidden="1" customHeight="1" spans="1:5">
+    <row r="312" customHeight="1" spans="1:5">
       <c r="A312" t="s">
         <v>594</v>
       </c>
@@ -10813,7 +10820,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="313" hidden="1" customHeight="1" spans="1:5">
+    <row r="313" customHeight="1" spans="1:5">
       <c r="A313" t="s">
         <v>596</v>
       </c>
@@ -10830,7 +10837,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="314" hidden="1" customHeight="1" spans="1:5">
+    <row r="314" customHeight="1" spans="1:5">
       <c r="A314" t="s">
         <v>598</v>
       </c>
@@ -10847,7 +10854,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="315" hidden="1" customHeight="1" spans="1:5">
+    <row r="315" customHeight="1" spans="1:5">
       <c r="A315" t="s">
         <v>599</v>
       </c>
@@ -10864,7 +10871,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="316" hidden="1" customHeight="1" spans="1:5">
+    <row r="316" customHeight="1" spans="1:5">
       <c r="A316" t="s">
         <v>601</v>
       </c>
@@ -10881,7 +10888,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="317" hidden="1" customHeight="1" spans="1:5">
+    <row r="317" customHeight="1" spans="1:5">
       <c r="A317" t="s">
         <v>603</v>
       </c>
@@ -10898,7 +10905,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="318" hidden="1" customHeight="1" spans="1:5">
+    <row r="318" customHeight="1" spans="1:5">
       <c r="A318" t="s">
         <v>605</v>
       </c>
@@ -10915,7 +10922,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="319" hidden="1" customHeight="1" spans="1:5">
+    <row r="319" customHeight="1" spans="1:5">
       <c r="A319" t="s">
         <v>607</v>
       </c>
@@ -10932,7 +10939,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" hidden="1" customHeight="1" spans="1:5">
+    <row r="320" customHeight="1" spans="1:5">
       <c r="A320" t="s">
         <v>609</v>
       </c>
@@ -10949,7 +10956,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="321" hidden="1" customHeight="1" spans="1:5">
+    <row r="321" customHeight="1" spans="1:5">
       <c r="A321" t="s">
         <v>611</v>
       </c>
@@ -10966,7 +10973,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="322" hidden="1" customHeight="1" spans="1:5">
+    <row r="322" customHeight="1" spans="1:5">
       <c r="A322" t="s">
         <v>611</v>
       </c>
@@ -10983,7 +10990,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="323" hidden="1" customHeight="1" spans="1:5">
+    <row r="323" customHeight="1" spans="1:5">
       <c r="A323" t="s">
         <v>614</v>
       </c>
@@ -11000,7 +11007,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="324" hidden="1" customHeight="1" spans="1:5">
+    <row r="324" customHeight="1" spans="1:5">
       <c r="A324" t="s">
         <v>616</v>
       </c>
@@ -11017,7 +11024,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="325" hidden="1" customHeight="1" spans="1:5">
+    <row r="325" customHeight="1" spans="1:5">
       <c r="A325" t="s">
         <v>618</v>
       </c>
@@ -11034,7 +11041,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="326" hidden="1" customHeight="1" spans="1:5">
+    <row r="326" customHeight="1" spans="1:5">
       <c r="A326" t="s">
         <v>619</v>
       </c>
@@ -11051,7 +11058,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" hidden="1" customHeight="1" spans="1:5">
+    <row r="327" customHeight="1" spans="1:5">
       <c r="A327" t="s">
         <v>621</v>
       </c>
@@ -11068,7 +11075,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="328" hidden="1" customHeight="1" spans="1:5">
+    <row r="328" customHeight="1" spans="1:5">
       <c r="A328" t="s">
         <v>623</v>
       </c>
@@ -11085,7 +11092,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="329" hidden="1" customHeight="1" spans="1:5">
+    <row r="329" customHeight="1" spans="1:5">
       <c r="A329" t="s">
         <v>625</v>
       </c>
@@ -11102,7 +11109,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="330" hidden="1" customHeight="1" spans="1:5">
+    <row r="330" customHeight="1" spans="1:5">
       <c r="A330" t="s">
         <v>627</v>
       </c>
@@ -11119,7 +11126,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="331" hidden="1" customHeight="1" spans="1:5">
+    <row r="331" customHeight="1" spans="1:5">
       <c r="A331" t="s">
         <v>629</v>
       </c>
@@ -11136,7 +11143,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="332" hidden="1" customHeight="1" spans="1:5">
+    <row r="332" customHeight="1" spans="1:5">
       <c r="A332" t="s">
         <v>630</v>
       </c>
@@ -11153,7 +11160,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="333" hidden="1" customHeight="1" spans="1:5">
+    <row r="333" customHeight="1" spans="1:5">
       <c r="A333" t="s">
         <v>632</v>
       </c>
@@ -11170,7 +11177,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="334" hidden="1" customHeight="1" spans="1:5">
+    <row r="334" customHeight="1" spans="1:5">
       <c r="A334" t="s">
         <v>634</v>
       </c>
@@ -11187,7 +11194,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="335" hidden="1" customHeight="1" spans="1:5">
+    <row r="335" customHeight="1" spans="1:5">
       <c r="A335" t="s">
         <v>636</v>
       </c>
@@ -11204,7 +11211,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="336" hidden="1" customHeight="1" spans="1:5">
+    <row r="336" customHeight="1" spans="1:5">
       <c r="A336" t="s">
         <v>638</v>
       </c>
@@ -11221,7 +11228,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="337" hidden="1" customHeight="1" spans="1:5">
+    <row r="337" customHeight="1" spans="1:5">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -11238,7 +11245,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="338" hidden="1" customHeight="1" spans="1:5">
+    <row r="338" customHeight="1" spans="1:5">
       <c r="A338" t="s">
         <v>642</v>
       </c>
@@ -11255,7 +11262,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="339" hidden="1" customHeight="1" spans="1:5">
+    <row r="339" customHeight="1" spans="1:5">
       <c r="A339" t="s">
         <v>643</v>
       </c>
@@ -11272,7 +11279,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="340" hidden="1" customHeight="1" spans="1:5">
+    <row r="340" customHeight="1" spans="1:5">
       <c r="A340" t="s">
         <v>645</v>
       </c>
@@ -11289,7 +11296,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="341" hidden="1" customHeight="1" spans="1:5">
+    <row r="341" customHeight="1" spans="1:5">
       <c r="A341" t="s">
         <v>648</v>
       </c>
@@ -11306,7 +11313,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="342" hidden="1" customHeight="1" spans="1:5">
+    <row r="342" customHeight="1" spans="1:5">
       <c r="A342" t="s">
         <v>650</v>
       </c>
@@ -11323,7 +11330,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="343" hidden="1" customHeight="1" spans="1:5">
+    <row r="343" customHeight="1" spans="1:5">
       <c r="A343" t="s">
         <v>652</v>
       </c>
@@ -11340,7 +11347,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="344" hidden="1" customHeight="1" spans="1:5">
+    <row r="344" customHeight="1" spans="1:5">
       <c r="A344" t="s">
         <v>654</v>
       </c>
@@ -11357,7 +11364,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" hidden="1" customHeight="1" spans="1:5">
+    <row r="345" customHeight="1" spans="1:5">
       <c r="A345" t="s">
         <v>654</v>
       </c>
@@ -11374,7 +11381,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" hidden="1" customHeight="1" spans="1:5">
+    <row r="346" customHeight="1" spans="1:5">
       <c r="A346" t="s">
         <v>657</v>
       </c>
@@ -11391,7 +11398,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" hidden="1" customHeight="1" spans="1:5">
+    <row r="347" customHeight="1" spans="1:5">
       <c r="A347" t="s">
         <v>658</v>
       </c>
@@ -11408,7 +11415,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="348" hidden="1" customHeight="1" spans="1:5">
+    <row r="348" customHeight="1" spans="1:5">
       <c r="A348" t="s">
         <v>660</v>
       </c>
@@ -11425,7 +11432,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="349" hidden="1" customHeight="1" spans="1:5">
+    <row r="349" customHeight="1" spans="1:5">
       <c r="A349" t="s">
         <v>662</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="350" hidden="1" customHeight="1" spans="1:5">
+    <row r="350" customHeight="1" spans="1:5">
       <c r="A350" t="s">
         <v>663</v>
       </c>
@@ -11459,7 +11466,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="351" hidden="1" customHeight="1" spans="1:5">
+    <row r="351" customHeight="1" spans="1:5">
       <c r="A351" t="s">
         <v>665</v>
       </c>
@@ -11476,7 +11483,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="352" hidden="1" customHeight="1" spans="1:5">
+    <row r="352" customHeight="1" spans="1:5">
       <c r="A352" t="s">
         <v>559</v>
       </c>
@@ -11493,7 +11500,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="353" hidden="1" customHeight="1" spans="1:5">
+    <row r="353" customHeight="1" spans="1:5">
       <c r="A353" t="s">
         <v>667</v>
       </c>
@@ -11510,7 +11517,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="354" hidden="1" customHeight="1" spans="1:5">
+    <row r="354" customHeight="1" spans="1:5">
       <c r="A354" t="s">
         <v>669</v>
       </c>
@@ -11527,7 +11534,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="355" hidden="1" customHeight="1" spans="1:5">
+    <row r="355" customHeight="1" spans="1:5">
       <c r="A355" t="s">
         <v>671</v>
       </c>
@@ -11544,7 +11551,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="356" hidden="1" customHeight="1" spans="1:5">
+    <row r="356" customHeight="1" spans="1:5">
       <c r="A356" t="s">
         <v>673</v>
       </c>
@@ -11561,7 +11568,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="357" hidden="1" customHeight="1" spans="1:5">
+    <row r="357" customHeight="1" spans="1:5">
       <c r="A357" t="s">
         <v>675</v>
       </c>
@@ -11578,7 +11585,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="358" hidden="1" customHeight="1" spans="1:5">
+    <row r="358" customHeight="1" spans="1:5">
       <c r="A358" t="s">
         <v>677</v>
       </c>
@@ -11595,7 +11602,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="359" hidden="1" customHeight="1" spans="1:5">
+    <row r="359" customHeight="1" spans="1:5">
       <c r="A359" t="s">
         <v>680</v>
       </c>
@@ -11612,7 +11619,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="360" hidden="1" customHeight="1" spans="1:5">
+    <row r="360" customHeight="1" spans="1:5">
       <c r="A360" t="s">
         <v>681</v>
       </c>
@@ -11629,7 +11636,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="361" hidden="1" customHeight="1" spans="1:5">
+    <row r="361" customHeight="1" spans="1:5">
       <c r="A361" t="s">
         <v>682</v>
       </c>
@@ -11646,7 +11653,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="362" hidden="1" customHeight="1" spans="1:5">
+    <row r="362" customHeight="1" spans="1:5">
       <c r="A362" t="s">
         <v>683</v>
       </c>
@@ -11663,7 +11670,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="363" hidden="1" customHeight="1" spans="1:5">
+    <row r="363" customHeight="1" spans="1:5">
       <c r="A363" t="s">
         <v>685</v>
       </c>
@@ -11680,7 +11687,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="364" hidden="1" customHeight="1" spans="1:5">
+    <row r="364" customHeight="1" spans="1:5">
       <c r="A364" t="s">
         <v>687</v>
       </c>
@@ -11697,7 +11704,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="365" hidden="1" customHeight="1" spans="1:5">
+    <row r="365" customHeight="1" spans="1:5">
       <c r="A365" t="s">
         <v>688</v>
       </c>
@@ -11714,7 +11721,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="366" hidden="1" customHeight="1" spans="1:5">
+    <row r="366" customHeight="1" spans="1:5">
       <c r="A366" t="s">
         <v>690</v>
       </c>
@@ -11731,7 +11738,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="367" hidden="1" customHeight="1" spans="1:5">
+    <row r="367" customHeight="1" spans="1:5">
       <c r="A367" t="s">
         <v>569</v>
       </c>
@@ -11748,7 +11755,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="368" hidden="1" customHeight="1" spans="1:5">
+    <row r="368" customHeight="1" spans="1:5">
       <c r="A368" t="s">
         <v>693</v>
       </c>
@@ -11765,7 +11772,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="369" hidden="1" customHeight="1" spans="1:5">
+    <row r="369" customHeight="1" spans="1:5">
       <c r="A369" t="s">
         <v>694</v>
       </c>
@@ -11782,7 +11789,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="370" hidden="1" customHeight="1" spans="1:5">
+    <row r="370" customHeight="1" spans="1:5">
       <c r="A370" t="s">
         <v>209</v>
       </c>
@@ -11799,7 +11806,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="371" hidden="1" customHeight="1" spans="1:5">
+    <row r="371" customHeight="1" spans="1:5">
       <c r="A371" t="s">
         <v>696</v>
       </c>
@@ -11816,7 +11823,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="372" hidden="1" customHeight="1" spans="1:5">
+    <row r="372" customHeight="1" spans="1:5">
       <c r="A372" t="s">
         <v>698</v>
       </c>
@@ -11833,7 +11840,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="373" hidden="1" customHeight="1" spans="1:5">
+    <row r="373" customHeight="1" spans="1:5">
       <c r="A373" t="s">
         <v>699</v>
       </c>
@@ -11850,7 +11857,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="374" hidden="1" customHeight="1" spans="1:5">
+    <row r="374" customHeight="1" spans="1:5">
       <c r="A374" t="s">
         <v>547</v>
       </c>
@@ -11867,7 +11874,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="375" hidden="1" customHeight="1" spans="1:5">
+    <row r="375" customHeight="1" spans="1:5">
       <c r="A375" t="s">
         <v>701</v>
       </c>
@@ -11884,7 +11891,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="376" hidden="1" customHeight="1" spans="1:5">
+    <row r="376" customHeight="1" spans="1:5">
       <c r="A376" t="s">
         <v>703</v>
       </c>
@@ -11901,7 +11908,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="377" hidden="1" customHeight="1" spans="1:5">
+    <row r="377" customHeight="1" spans="1:5">
       <c r="A377" t="s">
         <v>705</v>
       </c>
@@ -11918,7 +11925,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="378" hidden="1" customHeight="1" spans="1:5">
+    <row r="378" customHeight="1" spans="1:5">
       <c r="A378" t="s">
         <v>709</v>
       </c>
@@ -11935,7 +11942,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" hidden="1" customHeight="1" spans="1:5">
+    <row r="379" customHeight="1" spans="1:5">
       <c r="A379" t="s">
         <v>711</v>
       </c>
@@ -11952,7 +11959,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="380" hidden="1" customHeight="1" spans="1:5">
+    <row r="380" customHeight="1" spans="1:5">
       <c r="A380" t="s">
         <v>713</v>
       </c>
@@ -11969,7 +11976,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="381" hidden="1" customHeight="1" spans="1:5">
+    <row r="381" customHeight="1" spans="1:5">
       <c r="A381" t="s">
         <v>713</v>
       </c>
@@ -11986,7 +11993,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="382" hidden="1" customHeight="1" spans="1:5">
+    <row r="382" customHeight="1" spans="1:5">
       <c r="A382" t="s">
         <v>714</v>
       </c>
@@ -12003,7 +12010,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="383" hidden="1" customHeight="1" spans="1:5">
+    <row r="383" customHeight="1" spans="1:5">
       <c r="A383" t="s">
         <v>715</v>
       </c>
@@ -12020,7 +12027,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="384" hidden="1" customHeight="1" spans="1:5">
+    <row r="384" customHeight="1" spans="1:5">
       <c r="A384" t="s">
         <v>717</v>
       </c>
@@ -12037,7 +12044,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="385" hidden="1" customHeight="1" spans="1:5">
+    <row r="385" customHeight="1" spans="1:5">
       <c r="A385" t="s">
         <v>718</v>
       </c>
@@ -12054,7 +12061,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="386" hidden="1" customHeight="1" spans="1:5">
+    <row r="386" customHeight="1" spans="1:5">
       <c r="A386" t="s">
         <v>720</v>
       </c>
@@ -12071,7 +12078,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="387" hidden="1" customHeight="1" spans="1:5">
+    <row r="387" customHeight="1" spans="1:5">
       <c r="A387" t="s">
         <v>722</v>
       </c>
@@ -12088,7 +12095,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="388" hidden="1" customHeight="1" spans="1:5">
+    <row r="388" customHeight="1" spans="1:5">
       <c r="A388" t="s">
         <v>724</v>
       </c>
@@ -12105,7 +12112,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" hidden="1" customHeight="1" spans="1:5">
+    <row r="389" customHeight="1" spans="1:5">
       <c r="A389" t="s">
         <v>725</v>
       </c>
@@ -12122,7 +12129,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="390" hidden="1" customHeight="1" spans="1:5">
+    <row r="390" customHeight="1" spans="1:5">
       <c r="A390" t="s">
         <v>727</v>
       </c>
@@ -12139,7 +12146,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="391" hidden="1" customHeight="1" spans="1:5">
+    <row r="391" customHeight="1" spans="1:5">
       <c r="A391" t="s">
         <v>196</v>
       </c>
@@ -12156,7 +12163,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="392" hidden="1" customHeight="1" spans="1:5">
+    <row r="392" customHeight="1" spans="1:5">
       <c r="A392" t="s">
         <v>730</v>
       </c>
@@ -12173,7 +12180,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="393" hidden="1" customHeight="1" spans="1:5">
+    <row r="393" customHeight="1" spans="1:5">
       <c r="A393" t="s">
         <v>732</v>
       </c>
@@ -12190,7 +12197,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="394" hidden="1" customHeight="1" spans="1:5">
+    <row r="394" customHeight="1" spans="1:5">
       <c r="A394" t="s">
         <v>732</v>
       </c>
@@ -12207,7 +12214,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="395" hidden="1" customHeight="1" spans="1:5">
+    <row r="395" customHeight="1" spans="1:5">
       <c r="A395" t="s">
         <v>735</v>
       </c>
@@ -12224,7 +12231,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" hidden="1" customHeight="1" spans="1:5">
+    <row r="396" customHeight="1" spans="1:5">
       <c r="A396" t="s">
         <v>737</v>
       </c>
@@ -12241,7 +12248,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="397" hidden="1" customHeight="1" spans="1:5">
+    <row r="397" customHeight="1" spans="1:5">
       <c r="A397" t="s">
         <v>740</v>
       </c>
@@ -12258,7 +12265,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="398" hidden="1" customHeight="1" spans="1:5">
+    <row r="398" customHeight="1" spans="1:5">
       <c r="A398" t="s">
         <v>742</v>
       </c>
@@ -12275,7 +12282,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="399" hidden="1" customHeight="1" spans="1:5">
+    <row r="399" customHeight="1" spans="1:5">
       <c r="A399" t="s">
         <v>744</v>
       </c>
@@ -12292,7 +12299,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="400" hidden="1" customHeight="1" spans="1:5">
+    <row r="400" customHeight="1" spans="1:5">
       <c r="A400" t="s">
         <v>746</v>
       </c>
@@ -12309,7 +12316,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" hidden="1" customHeight="1" spans="1:5">
+    <row r="401" customHeight="1" spans="1:5">
       <c r="A401" t="s">
         <v>101</v>
       </c>
@@ -12326,7 +12333,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="402" hidden="1" customHeight="1" spans="1:5">
+    <row r="402" customHeight="1" spans="1:5">
       <c r="A402" t="s">
         <v>748</v>
       </c>
@@ -12343,7 +12350,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="403" hidden="1" customHeight="1" spans="1:5">
+    <row r="403" customHeight="1" spans="1:5">
       <c r="A403" t="s">
         <v>750</v>
       </c>
@@ -12360,7 +12367,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="404" hidden="1" customHeight="1" spans="1:5">
+    <row r="404" customHeight="1" spans="1:5">
       <c r="A404" t="s">
         <v>752</v>
       </c>
@@ -12377,7 +12384,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="405" hidden="1" customHeight="1" spans="1:5">
+    <row r="405" customHeight="1" spans="1:5">
       <c r="A405" t="s">
         <v>754</v>
       </c>
@@ -12394,7 +12401,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="406" hidden="1" customHeight="1" spans="1:5">
+    <row r="406" customHeight="1" spans="1:5">
       <c r="A406" t="s">
         <v>756</v>
       </c>
@@ -12411,7 +12418,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="407" hidden="1" customHeight="1" spans="1:5">
+    <row r="407" customHeight="1" spans="1:5">
       <c r="A407" t="s">
         <v>757</v>
       </c>
@@ -12428,7 +12435,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="408" hidden="1" customHeight="1" spans="1:5">
+    <row r="408" customHeight="1" spans="1:5">
       <c r="A408" t="s">
         <v>759</v>
       </c>
@@ -12445,7 +12452,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="409" hidden="1" customHeight="1" spans="1:5">
+    <row r="409" customHeight="1" spans="1:5">
       <c r="A409" t="s">
         <v>761</v>
       </c>
@@ -12462,7 +12469,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="410" hidden="1" customHeight="1" spans="1:5">
+    <row r="410" customHeight="1" spans="1:5">
       <c r="A410" t="s">
         <v>763</v>
       </c>
@@ -12479,7 +12486,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="411" hidden="1" customHeight="1" spans="1:5">
+    <row r="411" customHeight="1" spans="1:5">
       <c r="A411" t="s">
         <v>127</v>
       </c>
@@ -12496,7 +12503,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="412" hidden="1" customHeight="1" spans="1:5">
+    <row r="412" customHeight="1" spans="1:5">
       <c r="A412" t="s">
         <v>765</v>
       </c>
@@ -12513,7 +12520,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="413" hidden="1" customHeight="1" spans="1:5">
+    <row r="413" customHeight="1" spans="1:5">
       <c r="A413" t="s">
         <v>767</v>
       </c>
@@ -12530,7 +12537,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="414" hidden="1" customHeight="1" spans="1:5">
+    <row r="414" customHeight="1" spans="1:5">
       <c r="A414" t="s">
         <v>769</v>
       </c>
@@ -12547,7 +12554,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="415" hidden="1" customHeight="1" spans="1:5">
+    <row r="415" customHeight="1" spans="1:5">
       <c r="A415" t="s">
         <v>771</v>
       </c>
@@ -12564,7 +12571,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="416" hidden="1" customHeight="1" spans="1:5">
+    <row r="416" customHeight="1" spans="1:5">
       <c r="A416" t="s">
         <v>775</v>
       </c>
@@ -12581,7 +12588,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="417" hidden="1" customHeight="1" spans="1:5">
+    <row r="417" customHeight="1" spans="1:5">
       <c r="A417" t="s">
         <v>776</v>
       </c>
@@ -12598,7 +12605,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="418" hidden="1" customHeight="1" spans="1:5">
+    <row r="418" customHeight="1" spans="1:5">
       <c r="A418" t="s">
         <v>778</v>
       </c>
@@ -12615,7 +12622,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="419" hidden="1" customHeight="1" spans="1:5">
+    <row r="419" customHeight="1" spans="1:5">
       <c r="A419" t="s">
         <v>780</v>
       </c>
@@ -12632,7 +12639,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="420" hidden="1" customHeight="1" spans="1:5">
+    <row r="420" customHeight="1" spans="1:5">
       <c r="A420" t="s">
         <v>782</v>
       </c>
@@ -12649,7 +12656,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="421" hidden="1" customHeight="1" spans="1:5">
+    <row r="421" customHeight="1" spans="1:5">
       <c r="A421" t="s">
         <v>784</v>
       </c>
@@ -12666,7 +12673,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="422" hidden="1" customHeight="1" spans="1:5">
+    <row r="422" customHeight="1" spans="1:5">
       <c r="A422" t="s">
         <v>786</v>
       </c>
@@ -12683,7 +12690,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="423" hidden="1" customHeight="1" spans="1:5">
+    <row r="423" customHeight="1" spans="1:5">
       <c r="A423" t="s">
         <v>787</v>
       </c>
@@ -12700,7 +12707,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="424" hidden="1" customHeight="1" spans="1:5">
+    <row r="424" customHeight="1" spans="1:5">
       <c r="A424" t="s">
         <v>789</v>
       </c>
@@ -12717,7 +12724,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="425" hidden="1" customHeight="1" spans="1:5">
+    <row r="425" customHeight="1" spans="1:5">
       <c r="A425" t="s">
         <v>791</v>
       </c>
@@ -12734,7 +12741,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="426" hidden="1" customHeight="1" spans="1:5">
+    <row r="426" customHeight="1" spans="1:5">
       <c r="A426" t="s">
         <v>793</v>
       </c>
@@ -12751,7 +12758,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="427" hidden="1" customHeight="1" spans="1:5">
+    <row r="427" customHeight="1" spans="1:5">
       <c r="A427" t="s">
         <v>794</v>
       </c>
@@ -12768,7 +12775,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="428" hidden="1" customHeight="1" spans="1:5">
+    <row r="428" customHeight="1" spans="1:5">
       <c r="A428" t="s">
         <v>796</v>
       </c>
@@ -12785,7 +12792,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="429" hidden="1" customHeight="1" spans="1:5">
+    <row r="429" customHeight="1" spans="1:5">
       <c r="A429" t="s">
         <v>798</v>
       </c>
@@ -12802,7 +12809,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="430" hidden="1" customHeight="1" spans="1:5">
+    <row r="430" customHeight="1" spans="1:5">
       <c r="A430" t="s">
         <v>799</v>
       </c>
@@ -12819,7 +12826,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="431" hidden="1" customHeight="1" spans="1:5">
+    <row r="431" customHeight="1" spans="1:5">
       <c r="A431" t="s">
         <v>801</v>
       </c>
@@ -12836,7 +12843,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="432" hidden="1" customHeight="1" spans="1:5">
+    <row r="432" customHeight="1" spans="1:5">
       <c r="A432" t="s">
         <v>803</v>
       </c>
@@ -12853,7 +12860,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="433" hidden="1" customHeight="1" spans="1:5">
+    <row r="433" customHeight="1" spans="1:5">
       <c r="A433" t="s">
         <v>805</v>
       </c>
@@ -12870,7 +12877,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="434" hidden="1" customHeight="1" spans="1:5">
+    <row r="434" customHeight="1" spans="1:5">
       <c r="A434" t="s">
         <v>808</v>
       </c>
@@ -12887,7 +12894,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="435" hidden="1" customHeight="1" spans="1:5">
+    <row r="435" customHeight="1" spans="1:5">
       <c r="A435" t="s">
         <v>600</v>
       </c>
@@ -12904,7 +12911,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="436" hidden="1" customHeight="1" spans="1:5">
+    <row r="436" customHeight="1" spans="1:5">
       <c r="A436" t="s">
         <v>811</v>
       </c>
@@ -12921,7 +12928,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="437" hidden="1" customHeight="1" spans="1:5">
+    <row r="437" customHeight="1" spans="1:5">
       <c r="A437" t="s">
         <v>811</v>
       </c>
@@ -12938,7 +12945,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="438" hidden="1" customHeight="1" spans="1:5">
+    <row r="438" customHeight="1" spans="1:5">
       <c r="A438" t="s">
         <v>813</v>
       </c>
@@ -12955,7 +12962,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="439" hidden="1" customHeight="1" spans="1:5">
+    <row r="439" customHeight="1" spans="1:5">
       <c r="A439" t="s">
         <v>815</v>
       </c>
@@ -12972,7 +12979,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="440" hidden="1" customHeight="1" spans="1:5">
+    <row r="440" customHeight="1" spans="1:5">
       <c r="A440" t="s">
         <v>815</v>
       </c>
@@ -12989,7 +12996,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="441" hidden="1" customHeight="1" spans="1:5">
+    <row r="441" customHeight="1" spans="1:5">
       <c r="A441" t="s">
         <v>818</v>
       </c>
@@ -13006,7 +13013,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="442" hidden="1" customHeight="1" spans="1:5">
+    <row r="442" customHeight="1" spans="1:5">
       <c r="A442" t="s">
         <v>820</v>
       </c>
@@ -13023,7 +13030,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="443" hidden="1" customHeight="1" spans="1:5">
+    <row r="443" customHeight="1" spans="1:5">
       <c r="A443" t="s">
         <v>822</v>
       </c>
@@ -13040,7 +13047,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="444" hidden="1" customHeight="1" spans="1:5">
+    <row r="444" customHeight="1" spans="1:5">
       <c r="A444" t="s">
         <v>824</v>
       </c>
@@ -13057,7 +13064,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="445" hidden="1" customHeight="1" spans="1:5">
+    <row r="445" customHeight="1" spans="1:5">
       <c r="A445" t="s">
         <v>826</v>
       </c>
@@ -13074,7 +13081,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="446" hidden="1" customHeight="1" spans="1:5">
+    <row r="446" customHeight="1" spans="1:5">
       <c r="A446" t="s">
         <v>827</v>
       </c>
@@ -13091,7 +13098,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="447" hidden="1" customHeight="1" spans="1:5">
+    <row r="447" customHeight="1" spans="1:5">
       <c r="A447" t="s">
         <v>828</v>
       </c>
@@ -13108,7 +13115,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="448" hidden="1" customHeight="1" spans="1:5">
+    <row r="448" customHeight="1" spans="1:5">
       <c r="A448" t="s">
         <v>830</v>
       </c>
@@ -13125,7 +13132,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="449" hidden="1" customHeight="1" spans="1:5">
+    <row r="449" customHeight="1" spans="1:5">
       <c r="A449" t="s">
         <v>831</v>
       </c>
@@ -13142,7 +13149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="450" hidden="1" customHeight="1" spans="1:5">
+    <row r="450" customHeight="1" spans="1:5">
       <c r="A450" t="s">
         <v>833</v>
       </c>
@@ -13159,7 +13166,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="451" hidden="1" customHeight="1" spans="1:5">
+    <row r="451" customHeight="1" spans="1:5">
       <c r="A451" t="s">
         <v>835</v>
       </c>
@@ -13176,7 +13183,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="452" hidden="1" customHeight="1" spans="1:5">
+    <row r="452" customHeight="1" spans="1:5">
       <c r="A452" t="s">
         <v>837</v>
       </c>
@@ -13193,7 +13200,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="453" hidden="1" customHeight="1" spans="1:5">
+    <row r="453" customHeight="1" spans="1:5">
       <c r="A453" t="s">
         <v>839</v>
       </c>
@@ -13210,7 +13217,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="454" hidden="1" customHeight="1" spans="1:5">
+    <row r="454" customHeight="1" spans="1:5">
       <c r="A454" t="s">
         <v>841</v>
       </c>
@@ -13227,7 +13234,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="455" hidden="1" customHeight="1" spans="1:5">
+    <row r="455" customHeight="1" spans="1:5">
       <c r="A455" t="s">
         <v>10</v>
       </c>
@@ -13244,7 +13251,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="456" hidden="1" customHeight="1" spans="1:5">
+    <row r="456" customHeight="1" spans="1:5">
       <c r="A456" t="s">
         <v>845</v>
       </c>
@@ -13261,7 +13268,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="457" hidden="1" customHeight="1" spans="1:5">
+    <row r="457" customHeight="1" spans="1:5">
       <c r="A457" t="s">
         <v>847</v>
       </c>
@@ -13278,7 +13285,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="458" hidden="1" customHeight="1" spans="1:5">
+    <row r="458" customHeight="1" spans="1:5">
       <c r="A458" t="s">
         <v>849</v>
       </c>
@@ -13295,7 +13302,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="459" hidden="1" customHeight="1" spans="1:5">
+    <row r="459" customHeight="1" spans="1:5">
       <c r="A459" t="s">
         <v>851</v>
       </c>
@@ -13312,7 +13319,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="460" hidden="1" customHeight="1" spans="1:5">
+    <row r="460" customHeight="1" spans="1:5">
       <c r="A460" t="s">
         <v>853</v>
       </c>
@@ -13329,7 +13336,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="461" hidden="1" customHeight="1" spans="1:5">
+    <row r="461" customHeight="1" spans="1:5">
       <c r="A461" t="s">
         <v>855</v>
       </c>
@@ -13346,7 +13353,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="462" hidden="1" customHeight="1" spans="1:5">
+    <row r="462" customHeight="1" spans="1:5">
       <c r="A462" t="s">
         <v>23</v>
       </c>
@@ -13363,7 +13370,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="463" hidden="1" customHeight="1" spans="1:5">
+    <row r="463" customHeight="1" spans="1:5">
       <c r="A463" t="s">
         <v>857</v>
       </c>
@@ -13380,7 +13387,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="464" hidden="1" customHeight="1" spans="1:5">
+    <row r="464" customHeight="1" spans="1:5">
       <c r="A464" t="s">
         <v>859</v>
       </c>
@@ -13397,7 +13404,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="465" hidden="1" customHeight="1" spans="1:5">
+    <row r="465" customHeight="1" spans="1:5">
       <c r="A465" t="s">
         <v>861</v>
       </c>
@@ -13414,7 +13421,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="466" hidden="1" customHeight="1" spans="1:5">
+    <row r="466" customHeight="1" spans="1:5">
       <c r="A466" t="s">
         <v>862</v>
       </c>
@@ -13431,7 +13438,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="467" hidden="1" customHeight="1" spans="1:5">
+    <row r="467" customHeight="1" spans="1:5">
       <c r="A467" t="s">
         <v>864</v>
       </c>
@@ -13448,7 +13455,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="468" hidden="1" customHeight="1" spans="1:5">
+    <row r="468" customHeight="1" spans="1:5">
       <c r="A468" t="s">
         <v>866</v>
       </c>
@@ -13465,7 +13472,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="469" hidden="1" customHeight="1" spans="1:5">
+    <row r="469" customHeight="1" spans="1:5">
       <c r="A469" t="s">
         <v>867</v>
       </c>
@@ -13482,7 +13489,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="470" hidden="1" customHeight="1" spans="1:5">
+    <row r="470" customHeight="1" spans="1:5">
       <c r="A470" t="s">
         <v>869</v>
       </c>
@@ -13499,7 +13506,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="471" hidden="1" customHeight="1" spans="1:5">
+    <row r="471" customHeight="1" spans="1:5">
       <c r="A471" t="s">
         <v>871</v>
       </c>
@@ -13516,7 +13523,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="472" hidden="1" customHeight="1" spans="1:5">
+    <row r="472" customHeight="1" spans="1:5">
       <c r="A472" t="s">
         <v>873</v>
       </c>
@@ -13533,7 +13540,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="473" hidden="1" customHeight="1" spans="1:5">
+    <row r="473" customHeight="1" spans="1:5">
       <c r="A473" t="s">
         <v>875</v>
       </c>
@@ -13550,7 +13557,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="474" hidden="1" customHeight="1" spans="1:5">
+    <row r="474" customHeight="1" spans="1:5">
       <c r="A474" t="s">
         <v>466</v>
       </c>
@@ -13567,7 +13574,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="475" hidden="1" customHeight="1" spans="1:5">
+    <row r="475" customHeight="1" spans="1:5">
       <c r="A475" t="s">
         <v>878</v>
       </c>
@@ -13584,7 +13591,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="476" hidden="1" customHeight="1" spans="1:5">
+    <row r="476" customHeight="1" spans="1:5">
       <c r="A476" t="s">
         <v>880</v>
       </c>
@@ -13601,7 +13608,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="477" hidden="1" customHeight="1" spans="1:5">
+    <row r="477" customHeight="1" spans="1:5">
       <c r="A477" t="s">
         <v>882</v>
       </c>
@@ -13618,7 +13625,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="478" hidden="1" customHeight="1" spans="1:5">
+    <row r="478" customHeight="1" spans="1:5">
       <c r="A478" t="s">
         <v>884</v>
       </c>
@@ -13635,7 +13642,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="479" hidden="1" customHeight="1" spans="1:5">
+    <row r="479" customHeight="1" spans="1:5">
       <c r="A479" t="s">
         <v>884</v>
       </c>
@@ -13652,7 +13659,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="480" hidden="1" customHeight="1" spans="1:5">
+    <row r="480" customHeight="1" spans="1:5">
       <c r="A480" t="s">
         <v>887</v>
       </c>
@@ -13669,7 +13676,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="481" hidden="1" customHeight="1" spans="1:5">
+    <row r="481" customHeight="1" spans="1:5">
       <c r="A481" t="s">
         <v>51</v>
       </c>
@@ -13686,7 +13693,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="482" hidden="1" customHeight="1" spans="1:5">
+    <row r="482" customHeight="1" spans="1:5">
       <c r="A482" t="s">
         <v>890</v>
       </c>
@@ -13703,7 +13710,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="483" hidden="1" customHeight="1" spans="1:5">
+    <row r="483" customHeight="1" spans="1:5">
       <c r="A483" t="s">
         <v>892</v>
       </c>
@@ -13720,7 +13727,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="484" hidden="1" customHeight="1" spans="1:5">
+    <row r="484" customHeight="1" spans="1:5">
       <c r="A484" t="s">
         <v>894</v>
       </c>
@@ -13737,7 +13744,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="485" hidden="1" customHeight="1" spans="1:5">
+    <row r="485" customHeight="1" spans="1:5">
       <c r="A485" t="s">
         <v>528</v>
       </c>
@@ -13754,7 +13761,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="486" hidden="1" customHeight="1" spans="1:5">
+    <row r="486" customHeight="1" spans="1:5">
       <c r="A486" t="s">
         <v>897</v>
       </c>
@@ -13771,7 +13778,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="487" hidden="1" customHeight="1" spans="1:5">
+    <row r="487" customHeight="1" spans="1:5">
       <c r="A487" t="s">
         <v>899</v>
       </c>
@@ -13788,7 +13795,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="488" hidden="1" customHeight="1" spans="1:5">
+    <row r="488" customHeight="1" spans="1:5">
       <c r="A488" t="s">
         <v>901</v>
       </c>
@@ -13805,7 +13812,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="489" hidden="1" customHeight="1" spans="1:5">
+    <row r="489" customHeight="1" spans="1:5">
       <c r="A489" t="s">
         <v>903</v>
       </c>
@@ -13822,7 +13829,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="490" hidden="1" customHeight="1" spans="1:5">
+    <row r="490" customHeight="1" spans="1:5">
       <c r="A490" t="s">
         <v>905</v>
       </c>
@@ -13839,7 +13846,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="491" hidden="1" customHeight="1" spans="1:5">
+    <row r="491" customHeight="1" spans="1:5">
       <c r="A491" t="s">
         <v>907</v>
       </c>
@@ -13856,7 +13863,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="492" hidden="1" customHeight="1" spans="1:5">
+    <row r="492" customHeight="1" spans="1:5">
       <c r="A492" t="s">
         <v>909</v>
       </c>
@@ -13873,7 +13880,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="493" hidden="1" customHeight="1" spans="1:5">
+    <row r="493" customHeight="1" spans="1:5">
       <c r="A493" t="s">
         <v>581</v>
       </c>
@@ -13890,7 +13897,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="494" hidden="1" customHeight="1" spans="1:5">
+    <row r="494" customHeight="1" spans="1:5">
       <c r="A494" t="s">
         <v>912</v>
       </c>
@@ -13907,7 +13914,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="495" hidden="1" customHeight="1" spans="1:5">
+    <row r="495" customHeight="1" spans="1:5">
       <c r="A495" t="s">
         <v>914</v>
       </c>
@@ -13924,7 +13931,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="496" hidden="1" customHeight="1" spans="1:5">
+    <row r="496" customHeight="1" spans="1:5">
       <c r="A496" t="s">
         <v>916</v>
       </c>
@@ -13941,7 +13948,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="497" hidden="1" customHeight="1" spans="1:5">
+    <row r="497" customHeight="1" spans="1:5">
       <c r="A497" t="s">
         <v>144</v>
       </c>
@@ -13958,7 +13965,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="498" hidden="1" customHeight="1" spans="1:5">
+    <row r="498" customHeight="1" spans="1:5">
       <c r="A498" t="s">
         <v>919</v>
       </c>
@@ -13975,7 +13982,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="499" hidden="1" customHeight="1" spans="1:5">
+    <row r="499" customHeight="1" spans="1:5">
       <c r="A499" t="s">
         <v>921</v>
       </c>
@@ -13992,7 +13999,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="500" hidden="1" customHeight="1" spans="1:5">
+    <row r="500" customHeight="1" spans="1:5">
       <c r="A500" t="s">
         <v>611</v>
       </c>
@@ -14009,7 +14016,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="501" hidden="1" customHeight="1" spans="1:5">
+    <row r="501" customHeight="1" spans="1:5">
       <c r="A501" t="s">
         <v>924</v>
       </c>
@@ -14026,7 +14033,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="502" hidden="1" customHeight="1" spans="1:5">
+    <row r="502" customHeight="1" spans="1:5">
       <c r="A502" t="s">
         <v>925</v>
       </c>
@@ -14043,7 +14050,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="503" hidden="1" customHeight="1" spans="1:5">
+    <row r="503" customHeight="1" spans="1:5">
       <c r="A503" t="s">
         <v>927</v>
       </c>
@@ -14060,7 +14067,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="504" hidden="1" customHeight="1" spans="1:5">
+    <row r="504" customHeight="1" spans="1:5">
       <c r="A504" t="s">
         <v>929</v>
       </c>
@@ -14077,7 +14084,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="505" hidden="1" customHeight="1" spans="1:5">
+    <row r="505" customHeight="1" spans="1:5">
       <c r="A505" t="s">
         <v>931</v>
       </c>
@@ -14094,7 +14101,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="506" hidden="1" customHeight="1" spans="1:5">
+    <row r="506" customHeight="1" spans="1:5">
       <c r="A506" t="s">
         <v>933</v>
       </c>
@@ -14111,7 +14118,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="507" hidden="1" customHeight="1" spans="1:5">
+    <row r="507" customHeight="1" spans="1:5">
       <c r="A507" t="s">
         <v>182</v>
       </c>
@@ -14128,7 +14135,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="508" hidden="1" customHeight="1" spans="1:5">
+    <row r="508" customHeight="1" spans="1:5">
       <c r="A508" t="s">
         <v>77</v>
       </c>
@@ -14145,7 +14152,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="509" hidden="1" customHeight="1" spans="1:5">
+    <row r="509" customHeight="1" spans="1:5">
       <c r="A509" t="s">
         <v>936</v>
       </c>
@@ -14162,7 +14169,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="510" hidden="1" customHeight="1" spans="1:5">
+    <row r="510" customHeight="1" spans="1:5">
       <c r="A510" t="s">
         <v>938</v>
       </c>
@@ -14179,7 +14186,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="511" hidden="1" customHeight="1" spans="1:5">
+    <row r="511" customHeight="1" spans="1:5">
       <c r="A511" t="s">
         <v>939</v>
       </c>
@@ -14196,7 +14203,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="512" hidden="1" customHeight="1" spans="1:5">
+    <row r="512" customHeight="1" spans="1:5">
       <c r="A512" t="s">
         <v>941</v>
       </c>
@@ -14213,7 +14220,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="513" hidden="1" customHeight="1" spans="1:5">
+    <row r="513" customHeight="1" spans="1:5">
       <c r="A513" t="s">
         <v>943</v>
       </c>
@@ -14230,7 +14237,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="514" hidden="1" customHeight="1" spans="1:5">
+    <row r="514" customHeight="1" spans="1:5">
       <c r="A514" t="s">
         <v>945</v>
       </c>
@@ -14247,7 +14254,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="515" hidden="1" customHeight="1" spans="1:5">
+    <row r="515" customHeight="1" spans="1:5">
       <c r="A515" t="s">
         <v>945</v>
       </c>
@@ -14264,7 +14271,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="516" hidden="1" customHeight="1" spans="1:5">
+    <row r="516" customHeight="1" spans="1:5">
       <c r="A516" t="s">
         <v>947</v>
       </c>
@@ -14281,7 +14288,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="517" hidden="1" customHeight="1" spans="1:5">
+    <row r="517" customHeight="1" spans="1:5">
       <c r="A517" t="s">
         <v>949</v>
       </c>
@@ -14298,7 +14305,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="518" hidden="1" customHeight="1" spans="1:5">
+    <row r="518" customHeight="1" spans="1:5">
       <c r="A518" t="s">
         <v>950</v>
       </c>
@@ -14315,7 +14322,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="519" hidden="1" customHeight="1" spans="1:5">
+    <row r="519" customHeight="1" spans="1:5">
       <c r="A519" t="s">
         <v>952</v>
       </c>
@@ -14332,7 +14339,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="520" hidden="1" customHeight="1" spans="1:5">
+    <row r="520" customHeight="1" spans="1:5">
       <c r="A520" t="s">
         <v>954</v>
       </c>
@@ -14349,7 +14356,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="521" hidden="1" customHeight="1" spans="1:5">
+    <row r="521" customHeight="1" spans="1:5">
       <c r="A521" t="s">
         <v>956</v>
       </c>
@@ -14366,7 +14373,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="522" hidden="1" customHeight="1" spans="1:5">
+    <row r="522" customHeight="1" spans="1:5">
       <c r="A522" t="s">
         <v>958</v>
       </c>
@@ -14383,7 +14390,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="523" hidden="1" customHeight="1" spans="1:5">
+    <row r="523" customHeight="1" spans="1:5">
       <c r="A523" t="s">
         <v>960</v>
       </c>
@@ -14400,7 +14407,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="524" hidden="1" customHeight="1" spans="1:5">
+    <row r="524" customHeight="1" spans="1:5">
       <c r="A524" t="s">
         <v>962</v>
       </c>
@@ -14417,7 +14424,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="525" hidden="1" customHeight="1" spans="1:5">
+    <row r="525" customHeight="1" spans="1:5">
       <c r="A525" t="s">
         <v>964</v>
       </c>
@@ -14434,7 +14441,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="526" hidden="1" customHeight="1" spans="1:5">
+    <row r="526" customHeight="1" spans="1:5">
       <c r="A526" t="s">
         <v>705</v>
       </c>
@@ -14451,7 +14458,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="527" hidden="1" customHeight="1" spans="1:5">
+    <row r="527" customHeight="1" spans="1:5">
       <c r="A527" t="s">
         <v>966</v>
       </c>
@@ -14468,7 +14475,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="528" hidden="1" customHeight="1" spans="1:5">
+    <row r="528" customHeight="1" spans="1:5">
       <c r="A528" t="s">
         <v>91</v>
       </c>
@@ -14485,7 +14492,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="529" hidden="1" customHeight="1" spans="1:5">
+    <row r="529" customHeight="1" spans="1:5">
       <c r="A529" t="s">
         <v>969</v>
       </c>
@@ -14502,7 +14509,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="530" hidden="1" customHeight="1" spans="1:5">
+    <row r="530" customHeight="1" spans="1:5">
       <c r="A530" t="s">
         <v>971</v>
       </c>
@@ -14519,7 +14526,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="531" hidden="1" customHeight="1" spans="1:5">
+    <row r="531" customHeight="1" spans="1:5">
       <c r="A531" t="s">
         <v>973</v>
       </c>
@@ -14536,7 +14543,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="532" hidden="1" customHeight="1" spans="1:5">
+    <row r="532" customHeight="1" spans="1:5">
       <c r="A532" t="s">
         <v>735</v>
       </c>
@@ -14553,7 +14560,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="533" hidden="1" customHeight="1" spans="1:5">
+    <row r="533" customHeight="1" spans="1:5">
       <c r="A533" t="s">
         <v>976</v>
       </c>
@@ -14570,7 +14577,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="534" hidden="1" customHeight="1" spans="1:5">
+    <row r="534" customHeight="1" spans="1:5">
       <c r="A534" t="s">
         <v>978</v>
       </c>
@@ -14587,7 +14594,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="535" hidden="1" customHeight="1" spans="1:5">
+    <row r="535" customHeight="1" spans="1:5">
       <c r="A535" t="s">
         <v>980</v>
       </c>
@@ -14604,7 +14611,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="536" hidden="1" customHeight="1" spans="1:5">
+    <row r="536" customHeight="1" spans="1:5">
       <c r="A536" t="s">
         <v>982</v>
       </c>
@@ -14621,7 +14628,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="537" hidden="1" customHeight="1" spans="1:5">
+    <row r="537" customHeight="1" spans="1:5">
       <c r="A537" t="s">
         <v>984</v>
       </c>
@@ -14638,7 +14645,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="538" hidden="1" customHeight="1" spans="1:5">
+    <row r="538" customHeight="1" spans="1:5">
       <c r="A538" t="s">
         <v>787</v>
       </c>
@@ -14655,7 +14662,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="539" hidden="1" customHeight="1" spans="1:5">
+    <row r="539" customHeight="1" spans="1:5">
       <c r="A539" t="s">
         <v>109</v>
       </c>
@@ -14672,7 +14679,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="540" hidden="1" customHeight="1" spans="1:5">
+    <row r="540" customHeight="1" spans="1:5">
       <c r="A540" t="s">
         <v>987</v>
       </c>
@@ -14689,7 +14696,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="541" hidden="1" customHeight="1" spans="1:5">
+    <row r="541" customHeight="1" spans="1:5">
       <c r="A541" t="s">
         <v>988</v>
       </c>
@@ -14706,7 +14713,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="542" hidden="1" customHeight="1" spans="1:5">
+    <row r="542" customHeight="1" spans="1:5">
       <c r="A542" t="s">
         <v>990</v>
       </c>
@@ -14723,7 +14730,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="543" hidden="1" customHeight="1" spans="1:5">
+    <row r="543" customHeight="1" spans="1:5">
       <c r="A543" t="s">
         <v>992</v>
       </c>
@@ -14740,7 +14747,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="544" hidden="1" customHeight="1" spans="1:5">
+    <row r="544" customHeight="1" spans="1:5">
       <c r="A544" t="s">
         <v>992</v>
       </c>
@@ -14757,7 +14764,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="545" hidden="1" customHeight="1" spans="1:5">
+    <row r="545" customHeight="1" spans="1:5">
       <c r="A545" t="s">
         <v>303</v>
       </c>
@@ -14774,7 +14781,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="546" hidden="1" customHeight="1" spans="1:5">
+    <row r="546" customHeight="1" spans="1:5">
       <c r="A546" t="s">
         <v>996</v>
       </c>
@@ -14791,7 +14798,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="547" hidden="1" customHeight="1" spans="1:5">
+    <row r="547" customHeight="1" spans="1:5">
       <c r="A547" t="s">
         <v>998</v>
       </c>
@@ -14808,7 +14815,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="548" hidden="1" customHeight="1" spans="1:5">
+    <row r="548" customHeight="1" spans="1:5">
       <c r="A548" t="s">
         <v>1000</v>
       </c>
@@ -14825,7 +14832,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="549" hidden="1" customHeight="1" spans="1:5">
+    <row r="549" customHeight="1" spans="1:5">
       <c r="A549" t="s">
         <v>1000</v>
       </c>
@@ -14842,7 +14849,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="550" hidden="1" customHeight="1" spans="1:5">
+    <row r="550" customHeight="1" spans="1:5">
       <c r="A550" t="s">
         <v>1003</v>
       </c>
@@ -14859,7 +14866,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="551" hidden="1" customHeight="1" spans="1:5">
+    <row r="551" customHeight="1" spans="1:5">
       <c r="A551" t="s">
         <v>1006</v>
       </c>
@@ -14876,7 +14883,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="552" hidden="1" customHeight="1" spans="1:5">
+    <row r="552" customHeight="1" spans="1:5">
       <c r="A552" t="s">
         <v>1008</v>
       </c>
@@ -14893,7 +14900,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="553" hidden="1" customHeight="1" spans="1:5">
+    <row r="553" customHeight="1" spans="1:5">
       <c r="A553" t="s">
         <v>1009</v>
       </c>
@@ -14910,7 +14917,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="554" hidden="1" customHeight="1" spans="1:5">
+    <row r="554" customHeight="1" spans="1:5">
       <c r="A554" t="s">
         <v>1011</v>
       </c>
@@ -14927,7 +14934,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="555" hidden="1" customHeight="1" spans="1:5">
+    <row r="555" customHeight="1" spans="1:5">
       <c r="A555" t="s">
         <v>1013</v>
       </c>
@@ -14944,7 +14951,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="556" hidden="1" customHeight="1" spans="1:5">
+    <row r="556" customHeight="1" spans="1:5">
       <c r="A556" t="s">
         <v>1015</v>
       </c>
@@ -14961,7 +14968,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="557" hidden="1" customHeight="1" spans="1:5">
+    <row r="557" customHeight="1" spans="1:5">
       <c r="A557" t="s">
         <v>1017</v>
       </c>
@@ -14978,7 +14985,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="558" hidden="1" customHeight="1" spans="1:5">
+    <row r="558" customHeight="1" spans="1:5">
       <c r="A558" t="s">
         <v>1019</v>
       </c>
@@ -14995,7 +15002,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="559" hidden="1" customHeight="1" spans="1:5">
+    <row r="559" customHeight="1" spans="1:5">
       <c r="A559" t="s">
         <v>1021</v>
       </c>
@@ -15012,7 +15019,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="560" hidden="1" customHeight="1" spans="1:5">
+    <row r="560" customHeight="1" spans="1:5">
       <c r="A560" t="s">
         <v>1023</v>
       </c>
@@ -15029,7 +15036,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="561" hidden="1" customHeight="1" spans="1:5">
+    <row r="561" customHeight="1" spans="1:5">
       <c r="A561" t="s">
         <v>853</v>
       </c>
@@ -15046,7 +15053,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="562" hidden="1" customHeight="1" spans="1:5">
+    <row r="562" customHeight="1" spans="1:5">
       <c r="A562" t="s">
         <v>1026</v>
       </c>
@@ -15063,7 +15070,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="563" hidden="1" customHeight="1" spans="1:5">
+    <row r="563" customHeight="1" spans="1:5">
       <c r="A563" t="s">
         <v>1028</v>
       </c>
@@ -15080,7 +15087,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="564" hidden="1" customHeight="1" spans="1:5">
+    <row r="564" customHeight="1" spans="1:5">
       <c r="A564" t="s">
         <v>1030</v>
       </c>
@@ -15097,7 +15104,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="565" hidden="1" customHeight="1" spans="1:5">
+    <row r="565" customHeight="1" spans="1:5">
       <c r="A565" t="s">
         <v>1032</v>
       </c>
@@ -15114,7 +15121,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="566" hidden="1" customHeight="1" spans="1:5">
+    <row r="566" customHeight="1" spans="1:5">
       <c r="A566" t="s">
         <v>1034</v>
       </c>
@@ -15131,7 +15138,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="567" hidden="1" customHeight="1" spans="1:5">
+    <row r="567" customHeight="1" spans="1:5">
       <c r="A567" t="s">
         <v>1034</v>
       </c>
@@ -15148,7 +15155,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="568" hidden="1" customHeight="1" spans="1:5">
+    <row r="568" customHeight="1" spans="1:5">
       <c r="A568" t="s">
         <v>1034</v>
       </c>
@@ -15165,7 +15172,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="569" hidden="1" customHeight="1" spans="1:5">
+    <row r="569" customHeight="1" spans="1:5">
       <c r="A569" t="s">
         <v>1037</v>
       </c>
@@ -15182,7 +15189,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="570" hidden="1" customHeight="1" spans="1:5">
+    <row r="570" customHeight="1" spans="1:5">
       <c r="A570" t="s">
         <v>1038</v>
       </c>
@@ -15199,7 +15206,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="571" hidden="1" customHeight="1" spans="1:5">
+    <row r="571" customHeight="1" spans="1:5">
       <c r="A571" t="s">
         <v>380</v>
       </c>
@@ -15216,7 +15223,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="572" hidden="1" customHeight="1" spans="1:5">
+    <row r="572" customHeight="1" spans="1:5">
       <c r="A572" t="s">
         <v>380</v>
       </c>
@@ -15233,7 +15240,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="573" hidden="1" customHeight="1" spans="1:5">
+    <row r="573" customHeight="1" spans="1:5">
       <c r="A573" t="s">
         <v>1042</v>
       </c>
@@ -15250,7 +15257,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="574" hidden="1" customHeight="1" spans="1:5">
+    <row r="574" customHeight="1" spans="1:5">
       <c r="A574" t="s">
         <v>1044</v>
       </c>
@@ -15267,7 +15274,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="575" hidden="1" customHeight="1" spans="1:5">
+    <row r="575" customHeight="1" spans="1:5">
       <c r="A575" t="s">
         <v>221</v>
       </c>
@@ -15284,7 +15291,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="576" hidden="1" customHeight="1" spans="1:5">
+    <row r="576" customHeight="1" spans="1:5">
       <c r="A576" t="s">
         <v>1047</v>
       </c>
@@ -15301,7 +15308,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="577" hidden="1" customHeight="1" spans="1:5">
+    <row r="577" customHeight="1" spans="1:5">
       <c r="A577" t="s">
         <v>1049</v>
       </c>
@@ -15318,7 +15325,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="578" hidden="1" customHeight="1" spans="1:5">
+    <row r="578" customHeight="1" spans="1:5">
       <c r="A578" t="s">
         <v>1051</v>
       </c>
@@ -15335,7 +15342,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="579" hidden="1" customHeight="1" spans="1:5">
+    <row r="579" customHeight="1" spans="1:5">
       <c r="A579" t="s">
         <v>1053</v>
       </c>
@@ -15352,7 +15359,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="580" hidden="1" customHeight="1" spans="1:5">
+    <row r="580" customHeight="1" spans="1:5">
       <c r="A580" t="s">
         <v>1055</v>
       </c>
@@ -15369,7 +15376,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="581" hidden="1" customHeight="1" spans="1:5">
+    <row r="581" customHeight="1" spans="1:5">
       <c r="A581" t="s">
         <v>1057</v>
       </c>
@@ -15386,7 +15393,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="582" hidden="1" customHeight="1" spans="1:5">
+    <row r="582" customHeight="1" spans="1:5">
       <c r="A582" t="s">
         <v>1059</v>
       </c>
@@ -15403,7 +15410,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="583" hidden="1" customHeight="1" spans="1:5">
+    <row r="583" customHeight="1" spans="1:5">
       <c r="A583" t="s">
         <v>1060</v>
       </c>
@@ -15420,7 +15427,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="584" hidden="1" customHeight="1" spans="1:5">
+    <row r="584" customHeight="1" spans="1:5">
       <c r="A584" t="s">
         <v>1062</v>
       </c>
@@ -15437,7 +15444,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="585" hidden="1" customHeight="1" spans="1:5">
+    <row r="585" customHeight="1" spans="1:5">
       <c r="A585" t="s">
         <v>466</v>
       </c>
@@ -15454,7 +15461,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="586" hidden="1" customHeight="1" spans="1:5">
+    <row r="586" customHeight="1" spans="1:5">
       <c r="A586" t="s">
         <v>1063</v>
       </c>
@@ -15471,7 +15478,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="587" hidden="1" customHeight="1" spans="1:5">
+    <row r="587" customHeight="1" spans="1:5">
       <c r="A587" t="s">
         <v>506</v>
       </c>
@@ -15488,7 +15495,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="588" hidden="1" customHeight="1" spans="1:5">
+    <row r="588" customHeight="1" spans="1:5">
       <c r="A588" t="s">
         <v>1066</v>
       </c>
@@ -15505,7 +15512,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="589" hidden="1" customHeight="1" spans="1:5">
+    <row r="589" customHeight="1" spans="1:5">
       <c r="A589" t="s">
         <v>1068</v>
       </c>
@@ -15522,7 +15529,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="590" hidden="1" customHeight="1" spans="1:5">
+    <row r="590" customHeight="1" spans="1:5">
       <c r="A590" t="s">
         <v>1069</v>
       </c>
@@ -15539,7 +15546,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="591" hidden="1" customHeight="1" spans="1:5">
+    <row r="591" customHeight="1" spans="1:5">
       <c r="A591" t="s">
         <v>1071</v>
       </c>
@@ -15556,7 +15563,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="592" hidden="1" customHeight="1" spans="1:5">
+    <row r="592" customHeight="1" spans="1:5">
       <c r="A592" t="s">
         <v>1073</v>
       </c>
@@ -15573,7 +15580,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="593" hidden="1" customHeight="1" spans="1:5">
+    <row r="593" customHeight="1" spans="1:5">
       <c r="A593" t="s">
         <v>1075</v>
       </c>
@@ -15590,7 +15597,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="594" hidden="1" customHeight="1" spans="1:5">
+    <row r="594" customHeight="1" spans="1:5">
       <c r="A594" t="s">
         <v>1077</v>
       </c>
@@ -15607,7 +15614,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="595" hidden="1" customHeight="1" spans="1:5">
+    <row r="595" customHeight="1" spans="1:5">
       <c r="A595" t="s">
         <v>1079</v>
       </c>
@@ -15624,7 +15631,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="596" hidden="1" customHeight="1" spans="1:5">
+    <row r="596" customHeight="1" spans="1:5">
       <c r="A596" t="s">
         <v>1081</v>
       </c>
@@ -15641,7 +15648,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="597" hidden="1" customHeight="1" spans="1:5">
+    <row r="597" customHeight="1" spans="1:5">
       <c r="A597" t="s">
         <v>1083</v>
       </c>
@@ -15658,7 +15665,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="598" hidden="1" customHeight="1" spans="1:5">
+    <row r="598" customHeight="1" spans="1:5">
       <c r="A598" t="s">
         <v>1085</v>
       </c>
@@ -15675,7 +15682,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="599" hidden="1" customHeight="1" spans="1:5">
+    <row r="599" customHeight="1" spans="1:5">
       <c r="A599" t="s">
         <v>1086</v>
       </c>
@@ -15692,7 +15699,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="600" hidden="1" customHeight="1" spans="1:5">
+    <row r="600" customHeight="1" spans="1:5">
       <c r="A600" t="s">
         <v>1088</v>
       </c>
@@ -15709,7 +15716,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="601" hidden="1" customHeight="1" spans="1:5">
+    <row r="601" customHeight="1" spans="1:5">
       <c r="A601" t="s">
         <v>1089</v>
       </c>
@@ -15726,7 +15733,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="602" hidden="1" customHeight="1" spans="1:5">
+    <row r="602" customHeight="1" spans="1:5">
       <c r="A602" t="s">
         <v>55</v>
       </c>
@@ -15743,7 +15750,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="603" hidden="1" customHeight="1" spans="1:5">
+    <row r="603" customHeight="1" spans="1:5">
       <c r="A603" t="s">
         <v>1091</v>
       </c>
@@ -15760,7 +15767,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="604" hidden="1" customHeight="1" spans="1:5">
+    <row r="604" customHeight="1" spans="1:5">
       <c r="A604" t="s">
         <v>1092</v>
       </c>
@@ -15777,7 +15784,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="605" hidden="1" customHeight="1" spans="1:5">
+    <row r="605" customHeight="1" spans="1:5">
       <c r="A605" t="s">
         <v>1093</v>
       </c>
@@ -15794,7 +15801,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="606" hidden="1" customHeight="1" spans="1:5">
+    <row r="606" customHeight="1" spans="1:5">
       <c r="A606" t="s">
         <v>1094</v>
       </c>
@@ -15811,7 +15818,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="607" hidden="1" customHeight="1" spans="1:5">
+    <row r="607" customHeight="1" spans="1:5">
       <c r="A607" t="s">
         <v>1096</v>
       </c>
@@ -15828,7 +15835,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="608" hidden="1" customHeight="1" spans="1:5">
+    <row r="608" customHeight="1" spans="1:5">
       <c r="A608" t="s">
         <v>146</v>
       </c>
@@ -15845,7 +15852,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="609" hidden="1" customHeight="1" spans="1:5">
+    <row r="609" customHeight="1" spans="1:5">
       <c r="A609" t="s">
         <v>611</v>
       </c>
@@ -15862,7 +15869,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="610" hidden="1" customHeight="1" spans="1:5">
+    <row r="610" customHeight="1" spans="1:5">
       <c r="A610" t="s">
         <v>1098</v>
       </c>
@@ -15879,7 +15886,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="611" hidden="1" customHeight="1" spans="1:5">
+    <row r="611" customHeight="1" spans="1:5">
       <c r="A611" t="s">
         <v>149</v>
       </c>
@@ -15896,7 +15903,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="612" hidden="1" customHeight="1" spans="1:5">
+    <row r="612" customHeight="1" spans="1:5">
       <c r="A612" t="s">
         <v>1100</v>
       </c>
@@ -15913,7 +15920,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="613" hidden="1" customHeight="1" spans="1:5">
+    <row r="613" customHeight="1" spans="1:5">
       <c r="A613" t="s">
         <v>1102</v>
       </c>
@@ -15930,7 +15937,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="614" hidden="1" customHeight="1" spans="1:5">
+    <row r="614" customHeight="1" spans="1:5">
       <c r="A614" t="s">
         <v>634</v>
       </c>
@@ -15947,7 +15954,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="615" hidden="1" customHeight="1" spans="1:5">
+    <row r="615" customHeight="1" spans="1:5">
       <c r="A615" t="s">
         <v>1103</v>
       </c>
@@ -15964,7 +15971,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="616" hidden="1" customHeight="1" spans="1:5">
+    <row r="616" customHeight="1" spans="1:5">
       <c r="A616" t="s">
         <v>1105</v>
       </c>
@@ -15981,7 +15988,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="617" hidden="1" customHeight="1" spans="1:5">
+    <row r="617" customHeight="1" spans="1:5">
       <c r="A617" t="s">
         <v>1107</v>
       </c>
@@ -15998,7 +16005,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="618" hidden="1" customHeight="1" spans="1:5">
+    <row r="618" customHeight="1" spans="1:5">
       <c r="A618" t="s">
         <v>1109</v>
       </c>
@@ -16015,7 +16022,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="619" hidden="1" customHeight="1" spans="1:5">
+    <row r="619" customHeight="1" spans="1:5">
       <c r="A619" t="s">
         <v>1111</v>
       </c>
@@ -16032,7 +16039,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="620" hidden="1" customHeight="1" spans="1:5">
+    <row r="620" customHeight="1" spans="1:5">
       <c r="A620" t="s">
         <v>1113</v>
       </c>
@@ -16049,7 +16056,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="621" hidden="1" customHeight="1" spans="1:5">
+    <row r="621" customHeight="1" spans="1:5">
       <c r="A621" t="s">
         <v>1115</v>
       </c>
@@ -16066,7 +16073,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="622" hidden="1" customHeight="1" spans="1:5">
+    <row r="622" customHeight="1" spans="1:5">
       <c r="A622" t="s">
         <v>1117</v>
       </c>
@@ -16083,7 +16090,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="623" hidden="1" customHeight="1" spans="1:5">
+    <row r="623" customHeight="1" spans="1:5">
       <c r="A623" t="s">
         <v>1118</v>
       </c>
@@ -16100,7 +16107,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="624" hidden="1" customHeight="1" spans="1:5">
+    <row r="624" customHeight="1" spans="1:5">
       <c r="A624" t="s">
         <v>1120</v>
       </c>
@@ -16117,7 +16124,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="625" hidden="1" customHeight="1" spans="1:5">
+    <row r="625" customHeight="1" spans="1:5">
       <c r="A625" t="s">
         <v>1121</v>
       </c>
@@ -16134,7 +16141,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="626" hidden="1" customHeight="1" spans="1:5">
+    <row r="626" customHeight="1" spans="1:5">
       <c r="A626" t="s">
         <v>1122</v>
       </c>
@@ -16151,7 +16158,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="627" hidden="1" customHeight="1" spans="1:5">
+    <row r="627" customHeight="1" spans="1:5">
       <c r="A627" t="s">
         <v>1124</v>
       </c>
@@ -16168,7 +16175,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="628" hidden="1" customHeight="1" spans="1:5">
+    <row r="628" customHeight="1" spans="1:5">
       <c r="A628" t="s">
         <v>683</v>
       </c>
@@ -16185,7 +16192,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="629" hidden="1" customHeight="1" spans="1:5">
+    <row r="629" customHeight="1" spans="1:5">
       <c r="A629" t="s">
         <v>1127</v>
       </c>
@@ -16202,7 +16209,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="630" hidden="1" customHeight="1" spans="1:5">
+    <row r="630" customHeight="1" spans="1:5">
       <c r="A630" t="s">
         <v>1129</v>
       </c>
@@ -16219,7 +16226,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="631" hidden="1" customHeight="1" spans="1:5">
+    <row r="631" customHeight="1" spans="1:5">
       <c r="A631" t="s">
         <v>1131</v>
       </c>
@@ -16236,7 +16243,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="632" hidden="1" customHeight="1" spans="1:5">
+    <row r="632" customHeight="1" spans="1:5">
       <c r="A632" t="s">
         <v>696</v>
       </c>
@@ -16253,7 +16260,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="633" hidden="1" customHeight="1" spans="1:5">
+    <row r="633" customHeight="1" spans="1:5">
       <c r="A633" t="s">
         <v>547</v>
       </c>
@@ -16270,7 +16277,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="634" hidden="1" customHeight="1" spans="1:5">
+    <row r="634" customHeight="1" spans="1:5">
       <c r="A634" t="s">
         <v>1134</v>
       </c>
@@ -16287,7 +16294,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="635" hidden="1" customHeight="1" spans="1:5">
+    <row r="635" customHeight="1" spans="1:5">
       <c r="A635" t="s">
         <v>1136</v>
       </c>
@@ -16304,7 +16311,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="636" hidden="1" customHeight="1" spans="1:5">
+    <row r="636" customHeight="1" spans="1:5">
       <c r="A636" t="s">
         <v>705</v>
       </c>
@@ -16321,7 +16328,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="637" hidden="1" customHeight="1" spans="1:5">
+    <row r="637" customHeight="1" spans="1:5">
       <c r="A637" t="s">
         <v>1139</v>
       </c>
@@ -16338,7 +16345,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="638" hidden="1" customHeight="1" spans="1:5">
+    <row r="638" customHeight="1" spans="1:5">
       <c r="A638" t="s">
         <v>1140</v>
       </c>
@@ -16355,7 +16362,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="639" hidden="1" customHeight="1" spans="1:5">
+    <row r="639" customHeight="1" spans="1:5">
       <c r="A639" t="s">
         <v>1141</v>
       </c>
@@ -16372,7 +16379,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="640" hidden="1" customHeight="1" spans="1:5">
+    <row r="640" customHeight="1" spans="1:5">
       <c r="A640" t="s">
         <v>1143</v>
       </c>
@@ -16389,7 +16396,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="641" hidden="1" customHeight="1" spans="1:5">
+    <row r="641" customHeight="1" spans="1:5">
       <c r="A641" t="s">
         <v>1145</v>
       </c>
@@ -16406,7 +16413,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="642" hidden="1" customHeight="1" spans="1:5">
+    <row r="642" customHeight="1" spans="1:5">
       <c r="A642" t="s">
         <v>1147</v>
       </c>
@@ -16423,7 +16430,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="643" hidden="1" customHeight="1" spans="1:5">
+    <row r="643" customHeight="1" spans="1:5">
       <c r="A643" t="s">
         <v>1149</v>
       </c>
@@ -16440,7 +16447,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="644" hidden="1" customHeight="1" spans="1:5">
+    <row r="644" customHeight="1" spans="1:5">
       <c r="A644" t="s">
         <v>1150</v>
       </c>
@@ -16457,7 +16464,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="645" hidden="1" customHeight="1" spans="1:5">
+    <row r="645" customHeight="1" spans="1:5">
       <c r="A645" t="s">
         <v>1152</v>
       </c>
@@ -16474,7 +16481,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="646" hidden="1" customHeight="1" spans="1:5">
+    <row r="646" customHeight="1" spans="1:5">
       <c r="A646" t="s">
         <v>1154</v>
       </c>
@@ -16491,7 +16498,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="647" hidden="1" customHeight="1" spans="1:5">
+    <row r="647" customHeight="1" spans="1:5">
       <c r="A647" t="s">
         <v>1155</v>
       </c>
@@ -16508,7 +16515,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="648" hidden="1" customHeight="1" spans="1:5">
+    <row r="648" customHeight="1" spans="1:5">
       <c r="A648" t="s">
         <v>1157</v>
       </c>
@@ -16525,7 +16532,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="649" hidden="1" customHeight="1" spans="1:5">
+    <row r="649" customHeight="1" spans="1:5">
       <c r="A649" t="s">
         <v>1159</v>
       </c>
@@ -16542,7 +16549,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="650" hidden="1" customHeight="1" spans="1:5">
+    <row r="650" customHeight="1" spans="1:5">
       <c r="A650" t="s">
         <v>1161</v>
       </c>
@@ -16559,7 +16566,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="651" hidden="1" customHeight="1" spans="1:5">
+    <row r="651" customHeight="1" spans="1:5">
       <c r="A651" t="s">
         <v>1162</v>
       </c>
@@ -16576,7 +16583,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="652" hidden="1" customHeight="1" spans="1:5">
+    <row r="652" customHeight="1" spans="1:5">
       <c r="A652" t="s">
         <v>1164</v>
       </c>
@@ -16593,7 +16600,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="653" hidden="1" customHeight="1" spans="1:5">
+    <row r="653" customHeight="1" spans="1:5">
       <c r="A653" t="s">
         <v>1165</v>
       </c>
@@ -16610,7 +16617,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="654" hidden="1" customHeight="1" spans="1:5">
+    <row r="654" customHeight="1" spans="1:5">
       <c r="A654" t="s">
         <v>1167</v>
       </c>
@@ -16627,7 +16634,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="655" hidden="1" customHeight="1" spans="1:5">
+    <row r="655" customHeight="1" spans="1:5">
       <c r="A655" t="s">
         <v>1169</v>
       </c>
@@ -16644,7 +16651,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="656" hidden="1" customHeight="1" spans="1:5">
+    <row r="656" customHeight="1" spans="1:5">
       <c r="A656" t="s">
         <v>1171</v>
       </c>
@@ -16661,7 +16668,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="657" hidden="1" customHeight="1" spans="1:5">
+    <row r="657" customHeight="1" spans="1:5">
       <c r="A657" t="s">
         <v>1173</v>
       </c>
@@ -16678,7 +16685,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="658" hidden="1" customHeight="1" spans="1:5">
+    <row r="658" customHeight="1" spans="1:5">
       <c r="A658" t="s">
         <v>1175</v>
       </c>
@@ -16695,7 +16702,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="659" hidden="1" customHeight="1" spans="1:5">
+    <row r="659" customHeight="1" spans="1:5">
       <c r="A659" t="s">
         <v>1177</v>
       </c>
@@ -17885,7 +17892,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="729" hidden="1" customHeight="1" spans="1:5">
+    <row r="729" customHeight="1" spans="1:5">
       <c r="A729" t="s">
         <v>1187</v>
       </c>
@@ -17902,7 +17909,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="730" hidden="1" customHeight="1" spans="1:5">
+    <row r="730" customHeight="1" spans="1:5">
       <c r="A730" t="s">
         <v>873</v>
       </c>
@@ -17919,7 +17926,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="731" hidden="1" customHeight="1" spans="1:5">
+    <row r="731" customHeight="1" spans="1:5">
       <c r="A731" t="s">
         <v>1292</v>
       </c>
@@ -17936,7 +17943,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="732" hidden="1" customHeight="1" spans="1:5">
+    <row r="732" customHeight="1" spans="1:5">
       <c r="A732" t="s">
         <v>1294</v>
       </c>
@@ -17953,7 +17960,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="733" hidden="1" customHeight="1" spans="1:5">
+    <row r="733" customHeight="1" spans="1:5">
       <c r="A733" t="s">
         <v>1296</v>
       </c>
@@ -17970,7 +17977,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="734" hidden="1" customHeight="1" spans="1:5">
+    <row r="734" customHeight="1" spans="1:5">
       <c r="A734" t="s">
         <v>1298</v>
       </c>
@@ -17987,7 +17994,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="735" hidden="1" customHeight="1" spans="1:5">
+    <row r="735" customHeight="1" spans="1:5">
       <c r="A735" t="s">
         <v>1300</v>
       </c>
@@ -18004,7 +18011,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="736" hidden="1" customHeight="1" spans="1:5">
+    <row r="736" customHeight="1" spans="1:5">
       <c r="A736" t="s">
         <v>169</v>
       </c>
@@ -18021,7 +18028,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="737" hidden="1" customHeight="1" spans="1:5">
+    <row r="737" customHeight="1" spans="1:5">
       <c r="A737" t="s">
         <v>1302</v>
       </c>
@@ -18038,7 +18045,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="738" hidden="1" customHeight="1" spans="1:5">
+    <row r="738" customHeight="1" spans="1:5">
       <c r="A738" t="s">
         <v>1303</v>
       </c>
@@ -18055,7 +18062,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="739" hidden="1" customHeight="1" spans="1:5">
+    <row r="739" customHeight="1" spans="1:5">
       <c r="A739" t="s">
         <v>91</v>
       </c>
@@ -18072,7 +18079,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="740" hidden="1" customHeight="1" spans="1:5">
+    <row r="740" customHeight="1" spans="1:5">
       <c r="A740" t="s">
         <v>1134</v>
       </c>
@@ -18089,7 +18096,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="741" hidden="1" customHeight="1" spans="1:5">
+    <row r="741" customHeight="1" spans="1:5">
       <c r="A741" t="s">
         <v>735</v>
       </c>
@@ -18106,7 +18113,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="742" hidden="1" customHeight="1" spans="1:5">
+    <row r="742" customHeight="1" spans="1:5">
       <c r="A742" t="s">
         <v>1306</v>
       </c>
@@ -18123,7 +18130,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="743" hidden="1" customHeight="1" spans="1:5">
+    <row r="743" customHeight="1" spans="1:5">
       <c r="A743" t="s">
         <v>1308</v>
       </c>
@@ -18140,7 +18147,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="744" hidden="1" customHeight="1" spans="1:5">
+    <row r="744" customHeight="1" spans="1:5">
       <c r="A744" t="s">
         <v>833</v>
       </c>
@@ -18157,7 +18164,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="745" hidden="1" customHeight="1" spans="1:5">
+    <row r="745" customHeight="1" spans="1:5">
       <c r="A745" t="s">
         <v>1311</v>
       </c>
@@ -18174,7 +18181,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="746" hidden="1" customHeight="1" spans="1:5">
+    <row r="746" customHeight="1" spans="1:5">
       <c r="A746" t="s">
         <v>1312</v>
       </c>
@@ -18191,7 +18198,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="747" hidden="1" customHeight="1" spans="1:5">
+    <row r="747" customHeight="1" spans="1:5">
       <c r="A747" t="s">
         <v>1315</v>
       </c>
@@ -18208,7 +18215,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="748" hidden="1" customHeight="1" spans="1:5">
+    <row r="748" customHeight="1" spans="1:5">
       <c r="A748" t="s">
         <v>1316</v>
       </c>
@@ -18225,7 +18232,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="749" hidden="1" customHeight="1" spans="1:5">
+    <row r="749" customHeight="1" spans="1:5">
       <c r="A749" t="s">
         <v>1317</v>
       </c>
@@ -18242,7 +18249,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="750" hidden="1" customHeight="1" spans="1:5">
+    <row r="750" customHeight="1" spans="1:5">
       <c r="A750" t="s">
         <v>1318</v>
       </c>
@@ -18259,7 +18266,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="751" hidden="1" customHeight="1" spans="1:5">
+    <row r="751" customHeight="1" spans="1:5">
       <c r="A751" t="s">
         <v>1298</v>
       </c>
@@ -18276,7 +18283,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="752" hidden="1" customHeight="1" spans="1:5">
+    <row r="752" customHeight="1" spans="1:5">
       <c r="A752" t="s">
         <v>1321</v>
       </c>
@@ -18293,7 +18300,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="753" hidden="1" customHeight="1" spans="1:5">
+    <row r="753" customHeight="1" spans="1:5">
       <c r="A753" t="s">
         <v>1323</v>
       </c>
@@ -18310,7 +18317,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="754" hidden="1" customHeight="1" spans="1:5">
+    <row r="754" customHeight="1" spans="1:5">
       <c r="A754" t="s">
         <v>662</v>
       </c>
@@ -18327,7 +18334,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="755" hidden="1" customHeight="1" spans="1:5">
+    <row r="755" customHeight="1" spans="1:5">
       <c r="A755" t="s">
         <v>1326</v>
       </c>
@@ -18344,7 +18351,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="756" hidden="1" customHeight="1" spans="1:5">
+    <row r="756" customHeight="1" spans="1:5">
       <c r="A756" t="s">
         <v>1327</v>
       </c>
@@ -18361,7 +18368,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="757" hidden="1" customHeight="1" spans="1:5">
+    <row r="757" customHeight="1" spans="1:5">
       <c r="A757" t="s">
         <v>698</v>
       </c>
@@ -18378,7 +18385,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="758" hidden="1" customHeight="1" spans="1:5">
+    <row r="758" customHeight="1" spans="1:5">
       <c r="A758" t="s">
         <v>1330</v>
       </c>
@@ -18395,7 +18402,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="759" hidden="1" customHeight="1" spans="1:5">
+    <row r="759" customHeight="1" spans="1:5">
       <c r="A759" t="s">
         <v>1332</v>
       </c>
@@ -18412,7 +18419,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="760" hidden="1" customHeight="1" spans="1:5">
+    <row r="760" customHeight="1" spans="1:5">
       <c r="A760" t="s">
         <v>1278</v>
       </c>
@@ -18429,7 +18436,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="761" hidden="1" customHeight="1" spans="1:5">
+    <row r="761" customHeight="1" spans="1:5">
       <c r="A761" t="s">
         <v>1306</v>
       </c>
@@ -18446,7 +18453,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="762" hidden="1" customHeight="1" spans="1:5">
+    <row r="762" customHeight="1" spans="1:5">
       <c r="A762" t="s">
         <v>1335</v>
       </c>
@@ -18463,7 +18470,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="763" hidden="1" customHeight="1" spans="1:5">
+    <row r="763" customHeight="1" spans="1:5">
       <c r="A763" t="s">
         <v>811</v>
       </c>
@@ -18480,7 +18487,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="764" hidden="1" customHeight="1" spans="1:5">
+    <row r="764" customHeight="1" spans="1:5">
       <c r="A764" t="s">
         <v>1338</v>
       </c>
@@ -18497,7 +18504,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="765" hidden="1" customHeight="1" spans="1:5">
+    <row r="765" customHeight="1" spans="1:5">
       <c r="A765" t="s">
         <v>1341</v>
       </c>
@@ -18514,7 +18521,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="766" hidden="1" customHeight="1" spans="1:5">
+    <row r="766" customHeight="1" spans="1:5">
       <c r="A766" t="s">
         <v>1343</v>
       </c>
@@ -18531,7 +18538,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="767" hidden="1" customHeight="1" spans="1:5">
+    <row r="767" customHeight="1" spans="1:5">
       <c r="A767" t="s">
         <v>1345</v>
       </c>
@@ -18548,7 +18555,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="768" hidden="1" customHeight="1" spans="1:5">
+    <row r="768" customHeight="1" spans="1:5">
       <c r="A768" t="s">
         <v>1347</v>
       </c>
@@ -18565,7 +18572,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="769" hidden="1" customHeight="1" spans="1:5">
+    <row r="769" customHeight="1" spans="1:5">
       <c r="A769" t="s">
         <v>1349</v>
       </c>
@@ -18582,7 +18589,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="770" hidden="1" customHeight="1" spans="1:5">
+    <row r="770" customHeight="1" spans="1:5">
       <c r="A770" t="s">
         <v>1349</v>
       </c>
@@ -18599,7 +18606,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="771" hidden="1" customHeight="1" spans="1:5">
+    <row r="771" customHeight="1" spans="1:5">
       <c r="A771" t="s">
         <v>1352</v>
       </c>
@@ -18616,7 +18623,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="772" hidden="1" customHeight="1" spans="1:5">
+    <row r="772" customHeight="1" spans="1:5">
       <c r="A772" t="s">
         <v>1354</v>
       </c>
@@ -18633,7 +18640,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="773" hidden="1" customHeight="1" spans="1:5">
+    <row r="773" customHeight="1" spans="1:5">
       <c r="A773" t="s">
         <v>140</v>
       </c>
@@ -18650,7 +18657,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="774" hidden="1" customHeight="1" spans="1:5">
+    <row r="774" customHeight="1" spans="1:5">
       <c r="A774" t="s">
         <v>55</v>
       </c>
@@ -18667,7 +18674,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="775" hidden="1" customHeight="1" spans="1:5">
+    <row r="775" customHeight="1" spans="1:5">
       <c r="A775" t="s">
         <v>1358</v>
       </c>
@@ -18684,7 +18691,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="776" hidden="1" customHeight="1" spans="1:5">
+    <row r="776" customHeight="1" spans="1:5">
       <c r="A776" t="s">
         <v>1360</v>
       </c>
@@ -18701,7 +18708,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="777" hidden="1" customHeight="1" spans="1:5">
+    <row r="777" customHeight="1" spans="1:5">
       <c r="A777" t="s">
         <v>1362</v>
       </c>
@@ -18718,7 +18725,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="778" hidden="1" customHeight="1" spans="1:5">
+    <row r="778" customHeight="1" spans="1:5">
       <c r="A778" t="s">
         <v>1364</v>
       </c>
@@ -18735,7 +18742,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="779" hidden="1" customHeight="1" spans="1:5">
+    <row r="779" customHeight="1" spans="1:5">
       <c r="A779" t="s">
         <v>1366</v>
       </c>
@@ -18752,7 +18759,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="780" hidden="1" customHeight="1" spans="1:5">
+    <row r="780" customHeight="1" spans="1:5">
       <c r="A780" t="s">
         <v>1252</v>
       </c>
@@ -18769,7 +18776,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="781" hidden="1" customHeight="1" spans="1:5">
+    <row r="781" customHeight="1" spans="1:5">
       <c r="A781" t="s">
         <v>1330</v>
       </c>
@@ -18786,7 +18793,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="782" hidden="1" customHeight="1" spans="1:5">
+    <row r="782" customHeight="1" spans="1:5">
       <c r="A782" t="s">
         <v>1369</v>
       </c>
@@ -18803,7 +18810,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="783" hidden="1" customHeight="1" spans="1:5">
+    <row r="783" customHeight="1" spans="1:5">
       <c r="A783" t="s">
         <v>1371</v>
       </c>
@@ -18820,7 +18827,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="784" hidden="1" customHeight="1" spans="1:5">
+    <row r="784" customHeight="1" spans="1:5">
       <c r="A784" t="s">
         <v>730</v>
       </c>
@@ -18837,7 +18844,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="785" hidden="1" customHeight="1" spans="1:5">
+    <row r="785" customHeight="1" spans="1:5">
       <c r="A785" t="s">
         <v>101</v>
       </c>
@@ -18854,7 +18861,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="786" hidden="1" customHeight="1" spans="1:5">
+    <row r="786" customHeight="1" spans="1:5">
       <c r="A786" t="s">
         <v>1375</v>
       </c>
@@ -18871,7 +18878,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="787" hidden="1" customHeight="1" spans="1:5">
+    <row r="787" customHeight="1" spans="1:5">
       <c r="A787" t="s">
         <v>1377</v>
       </c>
@@ -18888,7 +18895,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="788" hidden="1" customHeight="1" spans="1:5">
+    <row r="788" customHeight="1" spans="1:5">
       <c r="A788" t="s">
         <v>1379</v>
       </c>
@@ -18905,7 +18912,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="789" hidden="1" customHeight="1" spans="1:5">
+    <row r="789" customHeight="1" spans="1:5">
       <c r="A789" t="s">
         <v>1381</v>
       </c>
@@ -18922,7 +18929,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="790" hidden="1" customHeight="1" spans="1:5">
+    <row r="790" customHeight="1" spans="1:5">
       <c r="A790" t="s">
         <v>749</v>
       </c>
@@ -18939,7 +18946,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="791" hidden="1" customHeight="1" spans="1:5">
+    <row r="791" customHeight="1" spans="1:5">
       <c r="A791" t="s">
         <v>1384</v>
       </c>
@@ -18956,7 +18963,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="792" hidden="1" customHeight="1" spans="1:5">
+    <row r="792" customHeight="1" spans="1:5">
       <c r="A792" t="s">
         <v>1386</v>
       </c>
@@ -18973,7 +18980,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="793" hidden="1" customHeight="1" spans="1:5">
+    <row r="793" customHeight="1" spans="1:5">
       <c r="A793" t="s">
         <v>1388</v>
       </c>
@@ -18990,7 +18997,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="794" hidden="1" customHeight="1" spans="1:5">
+    <row r="794" customHeight="1" spans="1:5">
       <c r="A794" t="s">
         <v>1390</v>
       </c>
@@ -19007,7 +19014,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="795" hidden="1" customHeight="1" spans="1:5">
+    <row r="795" customHeight="1" spans="1:5">
       <c r="A795" t="s">
         <v>1392</v>
       </c>
@@ -19024,7 +19031,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="796" hidden="1" customHeight="1" spans="1:5">
+    <row r="796" customHeight="1" spans="1:5">
       <c r="A796" t="s">
         <v>1393</v>
       </c>
@@ -19041,7 +19048,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="797" hidden="1" customHeight="1" spans="1:5">
+    <row r="797" customHeight="1" spans="1:5">
       <c r="A797" t="s">
         <v>1395</v>
       </c>
@@ -19058,7 +19065,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="798" hidden="1" customHeight="1" spans="1:5">
+    <row r="798" customHeight="1" spans="1:5">
       <c r="A798" t="s">
         <v>1396</v>
       </c>
@@ -19075,7 +19082,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="799" hidden="1" customHeight="1" spans="1:5">
+    <row r="799" customHeight="1" spans="1:5">
       <c r="A799" t="s">
         <v>1398</v>
       </c>
@@ -19092,7 +19099,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="800" hidden="1" customHeight="1" spans="1:5">
+    <row r="800" customHeight="1" spans="1:5">
       <c r="A800" t="s">
         <v>1400</v>
       </c>
@@ -19109,7 +19116,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="801" hidden="1" customHeight="1" spans="1:5">
+    <row r="801" customHeight="1" spans="1:5">
       <c r="A801" t="s">
         <v>1402</v>
       </c>
@@ -19126,7 +19133,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="802" hidden="1" customHeight="1" spans="1:5">
+    <row r="802" customHeight="1" spans="1:5">
       <c r="A802" t="s">
         <v>1403</v>
       </c>
@@ -19143,7 +19150,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="803" hidden="1" customHeight="1" spans="1:5">
+    <row r="803" customHeight="1" spans="1:5">
       <c r="A803" t="s">
         <v>1405</v>
       </c>
@@ -19160,7 +19167,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="804" hidden="1" customHeight="1" spans="1:5">
+    <row r="804" customHeight="1" spans="1:5">
       <c r="A804" t="s">
         <v>1136</v>
       </c>
@@ -19177,7 +19184,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="805" hidden="1" customHeight="1" spans="1:5">
+    <row r="805" customHeight="1" spans="1:5">
       <c r="A805" t="s">
         <v>1408</v>
       </c>
@@ -19194,7 +19201,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="806" hidden="1" customHeight="1" spans="1:5">
+    <row r="806" customHeight="1" spans="1:5">
       <c r="A806" t="s">
         <v>1410</v>
       </c>
@@ -19211,7 +19218,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="807" hidden="1" customHeight="1" spans="1:5">
+    <row r="807" customHeight="1" spans="1:5">
       <c r="A807" t="s">
         <v>1412</v>
       </c>
@@ -19228,7 +19235,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="808" hidden="1" customHeight="1" spans="1:5">
+    <row r="808" customHeight="1" spans="1:5">
       <c r="A808" t="s">
         <v>1414</v>
       </c>
@@ -19245,7 +19252,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="809" hidden="1" customHeight="1" spans="1:5">
+    <row r="809" customHeight="1" spans="1:5">
       <c r="A809" t="s">
         <v>1416</v>
       </c>
@@ -19262,7 +19269,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="810" hidden="1" customHeight="1" spans="1:5">
+    <row r="810" customHeight="1" spans="1:5">
       <c r="A810" t="s">
         <v>1418</v>
       </c>
@@ -19279,7 +19286,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="811" hidden="1" customHeight="1" spans="1:5">
+    <row r="811" customHeight="1" spans="1:5">
       <c r="A811" t="s">
         <v>1421</v>
       </c>
@@ -19296,7 +19303,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="812" hidden="1" customHeight="1" spans="1:5">
+    <row r="812" customHeight="1" spans="1:5">
       <c r="A812" t="s">
         <v>1422</v>
       </c>
@@ -19313,7 +19320,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="813" hidden="1" customHeight="1" spans="1:5">
+    <row r="813" customHeight="1" spans="1:5">
       <c r="A813" t="s">
         <v>1423</v>
       </c>
@@ -19330,7 +19337,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="814" hidden="1" customHeight="1" spans="1:5">
+    <row r="814" customHeight="1" spans="1:5">
       <c r="A814" t="s">
         <v>1425</v>
       </c>
@@ -19347,7 +19354,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="815" hidden="1" customHeight="1" spans="1:5">
+    <row r="815" customHeight="1" spans="1:5">
       <c r="A815" t="s">
         <v>857</v>
       </c>
@@ -19364,7 +19371,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="816" hidden="1" customHeight="1" spans="1:5">
+    <row r="816" customHeight="1" spans="1:5">
       <c r="A816" t="s">
         <v>1428</v>
       </c>
@@ -19381,7 +19388,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="817" hidden="1" customHeight="1" spans="1:5">
+    <row r="817" customHeight="1" spans="1:5">
       <c r="A817" t="s">
         <v>1429</v>
       </c>
@@ -19398,7 +19405,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="818" hidden="1" customHeight="1" spans="1:5">
+    <row r="818" customHeight="1" spans="1:5">
       <c r="A818" t="s">
         <v>1430</v>
       </c>
@@ -19415,7 +19422,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="819" hidden="1" customHeight="1" spans="1:5">
+    <row r="819" customHeight="1" spans="1:5">
       <c r="A819" t="s">
         <v>1432</v>
       </c>
@@ -19432,7 +19439,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="820" hidden="1" customHeight="1" spans="1:5">
+    <row r="820" customHeight="1" spans="1:5">
       <c r="A820" t="s">
         <v>1433</v>
       </c>
@@ -19449,7 +19456,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="821" hidden="1" customHeight="1" spans="1:5">
+    <row r="821" customHeight="1" spans="1:5">
       <c r="A821" t="s">
         <v>1434</v>
       </c>
@@ -19466,7 +19473,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="822" hidden="1" customHeight="1" spans="1:5">
+    <row r="822" customHeight="1" spans="1:5">
       <c r="A822" t="s">
         <v>1436</v>
       </c>
@@ -19483,7 +19490,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="823" hidden="1" customHeight="1" spans="1:5">
+    <row r="823" customHeight="1" spans="1:5">
       <c r="A823" t="s">
         <v>1437</v>
       </c>
@@ -19500,7 +19507,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="824" hidden="1" customHeight="1" spans="1:5">
+    <row r="824" customHeight="1" spans="1:5">
       <c r="A824" t="s">
         <v>1439</v>
       </c>
@@ -19517,7 +19524,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="825" hidden="1" customHeight="1" spans="1:5">
+    <row r="825" customHeight="1" spans="1:5">
       <c r="A825" t="s">
         <v>1441</v>
       </c>
@@ -19534,7 +19541,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="826" hidden="1" customHeight="1" spans="1:5">
+    <row r="826" customHeight="1" spans="1:5">
       <c r="A826" t="s">
         <v>1442</v>
       </c>
@@ -19551,7 +19558,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="827" hidden="1" customHeight="1" spans="1:5">
+    <row r="827" customHeight="1" spans="1:5">
       <c r="A827" t="s">
         <v>1444</v>
       </c>
@@ -19568,7 +19575,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="828" hidden="1" customHeight="1" spans="1:5">
+    <row r="828" customHeight="1" spans="1:5">
       <c r="A828" t="s">
         <v>1446</v>
       </c>
@@ -19585,7 +19592,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="829" hidden="1" customHeight="1" spans="1:5">
+    <row r="829" customHeight="1" spans="1:5">
       <c r="A829" t="s">
         <v>535</v>
       </c>
@@ -19602,7 +19609,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="830" hidden="1" customHeight="1" spans="1:5">
+    <row r="830" customHeight="1" spans="1:5">
       <c r="A830" t="s">
         <v>550</v>
       </c>
@@ -19619,7 +19626,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="831" hidden="1" customHeight="1" spans="1:5">
+    <row r="831" customHeight="1" spans="1:5">
       <c r="A831" t="s">
         <v>1449</v>
       </c>
@@ -19636,7 +19643,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="832" hidden="1" customHeight="1" spans="1:5">
+    <row r="832" customHeight="1" spans="1:5">
       <c r="A832" t="s">
         <v>1451</v>
       </c>
@@ -19653,7 +19660,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="833" hidden="1" customHeight="1" spans="1:5">
+    <row r="833" customHeight="1" spans="1:5">
       <c r="A833" t="s">
         <v>614</v>
       </c>
@@ -19670,7 +19677,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="834" hidden="1" customHeight="1" spans="1:5">
+    <row r="834" customHeight="1" spans="1:5">
       <c r="A834" t="s">
         <v>1452</v>
       </c>
@@ -19687,7 +19694,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="835" hidden="1" customHeight="1" spans="1:5">
+    <row r="835" customHeight="1" spans="1:5">
       <c r="A835" t="s">
         <v>1453</v>
       </c>
@@ -19704,7 +19711,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="836" hidden="1" customHeight="1" spans="1:5">
+    <row r="836" customHeight="1" spans="1:5">
       <c r="A836" t="s">
         <v>634</v>
       </c>
@@ -19721,7 +19728,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="837" hidden="1" customHeight="1" spans="1:5">
+    <row r="837" customHeight="1" spans="1:5">
       <c r="A837" t="s">
         <v>1455</v>
       </c>
@@ -19738,7 +19745,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="838" hidden="1" customHeight="1" spans="1:5">
+    <row r="838" customHeight="1" spans="1:5">
       <c r="A838" t="s">
         <v>1457</v>
       </c>
@@ -19755,7 +19762,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="839" hidden="1" customHeight="1" spans="1:5">
+    <row r="839" customHeight="1" spans="1:5">
       <c r="A839" t="s">
         <v>1459</v>
       </c>
@@ -19772,7 +19779,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="840" hidden="1" customHeight="1" spans="1:5">
+    <row r="840" customHeight="1" spans="1:5">
       <c r="A840" t="s">
         <v>1460</v>
       </c>
@@ -19789,7 +19796,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="841" hidden="1" customHeight="1" spans="1:5">
+    <row r="841" customHeight="1" spans="1:5">
       <c r="A841" t="s">
         <v>1462</v>
       </c>
@@ -19806,7 +19813,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="842" hidden="1" customHeight="1" spans="1:5">
+    <row r="842" customHeight="1" spans="1:5">
       <c r="A842" t="s">
         <v>742</v>
       </c>
@@ -19823,7 +19830,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="843" hidden="1" customHeight="1" spans="1:5">
+    <row r="843" customHeight="1" spans="1:5">
       <c r="A843" t="s">
         <v>1465</v>
       </c>
@@ -19840,7 +19847,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="844" hidden="1" customHeight="1" spans="1:5">
+    <row r="844" customHeight="1" spans="1:5">
       <c r="A844" t="s">
         <v>1467</v>
       </c>
@@ -19857,7 +19864,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="845" hidden="1" customHeight="1" spans="1:5">
+    <row r="845" customHeight="1" spans="1:5">
       <c r="A845" t="s">
         <v>803</v>
       </c>
@@ -19874,7 +19881,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="846" hidden="1" customHeight="1" spans="1:5">
+    <row r="846" customHeight="1" spans="1:5">
       <c r="A846" t="s">
         <v>1470</v>
       </c>
@@ -19891,7 +19898,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="847" hidden="1" customHeight="1" spans="1:5">
+    <row r="847" customHeight="1" spans="1:5">
       <c r="A847" t="s">
         <v>1472</v>
       </c>
@@ -19908,7 +19915,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="848" hidden="1" customHeight="1" spans="1:5">
+    <row r="848" customHeight="1" spans="1:5">
       <c r="A848" t="s">
         <v>1474</v>
       </c>
@@ -19925,7 +19932,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="849" hidden="1" customHeight="1" spans="1:5">
+    <row r="849" customHeight="1" spans="1:5">
       <c r="A849" t="s">
         <v>1476</v>
       </c>
@@ -19942,7 +19949,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="850" hidden="1" customHeight="1" spans="1:5">
+    <row r="850" customHeight="1" spans="1:5">
       <c r="A850" t="s">
         <v>1312</v>
       </c>
@@ -19959,7 +19966,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="851" hidden="1" customHeight="1" spans="1:5">
+    <row r="851" customHeight="1" spans="1:5">
       <c r="A851" t="s">
         <v>1423</v>
       </c>
@@ -19976,7 +19983,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="852" hidden="1" customHeight="1" spans="1:5">
+    <row r="852" customHeight="1" spans="1:5">
       <c r="A852" t="s">
         <v>330</v>
       </c>
@@ -19993,7 +20000,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="853" hidden="1" customHeight="1" spans="1:5">
+    <row r="853" customHeight="1" spans="1:5">
       <c r="A853" t="s">
         <v>235</v>
       </c>
@@ -20010,7 +20017,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="854" hidden="1" customHeight="1" spans="1:5">
+    <row r="854" customHeight="1" spans="1:5">
       <c r="A854" t="s">
         <v>1482</v>
       </c>
@@ -20027,7 +20034,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="855" hidden="1" customHeight="1" spans="1:5">
+    <row r="855" customHeight="1" spans="1:5">
       <c r="A855" t="s">
         <v>1483</v>
       </c>
@@ -20044,7 +20051,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="856" hidden="1" customHeight="1" spans="1:5">
+    <row r="856" customHeight="1" spans="1:5">
       <c r="A856" t="s">
         <v>419</v>
       </c>
@@ -20061,7 +20068,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="857" hidden="1" customHeight="1" spans="1:5">
+    <row r="857" customHeight="1" spans="1:5">
       <c r="A857" t="s">
         <v>1485</v>
       </c>
@@ -20078,7 +20085,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="858" hidden="1" customHeight="1" spans="1:5">
+    <row r="858" customHeight="1" spans="1:5">
       <c r="A858" t="s">
         <v>1487</v>
       </c>
@@ -20095,7 +20102,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="859" hidden="1" customHeight="1" spans="1:5">
+    <row r="859" customHeight="1" spans="1:5">
       <c r="A859" t="s">
         <v>567</v>
       </c>
@@ -20112,7 +20119,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="860" hidden="1" customHeight="1" spans="1:5">
+    <row r="860" customHeight="1" spans="1:5">
       <c r="A860" t="s">
         <v>1489</v>
       </c>
@@ -20129,7 +20136,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="861" hidden="1" customHeight="1" spans="1:5">
+    <row r="861" customHeight="1" spans="1:5">
       <c r="A861" t="s">
         <v>1491</v>
       </c>
@@ -20146,7 +20153,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="862" hidden="1" customHeight="1" spans="1:5">
+    <row r="862" customHeight="1" spans="1:5">
       <c r="A862" t="s">
         <v>1492</v>
       </c>
@@ -20163,7 +20170,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="863" hidden="1" customHeight="1" spans="1:5">
+    <row r="863" customHeight="1" spans="1:5">
       <c r="A863" t="s">
         <v>1494</v>
       </c>
@@ -20180,7 +20187,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="864" hidden="1" customHeight="1" spans="1:5">
+    <row r="864" customHeight="1" spans="1:5">
       <c r="A864" t="s">
         <v>1495</v>
       </c>
@@ -20197,7 +20204,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="865" hidden="1" customHeight="1" spans="1:5">
+    <row r="865" customHeight="1" spans="1:5">
       <c r="A865" t="s">
         <v>1241</v>
       </c>
@@ -20214,7 +20221,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="866" hidden="1" customHeight="1" spans="1:5">
+    <row r="866" customHeight="1" spans="1:5">
       <c r="A866" t="s">
         <v>1496</v>
       </c>
@@ -20231,7 +20238,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="867" hidden="1" customHeight="1" spans="1:5">
+    <row r="867" customHeight="1" spans="1:5">
       <c r="A867" t="s">
         <v>1497</v>
       </c>
@@ -20248,7 +20255,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="868" hidden="1" customHeight="1" spans="1:5">
+    <row r="868" customHeight="1" spans="1:5">
       <c r="A868" t="s">
         <v>1499</v>
       </c>
@@ -20265,7 +20272,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="869" hidden="1" customHeight="1" spans="1:5">
+    <row r="869" customHeight="1" spans="1:5">
       <c r="A869" t="s">
         <v>802</v>
       </c>
@@ -20282,7 +20289,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="870" hidden="1" customHeight="1" spans="1:5">
+    <row r="870" customHeight="1" spans="1:5">
       <c r="A870" t="s">
         <v>1501</v>
       </c>
@@ -20299,7 +20306,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="871" hidden="1" customHeight="1" spans="1:5">
+    <row r="871" customHeight="1" spans="1:5">
       <c r="A871" t="s">
         <v>1414</v>
       </c>
@@ -20316,7 +20323,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="872" hidden="1" customHeight="1" spans="1:5">
+    <row r="872" customHeight="1" spans="1:5">
       <c r="A872" t="s">
         <v>1504</v>
       </c>
@@ -20333,7 +20340,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="873" hidden="1" customHeight="1" spans="1:5">
+    <row r="873" customHeight="1" spans="1:5">
       <c r="A873" t="s">
         <v>1173</v>
       </c>
@@ -20350,7 +20357,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="874" hidden="1" customHeight="1" spans="1:5">
+    <row r="874" customHeight="1" spans="1:5">
       <c r="A874" t="s">
         <v>1507</v>
       </c>
@@ -20367,7 +20374,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="875" hidden="1" customHeight="1" spans="1:5">
+    <row r="875" customHeight="1" spans="1:5">
       <c r="A875" t="s">
         <v>1508</v>
       </c>
@@ -20384,13 +20391,25 @@
         <v>1479</v>
       </c>
     </row>
+    <row r="876" customHeight="1" spans="1:5">
+      <c r="A876" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C876" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D876" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E876" s="4" t="s">
+        <v>1479</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E875" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="L3ETT"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Liste des étudiants-2025-2026.xlsx
+++ b/Liste des étudiants-2025-2026.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="1511">
   <si>
     <t>Nom</t>
   </si>
@@ -4562,10 +4562,7 @@
     <t>DJAOUED ABDER</t>
   </si>
   <si>
-    <t>Si Moussa</t>
-  </si>
-  <si>
-    <t>Djamila</t>
+    <t>SI MOUSSA</t>
   </si>
 </sst>
 </file>
@@ -5506,9 +5503,9 @@
   <dimension ref="A1:E876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A860" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F867" sqref="F867"/>
+      <selection pane="bottomLeft" activeCell="E879" sqref="E879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -20396,7 +20393,7 @@
         <v>1510</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1511</v>
+        <v>1218</v>
       </c>
       <c r="C876" s="4" t="s">
         <v>7</v>

--- a/Liste des étudiants-2025-2026.xlsx
+++ b/Liste des étudiants-2025-2026.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Réponses au formulaire 1'!$A$1:$E$875</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Réponses au formulaire 1'!$A$1:$E$876</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5197,7 +5197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5206,7 +5206,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5497,15 +5496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E879" sqref="E879"/>
+      <selection pane="bottomLeft" activeCell="G874" sqref="G874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -5530,7 +5529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" hidden="1" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" hidden="1" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" hidden="1" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" hidden="1" customHeight="1" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" hidden="1" customHeight="1" spans="1:5">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" hidden="1" customHeight="1" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" hidden="1" customHeight="1" spans="1:5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" hidden="1" customHeight="1" spans="1:5">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
+    <row r="10" hidden="1" customHeight="1" spans="1:5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" hidden="1" customHeight="1" spans="1:5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" hidden="1" customHeight="1" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
+    <row r="13" hidden="1" customHeight="1" spans="1:5">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
+    <row r="14" hidden="1" customHeight="1" spans="1:5">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
+    <row r="15" hidden="1" customHeight="1" spans="1:5">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
+    <row r="16" hidden="1" customHeight="1" spans="1:5">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" hidden="1" customHeight="1" spans="1:5">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" hidden="1" customHeight="1" spans="1:5">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
+    <row r="19" hidden="1" customHeight="1" spans="1:5">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:5">
+    <row r="20" hidden="1" customHeight="1" spans="1:5">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5853,7 +5852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
+    <row r="21" hidden="1" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:5">
+    <row r="22" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
+    <row r="23" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
+    <row r="24" hidden="1" customHeight="1" spans="1:5">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
+    <row r="25" hidden="1" customHeight="1" spans="1:5">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:5">
+    <row r="26" hidden="1" customHeight="1" spans="1:5">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
+    <row r="27" hidden="1" customHeight="1" spans="1:5">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:5">
+    <row r="28" hidden="1" customHeight="1" spans="1:5">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
+    <row r="29" hidden="1" customHeight="1" spans="1:5">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:5">
+    <row r="30" hidden="1" customHeight="1" spans="1:5">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6023,7 +6022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
+    <row r="31" hidden="1" customHeight="1" spans="1:5">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:5">
+    <row r="32" hidden="1" customHeight="1" spans="1:5">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:5">
+    <row r="33" hidden="1" customHeight="1" spans="1:5">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:5">
+    <row r="34" hidden="1" customHeight="1" spans="1:5">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:5">
+    <row r="35" hidden="1" customHeight="1" spans="1:5">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:5">
+    <row r="36" hidden="1" customHeight="1" spans="1:5">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:5">
+    <row r="37" hidden="1" customHeight="1" spans="1:5">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:5">
+    <row r="38" hidden="1" customHeight="1" spans="1:5">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:5">
+    <row r="39" hidden="1" customHeight="1" spans="1:5">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:5">
+    <row r="40" hidden="1" customHeight="1" spans="1:5">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:5">
+    <row r="41" hidden="1" customHeight="1" spans="1:5">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:5">
+    <row r="42" hidden="1" customHeight="1" spans="1:5">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:5">
+    <row r="43" hidden="1" customHeight="1" spans="1:5">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:5">
+    <row r="44" hidden="1" customHeight="1" spans="1:5">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:5">
+    <row r="45" hidden="1" customHeight="1" spans="1:5">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:5">
+    <row r="46" hidden="1" customHeight="1" spans="1:5">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:5">
+    <row r="47" hidden="1" customHeight="1" spans="1:5">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:5">
+    <row r="48" hidden="1" customHeight="1" spans="1:5">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:5">
+    <row r="49" hidden="1" customHeight="1" spans="1:5">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:5">
+    <row r="50" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:5">
+    <row r="51" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:5">
+    <row r="52" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:5">
+    <row r="53" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:5">
+    <row r="54" hidden="1" customHeight="1" spans="1:5">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:5">
+    <row r="55" hidden="1" customHeight="1" spans="1:5">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:5">
+    <row r="56" hidden="1" customHeight="1" spans="1:5">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:5">
+    <row r="57" hidden="1" customHeight="1" spans="1:5">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:5">
+    <row r="58" hidden="1" customHeight="1" spans="1:5">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:5">
+    <row r="59" hidden="1" customHeight="1" spans="1:5">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:5">
+    <row r="60" hidden="1" customHeight="1" spans="1:5">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:5">
+    <row r="61" hidden="1" customHeight="1" spans="1:5">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:5">
+    <row r="62" hidden="1" customHeight="1" spans="1:5">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -6567,7 +6566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:5">
+    <row r="63" hidden="1" customHeight="1" spans="1:5">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:5">
+    <row r="64" hidden="1" customHeight="1" spans="1:5">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:5">
+    <row r="65" hidden="1" customHeight="1" spans="1:5">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:5">
+    <row r="66" hidden="1" customHeight="1" spans="1:5">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:5">
+    <row r="67" hidden="1" customHeight="1" spans="1:5">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:5">
+    <row r="68" hidden="1" customHeight="1" spans="1:5">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:5">
+    <row r="69" hidden="1" customHeight="1" spans="1:5">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:5">
+    <row r="70" hidden="1" customHeight="1" spans="1:5">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:5">
+    <row r="71" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:5">
+    <row r="72" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:5">
+    <row r="73" hidden="1" customHeight="1" spans="1:5">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:5">
+    <row r="74" hidden="1" customHeight="1" spans="1:5">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:5">
+    <row r="75" hidden="1" customHeight="1" spans="1:5">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:5">
+    <row r="76" hidden="1" customHeight="1" spans="1:5">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:5">
+    <row r="77" hidden="1" customHeight="1" spans="1:5">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:5">
+    <row r="78" hidden="1" customHeight="1" spans="1:5">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:5">
+    <row r="79" hidden="1" customHeight="1" spans="1:5">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:5">
+    <row r="80" hidden="1" customHeight="1" spans="1:5">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:5">
+    <row r="81" hidden="1" customHeight="1" spans="1:5">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:5">
+    <row r="82" hidden="1" customHeight="1" spans="1:5">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:5">
+    <row r="83" hidden="1" customHeight="1" spans="1:5">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:5">
+    <row r="84" hidden="1" customHeight="1" spans="1:5">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:5">
+    <row r="85" hidden="1" customHeight="1" spans="1:5">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:5">
+    <row r="86" hidden="1" customHeight="1" spans="1:5">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:5">
+    <row r="87" hidden="1" customHeight="1" spans="1:5">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:5">
+    <row r="88" hidden="1" customHeight="1" spans="1:5">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -7009,7 +7008,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:5">
+    <row r="89" hidden="1" customHeight="1" spans="1:5">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:5">
+    <row r="90" hidden="1" customHeight="1" spans="1:5">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:5">
+    <row r="91" hidden="1" customHeight="1" spans="1:5">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:5">
+    <row r="92" hidden="1" customHeight="1" spans="1:5">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:5">
+    <row r="93" hidden="1" customHeight="1" spans="1:5">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:5">
+    <row r="94" hidden="1" customHeight="1" spans="1:5">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:5">
+    <row r="95" hidden="1" customHeight="1" spans="1:5">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -7128,7 +7127,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:5">
+    <row r="96" hidden="1" customHeight="1" spans="1:5">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:5">
+    <row r="97" hidden="1" customHeight="1" spans="1:5">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:5">
+    <row r="98" hidden="1" customHeight="1" spans="1:5">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:5">
+    <row r="99" hidden="1" customHeight="1" spans="1:5">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:5">
+    <row r="100" hidden="1" customHeight="1" spans="1:5">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:5">
+    <row r="101" hidden="1" customHeight="1" spans="1:5">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:5">
+    <row r="102" hidden="1" customHeight="1" spans="1:5">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:5">
+    <row r="103" hidden="1" customHeight="1" spans="1:5">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:5">
+    <row r="104" hidden="1" customHeight="1" spans="1:5">
       <c r="A104" t="s">
         <v>210</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:5">
+    <row r="105" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" t="s">
         <v>212</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:5">
+    <row r="106" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:5">
+    <row r="107" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:5">
+    <row r="108" hidden="1" customHeight="1" spans="1:5">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:5">
+    <row r="109" hidden="1" customHeight="1" spans="1:5">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:5">
+    <row r="110" hidden="1" customHeight="1" spans="1:5">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:5">
+    <row r="111" hidden="1" customHeight="1" spans="1:5">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:5">
+    <row r="112" hidden="1" customHeight="1" spans="1:5">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:5">
+    <row r="113" hidden="1" customHeight="1" spans="1:5">
       <c r="A113" t="s">
         <v>226</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:5">
+    <row r="114" hidden="1" customHeight="1" spans="1:5">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:5">
+    <row r="115" hidden="1" customHeight="1" spans="1:5">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:5">
+    <row r="116" hidden="1" customHeight="1" spans="1:5">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:5">
+    <row r="117" hidden="1" customHeight="1" spans="1:5">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:5">
+    <row r="118" hidden="1" customHeight="1" spans="1:5">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:5">
+    <row r="119" hidden="1" customHeight="1" spans="1:5">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:5">
+    <row r="120" hidden="1" customHeight="1" spans="1:5">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:5">
+    <row r="121" hidden="1" customHeight="1" spans="1:5">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:5">
+    <row r="122" hidden="1" customHeight="1" spans="1:5">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:5">
+    <row r="123" hidden="1" customHeight="1" spans="1:5">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -7604,7 +7603,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:5">
+    <row r="124" hidden="1" customHeight="1" spans="1:5">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:5">
+    <row r="125" hidden="1" customHeight="1" spans="1:5">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:5">
+    <row r="126" hidden="1" customHeight="1" spans="1:5">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:5">
+    <row r="127" hidden="1" customHeight="1" spans="1:5">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:5">
+    <row r="128" hidden="1" customHeight="1" spans="1:5">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:5">
+    <row r="129" hidden="1" customHeight="1" spans="1:5">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:5">
+    <row r="130" hidden="1" customHeight="1" spans="1:5">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:5">
+    <row r="131" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:5">
+    <row r="132" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:5">
+    <row r="133" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:5">
+    <row r="134" hidden="1" customHeight="1" spans="1:5">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:5">
+    <row r="135" hidden="1" customHeight="1" spans="1:5">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:5">
+    <row r="136" hidden="1" customHeight="1" spans="1:5">
       <c r="A136" t="s">
         <v>267</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:5">
+    <row r="137" hidden="1" customHeight="1" spans="1:5">
       <c r="A137" t="s">
         <v>269</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:5">
+    <row r="138" hidden="1" customHeight="1" spans="1:5">
       <c r="A138" t="s">
         <v>271</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:5">
+    <row r="139" hidden="1" customHeight="1" spans="1:5">
       <c r="A139" t="s">
         <v>273</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:5">
+    <row r="140" hidden="1" customHeight="1" spans="1:5">
       <c r="A140" t="s">
         <v>275</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:5">
+    <row r="141" hidden="1" customHeight="1" spans="1:5">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:5">
+    <row r="142" hidden="1" customHeight="1" spans="1:5">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:5">
+    <row r="143" hidden="1" customHeight="1" spans="1:5">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:5">
+    <row r="144" hidden="1" customHeight="1" spans="1:5">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:5">
+    <row r="145" hidden="1" customHeight="1" spans="1:5">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:5">
+    <row r="146" hidden="1" customHeight="1" spans="1:5">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:5">
+    <row r="147" hidden="1" customHeight="1" spans="1:5">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:5">
+    <row r="148" hidden="1" customHeight="1" spans="1:5">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:5">
+    <row r="149" hidden="1" customHeight="1" spans="1:5">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:5">
+    <row r="150" hidden="1" customHeight="1" spans="1:5">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:5">
+    <row r="151" hidden="1" customHeight="1" spans="1:5">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -8080,7 +8079,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:5">
+    <row r="152" hidden="1" customHeight="1" spans="1:5">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:5">
+    <row r="153" hidden="1" customHeight="1" spans="1:5">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:5">
+    <row r="154" hidden="1" customHeight="1" spans="1:5">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -8131,7 +8130,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:5">
+    <row r="155" hidden="1" customHeight="1" spans="1:5">
       <c r="A155" t="s">
         <v>305</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:5">
+    <row r="156" hidden="1" customHeight="1" spans="1:5">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:5">
+    <row r="157" hidden="1" customHeight="1" spans="1:5">
       <c r="A157" t="s">
         <v>95</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:5">
+    <row r="158" hidden="1" customHeight="1" spans="1:5">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:5">
+    <row r="159" hidden="1" customHeight="1" spans="1:5">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -8216,7 +8215,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:5">
+    <row r="160" hidden="1" customHeight="1" spans="1:5">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:5">
+    <row r="161" hidden="1" customHeight="1" spans="1:5">
       <c r="A161" t="s">
         <v>317</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:5">
+    <row r="162" hidden="1" customHeight="1" spans="1:5">
       <c r="A162" t="s">
         <v>319</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:5">
+    <row r="163" hidden="1" customHeight="1" spans="1:5">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:5">
+    <row r="164" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" t="s">
         <v>322</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:5">
+    <row r="165" hidden="1" customHeight="1" spans="1:5">
       <c r="A165" t="s">
         <v>324</v>
       </c>
@@ -8318,7 +8317,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:5">
+    <row r="166" hidden="1" customHeight="1" spans="1:5">
       <c r="A166" t="s">
         <v>326</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:5">
+    <row r="167" hidden="1" customHeight="1" spans="1:5">
       <c r="A167" t="s">
         <v>328</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:5">
+    <row r="168" hidden="1" customHeight="1" spans="1:5">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:5">
+    <row r="169" hidden="1" customHeight="1" spans="1:5">
       <c r="A169" t="s">
         <v>332</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="1:5">
+    <row r="170" hidden="1" customHeight="1" spans="1:5">
       <c r="A170" t="s">
         <v>332</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:5">
+    <row r="171" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" t="s">
         <v>335</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:5">
+    <row r="172" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" t="s">
         <v>337</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:5">
+    <row r="173" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" t="s">
         <v>339</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:5">
+    <row r="174" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" t="s">
         <v>341</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:5">
+    <row r="175" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" t="s">
         <v>343</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:5">
+    <row r="176" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:5">
+    <row r="177" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" t="s">
         <v>347</v>
       </c>
@@ -8522,7 +8521,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:5">
+    <row r="178" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" t="s">
         <v>349</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:5">
+    <row r="179" hidden="1" customHeight="1" spans="1:5">
       <c r="A179" t="s">
         <v>351</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:5">
+    <row r="180" hidden="1" customHeight="1" spans="1:5">
       <c r="A180" t="s">
         <v>353</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:5">
+    <row r="181" hidden="1" customHeight="1" spans="1:5">
       <c r="A181" t="s">
         <v>355</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:5">
+    <row r="182" hidden="1" customHeight="1" spans="1:5">
       <c r="A182" t="s">
         <v>357</v>
       </c>
@@ -8607,7 +8606,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:5">
+    <row r="183" hidden="1" customHeight="1" spans="1:5">
       <c r="A183" t="s">
         <v>359</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:5">
+    <row r="184" hidden="1" customHeight="1" spans="1:5">
       <c r="A184" t="s">
         <v>361</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:5">
+    <row r="185" hidden="1" customHeight="1" spans="1:5">
       <c r="A185" t="s">
         <v>363</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:5">
+    <row r="186" hidden="1" customHeight="1" spans="1:5">
       <c r="A186" t="s">
         <v>364</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:5">
+    <row r="187" hidden="1" customHeight="1" spans="1:5">
       <c r="A187" t="s">
         <v>366</v>
       </c>
@@ -8692,7 +8691,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:5">
+    <row r="188" hidden="1" customHeight="1" spans="1:5">
       <c r="A188" t="s">
         <v>368</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:5">
+    <row r="189" hidden="1" customHeight="1" spans="1:5">
       <c r="A189" t="s">
         <v>370</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:5">
+    <row r="190" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -8743,7 +8742,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:5">
+    <row r="191" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:5">
+    <row r="192" hidden="1" customHeight="1" spans="1:5">
       <c r="A192" t="s">
         <v>374</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:5">
+    <row r="193" hidden="1" customHeight="1" spans="1:5">
       <c r="A193" t="s">
         <v>376</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:5">
+    <row r="194" hidden="1" customHeight="1" spans="1:5">
       <c r="A194" t="s">
         <v>378</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:5">
+    <row r="195" hidden="1" customHeight="1" spans="1:5">
       <c r="A195" t="s">
         <v>380</v>
       </c>
@@ -8828,7 +8827,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:5">
+    <row r="196" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" t="s">
         <v>382</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:5">
+    <row r="197" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" t="s">
         <v>384</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:5">
+    <row r="198" hidden="1" customHeight="1" spans="1:5">
       <c r="A198" t="s">
         <v>386</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="199" customHeight="1" spans="1:5">
+    <row r="199" hidden="1" customHeight="1" spans="1:5">
       <c r="A199" t="s">
         <v>388</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:5">
+    <row r="200" hidden="1" customHeight="1" spans="1:5">
       <c r="A200" t="s">
         <v>389</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:5">
+    <row r="201" hidden="1" customHeight="1" spans="1:5">
       <c r="A201" t="s">
         <v>391</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="1:5">
+    <row r="202" hidden="1" customHeight="1" spans="1:5">
       <c r="A202" t="s">
         <v>393</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:5">
+    <row r="203" hidden="1" customHeight="1" spans="1:5">
       <c r="A203" t="s">
         <v>394</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="204" customHeight="1" spans="1:5">
+    <row r="204" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" t="s">
         <v>396</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="205" customHeight="1" spans="1:5">
+    <row r="205" hidden="1" customHeight="1" spans="1:5">
       <c r="A205" t="s">
         <v>398</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="206" customHeight="1" spans="1:5">
+    <row r="206" hidden="1" customHeight="1" spans="1:5">
       <c r="A206" t="s">
         <v>400</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="207" customHeight="1" spans="1:5">
+    <row r="207" hidden="1" customHeight="1" spans="1:5">
       <c r="A207" t="s">
         <v>402</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="208" customHeight="1" spans="1:5">
+    <row r="208" hidden="1" customHeight="1" spans="1:5">
       <c r="A208" t="s">
         <v>404</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="1:5">
+    <row r="209" hidden="1" customHeight="1" spans="1:5">
       <c r="A209" t="s">
         <v>406</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="210" customHeight="1" spans="1:5">
+    <row r="210" hidden="1" customHeight="1" spans="1:5">
       <c r="A210" t="s">
         <v>408</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" customHeight="1" spans="1:5">
+    <row r="211" hidden="1" customHeight="1" spans="1:5">
       <c r="A211" t="s">
         <v>410</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="212" customHeight="1" spans="1:5">
+    <row r="212" hidden="1" customHeight="1" spans="1:5">
       <c r="A212" t="s">
         <v>412</v>
       </c>
@@ -9117,7 +9116,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="213" customHeight="1" spans="1:5">
+    <row r="213" hidden="1" customHeight="1" spans="1:5">
       <c r="A213" t="s">
         <v>414</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="214" customHeight="1" spans="1:5">
+    <row r="214" hidden="1" customHeight="1" spans="1:5">
       <c r="A214" t="s">
         <v>416</v>
       </c>
@@ -9151,7 +9150,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="215" customHeight="1" spans="1:5">
+    <row r="215" hidden="1" customHeight="1" spans="1:5">
       <c r="A215" t="s">
         <v>417</v>
       </c>
@@ -9168,7 +9167,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:5">
+    <row r="216" hidden="1" customHeight="1" spans="1:5">
       <c r="A216" t="s">
         <v>419</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="1:5">
+    <row r="217" hidden="1" customHeight="1" spans="1:5">
       <c r="A217" t="s">
         <v>421</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="218" customHeight="1" spans="1:5">
+    <row r="218" hidden="1" customHeight="1" spans="1:5">
       <c r="A218" t="s">
         <v>423</v>
       </c>
@@ -9219,7 +9218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="219" customHeight="1" spans="1:5">
+    <row r="219" hidden="1" customHeight="1" spans="1:5">
       <c r="A219" t="s">
         <v>424</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="220" customHeight="1" spans="1:5">
+    <row r="220" hidden="1" customHeight="1" spans="1:5">
       <c r="A220" t="s">
         <v>426</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:5">
+    <row r="221" hidden="1" customHeight="1" spans="1:5">
       <c r="A221" t="s">
         <v>428</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="222" customHeight="1" spans="1:5">
+    <row r="222" hidden="1" customHeight="1" spans="1:5">
       <c r="A222" t="s">
         <v>429</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="223" customHeight="1" spans="1:5">
+    <row r="223" hidden="1" customHeight="1" spans="1:5">
       <c r="A223" t="s">
         <v>431</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:5">
+    <row r="224" hidden="1" customHeight="1" spans="1:5">
       <c r="A224" t="s">
         <v>432</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="225" customHeight="1" spans="1:5">
+    <row r="225" hidden="1" customHeight="1" spans="1:5">
       <c r="A225" t="s">
         <v>434</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="226" customHeight="1" spans="1:5">
+    <row r="226" hidden="1" customHeight="1" spans="1:5">
       <c r="A226" t="s">
         <v>436</v>
       </c>
@@ -9355,7 +9354,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="1:5">
+    <row r="227" hidden="1" customHeight="1" spans="1:5">
       <c r="A227" t="s">
         <v>438</v>
       </c>
@@ -9372,7 +9371,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:5">
+    <row r="228" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -9389,7 +9388,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="229" customHeight="1" spans="1:5">
+    <row r="229" hidden="1" customHeight="1" spans="1:5">
       <c r="A229" t="s">
         <v>442</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="230" customHeight="1" spans="1:5">
+    <row r="230" hidden="1" customHeight="1" spans="1:5">
       <c r="A230" t="s">
         <v>446</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:5">
+    <row r="231" hidden="1" customHeight="1" spans="1:5">
       <c r="A231" t="s">
         <v>447</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:5">
+    <row r="232" hidden="1" customHeight="1" spans="1:5">
       <c r="A232" t="s">
         <v>448</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="1:5">
+    <row r="233" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" t="s">
         <v>450</v>
       </c>
@@ -9474,7 +9473,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:5">
+    <row r="234" hidden="1" customHeight="1" spans="1:5">
       <c r="A234" t="s">
         <v>452</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:5">
+    <row r="235" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" t="s">
         <v>454</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="236" customHeight="1" spans="1:5">
+    <row r="236" hidden="1" customHeight="1" spans="1:5">
       <c r="A236" t="s">
         <v>455</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="237" customHeight="1" spans="1:5">
+    <row r="237" hidden="1" customHeight="1" spans="1:5">
       <c r="A237" t="s">
         <v>457</v>
       </c>
@@ -9542,7 +9541,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:5">
+    <row r="238" hidden="1" customHeight="1" spans="1:5">
       <c r="A238" t="s">
         <v>459</v>
       </c>
@@ -9559,7 +9558,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="239" customHeight="1" spans="1:5">
+    <row r="239" hidden="1" customHeight="1" spans="1:5">
       <c r="A239" t="s">
         <v>36</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="240" customHeight="1" spans="1:5">
+    <row r="240" hidden="1" customHeight="1" spans="1:5">
       <c r="A240" t="s">
         <v>462</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" customHeight="1" spans="1:5">
+    <row r="241" hidden="1" customHeight="1" spans="1:5">
       <c r="A241" t="s">
         <v>464</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="242" customHeight="1" spans="1:5">
+    <row r="242" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" t="s">
         <v>466</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="243" customHeight="1" spans="1:5">
+    <row r="243" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="1:5">
+    <row r="244" hidden="1" customHeight="1" spans="1:5">
       <c r="A244" t="s">
         <v>43</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="245" customHeight="1" spans="1:5">
+    <row r="245" hidden="1" customHeight="1" spans="1:5">
       <c r="A245" t="s">
         <v>470</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="246" customHeight="1" spans="1:5">
+    <row r="246" hidden="1" customHeight="1" spans="1:5">
       <c r="A246" t="s">
         <v>472</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:5">
+    <row r="247" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" t="s">
         <v>474</v>
       </c>
@@ -9712,7 +9711,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="1:5">
+    <row r="248" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" t="s">
         <v>477</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" customHeight="1" spans="1:5">
+    <row r="249" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" t="s">
         <v>478</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" customHeight="1" spans="1:5">
+    <row r="250" hidden="1" customHeight="1" spans="1:5">
       <c r="A250" t="s">
         <v>478</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:5">
+    <row r="251" hidden="1" customHeight="1" spans="1:5">
       <c r="A251" t="s">
         <v>481</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="252" customHeight="1" spans="1:5">
+    <row r="252" hidden="1" customHeight="1" spans="1:5">
       <c r="A252" t="s">
         <v>482</v>
       </c>
@@ -9797,7 +9796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:5">
+    <row r="253" hidden="1" customHeight="1" spans="1:5">
       <c r="A253" t="s">
         <v>484</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" customHeight="1" spans="1:5">
+    <row r="254" hidden="1" customHeight="1" spans="1:5">
       <c r="A254" t="s">
         <v>486</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" customHeight="1" spans="1:5">
+    <row r="255" hidden="1" customHeight="1" spans="1:5">
       <c r="A255" t="s">
         <v>488</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" customHeight="1" spans="1:5">
+    <row r="256" hidden="1" customHeight="1" spans="1:5">
       <c r="A256" t="s">
         <v>489</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" customHeight="1" spans="1:5">
+    <row r="257" hidden="1" customHeight="1" spans="1:5">
       <c r="A257" t="s">
         <v>491</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="258" customHeight="1" spans="1:5">
+    <row r="258" hidden="1" customHeight="1" spans="1:5">
       <c r="A258" t="s">
         <v>492</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" customHeight="1" spans="1:5">
+    <row r="259" hidden="1" customHeight="1" spans="1:5">
       <c r="A259" t="s">
         <v>494</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="1:5">
+    <row r="260" hidden="1" customHeight="1" spans="1:5">
       <c r="A260" t="s">
         <v>496</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:5">
+    <row r="261" hidden="1" customHeight="1" spans="1:5">
       <c r="A261" t="s">
         <v>497</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="1:5">
+    <row r="262" hidden="1" customHeight="1" spans="1:5">
       <c r="A262" t="s">
         <v>499</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="263" customHeight="1" spans="1:5">
+    <row r="263" hidden="1" customHeight="1" spans="1:5">
       <c r="A263" t="s">
         <v>500</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" customHeight="1" spans="1:5">
+    <row r="264" hidden="1" customHeight="1" spans="1:5">
       <c r="A264" t="s">
         <v>502</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" customHeight="1" spans="1:5">
+    <row r="265" hidden="1" customHeight="1" spans="1:5">
       <c r="A265" t="s">
         <v>504</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" customHeight="1" spans="1:5">
+    <row r="266" hidden="1" customHeight="1" spans="1:5">
       <c r="A266" t="s">
         <v>506</v>
       </c>
@@ -10035,7 +10034,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" customHeight="1" spans="1:5">
+    <row r="267" hidden="1" customHeight="1" spans="1:5">
       <c r="A267" t="s">
         <v>510</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:5">
+    <row r="268" hidden="1" customHeight="1" spans="1:5">
       <c r="A268" t="s">
         <v>512</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:5">
+    <row r="269" hidden="1" customHeight="1" spans="1:5">
       <c r="A269" t="s">
         <v>514</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="1:5">
+    <row r="270" hidden="1" customHeight="1" spans="1:5">
       <c r="A270" t="s">
         <v>516</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" customHeight="1" spans="1:5">
+    <row r="271" hidden="1" customHeight="1" spans="1:5">
       <c r="A271" t="s">
         <v>516</v>
       </c>
@@ -10120,7 +10119,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" customHeight="1" spans="1:5">
+    <row r="272" hidden="1" customHeight="1" spans="1:5">
       <c r="A272" t="s">
         <v>519</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="273" customHeight="1" spans="1:5">
+    <row r="273" hidden="1" customHeight="1" spans="1:5">
       <c r="A273" t="s">
         <v>521</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="274" customHeight="1" spans="1:5">
+    <row r="274" hidden="1" customHeight="1" spans="1:5">
       <c r="A274" t="s">
         <v>523</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" customHeight="1" spans="1:5">
+    <row r="275" hidden="1" customHeight="1" spans="1:5">
       <c r="A275" t="s">
         <v>525</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="276" customHeight="1" spans="1:5">
+    <row r="276" hidden="1" customHeight="1" spans="1:5">
       <c r="A276" t="s">
         <v>527</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" customHeight="1" spans="1:5">
+    <row r="277" hidden="1" customHeight="1" spans="1:5">
       <c r="A277" t="s">
         <v>528</v>
       </c>
@@ -10222,7 +10221,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="278" customHeight="1" spans="1:5">
+    <row r="278" hidden="1" customHeight="1" spans="1:5">
       <c r="A278" t="s">
         <v>530</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="1:5">
+    <row r="279" hidden="1" customHeight="1" spans="1:5">
       <c r="A279" t="s">
         <v>531</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="280" customHeight="1" spans="1:5">
+    <row r="280" hidden="1" customHeight="1" spans="1:5">
       <c r="A280" t="s">
         <v>533</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="1:5">
+    <row r="281" hidden="1" customHeight="1" spans="1:5">
       <c r="A281" t="s">
         <v>535</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="282" customHeight="1" spans="1:5">
+    <row r="282" hidden="1" customHeight="1" spans="1:5">
       <c r="A282" t="s">
         <v>537</v>
       </c>
@@ -10307,7 +10306,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" customHeight="1" spans="1:5">
+    <row r="283" hidden="1" customHeight="1" spans="1:5">
       <c r="A283" t="s">
         <v>539</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="284" customHeight="1" spans="1:5">
+    <row r="284" hidden="1" customHeight="1" spans="1:5">
       <c r="A284" t="s">
         <v>541</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="285" customHeight="1" spans="1:5">
+    <row r="285" hidden="1" customHeight="1" spans="1:5">
       <c r="A285" t="s">
         <v>544</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:5">
+    <row r="286" hidden="1" customHeight="1" spans="1:5">
       <c r="A286" t="s">
         <v>546</v>
       </c>
@@ -10375,7 +10374,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="287" customHeight="1" spans="1:5">
+    <row r="287" hidden="1" customHeight="1" spans="1:5">
       <c r="A287" t="s">
         <v>548</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:5">
+    <row r="288" hidden="1" customHeight="1" spans="1:5">
       <c r="A288" t="s">
         <v>550</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="289" customHeight="1" spans="1:5">
+    <row r="289" hidden="1" customHeight="1" spans="1:5">
       <c r="A289" t="s">
         <v>551</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" customHeight="1" spans="1:5">
+    <row r="290" hidden="1" customHeight="1" spans="1:5">
       <c r="A290" t="s">
         <v>553</v>
       </c>
@@ -10443,7 +10442,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" customHeight="1" spans="1:5">
+    <row r="291" hidden="1" customHeight="1" spans="1:5">
       <c r="A291" t="s">
         <v>555</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="292" customHeight="1" spans="1:5">
+    <row r="292" hidden="1" customHeight="1" spans="1:5">
       <c r="A292" t="s">
         <v>557</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="293" customHeight="1" spans="1:5">
+    <row r="293" hidden="1" customHeight="1" spans="1:5">
       <c r="A293" t="s">
         <v>558</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="294" customHeight="1" spans="1:5">
+    <row r="294" hidden="1" customHeight="1" spans="1:5">
       <c r="A294" t="s">
         <v>560</v>
       </c>
@@ -10511,7 +10510,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="295" customHeight="1" spans="1:5">
+    <row r="295" hidden="1" customHeight="1" spans="1:5">
       <c r="A295" t="s">
         <v>562</v>
       </c>
@@ -10528,7 +10527,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="296" customHeight="1" spans="1:5">
+    <row r="296" hidden="1" customHeight="1" spans="1:5">
       <c r="A296" t="s">
         <v>564</v>
       </c>
@@ -10545,7 +10544,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="297" customHeight="1" spans="1:5">
+    <row r="297" hidden="1" customHeight="1" spans="1:5">
       <c r="A297" t="s">
         <v>565</v>
       </c>
@@ -10562,7 +10561,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="298" customHeight="1" spans="1:5">
+    <row r="298" hidden="1" customHeight="1" spans="1:5">
       <c r="A298" t="s">
         <v>567</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="299" customHeight="1" spans="1:5">
+    <row r="299" hidden="1" customHeight="1" spans="1:5">
       <c r="A299" t="s">
         <v>568</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="300" customHeight="1" spans="1:5">
+    <row r="300" hidden="1" customHeight="1" spans="1:5">
       <c r="A300" t="s">
         <v>570</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="301" customHeight="1" spans="1:5">
+    <row r="301" hidden="1" customHeight="1" spans="1:5">
       <c r="A301" t="s">
         <v>572</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="302" customHeight="1" spans="1:5">
+    <row r="302" hidden="1" customHeight="1" spans="1:5">
       <c r="A302" t="s">
         <v>573</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="303" customHeight="1" spans="1:5">
+    <row r="303" hidden="1" customHeight="1" spans="1:5">
       <c r="A303" t="s">
         <v>575</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="304" customHeight="1" spans="1:5">
+    <row r="304" hidden="1" customHeight="1" spans="1:5">
       <c r="A304" t="s">
         <v>579</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="305" customHeight="1" spans="1:5">
+    <row r="305" hidden="1" customHeight="1" spans="1:5">
       <c r="A305" t="s">
         <v>581</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="306" customHeight="1" spans="1:5">
+    <row r="306" hidden="1" customHeight="1" spans="1:5">
       <c r="A306" t="s">
         <v>583</v>
       </c>
@@ -10715,7 +10714,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="307" customHeight="1" spans="1:5">
+    <row r="307" hidden="1" customHeight="1" spans="1:5">
       <c r="A307" t="s">
         <v>585</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" customHeight="1" spans="1:5">
+    <row r="308" hidden="1" customHeight="1" spans="1:5">
       <c r="A308" t="s">
         <v>586</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" customHeight="1" spans="1:5">
+    <row r="309" hidden="1" customHeight="1" spans="1:5">
       <c r="A309" t="s">
         <v>588</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" customHeight="1" spans="1:5">
+    <row r="310" hidden="1" customHeight="1" spans="1:5">
       <c r="A310" t="s">
         <v>590</v>
       </c>
@@ -10783,7 +10782,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="311" customHeight="1" spans="1:5">
+    <row r="311" hidden="1" customHeight="1" spans="1:5">
       <c r="A311" t="s">
         <v>592</v>
       </c>
@@ -10800,7 +10799,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="312" customHeight="1" spans="1:5">
+    <row r="312" hidden="1" customHeight="1" spans="1:5">
       <c r="A312" t="s">
         <v>594</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="313" customHeight="1" spans="1:5">
+    <row r="313" hidden="1" customHeight="1" spans="1:5">
       <c r="A313" t="s">
         <v>596</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="314" customHeight="1" spans="1:5">
+    <row r="314" hidden="1" customHeight="1" spans="1:5">
       <c r="A314" t="s">
         <v>598</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="315" customHeight="1" spans="1:5">
+    <row r="315" hidden="1" customHeight="1" spans="1:5">
       <c r="A315" t="s">
         <v>599</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="316" customHeight="1" spans="1:5">
+    <row r="316" hidden="1" customHeight="1" spans="1:5">
       <c r="A316" t="s">
         <v>601</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="317" customHeight="1" spans="1:5">
+    <row r="317" hidden="1" customHeight="1" spans="1:5">
       <c r="A317" t="s">
         <v>603</v>
       </c>
@@ -10902,7 +10901,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="318" customHeight="1" spans="1:5">
+    <row r="318" hidden="1" customHeight="1" spans="1:5">
       <c r="A318" t="s">
         <v>605</v>
       </c>
@@ -10919,7 +10918,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="319" customHeight="1" spans="1:5">
+    <row r="319" hidden="1" customHeight="1" spans="1:5">
       <c r="A319" t="s">
         <v>607</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" customHeight="1" spans="1:5">
+    <row r="320" hidden="1" customHeight="1" spans="1:5">
       <c r="A320" t="s">
         <v>609</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="321" customHeight="1" spans="1:5">
+    <row r="321" hidden="1" customHeight="1" spans="1:5">
       <c r="A321" t="s">
         <v>611</v>
       </c>
@@ -10970,7 +10969,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="322" customHeight="1" spans="1:5">
+    <row r="322" hidden="1" customHeight="1" spans="1:5">
       <c r="A322" t="s">
         <v>611</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="323" customHeight="1" spans="1:5">
+    <row r="323" hidden="1" customHeight="1" spans="1:5">
       <c r="A323" t="s">
         <v>614</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="324" customHeight="1" spans="1:5">
+    <row r="324" hidden="1" customHeight="1" spans="1:5">
       <c r="A324" t="s">
         <v>616</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="325" customHeight="1" spans="1:5">
+    <row r="325" hidden="1" customHeight="1" spans="1:5">
       <c r="A325" t="s">
         <v>618</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="326" customHeight="1" spans="1:5">
+    <row r="326" hidden="1" customHeight="1" spans="1:5">
       <c r="A326" t="s">
         <v>619</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" customHeight="1" spans="1:5">
+    <row r="327" hidden="1" customHeight="1" spans="1:5">
       <c r="A327" t="s">
         <v>621</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="328" customHeight="1" spans="1:5">
+    <row r="328" hidden="1" customHeight="1" spans="1:5">
       <c r="A328" t="s">
         <v>623</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="329" customHeight="1" spans="1:5">
+    <row r="329" hidden="1" customHeight="1" spans="1:5">
       <c r="A329" t="s">
         <v>625</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="330" customHeight="1" spans="1:5">
+    <row r="330" hidden="1" customHeight="1" spans="1:5">
       <c r="A330" t="s">
         <v>627</v>
       </c>
@@ -11123,7 +11122,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="331" customHeight="1" spans="1:5">
+    <row r="331" hidden="1" customHeight="1" spans="1:5">
       <c r="A331" t="s">
         <v>629</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="332" customHeight="1" spans="1:5">
+    <row r="332" hidden="1" customHeight="1" spans="1:5">
       <c r="A332" t="s">
         <v>630</v>
       </c>
@@ -11157,7 +11156,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="333" customHeight="1" spans="1:5">
+    <row r="333" hidden="1" customHeight="1" spans="1:5">
       <c r="A333" t="s">
         <v>632</v>
       </c>
@@ -11174,7 +11173,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="334" customHeight="1" spans="1:5">
+    <row r="334" hidden="1" customHeight="1" spans="1:5">
       <c r="A334" t="s">
         <v>634</v>
       </c>
@@ -11191,7 +11190,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="335" customHeight="1" spans="1:5">
+    <row r="335" hidden="1" customHeight="1" spans="1:5">
       <c r="A335" t="s">
         <v>636</v>
       </c>
@@ -11208,7 +11207,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="336" customHeight="1" spans="1:5">
+    <row r="336" hidden="1" customHeight="1" spans="1:5">
       <c r="A336" t="s">
         <v>638</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="337" customHeight="1" spans="1:5">
+    <row r="337" hidden="1" customHeight="1" spans="1:5">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -11242,7 +11241,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="338" customHeight="1" spans="1:5">
+    <row r="338" hidden="1" customHeight="1" spans="1:5">
       <c r="A338" t="s">
         <v>642</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="339" customHeight="1" spans="1:5">
+    <row r="339" hidden="1" customHeight="1" spans="1:5">
       <c r="A339" t="s">
         <v>643</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="340" customHeight="1" spans="1:5">
+    <row r="340" hidden="1" customHeight="1" spans="1:5">
       <c r="A340" t="s">
         <v>645</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="341" customHeight="1" spans="1:5">
+    <row r="341" hidden="1" customHeight="1" spans="1:5">
       <c r="A341" t="s">
         <v>648</v>
       </c>
@@ -11310,7 +11309,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="342" customHeight="1" spans="1:5">
+    <row r="342" hidden="1" customHeight="1" spans="1:5">
       <c r="A342" t="s">
         <v>650</v>
       </c>
@@ -11327,7 +11326,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="343" customHeight="1" spans="1:5">
+    <row r="343" hidden="1" customHeight="1" spans="1:5">
       <c r="A343" t="s">
         <v>652</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="344" customHeight="1" spans="1:5">
+    <row r="344" hidden="1" customHeight="1" spans="1:5">
       <c r="A344" t="s">
         <v>654</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" customHeight="1" spans="1:5">
+    <row r="345" hidden="1" customHeight="1" spans="1:5">
       <c r="A345" t="s">
         <v>654</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" customHeight="1" spans="1:5">
+    <row r="346" hidden="1" customHeight="1" spans="1:5">
       <c r="A346" t="s">
         <v>657</v>
       </c>
@@ -11395,7 +11394,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" customHeight="1" spans="1:5">
+    <row r="347" hidden="1" customHeight="1" spans="1:5">
       <c r="A347" t="s">
         <v>658</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="348" customHeight="1" spans="1:5">
+    <row r="348" hidden="1" customHeight="1" spans="1:5">
       <c r="A348" t="s">
         <v>660</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="349" customHeight="1" spans="1:5">
+    <row r="349" hidden="1" customHeight="1" spans="1:5">
       <c r="A349" t="s">
         <v>662</v>
       </c>
@@ -11446,7 +11445,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="350" customHeight="1" spans="1:5">
+    <row r="350" hidden="1" customHeight="1" spans="1:5">
       <c r="A350" t="s">
         <v>663</v>
       </c>
@@ -11463,7 +11462,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="351" customHeight="1" spans="1:5">
+    <row r="351" hidden="1" customHeight="1" spans="1:5">
       <c r="A351" t="s">
         <v>665</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="352" customHeight="1" spans="1:5">
+    <row r="352" hidden="1" customHeight="1" spans="1:5">
       <c r="A352" t="s">
         <v>559</v>
       </c>
@@ -11497,7 +11496,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="353" customHeight="1" spans="1:5">
+    <row r="353" hidden="1" customHeight="1" spans="1:5">
       <c r="A353" t="s">
         <v>667</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="354" customHeight="1" spans="1:5">
+    <row r="354" hidden="1" customHeight="1" spans="1:5">
       <c r="A354" t="s">
         <v>669</v>
       </c>
@@ -11531,7 +11530,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="355" customHeight="1" spans="1:5">
+    <row r="355" hidden="1" customHeight="1" spans="1:5">
       <c r="A355" t="s">
         <v>671</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="356" customHeight="1" spans="1:5">
+    <row r="356" hidden="1" customHeight="1" spans="1:5">
       <c r="A356" t="s">
         <v>673</v>
       </c>
@@ -11565,7 +11564,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="357" customHeight="1" spans="1:5">
+    <row r="357" hidden="1" customHeight="1" spans="1:5">
       <c r="A357" t="s">
         <v>675</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="358" customHeight="1" spans="1:5">
+    <row r="358" hidden="1" customHeight="1" spans="1:5">
       <c r="A358" t="s">
         <v>677</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="359" customHeight="1" spans="1:5">
+    <row r="359" hidden="1" customHeight="1" spans="1:5">
       <c r="A359" t="s">
         <v>680</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="360" customHeight="1" spans="1:5">
+    <row r="360" hidden="1" customHeight="1" spans="1:5">
       <c r="A360" t="s">
         <v>681</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="361" customHeight="1" spans="1:5">
+    <row r="361" hidden="1" customHeight="1" spans="1:5">
       <c r="A361" t="s">
         <v>682</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="362" customHeight="1" spans="1:5">
+    <row r="362" hidden="1" customHeight="1" spans="1:5">
       <c r="A362" t="s">
         <v>683</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="363" customHeight="1" spans="1:5">
+    <row r="363" hidden="1" customHeight="1" spans="1:5">
       <c r="A363" t="s">
         <v>685</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="364" customHeight="1" spans="1:5">
+    <row r="364" hidden="1" customHeight="1" spans="1:5">
       <c r="A364" t="s">
         <v>687</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="365" customHeight="1" spans="1:5">
+    <row r="365" hidden="1" customHeight="1" spans="1:5">
       <c r="A365" t="s">
         <v>688</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="366" customHeight="1" spans="1:5">
+    <row r="366" hidden="1" customHeight="1" spans="1:5">
       <c r="A366" t="s">
         <v>690</v>
       </c>
@@ -11735,7 +11734,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="367" customHeight="1" spans="1:5">
+    <row r="367" hidden="1" customHeight="1" spans="1:5">
       <c r="A367" t="s">
         <v>569</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="368" customHeight="1" spans="1:5">
+    <row r="368" hidden="1" customHeight="1" spans="1:5">
       <c r="A368" t="s">
         <v>693</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="369" customHeight="1" spans="1:5">
+    <row r="369" hidden="1" customHeight="1" spans="1:5">
       <c r="A369" t="s">
         <v>694</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="370" customHeight="1" spans="1:5">
+    <row r="370" hidden="1" customHeight="1" spans="1:5">
       <c r="A370" t="s">
         <v>209</v>
       </c>
@@ -11803,7 +11802,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="371" customHeight="1" spans="1:5">
+    <row r="371" hidden="1" customHeight="1" spans="1:5">
       <c r="A371" t="s">
         <v>696</v>
       </c>
@@ -11820,7 +11819,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="372" customHeight="1" spans="1:5">
+    <row r="372" hidden="1" customHeight="1" spans="1:5">
       <c r="A372" t="s">
         <v>698</v>
       </c>
@@ -11837,7 +11836,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="373" customHeight="1" spans="1:5">
+    <row r="373" hidden="1" customHeight="1" spans="1:5">
       <c r="A373" t="s">
         <v>699</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="374" customHeight="1" spans="1:5">
+    <row r="374" hidden="1" customHeight="1" spans="1:5">
       <c r="A374" t="s">
         <v>547</v>
       </c>
@@ -11871,7 +11870,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="375" customHeight="1" spans="1:5">
+    <row r="375" hidden="1" customHeight="1" spans="1:5">
       <c r="A375" t="s">
         <v>701</v>
       </c>
@@ -11888,7 +11887,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="376" customHeight="1" spans="1:5">
+    <row r="376" hidden="1" customHeight="1" spans="1:5">
       <c r="A376" t="s">
         <v>703</v>
       </c>
@@ -11905,7 +11904,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="377" customHeight="1" spans="1:5">
+    <row r="377" hidden="1" customHeight="1" spans="1:5">
       <c r="A377" t="s">
         <v>705</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="378" customHeight="1" spans="1:5">
+    <row r="378" hidden="1" customHeight="1" spans="1:5">
       <c r="A378" t="s">
         <v>709</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" customHeight="1" spans="1:5">
+    <row r="379" hidden="1" customHeight="1" spans="1:5">
       <c r="A379" t="s">
         <v>711</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="380" customHeight="1" spans="1:5">
+    <row r="380" hidden="1" customHeight="1" spans="1:5">
       <c r="A380" t="s">
         <v>713</v>
       </c>
@@ -11973,7 +11972,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="381" customHeight="1" spans="1:5">
+    <row r="381" hidden="1" customHeight="1" spans="1:5">
       <c r="A381" t="s">
         <v>713</v>
       </c>
@@ -11990,7 +11989,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="382" customHeight="1" spans="1:5">
+    <row r="382" hidden="1" customHeight="1" spans="1:5">
       <c r="A382" t="s">
         <v>714</v>
       </c>
@@ -12007,7 +12006,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="383" customHeight="1" spans="1:5">
+    <row r="383" hidden="1" customHeight="1" spans="1:5">
       <c r="A383" t="s">
         <v>715</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="384" customHeight="1" spans="1:5">
+    <row r="384" hidden="1" customHeight="1" spans="1:5">
       <c r="A384" t="s">
         <v>717</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="385" customHeight="1" spans="1:5">
+    <row r="385" hidden="1" customHeight="1" spans="1:5">
       <c r="A385" t="s">
         <v>718</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="386" customHeight="1" spans="1:5">
+    <row r="386" hidden="1" customHeight="1" spans="1:5">
       <c r="A386" t="s">
         <v>720</v>
       </c>
@@ -12075,7 +12074,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="387" customHeight="1" spans="1:5">
+    <row r="387" hidden="1" customHeight="1" spans="1:5">
       <c r="A387" t="s">
         <v>722</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="388" customHeight="1" spans="1:5">
+    <row r="388" hidden="1" customHeight="1" spans="1:5">
       <c r="A388" t="s">
         <v>724</v>
       </c>
@@ -12109,7 +12108,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" customHeight="1" spans="1:5">
+    <row r="389" hidden="1" customHeight="1" spans="1:5">
       <c r="A389" t="s">
         <v>725</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="390" customHeight="1" spans="1:5">
+    <row r="390" hidden="1" customHeight="1" spans="1:5">
       <c r="A390" t="s">
         <v>727</v>
       </c>
@@ -12143,7 +12142,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="391" customHeight="1" spans="1:5">
+    <row r="391" hidden="1" customHeight="1" spans="1:5">
       <c r="A391" t="s">
         <v>196</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="392" customHeight="1" spans="1:5">
+    <row r="392" hidden="1" customHeight="1" spans="1:5">
       <c r="A392" t="s">
         <v>730</v>
       </c>
@@ -12177,7 +12176,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="393" customHeight="1" spans="1:5">
+    <row r="393" hidden="1" customHeight="1" spans="1:5">
       <c r="A393" t="s">
         <v>732</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="394" customHeight="1" spans="1:5">
+    <row r="394" hidden="1" customHeight="1" spans="1:5">
       <c r="A394" t="s">
         <v>732</v>
       </c>
@@ -12211,7 +12210,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="395" customHeight="1" spans="1:5">
+    <row r="395" hidden="1" customHeight="1" spans="1:5">
       <c r="A395" t="s">
         <v>735</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" customHeight="1" spans="1:5">
+    <row r="396" hidden="1" customHeight="1" spans="1:5">
       <c r="A396" t="s">
         <v>737</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="397" customHeight="1" spans="1:5">
+    <row r="397" hidden="1" customHeight="1" spans="1:5">
       <c r="A397" t="s">
         <v>740</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="398" customHeight="1" spans="1:5">
+    <row r="398" hidden="1" customHeight="1" spans="1:5">
       <c r="A398" t="s">
         <v>742</v>
       </c>
@@ -12279,7 +12278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="399" customHeight="1" spans="1:5">
+    <row r="399" hidden="1" customHeight="1" spans="1:5">
       <c r="A399" t="s">
         <v>744</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="400" customHeight="1" spans="1:5">
+    <row r="400" hidden="1" customHeight="1" spans="1:5">
       <c r="A400" t="s">
         <v>746</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" customHeight="1" spans="1:5">
+    <row r="401" hidden="1" customHeight="1" spans="1:5">
       <c r="A401" t="s">
         <v>101</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="402" customHeight="1" spans="1:5">
+    <row r="402" hidden="1" customHeight="1" spans="1:5">
       <c r="A402" t="s">
         <v>748</v>
       </c>
@@ -12347,7 +12346,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="403" customHeight="1" spans="1:5">
+    <row r="403" hidden="1" customHeight="1" spans="1:5">
       <c r="A403" t="s">
         <v>750</v>
       </c>
@@ -12364,7 +12363,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="404" customHeight="1" spans="1:5">
+    <row r="404" hidden="1" customHeight="1" spans="1:5">
       <c r="A404" t="s">
         <v>752</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="405" customHeight="1" spans="1:5">
+    <row r="405" hidden="1" customHeight="1" spans="1:5">
       <c r="A405" t="s">
         <v>754</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="406" customHeight="1" spans="1:5">
+    <row r="406" hidden="1" customHeight="1" spans="1:5">
       <c r="A406" t="s">
         <v>756</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="407" customHeight="1" spans="1:5">
+    <row r="407" hidden="1" customHeight="1" spans="1:5">
       <c r="A407" t="s">
         <v>757</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="408" customHeight="1" spans="1:5">
+    <row r="408" hidden="1" customHeight="1" spans="1:5">
       <c r="A408" t="s">
         <v>759</v>
       </c>
@@ -12449,7 +12448,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="409" customHeight="1" spans="1:5">
+    <row r="409" hidden="1" customHeight="1" spans="1:5">
       <c r="A409" t="s">
         <v>761</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="410" customHeight="1" spans="1:5">
+    <row r="410" hidden="1" customHeight="1" spans="1:5">
       <c r="A410" t="s">
         <v>763</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="411" customHeight="1" spans="1:5">
+    <row r="411" hidden="1" customHeight="1" spans="1:5">
       <c r="A411" t="s">
         <v>127</v>
       </c>
@@ -12500,7 +12499,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="412" customHeight="1" spans="1:5">
+    <row r="412" hidden="1" customHeight="1" spans="1:5">
       <c r="A412" t="s">
         <v>765</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="413" customHeight="1" spans="1:5">
+    <row r="413" hidden="1" customHeight="1" spans="1:5">
       <c r="A413" t="s">
         <v>767</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="414" customHeight="1" spans="1:5">
+    <row r="414" hidden="1" customHeight="1" spans="1:5">
       <c r="A414" t="s">
         <v>769</v>
       </c>
@@ -12551,7 +12550,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="415" customHeight="1" spans="1:5">
+    <row r="415" hidden="1" customHeight="1" spans="1:5">
       <c r="A415" t="s">
         <v>771</v>
       </c>
@@ -12568,7 +12567,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="416" customHeight="1" spans="1:5">
+    <row r="416" hidden="1" customHeight="1" spans="1:5">
       <c r="A416" t="s">
         <v>775</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="417" customHeight="1" spans="1:5">
+    <row r="417" hidden="1" customHeight="1" spans="1:5">
       <c r="A417" t="s">
         <v>776</v>
       </c>
@@ -12602,7 +12601,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="418" customHeight="1" spans="1:5">
+    <row r="418" hidden="1" customHeight="1" spans="1:5">
       <c r="A418" t="s">
         <v>778</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="419" customHeight="1" spans="1:5">
+    <row r="419" hidden="1" customHeight="1" spans="1:5">
       <c r="A419" t="s">
         <v>780</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="420" customHeight="1" spans="1:5">
+    <row r="420" hidden="1" customHeight="1" spans="1:5">
       <c r="A420" t="s">
         <v>782</v>
       </c>
@@ -12653,7 +12652,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="421" customHeight="1" spans="1:5">
+    <row r="421" hidden="1" customHeight="1" spans="1:5">
       <c r="A421" t="s">
         <v>784</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="422" customHeight="1" spans="1:5">
+    <row r="422" hidden="1" customHeight="1" spans="1:5">
       <c r="A422" t="s">
         <v>786</v>
       </c>
@@ -12687,7 +12686,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="423" customHeight="1" spans="1:5">
+    <row r="423" hidden="1" customHeight="1" spans="1:5">
       <c r="A423" t="s">
         <v>787</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="424" customHeight="1" spans="1:5">
+    <row r="424" hidden="1" customHeight="1" spans="1:5">
       <c r="A424" t="s">
         <v>789</v>
       </c>
@@ -12721,7 +12720,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="425" customHeight="1" spans="1:5">
+    <row r="425" hidden="1" customHeight="1" spans="1:5">
       <c r="A425" t="s">
         <v>791</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="426" customHeight="1" spans="1:5">
+    <row r="426" hidden="1" customHeight="1" spans="1:5">
       <c r="A426" t="s">
         <v>793</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="427" customHeight="1" spans="1:5">
+    <row r="427" hidden="1" customHeight="1" spans="1:5">
       <c r="A427" t="s">
         <v>794</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="428" customHeight="1" spans="1:5">
+    <row r="428" hidden="1" customHeight="1" spans="1:5">
       <c r="A428" t="s">
         <v>796</v>
       </c>
@@ -12789,7 +12788,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="429" customHeight="1" spans="1:5">
+    <row r="429" hidden="1" customHeight="1" spans="1:5">
       <c r="A429" t="s">
         <v>798</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="430" customHeight="1" spans="1:5">
+    <row r="430" hidden="1" customHeight="1" spans="1:5">
       <c r="A430" t="s">
         <v>799</v>
       </c>
@@ -12823,7 +12822,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="431" customHeight="1" spans="1:5">
+    <row r="431" hidden="1" customHeight="1" spans="1:5">
       <c r="A431" t="s">
         <v>801</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="432" customHeight="1" spans="1:5">
+    <row r="432" hidden="1" customHeight="1" spans="1:5">
       <c r="A432" t="s">
         <v>803</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="433" customHeight="1" spans="1:5">
+    <row r="433" hidden="1" customHeight="1" spans="1:5">
       <c r="A433" t="s">
         <v>805</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="434" customHeight="1" spans="1:5">
+    <row r="434" hidden="1" customHeight="1" spans="1:5">
       <c r="A434" t="s">
         <v>808</v>
       </c>
@@ -12891,7 +12890,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="435" customHeight="1" spans="1:5">
+    <row r="435" hidden="1" customHeight="1" spans="1:5">
       <c r="A435" t="s">
         <v>600</v>
       </c>
@@ -12908,7 +12907,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="436" customHeight="1" spans="1:5">
+    <row r="436" hidden="1" customHeight="1" spans="1:5">
       <c r="A436" t="s">
         <v>811</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="437" customHeight="1" spans="1:5">
+    <row r="437" hidden="1" customHeight="1" spans="1:5">
       <c r="A437" t="s">
         <v>811</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="438" customHeight="1" spans="1:5">
+    <row r="438" hidden="1" customHeight="1" spans="1:5">
       <c r="A438" t="s">
         <v>813</v>
       </c>
@@ -12959,7 +12958,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="439" customHeight="1" spans="1:5">
+    <row r="439" hidden="1" customHeight="1" spans="1:5">
       <c r="A439" t="s">
         <v>815</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="440" customHeight="1" spans="1:5">
+    <row r="440" hidden="1" customHeight="1" spans="1:5">
       <c r="A440" t="s">
         <v>815</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="441" customHeight="1" spans="1:5">
+    <row r="441" hidden="1" customHeight="1" spans="1:5">
       <c r="A441" t="s">
         <v>818</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="442" customHeight="1" spans="1:5">
+    <row r="442" hidden="1" customHeight="1" spans="1:5">
       <c r="A442" t="s">
         <v>820</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="443" customHeight="1" spans="1:5">
+    <row r="443" hidden="1" customHeight="1" spans="1:5">
       <c r="A443" t="s">
         <v>822</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="444" customHeight="1" spans="1:5">
+    <row r="444" hidden="1" customHeight="1" spans="1:5">
       <c r="A444" t="s">
         <v>824</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="445" customHeight="1" spans="1:5">
+    <row r="445" hidden="1" customHeight="1" spans="1:5">
       <c r="A445" t="s">
         <v>826</v>
       </c>
@@ -13078,7 +13077,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="446" customHeight="1" spans="1:5">
+    <row r="446" hidden="1" customHeight="1" spans="1:5">
       <c r="A446" t="s">
         <v>827</v>
       </c>
@@ -13095,7 +13094,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="447" customHeight="1" spans="1:5">
+    <row r="447" hidden="1" customHeight="1" spans="1:5">
       <c r="A447" t="s">
         <v>828</v>
       </c>
@@ -13112,7 +13111,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="448" customHeight="1" spans="1:5">
+    <row r="448" hidden="1" customHeight="1" spans="1:5">
       <c r="A448" t="s">
         <v>830</v>
       </c>
@@ -13129,7 +13128,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="449" customHeight="1" spans="1:5">
+    <row r="449" hidden="1" customHeight="1" spans="1:5">
       <c r="A449" t="s">
         <v>831</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="450" customHeight="1" spans="1:5">
+    <row r="450" hidden="1" customHeight="1" spans="1:5">
       <c r="A450" t="s">
         <v>833</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="451" customHeight="1" spans="1:5">
+    <row r="451" hidden="1" customHeight="1" spans="1:5">
       <c r="A451" t="s">
         <v>835</v>
       </c>
@@ -13180,7 +13179,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="452" customHeight="1" spans="1:5">
+    <row r="452" hidden="1" customHeight="1" spans="1:5">
       <c r="A452" t="s">
         <v>837</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="453" customHeight="1" spans="1:5">
+    <row r="453" hidden="1" customHeight="1" spans="1:5">
       <c r="A453" t="s">
         <v>839</v>
       </c>
@@ -13214,7 +13213,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="454" customHeight="1" spans="1:5">
+    <row r="454" hidden="1" customHeight="1" spans="1:5">
       <c r="A454" t="s">
         <v>841</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="455" customHeight="1" spans="1:5">
+    <row r="455" hidden="1" customHeight="1" spans="1:5">
       <c r="A455" t="s">
         <v>10</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="456" customHeight="1" spans="1:5">
+    <row r="456" hidden="1" customHeight="1" spans="1:5">
       <c r="A456" t="s">
         <v>845</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="457" customHeight="1" spans="1:5">
+    <row r="457" hidden="1" customHeight="1" spans="1:5">
       <c r="A457" t="s">
         <v>847</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="458" customHeight="1" spans="1:5">
+    <row r="458" hidden="1" customHeight="1" spans="1:5">
       <c r="A458" t="s">
         <v>849</v>
       </c>
@@ -13299,7 +13298,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="459" customHeight="1" spans="1:5">
+    <row r="459" hidden="1" customHeight="1" spans="1:5">
       <c r="A459" t="s">
         <v>851</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="460" customHeight="1" spans="1:5">
+    <row r="460" hidden="1" customHeight="1" spans="1:5">
       <c r="A460" t="s">
         <v>853</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="461" customHeight="1" spans="1:5">
+    <row r="461" hidden="1" customHeight="1" spans="1:5">
       <c r="A461" t="s">
         <v>855</v>
       </c>
@@ -13350,7 +13349,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="462" customHeight="1" spans="1:5">
+    <row r="462" hidden="1" customHeight="1" spans="1:5">
       <c r="A462" t="s">
         <v>23</v>
       </c>
@@ -13367,7 +13366,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="463" customHeight="1" spans="1:5">
+    <row r="463" hidden="1" customHeight="1" spans="1:5">
       <c r="A463" t="s">
         <v>857</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="464" customHeight="1" spans="1:5">
+    <row r="464" hidden="1" customHeight="1" spans="1:5">
       <c r="A464" t="s">
         <v>859</v>
       </c>
@@ -13401,7 +13400,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="465" customHeight="1" spans="1:5">
+    <row r="465" hidden="1" customHeight="1" spans="1:5">
       <c r="A465" t="s">
         <v>861</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="466" customHeight="1" spans="1:5">
+    <row r="466" hidden="1" customHeight="1" spans="1:5">
       <c r="A466" t="s">
         <v>862</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="467" customHeight="1" spans="1:5">
+    <row r="467" hidden="1" customHeight="1" spans="1:5">
       <c r="A467" t="s">
         <v>864</v>
       </c>
@@ -13452,7 +13451,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="468" customHeight="1" spans="1:5">
+    <row r="468" hidden="1" customHeight="1" spans="1:5">
       <c r="A468" t="s">
         <v>866</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="469" customHeight="1" spans="1:5">
+    <row r="469" hidden="1" customHeight="1" spans="1:5">
       <c r="A469" t="s">
         <v>867</v>
       </c>
@@ -13486,7 +13485,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="470" customHeight="1" spans="1:5">
+    <row r="470" hidden="1" customHeight="1" spans="1:5">
       <c r="A470" t="s">
         <v>869</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="471" customHeight="1" spans="1:5">
+    <row r="471" hidden="1" customHeight="1" spans="1:5">
       <c r="A471" t="s">
         <v>871</v>
       </c>
@@ -13520,7 +13519,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="472" customHeight="1" spans="1:5">
+    <row r="472" hidden="1" customHeight="1" spans="1:5">
       <c r="A472" t="s">
         <v>873</v>
       </c>
@@ -13537,7 +13536,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="473" customHeight="1" spans="1:5">
+    <row r="473" hidden="1" customHeight="1" spans="1:5">
       <c r="A473" t="s">
         <v>875</v>
       </c>
@@ -13554,7 +13553,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="474" customHeight="1" spans="1:5">
+    <row r="474" hidden="1" customHeight="1" spans="1:5">
       <c r="A474" t="s">
         <v>466</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="475" customHeight="1" spans="1:5">
+    <row r="475" hidden="1" customHeight="1" spans="1:5">
       <c r="A475" t="s">
         <v>878</v>
       </c>
@@ -13588,7 +13587,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="476" customHeight="1" spans="1:5">
+    <row r="476" hidden="1" customHeight="1" spans="1:5">
       <c r="A476" t="s">
         <v>880</v>
       </c>
@@ -13605,7 +13604,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="477" customHeight="1" spans="1:5">
+    <row r="477" hidden="1" customHeight="1" spans="1:5">
       <c r="A477" t="s">
         <v>882</v>
       </c>
@@ -13622,7 +13621,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="478" customHeight="1" spans="1:5">
+    <row r="478" hidden="1" customHeight="1" spans="1:5">
       <c r="A478" t="s">
         <v>884</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="479" customHeight="1" spans="1:5">
+    <row r="479" hidden="1" customHeight="1" spans="1:5">
       <c r="A479" t="s">
         <v>884</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="480" customHeight="1" spans="1:5">
+    <row r="480" hidden="1" customHeight="1" spans="1:5">
       <c r="A480" t="s">
         <v>887</v>
       </c>
@@ -13673,7 +13672,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="481" customHeight="1" spans="1:5">
+    <row r="481" hidden="1" customHeight="1" spans="1:5">
       <c r="A481" t="s">
         <v>51</v>
       </c>
@@ -13690,7 +13689,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="482" customHeight="1" spans="1:5">
+    <row r="482" hidden="1" customHeight="1" spans="1:5">
       <c r="A482" t="s">
         <v>890</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="483" customHeight="1" spans="1:5">
+    <row r="483" hidden="1" customHeight="1" spans="1:5">
       <c r="A483" t="s">
         <v>892</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="484" customHeight="1" spans="1:5">
+    <row r="484" hidden="1" customHeight="1" spans="1:5">
       <c r="A484" t="s">
         <v>894</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="485" customHeight="1" spans="1:5">
+    <row r="485" hidden="1" customHeight="1" spans="1:5">
       <c r="A485" t="s">
         <v>528</v>
       </c>
@@ -13758,7 +13757,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="486" customHeight="1" spans="1:5">
+    <row r="486" hidden="1" customHeight="1" spans="1:5">
       <c r="A486" t="s">
         <v>897</v>
       </c>
@@ -13775,7 +13774,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="487" customHeight="1" spans="1:5">
+    <row r="487" hidden="1" customHeight="1" spans="1:5">
       <c r="A487" t="s">
         <v>899</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="488" customHeight="1" spans="1:5">
+    <row r="488" hidden="1" customHeight="1" spans="1:5">
       <c r="A488" t="s">
         <v>901</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="489" customHeight="1" spans="1:5">
+    <row r="489" hidden="1" customHeight="1" spans="1:5">
       <c r="A489" t="s">
         <v>903</v>
       </c>
@@ -13826,7 +13825,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="490" customHeight="1" spans="1:5">
+    <row r="490" hidden="1" customHeight="1" spans="1:5">
       <c r="A490" t="s">
         <v>905</v>
       </c>
@@ -13843,7 +13842,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="491" customHeight="1" spans="1:5">
+    <row r="491" hidden="1" customHeight="1" spans="1:5">
       <c r="A491" t="s">
         <v>907</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="492" customHeight="1" spans="1:5">
+    <row r="492" hidden="1" customHeight="1" spans="1:5">
       <c r="A492" t="s">
         <v>909</v>
       </c>
@@ -13877,7 +13876,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="493" customHeight="1" spans="1:5">
+    <row r="493" hidden="1" customHeight="1" spans="1:5">
       <c r="A493" t="s">
         <v>581</v>
       </c>
@@ -13894,7 +13893,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="494" customHeight="1" spans="1:5">
+    <row r="494" hidden="1" customHeight="1" spans="1:5">
       <c r="A494" t="s">
         <v>912</v>
       </c>
@@ -13911,7 +13910,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="495" customHeight="1" spans="1:5">
+    <row r="495" hidden="1" customHeight="1" spans="1:5">
       <c r="A495" t="s">
         <v>914</v>
       </c>
@@ -13928,7 +13927,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="496" customHeight="1" spans="1:5">
+    <row r="496" hidden="1" customHeight="1" spans="1:5">
       <c r="A496" t="s">
         <v>916</v>
       </c>
@@ -13945,7 +13944,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="497" customHeight="1" spans="1:5">
+    <row r="497" hidden="1" customHeight="1" spans="1:5">
       <c r="A497" t="s">
         <v>144</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="498" customHeight="1" spans="1:5">
+    <row r="498" hidden="1" customHeight="1" spans="1:5">
       <c r="A498" t="s">
         <v>919</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="499" customHeight="1" spans="1:5">
+    <row r="499" hidden="1" customHeight="1" spans="1:5">
       <c r="A499" t="s">
         <v>921</v>
       </c>
@@ -13996,7 +13995,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="500" customHeight="1" spans="1:5">
+    <row r="500" hidden="1" customHeight="1" spans="1:5">
       <c r="A500" t="s">
         <v>611</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="501" customHeight="1" spans="1:5">
+    <row r="501" hidden="1" customHeight="1" spans="1:5">
       <c r="A501" t="s">
         <v>924</v>
       </c>
@@ -14030,7 +14029,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="502" customHeight="1" spans="1:5">
+    <row r="502" hidden="1" customHeight="1" spans="1:5">
       <c r="A502" t="s">
         <v>925</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="503" customHeight="1" spans="1:5">
+    <row r="503" hidden="1" customHeight="1" spans="1:5">
       <c r="A503" t="s">
         <v>927</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="504" customHeight="1" spans="1:5">
+    <row r="504" hidden="1" customHeight="1" spans="1:5">
       <c r="A504" t="s">
         <v>929</v>
       </c>
@@ -14081,7 +14080,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="505" customHeight="1" spans="1:5">
+    <row r="505" hidden="1" customHeight="1" spans="1:5">
       <c r="A505" t="s">
         <v>931</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="506" customHeight="1" spans="1:5">
+    <row r="506" hidden="1" customHeight="1" spans="1:5">
       <c r="A506" t="s">
         <v>933</v>
       </c>
@@ -14115,7 +14114,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="507" customHeight="1" spans="1:5">
+    <row r="507" hidden="1" customHeight="1" spans="1:5">
       <c r="A507" t="s">
         <v>182</v>
       </c>
@@ -14132,7 +14131,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="508" customHeight="1" spans="1:5">
+    <row r="508" hidden="1" customHeight="1" spans="1:5">
       <c r="A508" t="s">
         <v>77</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="509" customHeight="1" spans="1:5">
+    <row r="509" hidden="1" customHeight="1" spans="1:5">
       <c r="A509" t="s">
         <v>936</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="510" customHeight="1" spans="1:5">
+    <row r="510" hidden="1" customHeight="1" spans="1:5">
       <c r="A510" t="s">
         <v>938</v>
       </c>
@@ -14183,7 +14182,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="511" customHeight="1" spans="1:5">
+    <row r="511" hidden="1" customHeight="1" spans="1:5">
       <c r="A511" t="s">
         <v>939</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="512" customHeight="1" spans="1:5">
+    <row r="512" hidden="1" customHeight="1" spans="1:5">
       <c r="A512" t="s">
         <v>941</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="513" customHeight="1" spans="1:5">
+    <row r="513" hidden="1" customHeight="1" spans="1:5">
       <c r="A513" t="s">
         <v>943</v>
       </c>
@@ -14234,7 +14233,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="514" customHeight="1" spans="1:5">
+    <row r="514" hidden="1" customHeight="1" spans="1:5">
       <c r="A514" t="s">
         <v>945</v>
       </c>
@@ -14251,7 +14250,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="515" customHeight="1" spans="1:5">
+    <row r="515" hidden="1" customHeight="1" spans="1:5">
       <c r="A515" t="s">
         <v>945</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="516" customHeight="1" spans="1:5">
+    <row r="516" hidden="1" customHeight="1" spans="1:5">
       <c r="A516" t="s">
         <v>947</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="517" customHeight="1" spans="1:5">
+    <row r="517" hidden="1" customHeight="1" spans="1:5">
       <c r="A517" t="s">
         <v>949</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="518" customHeight="1" spans="1:5">
+    <row r="518" hidden="1" customHeight="1" spans="1:5">
       <c r="A518" t="s">
         <v>950</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="519" customHeight="1" spans="1:5">
+    <row r="519" hidden="1" customHeight="1" spans="1:5">
       <c r="A519" t="s">
         <v>952</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="520" customHeight="1" spans="1:5">
+    <row r="520" hidden="1" customHeight="1" spans="1:5">
       <c r="A520" t="s">
         <v>954</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="521" customHeight="1" spans="1:5">
+    <row r="521" hidden="1" customHeight="1" spans="1:5">
       <c r="A521" t="s">
         <v>956</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="522" customHeight="1" spans="1:5">
+    <row r="522" hidden="1" customHeight="1" spans="1:5">
       <c r="A522" t="s">
         <v>958</v>
       </c>
@@ -14387,7 +14386,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="523" customHeight="1" spans="1:5">
+    <row r="523" hidden="1" customHeight="1" spans="1:5">
       <c r="A523" t="s">
         <v>960</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="524" customHeight="1" spans="1:5">
+    <row r="524" hidden="1" customHeight="1" spans="1:5">
       <c r="A524" t="s">
         <v>962</v>
       </c>
@@ -14421,7 +14420,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="525" customHeight="1" spans="1:5">
+    <row r="525" hidden="1" customHeight="1" spans="1:5">
       <c r="A525" t="s">
         <v>964</v>
       </c>
@@ -14438,7 +14437,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="526" customHeight="1" spans="1:5">
+    <row r="526" hidden="1" customHeight="1" spans="1:5">
       <c r="A526" t="s">
         <v>705</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="527" customHeight="1" spans="1:5">
+    <row r="527" hidden="1" customHeight="1" spans="1:5">
       <c r="A527" t="s">
         <v>966</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="528" customHeight="1" spans="1:5">
+    <row r="528" hidden="1" customHeight="1" spans="1:5">
       <c r="A528" t="s">
         <v>91</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="529" customHeight="1" spans="1:5">
+    <row r="529" hidden="1" customHeight="1" spans="1:5">
       <c r="A529" t="s">
         <v>969</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="530" customHeight="1" spans="1:5">
+    <row r="530" hidden="1" customHeight="1" spans="1:5">
       <c r="A530" t="s">
         <v>971</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="531" customHeight="1" spans="1:5">
+    <row r="531" hidden="1" customHeight="1" spans="1:5">
       <c r="A531" t="s">
         <v>973</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="532" customHeight="1" spans="1:5">
+    <row r="532" hidden="1" customHeight="1" spans="1:5">
       <c r="A532" t="s">
         <v>735</v>
       </c>
@@ -14557,7 +14556,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="533" customHeight="1" spans="1:5">
+    <row r="533" hidden="1" customHeight="1" spans="1:5">
       <c r="A533" t="s">
         <v>976</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="534" customHeight="1" spans="1:5">
+    <row r="534" hidden="1" customHeight="1" spans="1:5">
       <c r="A534" t="s">
         <v>978</v>
       </c>
@@ -14591,7 +14590,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="535" customHeight="1" spans="1:5">
+    <row r="535" hidden="1" customHeight="1" spans="1:5">
       <c r="A535" t="s">
         <v>980</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="536" customHeight="1" spans="1:5">
+    <row r="536" hidden="1" customHeight="1" spans="1:5">
       <c r="A536" t="s">
         <v>982</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="537" customHeight="1" spans="1:5">
+    <row r="537" hidden="1" customHeight="1" spans="1:5">
       <c r="A537" t="s">
         <v>984</v>
       </c>
@@ -14642,7 +14641,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="538" customHeight="1" spans="1:5">
+    <row r="538" hidden="1" customHeight="1" spans="1:5">
       <c r="A538" t="s">
         <v>787</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="539" customHeight="1" spans="1:5">
+    <row r="539" hidden="1" customHeight="1" spans="1:5">
       <c r="A539" t="s">
         <v>109</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="540" customHeight="1" spans="1:5">
+    <row r="540" hidden="1" customHeight="1" spans="1:5">
       <c r="A540" t="s">
         <v>987</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="541" customHeight="1" spans="1:5">
+    <row r="541" hidden="1" customHeight="1" spans="1:5">
       <c r="A541" t="s">
         <v>988</v>
       </c>
@@ -14710,7 +14709,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="542" customHeight="1" spans="1:5">
+    <row r="542" hidden="1" customHeight="1" spans="1:5">
       <c r="A542" t="s">
         <v>990</v>
       </c>
@@ -14727,7 +14726,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="543" customHeight="1" spans="1:5">
+    <row r="543" hidden="1" customHeight="1" spans="1:5">
       <c r="A543" t="s">
         <v>992</v>
       </c>
@@ -14744,7 +14743,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="544" customHeight="1" spans="1:5">
+    <row r="544" hidden="1" customHeight="1" spans="1:5">
       <c r="A544" t="s">
         <v>992</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="545" customHeight="1" spans="1:5">
+    <row r="545" hidden="1" customHeight="1" spans="1:5">
       <c r="A545" t="s">
         <v>303</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="546" customHeight="1" spans="1:5">
+    <row r="546" hidden="1" customHeight="1" spans="1:5">
       <c r="A546" t="s">
         <v>996</v>
       </c>
@@ -14795,7 +14794,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="547" customHeight="1" spans="1:5">
+    <row r="547" hidden="1" customHeight="1" spans="1:5">
       <c r="A547" t="s">
         <v>998</v>
       </c>
@@ -14812,7 +14811,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="548" customHeight="1" spans="1:5">
+    <row r="548" hidden="1" customHeight="1" spans="1:5">
       <c r="A548" t="s">
         <v>1000</v>
       </c>
@@ -14829,7 +14828,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="549" customHeight="1" spans="1:5">
+    <row r="549" hidden="1" customHeight="1" spans="1:5">
       <c r="A549" t="s">
         <v>1000</v>
       </c>
@@ -14846,7 +14845,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="550" customHeight="1" spans="1:5">
+    <row r="550" hidden="1" customHeight="1" spans="1:5">
       <c r="A550" t="s">
         <v>1003</v>
       </c>
@@ -14863,7 +14862,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="551" customHeight="1" spans="1:5">
+    <row r="551" hidden="1" customHeight="1" spans="1:5">
       <c r="A551" t="s">
         <v>1006</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="552" customHeight="1" spans="1:5">
+    <row r="552" hidden="1" customHeight="1" spans="1:5">
       <c r="A552" t="s">
         <v>1008</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="553" customHeight="1" spans="1:5">
+    <row r="553" hidden="1" customHeight="1" spans="1:5">
       <c r="A553" t="s">
         <v>1009</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="554" customHeight="1" spans="1:5">
+    <row r="554" hidden="1" customHeight="1" spans="1:5">
       <c r="A554" t="s">
         <v>1011</v>
       </c>
@@ -14931,7 +14930,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="555" customHeight="1" spans="1:5">
+    <row r="555" hidden="1" customHeight="1" spans="1:5">
       <c r="A555" t="s">
         <v>1013</v>
       </c>
@@ -14948,7 +14947,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="556" customHeight="1" spans="1:5">
+    <row r="556" hidden="1" customHeight="1" spans="1:5">
       <c r="A556" t="s">
         <v>1015</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="557" customHeight="1" spans="1:5">
+    <row r="557" hidden="1" customHeight="1" spans="1:5">
       <c r="A557" t="s">
         <v>1017</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="558" customHeight="1" spans="1:5">
+    <row r="558" hidden="1" customHeight="1" spans="1:5">
       <c r="A558" t="s">
         <v>1019</v>
       </c>
@@ -14999,7 +14998,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="559" customHeight="1" spans="1:5">
+    <row r="559" hidden="1" customHeight="1" spans="1:5">
       <c r="A559" t="s">
         <v>1021</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="560" customHeight="1" spans="1:5">
+    <row r="560" hidden="1" customHeight="1" spans="1:5">
       <c r="A560" t="s">
         <v>1023</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="561" customHeight="1" spans="1:5">
+    <row r="561" hidden="1" customHeight="1" spans="1:5">
       <c r="A561" t="s">
         <v>853</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="562" customHeight="1" spans="1:5">
+    <row r="562" hidden="1" customHeight="1" spans="1:5">
       <c r="A562" t="s">
         <v>1026</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="563" customHeight="1" spans="1:5">
+    <row r="563" hidden="1" customHeight="1" spans="1:5">
       <c r="A563" t="s">
         <v>1028</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="564" customHeight="1" spans="1:5">
+    <row r="564" hidden="1" customHeight="1" spans="1:5">
       <c r="A564" t="s">
         <v>1030</v>
       </c>
@@ -15101,7 +15100,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="565" customHeight="1" spans="1:5">
+    <row r="565" hidden="1" customHeight="1" spans="1:5">
       <c r="A565" t="s">
         <v>1032</v>
       </c>
@@ -15118,7 +15117,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="566" customHeight="1" spans="1:5">
+    <row r="566" hidden="1" customHeight="1" spans="1:5">
       <c r="A566" t="s">
         <v>1034</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="567" customHeight="1" spans="1:5">
+    <row r="567" hidden="1" customHeight="1" spans="1:5">
       <c r="A567" t="s">
         <v>1034</v>
       </c>
@@ -15152,7 +15151,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="568" customHeight="1" spans="1:5">
+    <row r="568" hidden="1" customHeight="1" spans="1:5">
       <c r="A568" t="s">
         <v>1034</v>
       </c>
@@ -15169,7 +15168,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="569" customHeight="1" spans="1:5">
+    <row r="569" hidden="1" customHeight="1" spans="1:5">
       <c r="A569" t="s">
         <v>1037</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="570" customHeight="1" spans="1:5">
+    <row r="570" hidden="1" customHeight="1" spans="1:5">
       <c r="A570" t="s">
         <v>1038</v>
       </c>
@@ -15203,7 +15202,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="571" customHeight="1" spans="1:5">
+    <row r="571" hidden="1" customHeight="1" spans="1:5">
       <c r="A571" t="s">
         <v>380</v>
       </c>
@@ -15220,7 +15219,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="572" customHeight="1" spans="1:5">
+    <row r="572" hidden="1" customHeight="1" spans="1:5">
       <c r="A572" t="s">
         <v>380</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="573" customHeight="1" spans="1:5">
+    <row r="573" hidden="1" customHeight="1" spans="1:5">
       <c r="A573" t="s">
         <v>1042</v>
       </c>
@@ -15254,7 +15253,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="574" customHeight="1" spans="1:5">
+    <row r="574" hidden="1" customHeight="1" spans="1:5">
       <c r="A574" t="s">
         <v>1044</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="575" customHeight="1" spans="1:5">
+    <row r="575" hidden="1" customHeight="1" spans="1:5">
       <c r="A575" t="s">
         <v>221</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="576" customHeight="1" spans="1:5">
+    <row r="576" hidden="1" customHeight="1" spans="1:5">
       <c r="A576" t="s">
         <v>1047</v>
       </c>
@@ -15305,7 +15304,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="577" customHeight="1" spans="1:5">
+    <row r="577" hidden="1" customHeight="1" spans="1:5">
       <c r="A577" t="s">
         <v>1049</v>
       </c>
@@ -15322,7 +15321,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="578" customHeight="1" spans="1:5">
+    <row r="578" hidden="1" customHeight="1" spans="1:5">
       <c r="A578" t="s">
         <v>1051</v>
       </c>
@@ -15339,7 +15338,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="579" customHeight="1" spans="1:5">
+    <row r="579" hidden="1" customHeight="1" spans="1:5">
       <c r="A579" t="s">
         <v>1053</v>
       </c>
@@ -15356,7 +15355,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="580" customHeight="1" spans="1:5">
+    <row r="580" hidden="1" customHeight="1" spans="1:5">
       <c r="A580" t="s">
         <v>1055</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="581" customHeight="1" spans="1:5">
+    <row r="581" hidden="1" customHeight="1" spans="1:5">
       <c r="A581" t="s">
         <v>1057</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="582" customHeight="1" spans="1:5">
+    <row r="582" hidden="1" customHeight="1" spans="1:5">
       <c r="A582" t="s">
         <v>1059</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="583" customHeight="1" spans="1:5">
+    <row r="583" hidden="1" customHeight="1" spans="1:5">
       <c r="A583" t="s">
         <v>1060</v>
       </c>
@@ -15424,7 +15423,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="584" customHeight="1" spans="1:5">
+    <row r="584" hidden="1" customHeight="1" spans="1:5">
       <c r="A584" t="s">
         <v>1062</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="585" customHeight="1" spans="1:5">
+    <row r="585" hidden="1" customHeight="1" spans="1:5">
       <c r="A585" t="s">
         <v>466</v>
       </c>
@@ -15458,7 +15457,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="586" customHeight="1" spans="1:5">
+    <row r="586" hidden="1" customHeight="1" spans="1:5">
       <c r="A586" t="s">
         <v>1063</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="587" customHeight="1" spans="1:5">
+    <row r="587" hidden="1" customHeight="1" spans="1:5">
       <c r="A587" t="s">
         <v>506</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="588" customHeight="1" spans="1:5">
+    <row r="588" hidden="1" customHeight="1" spans="1:5">
       <c r="A588" t="s">
         <v>1066</v>
       </c>
@@ -15509,7 +15508,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="589" customHeight="1" spans="1:5">
+    <row r="589" hidden="1" customHeight="1" spans="1:5">
       <c r="A589" t="s">
         <v>1068</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="590" customHeight="1" spans="1:5">
+    <row r="590" hidden="1" customHeight="1" spans="1:5">
       <c r="A590" t="s">
         <v>1069</v>
       </c>
@@ -15543,7 +15542,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="591" customHeight="1" spans="1:5">
+    <row r="591" hidden="1" customHeight="1" spans="1:5">
       <c r="A591" t="s">
         <v>1071</v>
       </c>
@@ -15560,7 +15559,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="592" customHeight="1" spans="1:5">
+    <row r="592" hidden="1" customHeight="1" spans="1:5">
       <c r="A592" t="s">
         <v>1073</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="593" customHeight="1" spans="1:5">
+    <row r="593" hidden="1" customHeight="1" spans="1:5">
       <c r="A593" t="s">
         <v>1075</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="594" customHeight="1" spans="1:5">
+    <row r="594" hidden="1" customHeight="1" spans="1:5">
       <c r="A594" t="s">
         <v>1077</v>
       </c>
@@ -15611,7 +15610,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="595" customHeight="1" spans="1:5">
+    <row r="595" hidden="1" customHeight="1" spans="1:5">
       <c r="A595" t="s">
         <v>1079</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="596" customHeight="1" spans="1:5">
+    <row r="596" hidden="1" customHeight="1" spans="1:5">
       <c r="A596" t="s">
         <v>1081</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="597" customHeight="1" spans="1:5">
+    <row r="597" hidden="1" customHeight="1" spans="1:5">
       <c r="A597" t="s">
         <v>1083</v>
       </c>
@@ -15662,7 +15661,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="598" customHeight="1" spans="1:5">
+    <row r="598" hidden="1" customHeight="1" spans="1:5">
       <c r="A598" t="s">
         <v>1085</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="599" customHeight="1" spans="1:5">
+    <row r="599" hidden="1" customHeight="1" spans="1:5">
       <c r="A599" t="s">
         <v>1086</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="600" customHeight="1" spans="1:5">
+    <row r="600" hidden="1" customHeight="1" spans="1:5">
       <c r="A600" t="s">
         <v>1088</v>
       </c>
@@ -15713,7 +15712,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="601" customHeight="1" spans="1:5">
+    <row r="601" hidden="1" customHeight="1" spans="1:5">
       <c r="A601" t="s">
         <v>1089</v>
       </c>
@@ -15730,7 +15729,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="602" customHeight="1" spans="1:5">
+    <row r="602" hidden="1" customHeight="1" spans="1:5">
       <c r="A602" t="s">
         <v>55</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="603" customHeight="1" spans="1:5">
+    <row r="603" hidden="1" customHeight="1" spans="1:5">
       <c r="A603" t="s">
         <v>1091</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="604" customHeight="1" spans="1:5">
+    <row r="604" hidden="1" customHeight="1" spans="1:5">
       <c r="A604" t="s">
         <v>1092</v>
       </c>
@@ -15781,7 +15780,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="605" customHeight="1" spans="1:5">
+    <row r="605" hidden="1" customHeight="1" spans="1:5">
       <c r="A605" t="s">
         <v>1093</v>
       </c>
@@ -15798,7 +15797,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="606" customHeight="1" spans="1:5">
+    <row r="606" hidden="1" customHeight="1" spans="1:5">
       <c r="A606" t="s">
         <v>1094</v>
       </c>
@@ -15815,7 +15814,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="607" customHeight="1" spans="1:5">
+    <row r="607" hidden="1" customHeight="1" spans="1:5">
       <c r="A607" t="s">
         <v>1096</v>
       </c>
@@ -15832,7 +15831,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="608" customHeight="1" spans="1:5">
+    <row r="608" hidden="1" customHeight="1" spans="1:5">
       <c r="A608" t="s">
         <v>146</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="609" customHeight="1" spans="1:5">
+    <row r="609" hidden="1" customHeight="1" spans="1:5">
       <c r="A609" t="s">
         <v>611</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="610" customHeight="1" spans="1:5">
+    <row r="610" hidden="1" customHeight="1" spans="1:5">
       <c r="A610" t="s">
         <v>1098</v>
       </c>
@@ -15883,7 +15882,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="611" customHeight="1" spans="1:5">
+    <row r="611" hidden="1" customHeight="1" spans="1:5">
       <c r="A611" t="s">
         <v>149</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="612" customHeight="1" spans="1:5">
+    <row r="612" hidden="1" customHeight="1" spans="1:5">
       <c r="A612" t="s">
         <v>1100</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="613" customHeight="1" spans="1:5">
+    <row r="613" hidden="1" customHeight="1" spans="1:5">
       <c r="A613" t="s">
         <v>1102</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="614" customHeight="1" spans="1:5">
+    <row r="614" hidden="1" customHeight="1" spans="1:5">
       <c r="A614" t="s">
         <v>634</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="615" customHeight="1" spans="1:5">
+    <row r="615" hidden="1" customHeight="1" spans="1:5">
       <c r="A615" t="s">
         <v>1103</v>
       </c>
@@ -15968,7 +15967,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="616" customHeight="1" spans="1:5">
+    <row r="616" hidden="1" customHeight="1" spans="1:5">
       <c r="A616" t="s">
         <v>1105</v>
       </c>
@@ -15985,7 +15984,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="617" customHeight="1" spans="1:5">
+    <row r="617" hidden="1" customHeight="1" spans="1:5">
       <c r="A617" t="s">
         <v>1107</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="618" customHeight="1" spans="1:5">
+    <row r="618" hidden="1" customHeight="1" spans="1:5">
       <c r="A618" t="s">
         <v>1109</v>
       </c>
@@ -16019,7 +16018,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="619" customHeight="1" spans="1:5">
+    <row r="619" hidden="1" customHeight="1" spans="1:5">
       <c r="A619" t="s">
         <v>1111</v>
       </c>
@@ -16036,7 +16035,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="620" customHeight="1" spans="1:5">
+    <row r="620" hidden="1" customHeight="1" spans="1:5">
       <c r="A620" t="s">
         <v>1113</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="621" customHeight="1" spans="1:5">
+    <row r="621" hidden="1" customHeight="1" spans="1:5">
       <c r="A621" t="s">
         <v>1115</v>
       </c>
@@ -16070,7 +16069,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="622" customHeight="1" spans="1:5">
+    <row r="622" hidden="1" customHeight="1" spans="1:5">
       <c r="A622" t="s">
         <v>1117</v>
       </c>
@@ -16087,7 +16086,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="623" customHeight="1" spans="1:5">
+    <row r="623" hidden="1" customHeight="1" spans="1:5">
       <c r="A623" t="s">
         <v>1118</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="624" customHeight="1" spans="1:5">
+    <row r="624" hidden="1" customHeight="1" spans="1:5">
       <c r="A624" t="s">
         <v>1120</v>
       </c>
@@ -16121,7 +16120,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="625" customHeight="1" spans="1:5">
+    <row r="625" hidden="1" customHeight="1" spans="1:5">
       <c r="A625" t="s">
         <v>1121</v>
       </c>
@@ -16138,7 +16137,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="626" customHeight="1" spans="1:5">
+    <row r="626" hidden="1" customHeight="1" spans="1:5">
       <c r="A626" t="s">
         <v>1122</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="627" customHeight="1" spans="1:5">
+    <row r="627" hidden="1" customHeight="1" spans="1:5">
       <c r="A627" t="s">
         <v>1124</v>
       </c>
@@ -16172,7 +16171,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="628" customHeight="1" spans="1:5">
+    <row r="628" hidden="1" customHeight="1" spans="1:5">
       <c r="A628" t="s">
         <v>683</v>
       </c>
@@ -16189,7 +16188,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="629" customHeight="1" spans="1:5">
+    <row r="629" hidden="1" customHeight="1" spans="1:5">
       <c r="A629" t="s">
         <v>1127</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="630" customHeight="1" spans="1:5">
+    <row r="630" hidden="1" customHeight="1" spans="1:5">
       <c r="A630" t="s">
         <v>1129</v>
       </c>
@@ -16223,7 +16222,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="631" customHeight="1" spans="1:5">
+    <row r="631" hidden="1" customHeight="1" spans="1:5">
       <c r="A631" t="s">
         <v>1131</v>
       </c>
@@ -16240,7 +16239,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="632" customHeight="1" spans="1:5">
+    <row r="632" hidden="1" customHeight="1" spans="1:5">
       <c r="A632" t="s">
         <v>696</v>
       </c>
@@ -16257,7 +16256,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="633" customHeight="1" spans="1:5">
+    <row r="633" hidden="1" customHeight="1" spans="1:5">
       <c r="A633" t="s">
         <v>547</v>
       </c>
@@ -16274,7 +16273,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="634" customHeight="1" spans="1:5">
+    <row r="634" hidden="1" customHeight="1" spans="1:5">
       <c r="A634" t="s">
         <v>1134</v>
       </c>
@@ -16291,7 +16290,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="635" customHeight="1" spans="1:5">
+    <row r="635" hidden="1" customHeight="1" spans="1:5">
       <c r="A635" t="s">
         <v>1136</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="636" customHeight="1" spans="1:5">
+    <row r="636" hidden="1" customHeight="1" spans="1:5">
       <c r="A636" t="s">
         <v>705</v>
       </c>
@@ -16325,7 +16324,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="637" customHeight="1" spans="1:5">
+    <row r="637" hidden="1" customHeight="1" spans="1:5">
       <c r="A637" t="s">
         <v>1139</v>
       </c>
@@ -16342,7 +16341,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="638" customHeight="1" spans="1:5">
+    <row r="638" hidden="1" customHeight="1" spans="1:5">
       <c r="A638" t="s">
         <v>1140</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="639" customHeight="1" spans="1:5">
+    <row r="639" hidden="1" customHeight="1" spans="1:5">
       <c r="A639" t="s">
         <v>1141</v>
       </c>
@@ -16376,7 +16375,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="640" customHeight="1" spans="1:5">
+    <row r="640" hidden="1" customHeight="1" spans="1:5">
       <c r="A640" t="s">
         <v>1143</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="641" customHeight="1" spans="1:5">
+    <row r="641" hidden="1" customHeight="1" spans="1:5">
       <c r="A641" t="s">
         <v>1145</v>
       </c>
@@ -16410,7 +16409,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="642" customHeight="1" spans="1:5">
+    <row r="642" hidden="1" customHeight="1" spans="1:5">
       <c r="A642" t="s">
         <v>1147</v>
       </c>
@@ -16427,7 +16426,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="643" customHeight="1" spans="1:5">
+    <row r="643" hidden="1" customHeight="1" spans="1:5">
       <c r="A643" t="s">
         <v>1149</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="644" customHeight="1" spans="1:5">
+    <row r="644" hidden="1" customHeight="1" spans="1:5">
       <c r="A644" t="s">
         <v>1150</v>
       </c>
@@ -16461,7 +16460,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="645" customHeight="1" spans="1:5">
+    <row r="645" hidden="1" customHeight="1" spans="1:5">
       <c r="A645" t="s">
         <v>1152</v>
       </c>
@@ -16478,7 +16477,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="646" customHeight="1" spans="1:5">
+    <row r="646" hidden="1" customHeight="1" spans="1:5">
       <c r="A646" t="s">
         <v>1154</v>
       </c>
@@ -16495,7 +16494,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="647" customHeight="1" spans="1:5">
+    <row r="647" hidden="1" customHeight="1" spans="1:5">
       <c r="A647" t="s">
         <v>1155</v>
       </c>
@@ -16512,7 +16511,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="648" customHeight="1" spans="1:5">
+    <row r="648" hidden="1" customHeight="1" spans="1:5">
       <c r="A648" t="s">
         <v>1157</v>
       </c>
@@ -16529,7 +16528,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="649" customHeight="1" spans="1:5">
+    <row r="649" hidden="1" customHeight="1" spans="1:5">
       <c r="A649" t="s">
         <v>1159</v>
       </c>
@@ -16546,7 +16545,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="650" customHeight="1" spans="1:5">
+    <row r="650" hidden="1" customHeight="1" spans="1:5">
       <c r="A650" t="s">
         <v>1161</v>
       </c>
@@ -16563,7 +16562,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="651" customHeight="1" spans="1:5">
+    <row r="651" hidden="1" customHeight="1" spans="1:5">
       <c r="A651" t="s">
         <v>1162</v>
       </c>
@@ -16580,7 +16579,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="652" customHeight="1" spans="1:5">
+    <row r="652" hidden="1" customHeight="1" spans="1:5">
       <c r="A652" t="s">
         <v>1164</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="653" customHeight="1" spans="1:5">
+    <row r="653" hidden="1" customHeight="1" spans="1:5">
       <c r="A653" t="s">
         <v>1165</v>
       </c>
@@ -16614,7 +16613,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="654" customHeight="1" spans="1:5">
+    <row r="654" hidden="1" customHeight="1" spans="1:5">
       <c r="A654" t="s">
         <v>1167</v>
       </c>
@@ -16631,7 +16630,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="655" customHeight="1" spans="1:5">
+    <row r="655" hidden="1" customHeight="1" spans="1:5">
       <c r="A655" t="s">
         <v>1169</v>
       </c>
@@ -16648,7 +16647,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="656" customHeight="1" spans="1:5">
+    <row r="656" hidden="1" customHeight="1" spans="1:5">
       <c r="A656" t="s">
         <v>1171</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="657" customHeight="1" spans="1:5">
+    <row r="657" hidden="1" customHeight="1" spans="1:5">
       <c r="A657" t="s">
         <v>1173</v>
       </c>
@@ -16682,7 +16681,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="658" customHeight="1" spans="1:5">
+    <row r="658" hidden="1" customHeight="1" spans="1:5">
       <c r="A658" t="s">
         <v>1175</v>
       </c>
@@ -16699,7 +16698,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="659" customHeight="1" spans="1:5">
+    <row r="659" hidden="1" customHeight="1" spans="1:5">
       <c r="A659" t="s">
         <v>1177</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="660" customHeight="1" spans="1:5">
+    <row r="660" hidden="1" customHeight="1" spans="1:5">
       <c r="A660" t="s">
         <v>439</v>
       </c>
@@ -16733,7 +16732,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="661" customHeight="1" spans="1:5">
+    <row r="661" hidden="1" customHeight="1" spans="1:5">
       <c r="A661" t="s">
         <v>1181</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="662" customHeight="1" spans="1:5">
+    <row r="662" hidden="1" customHeight="1" spans="1:5">
       <c r="A662" t="s">
         <v>1183</v>
       </c>
@@ -16767,7 +16766,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="663" customHeight="1" spans="1:5">
+    <row r="663" hidden="1" customHeight="1" spans="1:5">
       <c r="A663" t="s">
         <v>1185</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="664" customHeight="1" spans="1:5">
+    <row r="664" hidden="1" customHeight="1" spans="1:5">
       <c r="A664" t="s">
         <v>1187</v>
       </c>
@@ -16801,7 +16800,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="665" customHeight="1" spans="1:5">
+    <row r="665" hidden="1" customHeight="1" spans="1:5">
       <c r="A665" t="s">
         <v>1189</v>
       </c>
@@ -16818,7 +16817,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="666" customHeight="1" spans="1:5">
+    <row r="666" hidden="1" customHeight="1" spans="1:5">
       <c r="A666" t="s">
         <v>1191</v>
       </c>
@@ -16835,7 +16834,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="667" customHeight="1" spans="1:5">
+    <row r="667" hidden="1" customHeight="1" spans="1:5">
       <c r="A667" t="s">
         <v>1193</v>
       </c>
@@ -16852,7 +16851,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="668" customHeight="1" spans="1:5">
+    <row r="668" hidden="1" customHeight="1" spans="1:5">
       <c r="A668" t="s">
         <v>1195</v>
       </c>
@@ -16869,7 +16868,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="669" customHeight="1" spans="1:5">
+    <row r="669" hidden="1" customHeight="1" spans="1:5">
       <c r="A669" t="s">
         <v>1196</v>
       </c>
@@ -16886,7 +16885,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="670" customHeight="1" spans="1:5">
+    <row r="670" hidden="1" customHeight="1" spans="1:5">
       <c r="A670" t="s">
         <v>1198</v>
       </c>
@@ -16903,7 +16902,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="671" customHeight="1" spans="1:5">
+    <row r="671" hidden="1" customHeight="1" spans="1:5">
       <c r="A671" t="s">
         <v>1200</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="672" customHeight="1" spans="1:5">
+    <row r="672" hidden="1" customHeight="1" spans="1:5">
       <c r="A672" t="s">
         <v>1202</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="673" customHeight="1" spans="1:5">
+    <row r="673" hidden="1" customHeight="1" spans="1:5">
       <c r="A673" t="s">
         <v>1204</v>
       </c>
@@ -16954,7 +16953,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="674" customHeight="1" spans="1:5">
+    <row r="674" hidden="1" customHeight="1" spans="1:5">
       <c r="A674" t="s">
         <v>1206</v>
       </c>
@@ -16971,7 +16970,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="675" customHeight="1" spans="1:5">
+    <row r="675" hidden="1" customHeight="1" spans="1:5">
       <c r="A675" t="s">
         <v>438</v>
       </c>
@@ -16988,7 +16987,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="676" customHeight="1" spans="1:5">
+    <row r="676" hidden="1" customHeight="1" spans="1:5">
       <c r="A676" t="s">
         <v>1209</v>
       </c>
@@ -17005,7 +17004,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="677" customHeight="1" spans="1:5">
+    <row r="677" hidden="1" customHeight="1" spans="1:5">
       <c r="A677" t="s">
         <v>1210</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="678" customHeight="1" spans="1:5">
+    <row r="678" hidden="1" customHeight="1" spans="1:5">
       <c r="A678" t="s">
         <v>36</v>
       </c>
@@ -17039,7 +17038,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="679" customHeight="1" spans="1:5">
+    <row r="679" hidden="1" customHeight="1" spans="1:5">
       <c r="A679" t="s">
         <v>1212</v>
       </c>
@@ -17056,7 +17055,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="680" customHeight="1" spans="1:5">
+    <row r="680" hidden="1" customHeight="1" spans="1:5">
       <c r="A680" t="s">
         <v>1214</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="681" customHeight="1" spans="1:5">
+    <row r="681" hidden="1" customHeight="1" spans="1:5">
       <c r="A681" t="s">
         <v>1216</v>
       </c>
@@ -17090,7 +17089,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="682" customHeight="1" spans="1:5">
+    <row r="682" hidden="1" customHeight="1" spans="1:5">
       <c r="A682" t="s">
         <v>892</v>
       </c>
@@ -17107,7 +17106,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="683" customHeight="1" spans="1:5">
+    <row r="683" hidden="1" customHeight="1" spans="1:5">
       <c r="A683" t="s">
         <v>245</v>
       </c>
@@ -17124,7 +17123,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="684" customHeight="1" spans="1:5">
+    <row r="684" hidden="1" customHeight="1" spans="1:5">
       <c r="A684" t="s">
         <v>1219</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="685" customHeight="1" spans="1:5">
+    <row r="685" hidden="1" customHeight="1" spans="1:5">
       <c r="A685" t="s">
         <v>1221</v>
       </c>
@@ -17158,7 +17157,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="686" customHeight="1" spans="1:5">
+    <row r="686" hidden="1" customHeight="1" spans="1:5">
       <c r="A686" t="s">
         <v>884</v>
       </c>
@@ -17175,7 +17174,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="687" customHeight="1" spans="1:5">
+    <row r="687" hidden="1" customHeight="1" spans="1:5">
       <c r="A687" t="s">
         <v>1224</v>
       </c>
@@ -17192,7 +17191,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="688" customHeight="1" spans="1:5">
+    <row r="688" hidden="1" customHeight="1" spans="1:5">
       <c r="A688" t="s">
         <v>1225</v>
       </c>
@@ -17209,7 +17208,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="689" customHeight="1" spans="1:5">
+    <row r="689" hidden="1" customHeight="1" spans="1:5">
       <c r="A689" t="s">
         <v>551</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="690" customHeight="1" spans="1:5">
+    <row r="690" hidden="1" customHeight="1" spans="1:5">
       <c r="A690" t="s">
         <v>1228</v>
       </c>
@@ -17243,7 +17242,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="691" customHeight="1" spans="1:5">
+    <row r="691" hidden="1" customHeight="1" spans="1:5">
       <c r="A691" t="s">
         <v>1230</v>
       </c>
@@ -17260,7 +17259,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="692" customHeight="1" spans="1:5">
+    <row r="692" hidden="1" customHeight="1" spans="1:5">
       <c r="A692" t="s">
         <v>1232</v>
       </c>
@@ -17277,7 +17276,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="693" customHeight="1" spans="1:5">
+    <row r="693" hidden="1" customHeight="1" spans="1:5">
       <c r="A693" t="s">
         <v>1234</v>
       </c>
@@ -17294,7 +17293,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="694" customHeight="1" spans="1:5">
+    <row r="694" hidden="1" customHeight="1" spans="1:5">
       <c r="A694" t="s">
         <v>1236</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="695" customHeight="1" spans="1:5">
+    <row r="695" hidden="1" customHeight="1" spans="1:5">
       <c r="A695" t="s">
         <v>1237</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="696" customHeight="1" spans="1:5">
+    <row r="696" hidden="1" customHeight="1" spans="1:5">
       <c r="A696" t="s">
         <v>1239</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="697" customHeight="1" spans="1:5">
+    <row r="697" hidden="1" customHeight="1" spans="1:5">
       <c r="A697" t="s">
         <v>1241</v>
       </c>
@@ -17362,7 +17361,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="698" customHeight="1" spans="1:5">
+    <row r="698" hidden="1" customHeight="1" spans="1:5">
       <c r="A698" t="s">
         <v>1243</v>
       </c>
@@ -17379,7 +17378,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="699" customHeight="1" spans="1:5">
+    <row r="699" hidden="1" customHeight="1" spans="1:5">
       <c r="A699" t="s">
         <v>663</v>
       </c>
@@ -17396,7 +17395,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="700" customHeight="1" spans="1:5">
+    <row r="700" hidden="1" customHeight="1" spans="1:5">
       <c r="A700" t="s">
         <v>952</v>
       </c>
@@ -17413,7 +17412,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="701" customHeight="1" spans="1:5">
+    <row r="701" hidden="1" customHeight="1" spans="1:5">
       <c r="A701" t="s">
         <v>1246</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="702" customHeight="1" spans="1:5">
+    <row r="702" hidden="1" customHeight="1" spans="1:5">
       <c r="A702" t="s">
         <v>1247</v>
       </c>
@@ -17447,7 +17446,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="703" customHeight="1" spans="1:5">
+    <row r="703" hidden="1" customHeight="1" spans="1:5">
       <c r="A703" t="s">
         <v>699</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="704" customHeight="1" spans="1:5">
+    <row r="704" hidden="1" customHeight="1" spans="1:5">
       <c r="A704" t="s">
         <v>1250</v>
       </c>
@@ -17481,7 +17480,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="705" customHeight="1" spans="1:5">
+    <row r="705" hidden="1" customHeight="1" spans="1:5">
       <c r="A705" t="s">
         <v>1252</v>
       </c>
@@ -17498,7 +17497,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="706" customHeight="1" spans="1:5">
+    <row r="706" hidden="1" customHeight="1" spans="1:5">
       <c r="A706" t="s">
         <v>1254</v>
       </c>
@@ -17515,7 +17514,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="707" customHeight="1" spans="1:5">
+    <row r="707" hidden="1" customHeight="1" spans="1:5">
       <c r="A707" t="s">
         <v>1256</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="708" customHeight="1" spans="1:5">
+    <row r="708" hidden="1" customHeight="1" spans="1:5">
       <c r="A708" t="s">
         <v>1134</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="709" customHeight="1" spans="1:5">
+    <row r="709" hidden="1" customHeight="1" spans="1:5">
       <c r="A709" t="s">
         <v>1259</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="710" customHeight="1" spans="1:5">
+    <row r="710" hidden="1" customHeight="1" spans="1:5">
       <c r="A710" t="s">
         <v>1261</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="711" customHeight="1" spans="1:5">
+    <row r="711" hidden="1" customHeight="1" spans="1:5">
       <c r="A711" t="s">
         <v>1263</v>
       </c>
@@ -17600,7 +17599,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="712" customHeight="1" spans="1:5">
+    <row r="712" hidden="1" customHeight="1" spans="1:5">
       <c r="A712" t="s">
         <v>1265</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="713" customHeight="1" spans="1:5">
+    <row r="713" hidden="1" customHeight="1" spans="1:5">
       <c r="A713" t="s">
         <v>1267</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="714" customHeight="1" spans="1:5">
+    <row r="714" hidden="1" customHeight="1" spans="1:5">
       <c r="A714" t="s">
         <v>1149</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="715" customHeight="1" spans="1:5">
+    <row r="715" hidden="1" customHeight="1" spans="1:5">
       <c r="A715" t="s">
         <v>1270</v>
       </c>
@@ -17668,7 +17667,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="716" customHeight="1" spans="1:5">
+    <row r="716" hidden="1" customHeight="1" spans="1:5">
       <c r="A716" t="s">
         <v>127</v>
       </c>
@@ -17685,7 +17684,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="717" customHeight="1" spans="1:5">
+    <row r="717" hidden="1" customHeight="1" spans="1:5">
       <c r="A717" t="s">
         <v>1273</v>
       </c>
@@ -17702,7 +17701,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="718" customHeight="1" spans="1:5">
+    <row r="718" hidden="1" customHeight="1" spans="1:5">
       <c r="A718" t="s">
         <v>1275</v>
       </c>
@@ -17719,7 +17718,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="719" customHeight="1" spans="1:5">
+    <row r="719" hidden="1" customHeight="1" spans="1:5">
       <c r="A719" t="s">
         <v>787</v>
       </c>
@@ -17736,7 +17735,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="720" customHeight="1" spans="1:5">
+    <row r="720" hidden="1" customHeight="1" spans="1:5">
       <c r="A720" t="s">
         <v>269</v>
       </c>
@@ -17753,7 +17752,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="721" customHeight="1" spans="1:5">
+    <row r="721" hidden="1" customHeight="1" spans="1:5">
       <c r="A721" t="s">
         <v>1155</v>
       </c>
@@ -17770,7 +17769,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="722" customHeight="1" spans="1:5">
+    <row r="722" hidden="1" customHeight="1" spans="1:5">
       <c r="A722" t="s">
         <v>1278</v>
       </c>
@@ -17787,7 +17786,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="723" customHeight="1" spans="1:5">
+    <row r="723" hidden="1" customHeight="1" spans="1:5">
       <c r="A723" t="s">
         <v>1280</v>
       </c>
@@ -17804,7 +17803,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="724" customHeight="1" spans="1:5">
+    <row r="724" hidden="1" customHeight="1" spans="1:5">
       <c r="A724" t="s">
         <v>1282</v>
       </c>
@@ -17821,7 +17820,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="725" customHeight="1" spans="1:5">
+    <row r="725" hidden="1" customHeight="1" spans="1:5">
       <c r="A725" t="s">
         <v>988</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="726" customHeight="1" spans="1:5">
+    <row r="726" hidden="1" customHeight="1" spans="1:5">
       <c r="A726" t="s">
         <v>1284</v>
       </c>
@@ -17855,7 +17854,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="727" customHeight="1" spans="1:5">
+    <row r="727" hidden="1" customHeight="1" spans="1:5">
       <c r="A727" t="s">
         <v>1286</v>
       </c>
@@ -17872,7 +17871,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="728" customHeight="1" spans="1:5">
+    <row r="728" hidden="1" customHeight="1" spans="1:5">
       <c r="A728" t="s">
         <v>1288</v>
       </c>
@@ -17889,7 +17888,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="729" customHeight="1" spans="1:5">
+    <row r="729" hidden="1" customHeight="1" spans="1:5">
       <c r="A729" t="s">
         <v>1187</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="730" customHeight="1" spans="1:5">
+    <row r="730" hidden="1" customHeight="1" spans="1:5">
       <c r="A730" t="s">
         <v>873</v>
       </c>
@@ -17923,7 +17922,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="731" customHeight="1" spans="1:5">
+    <row r="731" hidden="1" customHeight="1" spans="1:5">
       <c r="A731" t="s">
         <v>1292</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="732" customHeight="1" spans="1:5">
+    <row r="732" hidden="1" customHeight="1" spans="1:5">
       <c r="A732" t="s">
         <v>1294</v>
       </c>
@@ -17957,7 +17956,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="733" customHeight="1" spans="1:5">
+    <row r="733" hidden="1" customHeight="1" spans="1:5">
       <c r="A733" t="s">
         <v>1296</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="734" customHeight="1" spans="1:5">
+    <row r="734" hidden="1" customHeight="1" spans="1:5">
       <c r="A734" t="s">
         <v>1298</v>
       </c>
@@ -17991,7 +17990,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="735" customHeight="1" spans="1:5">
+    <row r="735" hidden="1" customHeight="1" spans="1:5">
       <c r="A735" t="s">
         <v>1300</v>
       </c>
@@ -18008,7 +18007,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="736" customHeight="1" spans="1:5">
+    <row r="736" hidden="1" customHeight="1" spans="1:5">
       <c r="A736" t="s">
         <v>169</v>
       </c>
@@ -18025,7 +18024,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="737" customHeight="1" spans="1:5">
+    <row r="737" hidden="1" customHeight="1" spans="1:5">
       <c r="A737" t="s">
         <v>1302</v>
       </c>
@@ -18042,7 +18041,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="738" customHeight="1" spans="1:5">
+    <row r="738" hidden="1" customHeight="1" spans="1:5">
       <c r="A738" t="s">
         <v>1303</v>
       </c>
@@ -18059,7 +18058,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="739" customHeight="1" spans="1:5">
+    <row r="739" hidden="1" customHeight="1" spans="1:5">
       <c r="A739" t="s">
         <v>91</v>
       </c>
@@ -18076,7 +18075,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="740" customHeight="1" spans="1:5">
+    <row r="740" hidden="1" customHeight="1" spans="1:5">
       <c r="A740" t="s">
         <v>1134</v>
       </c>
@@ -18093,7 +18092,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="741" customHeight="1" spans="1:5">
+    <row r="741" hidden="1" customHeight="1" spans="1:5">
       <c r="A741" t="s">
         <v>735</v>
       </c>
@@ -18110,7 +18109,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="742" customHeight="1" spans="1:5">
+    <row r="742" hidden="1" customHeight="1" spans="1:5">
       <c r="A742" t="s">
         <v>1306</v>
       </c>
@@ -18127,7 +18126,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="743" customHeight="1" spans="1:5">
+    <row r="743" hidden="1" customHeight="1" spans="1:5">
       <c r="A743" t="s">
         <v>1308</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="744" customHeight="1" spans="1:5">
+    <row r="744" hidden="1" customHeight="1" spans="1:5">
       <c r="A744" t="s">
         <v>833</v>
       </c>
@@ -18161,7 +18160,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="745" customHeight="1" spans="1:5">
+    <row r="745" hidden="1" customHeight="1" spans="1:5">
       <c r="A745" t="s">
         <v>1311</v>
       </c>
@@ -18178,7 +18177,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="746" customHeight="1" spans="1:5">
+    <row r="746" hidden="1" customHeight="1" spans="1:5">
       <c r="A746" t="s">
         <v>1312</v>
       </c>
@@ -18195,7 +18194,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="747" customHeight="1" spans="1:5">
+    <row r="747" hidden="1" customHeight="1" spans="1:5">
       <c r="A747" t="s">
         <v>1315</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="748" customHeight="1" spans="1:5">
+    <row r="748" hidden="1" customHeight="1" spans="1:5">
       <c r="A748" t="s">
         <v>1316</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="749" customHeight="1" spans="1:5">
+    <row r="749" hidden="1" customHeight="1" spans="1:5">
       <c r="A749" t="s">
         <v>1317</v>
       </c>
@@ -18246,7 +18245,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="750" customHeight="1" spans="1:5">
+    <row r="750" hidden="1" customHeight="1" spans="1:5">
       <c r="A750" t="s">
         <v>1318</v>
       </c>
@@ -18263,7 +18262,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="751" customHeight="1" spans="1:5">
+    <row r="751" hidden="1" customHeight="1" spans="1:5">
       <c r="A751" t="s">
         <v>1298</v>
       </c>
@@ -18280,7 +18279,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="752" customHeight="1" spans="1:5">
+    <row r="752" hidden="1" customHeight="1" spans="1:5">
       <c r="A752" t="s">
         <v>1321</v>
       </c>
@@ -18297,7 +18296,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="753" customHeight="1" spans="1:5">
+    <row r="753" hidden="1" customHeight="1" spans="1:5">
       <c r="A753" t="s">
         <v>1323</v>
       </c>
@@ -18314,7 +18313,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="754" customHeight="1" spans="1:5">
+    <row r="754" hidden="1" customHeight="1" spans="1:5">
       <c r="A754" t="s">
         <v>662</v>
       </c>
@@ -18331,7 +18330,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="755" customHeight="1" spans="1:5">
+    <row r="755" hidden="1" customHeight="1" spans="1:5">
       <c r="A755" t="s">
         <v>1326</v>
       </c>
@@ -18348,7 +18347,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="756" customHeight="1" spans="1:5">
+    <row r="756" hidden="1" customHeight="1" spans="1:5">
       <c r="A756" t="s">
         <v>1327</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="757" customHeight="1" spans="1:5">
+    <row r="757" hidden="1" customHeight="1" spans="1:5">
       <c r="A757" t="s">
         <v>698</v>
       </c>
@@ -18382,7 +18381,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="758" customHeight="1" spans="1:5">
+    <row r="758" hidden="1" customHeight="1" spans="1:5">
       <c r="A758" t="s">
         <v>1330</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="759" customHeight="1" spans="1:5">
+    <row r="759" hidden="1" customHeight="1" spans="1:5">
       <c r="A759" t="s">
         <v>1332</v>
       </c>
@@ -18416,7 +18415,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="760" customHeight="1" spans="1:5">
+    <row r="760" hidden="1" customHeight="1" spans="1:5">
       <c r="A760" t="s">
         <v>1278</v>
       </c>
@@ -18433,7 +18432,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="761" customHeight="1" spans="1:5">
+    <row r="761" hidden="1" customHeight="1" spans="1:5">
       <c r="A761" t="s">
         <v>1306</v>
       </c>
@@ -18450,7 +18449,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="762" customHeight="1" spans="1:5">
+    <row r="762" hidden="1" customHeight="1" spans="1:5">
       <c r="A762" t="s">
         <v>1335</v>
       </c>
@@ -18467,7 +18466,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="763" customHeight="1" spans="1:5">
+    <row r="763" hidden="1" customHeight="1" spans="1:5">
       <c r="A763" t="s">
         <v>811</v>
       </c>
@@ -18484,7 +18483,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="764" customHeight="1" spans="1:5">
+    <row r="764" hidden="1" customHeight="1" spans="1:5">
       <c r="A764" t="s">
         <v>1338</v>
       </c>
@@ -18501,7 +18500,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="765" customHeight="1" spans="1:5">
+    <row r="765" hidden="1" customHeight="1" spans="1:5">
       <c r="A765" t="s">
         <v>1341</v>
       </c>
@@ -18518,7 +18517,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="766" customHeight="1" spans="1:5">
+    <row r="766" hidden="1" customHeight="1" spans="1:5">
       <c r="A766" t="s">
         <v>1343</v>
       </c>
@@ -18535,7 +18534,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="767" customHeight="1" spans="1:5">
+    <row r="767" hidden="1" customHeight="1" spans="1:5">
       <c r="A767" t="s">
         <v>1345</v>
       </c>
@@ -18552,7 +18551,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="768" customHeight="1" spans="1:5">
+    <row r="768" hidden="1" customHeight="1" spans="1:5">
       <c r="A768" t="s">
         <v>1347</v>
       </c>
@@ -18569,7 +18568,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="769" customHeight="1" spans="1:5">
+    <row r="769" hidden="1" customHeight="1" spans="1:5">
       <c r="A769" t="s">
         <v>1349</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="770" customHeight="1" spans="1:5">
+    <row r="770" hidden="1" customHeight="1" spans="1:5">
       <c r="A770" t="s">
         <v>1349</v>
       </c>
@@ -18603,7 +18602,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="771" customHeight="1" spans="1:5">
+    <row r="771" hidden="1" customHeight="1" spans="1:5">
       <c r="A771" t="s">
         <v>1352</v>
       </c>
@@ -18620,7 +18619,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="772" customHeight="1" spans="1:5">
+    <row r="772" hidden="1" customHeight="1" spans="1:5">
       <c r="A772" t="s">
         <v>1354</v>
       </c>
@@ -18637,7 +18636,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="773" customHeight="1" spans="1:5">
+    <row r="773" hidden="1" customHeight="1" spans="1:5">
       <c r="A773" t="s">
         <v>140</v>
       </c>
@@ -18654,7 +18653,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="774" customHeight="1" spans="1:5">
+    <row r="774" hidden="1" customHeight="1" spans="1:5">
       <c r="A774" t="s">
         <v>55</v>
       </c>
@@ -18671,7 +18670,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="775" customHeight="1" spans="1:5">
+    <row r="775" hidden="1" customHeight="1" spans="1:5">
       <c r="A775" t="s">
         <v>1358</v>
       </c>
@@ -18688,7 +18687,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="776" customHeight="1" spans="1:5">
+    <row r="776" hidden="1" customHeight="1" spans="1:5">
       <c r="A776" t="s">
         <v>1360</v>
       </c>
@@ -18705,7 +18704,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="777" customHeight="1" spans="1:5">
+    <row r="777" hidden="1" customHeight="1" spans="1:5">
       <c r="A777" t="s">
         <v>1362</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="778" customHeight="1" spans="1:5">
+    <row r="778" hidden="1" customHeight="1" spans="1:5">
       <c r="A778" t="s">
         <v>1364</v>
       </c>
@@ -18739,7 +18738,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="779" customHeight="1" spans="1:5">
+    <row r="779" hidden="1" customHeight="1" spans="1:5">
       <c r="A779" t="s">
         <v>1366</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="780" customHeight="1" spans="1:5">
+    <row r="780" hidden="1" customHeight="1" spans="1:5">
       <c r="A780" t="s">
         <v>1252</v>
       </c>
@@ -18773,7 +18772,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="781" customHeight="1" spans="1:5">
+    <row r="781" hidden="1" customHeight="1" spans="1:5">
       <c r="A781" t="s">
         <v>1330</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="782" customHeight="1" spans="1:5">
+    <row r="782" hidden="1" customHeight="1" spans="1:5">
       <c r="A782" t="s">
         <v>1369</v>
       </c>
@@ -18807,7 +18806,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="783" customHeight="1" spans="1:5">
+    <row r="783" hidden="1" customHeight="1" spans="1:5">
       <c r="A783" t="s">
         <v>1371</v>
       </c>
@@ -18824,7 +18823,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="784" customHeight="1" spans="1:5">
+    <row r="784" hidden="1" customHeight="1" spans="1:5">
       <c r="A784" t="s">
         <v>730</v>
       </c>
@@ -18841,7 +18840,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="785" customHeight="1" spans="1:5">
+    <row r="785" hidden="1" customHeight="1" spans="1:5">
       <c r="A785" t="s">
         <v>101</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="786" customHeight="1" spans="1:5">
+    <row r="786" hidden="1" customHeight="1" spans="1:5">
       <c r="A786" t="s">
         <v>1375</v>
       </c>
@@ -18875,7 +18874,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="787" customHeight="1" spans="1:5">
+    <row r="787" hidden="1" customHeight="1" spans="1:5">
       <c r="A787" t="s">
         <v>1377</v>
       </c>
@@ -18892,7 +18891,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="788" customHeight="1" spans="1:5">
+    <row r="788" hidden="1" customHeight="1" spans="1:5">
       <c r="A788" t="s">
         <v>1379</v>
       </c>
@@ -18909,7 +18908,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="789" customHeight="1" spans="1:5">
+    <row r="789" hidden="1" customHeight="1" spans="1:5">
       <c r="A789" t="s">
         <v>1381</v>
       </c>
@@ -18926,7 +18925,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="790" customHeight="1" spans="1:5">
+    <row r="790" hidden="1" customHeight="1" spans="1:5">
       <c r="A790" t="s">
         <v>749</v>
       </c>
@@ -18943,7 +18942,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="791" customHeight="1" spans="1:5">
+    <row r="791" hidden="1" customHeight="1" spans="1:5">
       <c r="A791" t="s">
         <v>1384</v>
       </c>
@@ -18960,7 +18959,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="792" customHeight="1" spans="1:5">
+    <row r="792" hidden="1" customHeight="1" spans="1:5">
       <c r="A792" t="s">
         <v>1386</v>
       </c>
@@ -18977,7 +18976,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="793" customHeight="1" spans="1:5">
+    <row r="793" hidden="1" customHeight="1" spans="1:5">
       <c r="A793" t="s">
         <v>1388</v>
       </c>
@@ -18994,7 +18993,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="794" customHeight="1" spans="1:5">
+    <row r="794" hidden="1" customHeight="1" spans="1:5">
       <c r="A794" t="s">
         <v>1390</v>
       </c>
@@ -19011,7 +19010,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="795" customHeight="1" spans="1:5">
+    <row r="795" hidden="1" customHeight="1" spans="1:5">
       <c r="A795" t="s">
         <v>1392</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="796" customHeight="1" spans="1:5">
+    <row r="796" hidden="1" customHeight="1" spans="1:5">
       <c r="A796" t="s">
         <v>1393</v>
       </c>
@@ -19045,7 +19044,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="797" customHeight="1" spans="1:5">
+    <row r="797" hidden="1" customHeight="1" spans="1:5">
       <c r="A797" t="s">
         <v>1395</v>
       </c>
@@ -19062,7 +19061,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="798" customHeight="1" spans="1:5">
+    <row r="798" hidden="1" customHeight="1" spans="1:5">
       <c r="A798" t="s">
         <v>1396</v>
       </c>
@@ -19079,7 +19078,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="799" customHeight="1" spans="1:5">
+    <row r="799" hidden="1" customHeight="1" spans="1:5">
       <c r="A799" t="s">
         <v>1398</v>
       </c>
@@ -19096,7 +19095,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="800" customHeight="1" spans="1:5">
+    <row r="800" hidden="1" customHeight="1" spans="1:5">
       <c r="A800" t="s">
         <v>1400</v>
       </c>
@@ -19113,7 +19112,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="801" customHeight="1" spans="1:5">
+    <row r="801" hidden="1" customHeight="1" spans="1:5">
       <c r="A801" t="s">
         <v>1402</v>
       </c>
@@ -19130,7 +19129,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="802" customHeight="1" spans="1:5">
+    <row r="802" hidden="1" customHeight="1" spans="1:5">
       <c r="A802" t="s">
         <v>1403</v>
       </c>
@@ -19147,7 +19146,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="803" customHeight="1" spans="1:5">
+    <row r="803" hidden="1" customHeight="1" spans="1:5">
       <c r="A803" t="s">
         <v>1405</v>
       </c>
@@ -19164,7 +19163,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="804" customHeight="1" spans="1:5">
+    <row r="804" hidden="1" customHeight="1" spans="1:5">
       <c r="A804" t="s">
         <v>1136</v>
       </c>
@@ -19181,7 +19180,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="805" customHeight="1" spans="1:5">
+    <row r="805" hidden="1" customHeight="1" spans="1:5">
       <c r="A805" t="s">
         <v>1408</v>
       </c>
@@ -19198,7 +19197,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="806" customHeight="1" spans="1:5">
+    <row r="806" hidden="1" customHeight="1" spans="1:5">
       <c r="A806" t="s">
         <v>1410</v>
       </c>
@@ -19215,7 +19214,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="807" customHeight="1" spans="1:5">
+    <row r="807" hidden="1" customHeight="1" spans="1:5">
       <c r="A807" t="s">
         <v>1412</v>
       </c>
@@ -19232,7 +19231,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="808" customHeight="1" spans="1:5">
+    <row r="808" hidden="1" customHeight="1" spans="1:5">
       <c r="A808" t="s">
         <v>1414</v>
       </c>
@@ -19249,7 +19248,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="809" customHeight="1" spans="1:5">
+    <row r="809" hidden="1" customHeight="1" spans="1:5">
       <c r="A809" t="s">
         <v>1416</v>
       </c>
@@ -19266,7 +19265,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="810" customHeight="1" spans="1:5">
+    <row r="810" hidden="1" customHeight="1" spans="1:5">
       <c r="A810" t="s">
         <v>1418</v>
       </c>
@@ -19283,7 +19282,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="811" customHeight="1" spans="1:5">
+    <row r="811" hidden="1" customHeight="1" spans="1:5">
       <c r="A811" t="s">
         <v>1421</v>
       </c>
@@ -19300,7 +19299,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="812" customHeight="1" spans="1:5">
+    <row r="812" hidden="1" customHeight="1" spans="1:5">
       <c r="A812" t="s">
         <v>1422</v>
       </c>
@@ -19317,7 +19316,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="813" customHeight="1" spans="1:5">
+    <row r="813" hidden="1" customHeight="1" spans="1:5">
       <c r="A813" t="s">
         <v>1423</v>
       </c>
@@ -19334,7 +19333,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="814" customHeight="1" spans="1:5">
+    <row r="814" hidden="1" customHeight="1" spans="1:5">
       <c r="A814" t="s">
         <v>1425</v>
       </c>
@@ -19351,7 +19350,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="815" customHeight="1" spans="1:5">
+    <row r="815" hidden="1" customHeight="1" spans="1:5">
       <c r="A815" t="s">
         <v>857</v>
       </c>
@@ -19368,7 +19367,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="816" customHeight="1" spans="1:5">
+    <row r="816" hidden="1" customHeight="1" spans="1:5">
       <c r="A816" t="s">
         <v>1428</v>
       </c>
@@ -19385,7 +19384,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="817" customHeight="1" spans="1:5">
+    <row r="817" hidden="1" customHeight="1" spans="1:5">
       <c r="A817" t="s">
         <v>1429</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="818" customHeight="1" spans="1:5">
+    <row r="818" hidden="1" customHeight="1" spans="1:5">
       <c r="A818" t="s">
         <v>1430</v>
       </c>
@@ -19419,7 +19418,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="819" customHeight="1" spans="1:5">
+    <row r="819" hidden="1" customHeight="1" spans="1:5">
       <c r="A819" t="s">
         <v>1432</v>
       </c>
@@ -19436,7 +19435,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="820" customHeight="1" spans="1:5">
+    <row r="820" hidden="1" customHeight="1" spans="1:5">
       <c r="A820" t="s">
         <v>1433</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="821" customHeight="1" spans="1:5">
+    <row r="821" hidden="1" customHeight="1" spans="1:5">
       <c r="A821" t="s">
         <v>1434</v>
       </c>
@@ -19470,7 +19469,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="822" customHeight="1" spans="1:5">
+    <row r="822" hidden="1" customHeight="1" spans="1:5">
       <c r="A822" t="s">
         <v>1436</v>
       </c>
@@ -19487,7 +19486,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="823" customHeight="1" spans="1:5">
+    <row r="823" hidden="1" customHeight="1" spans="1:5">
       <c r="A823" t="s">
         <v>1437</v>
       </c>
@@ -19504,7 +19503,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="824" customHeight="1" spans="1:5">
+    <row r="824" hidden="1" customHeight="1" spans="1:5">
       <c r="A824" t="s">
         <v>1439</v>
       </c>
@@ -19521,7 +19520,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="825" customHeight="1" spans="1:5">
+    <row r="825" hidden="1" customHeight="1" spans="1:5">
       <c r="A825" t="s">
         <v>1441</v>
       </c>
@@ -19538,7 +19537,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="826" customHeight="1" spans="1:5">
+    <row r="826" hidden="1" customHeight="1" spans="1:5">
       <c r="A826" t="s">
         <v>1442</v>
       </c>
@@ -19555,7 +19554,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="827" customHeight="1" spans="1:5">
+    <row r="827" hidden="1" customHeight="1" spans="1:5">
       <c r="A827" t="s">
         <v>1444</v>
       </c>
@@ -19572,7 +19571,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="828" customHeight="1" spans="1:5">
+    <row r="828" hidden="1" customHeight="1" spans="1:5">
       <c r="A828" t="s">
         <v>1446</v>
       </c>
@@ -19589,7 +19588,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="829" customHeight="1" spans="1:5">
+    <row r="829" hidden="1" customHeight="1" spans="1:5">
       <c r="A829" t="s">
         <v>535</v>
       </c>
@@ -19606,7 +19605,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="830" customHeight="1" spans="1:5">
+    <row r="830" hidden="1" customHeight="1" spans="1:5">
       <c r="A830" t="s">
         <v>550</v>
       </c>
@@ -19623,7 +19622,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="831" customHeight="1" spans="1:5">
+    <row r="831" hidden="1" customHeight="1" spans="1:5">
       <c r="A831" t="s">
         <v>1449</v>
       </c>
@@ -19640,7 +19639,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="832" customHeight="1" spans="1:5">
+    <row r="832" hidden="1" customHeight="1" spans="1:5">
       <c r="A832" t="s">
         <v>1451</v>
       </c>
@@ -19657,7 +19656,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="833" customHeight="1" spans="1:5">
+    <row r="833" hidden="1" customHeight="1" spans="1:5">
       <c r="A833" t="s">
         <v>614</v>
       </c>
@@ -19674,7 +19673,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="834" customHeight="1" spans="1:5">
+    <row r="834" hidden="1" customHeight="1" spans="1:5">
       <c r="A834" t="s">
         <v>1452</v>
       </c>
@@ -19691,7 +19690,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="835" customHeight="1" spans="1:5">
+    <row r="835" hidden="1" customHeight="1" spans="1:5">
       <c r="A835" t="s">
         <v>1453</v>
       </c>
@@ -19708,7 +19707,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="836" customHeight="1" spans="1:5">
+    <row r="836" hidden="1" customHeight="1" spans="1:5">
       <c r="A836" t="s">
         <v>634</v>
       </c>
@@ -19725,7 +19724,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="837" customHeight="1" spans="1:5">
+    <row r="837" hidden="1" customHeight="1" spans="1:5">
       <c r="A837" t="s">
         <v>1455</v>
       </c>
@@ -19742,7 +19741,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="838" customHeight="1" spans="1:5">
+    <row r="838" hidden="1" customHeight="1" spans="1:5">
       <c r="A838" t="s">
         <v>1457</v>
       </c>
@@ -19759,7 +19758,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="839" customHeight="1" spans="1:5">
+    <row r="839" hidden="1" customHeight="1" spans="1:5">
       <c r="A839" t="s">
         <v>1459</v>
       </c>
@@ -19776,7 +19775,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="840" customHeight="1" spans="1:5">
+    <row r="840" hidden="1" customHeight="1" spans="1:5">
       <c r="A840" t="s">
         <v>1460</v>
       </c>
@@ -19793,7 +19792,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="841" customHeight="1" spans="1:5">
+    <row r="841" hidden="1" customHeight="1" spans="1:5">
       <c r="A841" t="s">
         <v>1462</v>
       </c>
@@ -19810,7 +19809,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="842" customHeight="1" spans="1:5">
+    <row r="842" hidden="1" customHeight="1" spans="1:5">
       <c r="A842" t="s">
         <v>742</v>
       </c>
@@ -19827,7 +19826,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="843" customHeight="1" spans="1:5">
+    <row r="843" hidden="1" customHeight="1" spans="1:5">
       <c r="A843" t="s">
         <v>1465</v>
       </c>
@@ -19844,7 +19843,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="844" customHeight="1" spans="1:5">
+    <row r="844" hidden="1" customHeight="1" spans="1:5">
       <c r="A844" t="s">
         <v>1467</v>
       </c>
@@ -19861,7 +19860,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="845" customHeight="1" spans="1:5">
+    <row r="845" hidden="1" customHeight="1" spans="1:5">
       <c r="A845" t="s">
         <v>803</v>
       </c>
@@ -19878,7 +19877,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="846" customHeight="1" spans="1:5">
+    <row r="846" hidden="1" customHeight="1" spans="1:5">
       <c r="A846" t="s">
         <v>1470</v>
       </c>
@@ -19895,7 +19894,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="847" customHeight="1" spans="1:5">
+    <row r="847" hidden="1" customHeight="1" spans="1:5">
       <c r="A847" t="s">
         <v>1472</v>
       </c>
@@ -19912,7 +19911,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="848" customHeight="1" spans="1:5">
+    <row r="848" hidden="1" customHeight="1" spans="1:5">
       <c r="A848" t="s">
         <v>1474</v>
       </c>
@@ -19929,7 +19928,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="849" customHeight="1" spans="1:5">
+    <row r="849" hidden="1" customHeight="1" spans="1:5">
       <c r="A849" t="s">
         <v>1476</v>
       </c>
@@ -20389,24 +20388,29 @@
       </c>
     </row>
     <row r="876" customHeight="1" spans="1:5">
-      <c r="A876" s="4" t="s">
+      <c r="A876" t="s">
         <v>1510</v>
       </c>
-      <c r="B876" s="4" t="s">
+      <c r="B876" t="s">
         <v>1218</v>
       </c>
-      <c r="C876" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D876" s="4" t="s">
+      <c r="C876" t="s">
+        <v>7</v>
+      </c>
+      <c r="D876" t="s">
         <v>205</v>
       </c>
-      <c r="E876" s="4" t="s">
+      <c r="E876" t="s">
         <v>1479</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E875" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E876" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="MCIL3"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
